--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D7CA2-60A9-1049-8ED8-3D2EE5A633E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7D2A9F-A23C-AB41-90BD-48E6FF27B66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="800" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
+    <workbookView xWindow="780" yWindow="740" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="238">
   <si>
     <t>144</t>
   </si>
@@ -691,6 +691,60 @@
   </si>
   <si>
     <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Spiral Matrix II</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Sparse Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Range Addition</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Best Meeting Point</t>
+  </si>
+  <si>
+    <t>Bomb Enemy</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
   </si>
 </sst>
 </file>
@@ -760,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -770,8 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1088,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2443,19 +2495,19 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B115" s="11"/>
+      <c r="B115" s="9"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="11"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B117" s="11"/>
+      <c r="B117" s="9"/>
     </row>
     <row r="118" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="11"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
@@ -3392,22 +3444,18 @@
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="7"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2</v>
@@ -3416,51 +3464,43 @@
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B210" s="11"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B211" s="11"/>
-    </row>
-    <row r="212" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212" s="7"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B212" s="11"/>
-    </row>
-    <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A213" s="7" t="s">
+      <c r="B213" s="9"/>
+    </row>
+    <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A214" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B213" s="8"/>
-      <c r="C213" s="7" t="s">
+      <c r="B214" s="8"/>
+      <c r="C214" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A214" s="7">
-        <v>261</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214" s="7"/>
     </row>
     <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
@@ -3469,62 +3509,62 @@
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
+        <v>323</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217" s="7">
         <v>305</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B217" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B217" s="11"/>
-    </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B218" s="11"/>
-    </row>
-    <row r="219" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="s">
+      <c r="B218" s="9"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B219" s="9"/>
+    </row>
+    <row r="220" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B219" s="11"/>
-    </row>
-    <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A220" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B220" s="8"/>
-      <c r="C220" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B220" s="9"/>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B221" s="8"/>
+      <c r="C221" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A222" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-    </row>
-    <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="7">
-        <v>133</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B222" s="8"/>
+      <c r="C222" s="7"/>
       <c r="D222" s="7"/>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
@@ -3533,74 +3573,74 @@
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
+        <v>399</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="7"/>
+    </row>
+    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A225" s="7">
         <v>310</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B225" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D224" s="7"/>
-    </row>
-    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A225" s="7" t="s">
+      <c r="C225" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="7"/>
+    </row>
+    <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A226" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B225" s="9"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-    </row>
-    <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="7">
+      <c r="B226" s="8"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+    </row>
+    <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A227" s="7">
         <v>149</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B227" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" s="7"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B227" s="10"/>
+      <c r="C227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="7"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B228" s="10"/>
-    </row>
-    <row r="229" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
+      <c r="B228" s="9"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B229" s="9"/>
+    </row>
+    <row r="230" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B229" s="10"/>
-    </row>
-    <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A230" s="7" t="s">
+      <c r="B230" s="9"/>
+    </row>
+    <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A231" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B230" s="9"/>
-      <c r="C230" s="7" t="s">
+      <c r="B231" s="8"/>
+      <c r="C231" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A231" s="7">
-        <v>211</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D231" s="7"/>
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>208</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -3610,15 +3650,241 @@
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
+        <v>211</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="7"/>
+    </row>
+    <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="7">
         <v>212</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B234" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D233" s="7"/>
+      <c r="C234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="7"/>
+    </row>
+    <row r="237" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="7">
+        <v>48</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="7"/>
+    </row>
+    <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A240" s="7">
+        <v>54</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="7"/>
+    </row>
+    <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A241" s="7">
+        <v>59</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="7"/>
+    </row>
+    <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A242" s="7">
+        <v>73</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A243" s="7">
+        <v>311</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="7"/>
+    </row>
+    <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A244" s="7">
+        <v>329</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="7"/>
+    </row>
+    <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A245" s="7">
+        <v>378</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="7"/>
+    </row>
+    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="7">
+        <v>74</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A247" s="7">
+        <v>240</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A248" s="7">
+        <v>370</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="7"/>
+    </row>
+    <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A249" s="7">
+        <v>79</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="7"/>
+    </row>
+    <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A250" s="7">
+        <v>296</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="7"/>
+    </row>
+    <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A251" s="7">
+        <v>361</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="7"/>
+    </row>
+    <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A252" s="7">
+        <v>317</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="7"/>
+    </row>
+    <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A253" s="7">
+        <v>302</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="7"/>
+    </row>
+    <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A254" s="7">
+        <v>36</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="7"/>
+    </row>
+    <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A255" s="7">
+        <v>37</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3737,16 +4003,16 @@
     <hyperlink ref="C205" r:id="rId112" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
     <hyperlink ref="B206" r:id="rId113" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
     <hyperlink ref="C206" r:id="rId114" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B207" r:id="rId115" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C207" r:id="rId116" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B208" r:id="rId117" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C208" r:id="rId118" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B209" r:id="rId119" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B214" r:id="rId120" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C214" r:id="rId121" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B215" r:id="rId122" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C215" r:id="rId123" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B216" r:id="rId124" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
+    <hyperlink ref="B208" r:id="rId115" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
+    <hyperlink ref="C208" r:id="rId116" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
+    <hyperlink ref="B209" r:id="rId117" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
+    <hyperlink ref="C209" r:id="rId118" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
+    <hyperlink ref="B207" r:id="rId119" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
+    <hyperlink ref="B215" r:id="rId120" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
+    <hyperlink ref="C215" r:id="rId121" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
+    <hyperlink ref="B216" r:id="rId122" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
+    <hyperlink ref="C216" r:id="rId123" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
+    <hyperlink ref="B217" r:id="rId124" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
     <hyperlink ref="B85" r:id="rId125" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
     <hyperlink ref="C85" r:id="rId126" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
     <hyperlink ref="B87" r:id="rId127" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
@@ -3963,20 +4229,53 @@
     <hyperlink ref="C66" r:id="rId338" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
     <hyperlink ref="B67" r:id="rId339" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
     <hyperlink ref="C67" r:id="rId340" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B222" r:id="rId341" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C222" r:id="rId342" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B223" r:id="rId343" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C223" r:id="rId344" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B224" r:id="rId345" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C224" r:id="rId346" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
-    <hyperlink ref="B226" r:id="rId347" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
-    <hyperlink ref="C226" r:id="rId348" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
-    <hyperlink ref="B231" r:id="rId349" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
-    <hyperlink ref="C231" r:id="rId350" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
+    <hyperlink ref="B223" r:id="rId341" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
+    <hyperlink ref="C223" r:id="rId342" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
+    <hyperlink ref="B224" r:id="rId343" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
+    <hyperlink ref="C224" r:id="rId344" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
+    <hyperlink ref="B225" r:id="rId345" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
+    <hyperlink ref="C225" r:id="rId346" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B227" r:id="rId347" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
+    <hyperlink ref="C227" r:id="rId348" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
+    <hyperlink ref="B233" r:id="rId349" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
+    <hyperlink ref="C233" r:id="rId350" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
     <hyperlink ref="B232" r:id="rId351" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
     <hyperlink ref="C232" r:id="rId352" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
-    <hyperlink ref="B233" r:id="rId353" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
-    <hyperlink ref="C233" r:id="rId354" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B234" r:id="rId353" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
+    <hyperlink ref="C234" r:id="rId354" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B239" r:id="rId355" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
+    <hyperlink ref="C239" r:id="rId356" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
+    <hyperlink ref="B240" r:id="rId357" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
+    <hyperlink ref="C240" r:id="rId358" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
+    <hyperlink ref="B241" r:id="rId359" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
+    <hyperlink ref="C241" r:id="rId360" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
+    <hyperlink ref="B242" r:id="rId361" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
+    <hyperlink ref="C242" r:id="rId362" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
+    <hyperlink ref="B243" r:id="rId363" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
+    <hyperlink ref="C243" r:id="rId364" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
+    <hyperlink ref="B244" r:id="rId365" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
+    <hyperlink ref="C244" r:id="rId366" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
+    <hyperlink ref="B245" r:id="rId367" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
+    <hyperlink ref="C245" r:id="rId368" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
+    <hyperlink ref="B246" r:id="rId369" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
+    <hyperlink ref="C246" r:id="rId370" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
+    <hyperlink ref="B247" r:id="rId371" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
+    <hyperlink ref="C247" r:id="rId372" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
+    <hyperlink ref="B248" r:id="rId373" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
+    <hyperlink ref="C248" r:id="rId374" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
+    <hyperlink ref="B249" r:id="rId375" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
+    <hyperlink ref="C249" r:id="rId376" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
+    <hyperlink ref="B250" r:id="rId377" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
+    <hyperlink ref="C250" r:id="rId378" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
+    <hyperlink ref="B251" r:id="rId379" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
+    <hyperlink ref="C251" r:id="rId380" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
+    <hyperlink ref="B252" r:id="rId381" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
+    <hyperlink ref="C252" r:id="rId382" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
+    <hyperlink ref="B253" r:id="rId383" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
+    <hyperlink ref="C253" r:id="rId384" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
+    <hyperlink ref="B254" r:id="rId385" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
+    <hyperlink ref="C254" r:id="rId386" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
+    <hyperlink ref="B255" r:id="rId387" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7D2A9F-A23C-AB41-90BD-48E6FF27B66D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E483CE-EE63-0544-A59E-C796885E10C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="740" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -787,18 +787,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -814,11 +808,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1142,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,34 +1145,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1188,10 +1181,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1200,10 +1193,10 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1212,10 +1205,10 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>387</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1224,10 +1217,10 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>383</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1236,10 +1229,10 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>344</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1248,10 +1241,10 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1260,10 +1253,10 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>186</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1272,10 +1265,10 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>345</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1284,10 +1277,10 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1296,10 +1289,10 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>293</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1308,10 +1301,10 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>294</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1320,10 +1313,10 @@
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>290</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1332,10 +1325,10 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>242</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1344,10 +1337,10 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1356,10 +1349,10 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>249</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1368,10 +1361,10 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1380,10 +1373,10 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1392,12 +1385,12 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1406,12 +1399,12 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1420,10 +1413,10 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1432,10 +1425,10 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>358</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1444,10 +1437,10 @@
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>316</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1456,10 +1449,10 @@
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>271</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1468,10 +1461,10 @@
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>168</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1480,10 +1473,10 @@
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>171</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1492,10 +1485,10 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1504,10 +1497,10 @@
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1516,10 +1509,10 @@
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>273</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1528,10 +1521,10 @@
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>246</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1540,10 +1533,10 @@
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>247</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1552,10 +1545,10 @@
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>248</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1564,20 +1557,20 @@
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>157</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1586,10 +1579,10 @@
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>158</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1598,10 +1591,10 @@
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1610,10 +1603,10 @@
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1622,18 +1615,18 @@
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1642,12 +1635,12 @@
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1656,12 +1649,12 @@
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1670,12 +1663,12 @@
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>340</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1684,12 +1677,12 @@
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>395</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1698,12 +1691,12 @@
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>159</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1712,20 +1705,20 @@
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>125</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1734,10 +1727,10 @@
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>266</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1746,10 +1739,10 @@
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1758,10 +1751,10 @@
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1770,10 +1763,10 @@
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>214</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1782,10 +1775,10 @@
       <c r="C53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>336</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1794,10 +1787,10 @@
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>131</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1806,10 +1799,10 @@
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>132</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1818,10 +1811,10 @@
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>267</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1830,18 +1823,18 @@
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>20</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1850,10 +1843,10 @@
       <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>22</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1862,10 +1855,10 @@
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>32</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1874,10 +1867,10 @@
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>241</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1886,10 +1879,10 @@
       <c r="C62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>301</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -1898,18 +1891,18 @@
       <c r="C63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>392</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -1918,10 +1911,10 @@
       <c r="C65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -1930,10 +1923,10 @@
       <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>187</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -1944,19 +1937,19 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1964,7 +1957,7 @@
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -1976,7 +1969,7 @@
       <c r="A73" s="1">
         <v>94</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -1988,7 +1981,7 @@
       <c r="A74" s="1">
         <v>145</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2000,7 +1993,7 @@
       <c r="A75" s="1">
         <v>102</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2012,7 +2005,7 @@
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="5"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
@@ -2020,7 +2013,7 @@
       <c r="A77" s="1">
         <v>100</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2032,7 +2025,7 @@
       <c r="A78" s="1">
         <v>101</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2044,7 +2037,7 @@
       <c r="A79" s="1">
         <v>226</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2058,7 +2051,7 @@
       <c r="A80" s="1">
         <v>257</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2070,7 +2063,7 @@
       <c r="A81" s="1">
         <v>112</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2082,7 +2075,7 @@
       <c r="A82" s="1">
         <v>113</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2094,7 +2087,7 @@
       <c r="A83" s="1">
         <v>129</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2106,7 +2099,7 @@
       <c r="A84" s="1">
         <v>298</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2118,7 +2111,7 @@
       <c r="A85" s="1">
         <v>111</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2130,7 +2123,7 @@
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
@@ -2138,7 +2131,7 @@
       <c r="A87" s="1">
         <v>104</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2150,7 +2143,7 @@
       <c r="A88" s="1">
         <v>110</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2162,7 +2155,7 @@
       <c r="A89" s="1">
         <v>124</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2174,7 +2167,7 @@
       <c r="A90" s="1">
         <v>250</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2186,7 +2179,7 @@
       <c r="A91" s="1">
         <v>366</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2198,7 +2191,7 @@
       <c r="A92" s="1">
         <v>337</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -2212,7 +2205,7 @@
       <c r="A93" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B93" s="5"/>
+      <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
@@ -2220,7 +2213,7 @@
       <c r="A94" s="1">
         <v>107</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2232,7 +2225,7 @@
       <c r="A95" s="1">
         <v>103</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2244,7 +2237,7 @@
       <c r="A96" s="1">
         <v>199</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -2258,7 +2251,7 @@
       <c r="A97" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="5"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
@@ -2266,7 +2259,7 @@
       <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2280,7 +2273,7 @@
       <c r="A99" s="1">
         <v>235</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -2294,7 +2287,7 @@
       <c r="A100" s="1">
         <v>236</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2308,7 +2301,7 @@
       <c r="A101" s="1">
         <v>108</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -2322,7 +2315,7 @@
       <c r="A102" s="1">
         <v>109</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -2336,7 +2329,7 @@
       <c r="A103" s="1">
         <v>173</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -2350,7 +2343,7 @@
       <c r="A104" s="1">
         <v>230</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -2364,7 +2357,7 @@
       <c r="A105" s="1">
         <v>297</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -2378,7 +2371,7 @@
       <c r="A106" s="1">
         <v>285</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -2392,7 +2385,7 @@
       <c r="A107" s="1">
         <v>270</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -2406,7 +2399,7 @@
       <c r="A108" s="1">
         <v>272</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -2420,7 +2413,7 @@
       <c r="A109" s="1">
         <v>99</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2434,7 +2427,7 @@
       <c r="A110" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B110" s="5"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
@@ -2442,7 +2435,7 @@
       <c r="A111" s="1">
         <v>116</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -2456,7 +2449,7 @@
       <c r="A112" s="1">
         <v>117</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -2470,7 +2463,7 @@
       <c r="A113" s="1">
         <v>314</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -2484,7 +2477,7 @@
       <c r="A114" s="1">
         <v>96</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -2495,883 +2488,883 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B115" s="9"/>
+      <c r="B115" s="8"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="9"/>
+      <c r="B116" s="8"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B117" s="9"/>
+      <c r="B117" s="8"/>
     </row>
     <row r="118" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="9"/>
+      <c r="B118" s="8"/>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7" t="s">
+      <c r="B119" s="7"/>
+      <c r="C119" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>78</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>90</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="7"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>77</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="7"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>39</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="7"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>40</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="7"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>216</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="7"/>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>377</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>254</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="7"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>46</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>47</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="7"/>
+      <c r="D129" s="6"/>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>31</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>60</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>291</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="7"/>
+      <c r="D132" s="6"/>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>17</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="7"/>
+      <c r="D133" s="6"/>
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>320</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D134" s="7"/>
+      <c r="D134" s="6"/>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>282</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="7"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="7">
+      <c r="A136" s="6">
         <v>140</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D136" s="7"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>351</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7" t="s">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>70</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="7"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>62</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="7"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>63</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="6"/>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>279</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D146" s="7"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>139</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="7"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>375</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="7"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>312</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="7"/>
+      <c r="D149" s="6"/>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>322</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="7"/>
+      <c r="D150" s="6"/>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>256</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>265</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>64</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>72</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="7"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>97</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D156" s="7"/>
+      <c r="D156" s="6"/>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>174</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="7"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>221</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="7"/>
+      <c r="D158" s="6"/>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>85</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D159" s="6"/>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>363</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>198</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D162" s="7"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>213</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D163" s="7"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>276</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D164" s="7"/>
+      <c r="D164" s="6"/>
     </row>
     <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>91</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="7"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="7">
+      <c r="A166" s="6">
         <v>10</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="7"/>
+      <c r="D166" s="6"/>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>44</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7" t="s">
+      <c r="B171" s="6"/>
+      <c r="C171" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>206</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>141</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="7"/>
+      <c r="D174" s="6"/>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>24</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="7"/>
+      <c r="D175" s="6"/>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>328</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="7"/>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>92</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="7"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>237</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="7"/>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>19</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="7"/>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>83</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="7"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>203</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="7"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>82</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D182" s="7"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>369</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="7"/>
+      <c r="D183" s="6"/>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="7">
-        <v>2</v>
-      </c>
-      <c r="B184" s="4" t="s">
+      <c r="A184" s="6">
+        <v>2</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="6"/>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>160</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="7"/>
+      <c r="D185" s="6"/>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>21</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="7"/>
+      <c r="D186" s="6"/>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>234</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="7"/>
+      <c r="D188" s="6"/>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>143</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="6"/>
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="7">
+      <c r="A190" s="6">
         <v>142</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="7"/>
+      <c r="D190" s="6"/>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>148</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D191" s="7"/>
+      <c r="D191" s="6"/>
     </row>
     <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="7">
+      <c r="A192" s="6">
         <v>25</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D192" s="7"/>
+      <c r="D192" s="6"/>
     </row>
     <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A193" s="7">
+      <c r="A193" s="6">
         <v>61</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D193" s="7"/>
+      <c r="D193" s="6"/>
     </row>
     <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="7">
+      <c r="A194" s="6">
         <v>86</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D194" s="7"/>
+      <c r="D194" s="6"/>
     </row>
     <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="7">
+      <c r="A195" s="6">
         <v>23</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D195" s="7"/>
+      <c r="D195" s="6"/>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="7">
+      <c r="A196" s="6">
         <v>147</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7" t="s">
+      <c r="B200" s="6"/>
+      <c r="C200" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -3380,10 +3373,10 @@
       <c r="C201" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="7"/>
+      <c r="D201" s="6"/>
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="7">
+      <c r="A202" s="6">
         <v>286</v>
       </c>
       <c r="B202" s="3" t="s">
@@ -3392,10 +3385,10 @@
       <c r="C202" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D202" s="7"/>
+      <c r="D202" s="6"/>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>130</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -3404,10 +3397,10 @@
       <c r="C203" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D203" s="7"/>
+      <c r="D203" s="6"/>
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="7">
+      <c r="A204" s="6">
         <v>339</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -3416,10 +3409,10 @@
       <c r="C204" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="6"/>
     </row>
     <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="7">
+      <c r="A205" s="6">
         <v>364</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -3428,10 +3421,10 @@
       <c r="C205" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="7"/>
+      <c r="D205" s="6"/>
     </row>
     <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="7">
+      <c r="A206" s="6">
         <v>127</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -3440,10 +3433,10 @@
       <c r="C206" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="7"/>
+      <c r="D206" s="6"/>
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="7">
+      <c r="A207" s="6">
         <v>126</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -3451,7 +3444,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="7">
+      <c r="A208" s="6">
         <v>51</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -3460,10 +3453,10 @@
       <c r="C208" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D208" s="7"/>
+      <c r="D208" s="6"/>
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="7">
+      <c r="A209" s="6">
         <v>52</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -3472,222 +3465,222 @@
       <c r="C209" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D209" s="7"/>
+      <c r="D209" s="6"/>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="7"/>
-      <c r="B212" s="4"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="3"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="7"/>
+      <c r="D212" s="6"/>
     </row>
     <row r="213" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B213" s="9"/>
+      <c r="B213" s="8"/>
     </row>
     <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B214" s="8"/>
-      <c r="C214" s="7" t="s">
+      <c r="B214" s="7"/>
+      <c r="C214" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A215" s="7">
+      <c r="A215" s="6">
         <v>261</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D215" s="7"/>
+      <c r="D215" s="6"/>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A216" s="7">
+      <c r="A216" s="6">
         <v>323</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D216" s="7"/>
+      <c r="D216" s="6"/>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="7">
+      <c r="A217" s="6">
         <v>305</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B218" s="9"/>
+      <c r="B218" s="8"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B219" s="9"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B220" s="9"/>
+      <c r="B220" s="8"/>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="7" t="s">
+      <c r="B221" s="7"/>
+      <c r="C221" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A223" s="7">
+      <c r="A223" s="6">
         <v>133</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D223" s="7"/>
+      <c r="D223" s="6"/>
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A224" s="7">
+      <c r="A224" s="6">
         <v>399</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D224" s="7"/>
+      <c r="D224" s="6"/>
     </row>
     <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A225" s="7">
+      <c r="A225" s="6">
         <v>310</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D225" s="7"/>
+      <c r="D225" s="6"/>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B226" s="8"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="7">
+      <c r="A227" s="6">
         <v>149</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D227" s="7"/>
+      <c r="D227" s="6"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B228" s="9"/>
+      <c r="B228" s="8"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B229" s="9"/>
+      <c r="B229" s="8"/>
     </row>
     <row r="230" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B230" s="9"/>
+      <c r="B230" s="8"/>
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B231" s="8"/>
-      <c r="C231" s="7" t="s">
+      <c r="B231" s="7"/>
+      <c r="C231" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A232" s="7">
+      <c r="A232" s="6">
         <v>208</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D232" s="7"/>
+      <c r="D232" s="6"/>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A233" s="7">
+      <c r="A233" s="6">
         <v>211</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D233" s="7"/>
+      <c r="D233" s="6"/>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="7">
+      <c r="A234" s="6">
         <v>212</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D234" s="7"/>
+      <c r="D234" s="6"/>
     </row>
     <row r="237" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="7" t="s">
+      <c r="A238" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B238" s="7"/>
-      <c r="C238" s="7" t="s">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="7">
+      <c r="A239" s="6">
         <v>48</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -3696,10 +3689,10 @@
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D239" s="7"/>
+      <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A240" s="7">
+      <c r="A240" s="6">
         <v>54</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -3708,10 +3701,10 @@
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="7"/>
+      <c r="D240" s="6"/>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="7">
+      <c r="A241" s="6">
         <v>59</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -3720,10 +3713,10 @@
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D241" s="7"/>
+      <c r="D241" s="6"/>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A242" s="7">
+      <c r="A242" s="6">
         <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -3732,10 +3725,10 @@
       <c r="C242" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D242" s="7"/>
+      <c r="D242" s="6"/>
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A243" s="7">
+      <c r="A243" s="6">
         <v>311</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -3744,10 +3737,10 @@
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="7"/>
+      <c r="D243" s="6"/>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A244" s="7">
+      <c r="A244" s="6">
         <v>329</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -3756,10 +3749,10 @@
       <c r="C244" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D244" s="7"/>
+      <c r="D244" s="6"/>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A245" s="7">
+      <c r="A245" s="6">
         <v>378</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -3768,10 +3761,10 @@
       <c r="C245" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D245" s="7"/>
+      <c r="D245" s="6"/>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="7">
+      <c r="A246" s="6">
         <v>74</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -3780,10 +3773,10 @@
       <c r="C246" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="7"/>
+      <c r="D246" s="6"/>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A247" s="7">
+      <c r="A247" s="6">
         <v>240</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -3792,10 +3785,10 @@
       <c r="C247" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D247" s="7"/>
+      <c r="D247" s="6"/>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A248" s="7">
+      <c r="A248" s="6">
         <v>370</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -3804,10 +3797,10 @@
       <c r="C248" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D248" s="7"/>
+      <c r="D248" s="6"/>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A249" s="7">
+      <c r="A249" s="6">
         <v>79</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -3816,10 +3809,10 @@
       <c r="C249" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="7"/>
+      <c r="D249" s="6"/>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A250" s="7">
+      <c r="A250" s="6">
         <v>296</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -3828,10 +3821,10 @@
       <c r="C250" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D250" s="7"/>
+      <c r="D250" s="6"/>
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A251" s="7">
+      <c r="A251" s="6">
         <v>361</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -3840,10 +3833,10 @@
       <c r="C251" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D251" s="7"/>
+      <c r="D251" s="6"/>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A252" s="7">
+      <c r="A252" s="6">
         <v>317</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -3852,10 +3845,10 @@
       <c r="C252" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D252" s="7"/>
+      <c r="D252" s="6"/>
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A253" s="7">
+      <c r="A253" s="6">
         <v>302</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -3864,10 +3857,10 @@
       <c r="C253" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D253" s="7"/>
+      <c r="D253" s="6"/>
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A254" s="7">
+      <c r="A254" s="6">
         <v>36</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -3876,10 +3869,10 @@
       <c r="C254" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D254" s="7"/>
+      <c r="D254" s="6"/>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A255" s="7">
+      <c r="A255" s="6">
         <v>37</v>
       </c>
       <c r="B255" s="2" t="s">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E483CE-EE63-0544-A59E-C796885E10C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E89DA0-E579-4242-BE51-4CBBD11281E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="740" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="252">
   <si>
     <t>144</t>
   </si>
@@ -465,9 +465,6 @@
     <t>Tree</t>
   </si>
   <si>
-    <t>题目链接</t>
-  </si>
-  <si>
     <t>Implement strStr()</t>
   </si>
   <si>
@@ -519,15 +516,6 @@
     <t>Scramble String</t>
   </si>
   <si>
-    <t>Largest Number</t>
-  </si>
-  <si>
-    <t>很少考</t>
-  </si>
-  <si>
-    <t>ZigZag Conversion</t>
-  </si>
-  <si>
     <t>One Edit Distance</t>
   </si>
   <si>
@@ -564,9 +552,6 @@
     <t>Strobogrammatic Number II</t>
   </si>
   <si>
-    <t>Strobogrammatic Number III</t>
-  </si>
-  <si>
     <t>Read N Characters Given Read4</t>
   </si>
   <si>
@@ -745,6 +730,63 @@
   </si>
   <si>
     <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>Stack &amp; PriorityQueue</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>Mini Parser</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="H265" sqref="H265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,33 +1192,35 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="6">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1185,10 +1229,10 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -1197,10 +1241,10 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>58</v>
+        <v>383</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1209,10 +1253,10 @@
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1221,10 +1265,10 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>383</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -1233,10 +1277,10 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1245,10 +1289,10 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -1257,10 +1301,10 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -1269,10 +1313,10 @@
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -1281,10 +1325,10 @@
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -1293,10 +1337,10 @@
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -1305,10 +1349,10 @@
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -1317,10 +1361,10 @@
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>290</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -1329,10 +1373,10 @@
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
@@ -1341,10 +1385,10 @@
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
@@ -1353,10 +1397,10 @@
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -1365,10 +1409,10 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
@@ -1377,21 +1421,19 @@
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>6</v>
+        <v>316</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>164</v>
@@ -1399,13 +1441,11 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>165</v>
@@ -1417,7 +1457,7 @@
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>166</v>
@@ -1429,7 +1469,7 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>358</v>
+        <v>171</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>167</v>
@@ -1441,7 +1481,7 @@
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>168</v>
@@ -1453,7 +1493,7 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>169</v>
@@ -1465,7 +1505,7 @@
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>170</v>
@@ -1477,7 +1517,7 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>171</v>
@@ -1489,7 +1529,7 @@
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>172</v>
@@ -1500,23 +1540,19 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>12</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -1525,10 +1561,10 @@
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -1537,10 +1573,10 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>247</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -1549,21 +1585,19 @@
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1571,7 +1605,7 @@
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>178</v>
@@ -1579,83 +1613,91 @@
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="6">
+        <v>395</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>186</v>
@@ -1663,13 +1705,11 @@
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>187</v>
@@ -1677,13 +1717,11 @@
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>395</v>
+        <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>188</v>
@@ -1691,13 +1729,11 @@
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>189</v>
@@ -1705,21 +1741,23 @@
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="6">
+        <v>214</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>125</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>191</v>
@@ -1731,7 +1769,7 @@
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>192</v>
@@ -1743,7 +1781,7 @@
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>193</v>
@@ -1755,7 +1793,7 @@
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>194</v>
@@ -1766,20 +1804,16 @@
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>214</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>196</v>
@@ -1791,7 +1825,7 @@
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>197</v>
@@ -1803,7 +1837,7 @@
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>198</v>
@@ -1815,7 +1849,7 @@
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>199</v>
@@ -1826,28 +1860,28 @@
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="6">
+        <v>301</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
-        <v>20</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>22</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>202</v>
@@ -1859,7 +1893,7 @@
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>203</v>
@@ -1871,7 +1905,7 @@
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>204</v>
@@ -1879,86 +1913,86 @@
       <c r="C62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
-        <v>301</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
-        <v>392</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="6"/>
+    </row>
+    <row r="65" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
-        <v>115</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="6"/>
+      <c r="A66" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
-        <v>187</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>209</v>
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>94</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>145</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>102</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
+      <c r="A72" s="1">
+        <v>100</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -1967,10 +2001,10 @@
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
@@ -1979,22 +2013,24 @@
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
@@ -2002,19 +2038,23 @@
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1">
+        <v>112</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2</v>
@@ -2023,10 +2063,10 @@
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2</v>
@@ -2035,24 +2075,22 @@
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>2</v>
@@ -2060,23 +2098,19 @@
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>112</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2</v>
@@ -2085,10 +2119,10 @@
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
@@ -2097,10 +2131,10 @@
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -2109,10 +2143,10 @@
     </row>
     <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -2120,43 +2154,45 @@
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="1"/>
+      <c r="A86" s="1">
+        <v>366</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>110</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2</v>
@@ -2165,10 +2201,10 @@
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>250</v>
+        <v>103</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -2177,160 +2213,172 @@
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>366</v>
+        <v>199</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>337</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="A93" s="1">
+        <v>98</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="A97" s="1">
+        <v>109</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -2341,10 +2389,10 @@
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
@@ -2354,172 +2402,162 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>297</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>285</v>
+        <v>116</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>78</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>90</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>77</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>116</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>117</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>314</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>96</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B115" s="8"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="8"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="8"/>
+      <c r="B118" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A119" s="6">
+        <v>40</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
@@ -2528,22 +2566,24 @@
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
-        <v>90</v>
+        <v>377</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="6"/>
+      <c r="D121" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
@@ -2552,10 +2592,10 @@
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
@@ -2564,10 +2604,10 @@
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
@@ -2576,36 +2616,38 @@
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="6"/>
+      <c r="D125" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
@@ -2614,10 +2656,10 @@
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
@@ -2626,10 +2668,10 @@
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
@@ -2638,131 +2680,127 @@
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D130" s="6"/>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
         <v>70</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
-        <v>17</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="6">
-        <v>320</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
-        <v>282</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="6">
-        <v>140</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
-        <v>351</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="B138" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>62</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
         <v>63</v>
       </c>
+      <c r="B140" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A141" s="6">
+        <v>279</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="6"/>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="A142" s="6">
+        <v>139</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D142" s="6"/>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2</v>
@@ -2771,10 +2809,10 @@
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
@@ -2783,10 +2821,10 @@
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2</v>
@@ -2794,23 +2832,19 @@
       <c r="D145" s="6"/>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="6">
-        <v>279</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A146" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="6"/>
       <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
@@ -2819,10 +2853,10 @@
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
@@ -2831,10 +2865,10 @@
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
-        <v>312</v>
+        <v>64</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
@@ -2843,10 +2877,10 @@
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
@@ -2854,19 +2888,23 @@
       <c r="D150" s="6"/>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="6"/>
+      <c r="A151" s="6">
+        <v>97</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D151" s="6"/>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
@@ -2875,10 +2913,10 @@
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
@@ -2887,10 +2925,10 @@
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -2899,34 +2937,32 @@
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
-        <v>72</v>
+        <v>363</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="6"/>
+      <c r="D155" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="6">
-        <v>97</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A156" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B156" s="7"/>
+      <c r="C156" s="6"/>
       <c r="D156" s="6"/>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2</v>
@@ -2935,10 +2971,10 @@
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
@@ -2947,10 +2983,10 @@
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
@@ -2959,122 +2995,124 @@
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="D160" s="6"/>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B161" s="7"/>
-      <c r="C161" s="6"/>
+      <c r="A161" s="6">
+        <v>10</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D161" s="6"/>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="6">
-        <v>213</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="6">
-        <v>276</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="6">
-        <v>91</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D165" s="6"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="6">
-        <v>10</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="6"/>
+      <c r="A166" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="6">
-        <v>44</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A167" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>206</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>141</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
+        <v>24</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A171" s="6">
+        <v>328</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
+      <c r="A172" s="6">
+        <v>92</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
@@ -3083,10 +3121,10 @@
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
@@ -3095,10 +3133,10 @@
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
@@ -3107,10 +3145,10 @@
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
@@ -3119,10 +3157,10 @@
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
@@ -3131,10 +3169,10 @@
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
-        <v>237</v>
+        <v>369</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
@@ -3143,10 +3181,10 @@
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
@@ -3155,10 +3193,10 @@
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -3167,10 +3205,10 @@
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
@@ -3178,23 +3216,19 @@
       <c r="D181" s="6"/>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="6">
-        <v>82</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A182" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="6"/>
       <c r="D182" s="6"/>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
-        <v>369</v>
+        <v>234</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2</v>
@@ -3203,10 +3237,10 @@
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -3215,10 +3249,10 @@
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
@@ -3227,10 +3261,10 @@
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -3238,19 +3272,23 @@
       <c r="D186" s="6"/>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B187" s="7"/>
-      <c r="C187" s="6"/>
+      <c r="A187" s="6">
+        <v>25</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D187" s="6"/>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
@@ -3259,10 +3297,10 @@
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -3271,10 +3309,10 @@
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
@@ -3283,92 +3321,92 @@
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="6">
-        <v>25</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A193" s="6">
-        <v>61</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="6">
-        <v>86</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="6"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="6">
-        <v>23</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="6"/>
+      <c r="A195" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>286</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A198" s="6">
+        <v>130</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>339</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="6"/>
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A200" s="6">
+        <v>364</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="6"/>
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
@@ -3377,22 +3415,18 @@
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D202" s="6"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
@@ -3401,287 +3435,291 @@
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
-        <v>339</v>
+        <v>52</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="6"/>
+    </row>
+    <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A207" s="6"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="6"/>
+    </row>
+    <row r="208" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B208" s="8"/>
+    </row>
+    <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B209" s="7"/>
+      <c r="C209" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="6">
+        <v>261</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="6"/>
+    </row>
+    <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A211" s="6">
+        <v>323</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" s="6"/>
+    </row>
+    <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212" s="6">
+        <v>305</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B213" s="8"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B214" s="8"/>
+    </row>
+    <row r="215" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B215" s="8"/>
+    </row>
+    <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B216" s="7"/>
+      <c r="C216" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B217" s="7"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="6">
         <v>133</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="6">
-        <v>364</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="6">
-        <v>127</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="6">
-        <v>126</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="6">
-        <v>51</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="6">
-        <v>52</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D209" s="6"/>
-    </row>
-    <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="6"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B213" s="8"/>
-    </row>
-    <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B214" s="7"/>
-      <c r="C214" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A215" s="6">
-        <v>261</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A216" s="6">
-        <v>323</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="6">
-        <v>305</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B218" s="8"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B219" s="8"/>
-    </row>
-    <row r="220" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B220" s="8"/>
+      <c r="B218" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="6"/>
+    </row>
+    <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219" s="6">
+        <v>399</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="6"/>
+    </row>
+    <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220" s="6">
+        <v>310</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="6"/>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="B221" s="7"/>
-      <c r="C221" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B222" s="7"/>
-      <c r="C222" s="6"/>
+      <c r="A222" s="6">
+        <v>149</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A223" s="6">
-        <v>133</v>
-      </c>
-      <c r="B223" s="3" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B223" s="8"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B224" s="8"/>
+    </row>
+    <row r="225" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A224" s="6">
-        <v>399</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D224" s="6"/>
-    </row>
-    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A225" s="6">
-        <v>310</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D225" s="6"/>
+      <c r="B225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="B226" s="7"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
+      <c r="C226" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="6"/>
+    </row>
+    <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A228" s="6">
+        <v>211</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="6"/>
+    </row>
+    <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" s="6">
+        <v>212</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="6"/>
+    </row>
+    <row r="232" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B228" s="8"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B229" s="8"/>
-    </row>
-    <row r="230" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B230" s="8"/>
-    </row>
-    <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="s">
+    </row>
+    <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B231" s="7"/>
-      <c r="C231" s="6" t="s">
+      <c r="B233" s="6"/>
+      <c r="C233" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A232" s="6">
-        <v>208</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A233" s="6">
-        <v>211</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D233" s="6"/>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
-        <v>212</v>
-      </c>
-      <c r="B234" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="6"/>
+    </row>
+    <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="6">
+        <v>54</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="6"/>
+    </row>
+    <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A236" s="6">
+        <v>59</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="6"/>
+    </row>
+    <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A237" s="6">
+        <v>73</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="6"/>
-    </row>
-    <row r="237" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
+      <c r="C237" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="6"/>
+    </row>
+    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="6">
+        <v>311</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C238" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="6"/>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>221</v>
@@ -3693,7 +3731,7 @@
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
-        <v>54</v>
+        <v>378</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>222</v>
@@ -3705,7 +3743,7 @@
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>223</v>
@@ -3717,7 +3755,7 @@
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>224</v>
@@ -3729,7 +3767,7 @@
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>225</v>
@@ -3741,7 +3779,7 @@
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>226</v>
@@ -3753,7 +3791,7 @@
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>227</v>
@@ -3765,7 +3803,7 @@
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>228</v>
@@ -3777,7 +3815,7 @@
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>229</v>
@@ -3789,7 +3827,7 @@
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>230</v>
@@ -3801,7 +3839,7 @@
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>231</v>
@@ -3813,462 +3851,644 @@
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D250" s="6"/>
-    </row>
-    <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A251" s="6">
-        <v>361</v>
-      </c>
-      <c r="B251" s="2" t="s">
+    </row>
+    <row r="254" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D251" s="6"/>
-    </row>
-    <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A252" s="6">
-        <v>317</v>
-      </c>
-      <c r="B252" s="2" t="s">
+    </row>
+    <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A255" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+    </row>
+    <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D252" s="6"/>
-    </row>
-    <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A253" s="6">
-        <v>302</v>
-      </c>
-      <c r="B253" s="2" t="s">
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+    </row>
+    <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A257" s="6">
+        <v>155</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D253" s="6"/>
-    </row>
-    <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A254" s="6">
-        <v>36</v>
-      </c>
-      <c r="B254" s="2" t="s">
+      <c r="C257" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="6"/>
+    </row>
+    <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A258" s="6">
+        <v>232</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="6"/>
-    </row>
-    <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A255" s="6">
-        <v>37</v>
-      </c>
-      <c r="B255" s="2" t="s">
+      <c r="C258" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="6"/>
+    </row>
+    <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A259" s="6">
+        <v>225</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>237</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259" s="6"/>
+    </row>
+    <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A260" s="6">
+        <v>150</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="6"/>
+    </row>
+    <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A261" s="6">
+        <v>71</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" s="6"/>
+    </row>
+    <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A262" s="6">
+        <v>388</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="6"/>
+    </row>
+    <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A263" s="6">
+        <v>394</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="6"/>
+    </row>
+    <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A264" s="6">
+        <v>224</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" s="6"/>
+    </row>
+    <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" s="6">
+        <v>227</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="6"/>
+    </row>
+    <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A266" s="6">
+        <v>385</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" s="6"/>
+    </row>
+    <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A267" s="6">
+        <v>84</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" s="6"/>
+    </row>
+    <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A268" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+    </row>
+    <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A269" s="6">
+        <v>215</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" s="6"/>
+    </row>
+    <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A270" s="6">
+        <v>347</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" s="6"/>
+    </row>
+    <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A271" s="6">
+        <v>218</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" s="6"/>
+    </row>
+    <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A272" s="6">
+        <v>332</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" s="6"/>
+    </row>
+    <row r="273" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A273" s="6">
+        <v>341</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B131" r:id="rId1" display="https://leetcode.com/problems/permutation-sequence/description/" xr:uid="{7470F00A-0C28-9542-8BB8-840C29E37DA8}"/>
-    <hyperlink ref="C131" r:id="rId2" display="https://cspiration.com/login" xr:uid="{E339835C-3FF5-154D-83A5-D922A203F2B3}"/>
-    <hyperlink ref="B132" r:id="rId3" display="https://leetcode.com/problems/word-pattern-ii/description/" xr:uid="{475D2E19-9E2A-5A40-9967-744727496941}"/>
-    <hyperlink ref="C132" r:id="rId4" display="https://cspiration.com/login" xr:uid="{EE42A40A-13BC-BE4B-A326-E559CD4D7078}"/>
-    <hyperlink ref="B133" r:id="rId5" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/" xr:uid="{8410A8D8-2A96-2545-A707-B152E3483747}"/>
-    <hyperlink ref="C133" r:id="rId6" display="https://cspiration.com/login" xr:uid="{36FD5254-8C9A-0E48-AFDE-6B5494DFC976}"/>
-    <hyperlink ref="B134" r:id="rId7" display="https://leetcode.com/problems/generalized-abbreviation/description/" xr:uid="{A694FCD3-9DE6-C040-AE34-B16162B92776}"/>
-    <hyperlink ref="C134" r:id="rId8" display="https://cspiration.com/login" xr:uid="{C42B1CFF-4402-C94B-A66E-E0E82DDAA67D}"/>
-    <hyperlink ref="B135" r:id="rId9" display="https://leetcode.com/problems/expression-add-operators/description/" xr:uid="{C3D6AF2C-B408-D844-B031-4DA29F73A880}"/>
-    <hyperlink ref="C135" r:id="rId10" display="https://cspiration.com/login" xr:uid="{5902E035-85D4-EF41-889F-43801918206D}"/>
-    <hyperlink ref="B136" r:id="rId11" display="https://leetcode.com/problems/word-break-ii/description/" xr:uid="{C875713A-B2BF-C74B-AF74-39845CD139B9}"/>
-    <hyperlink ref="C136" r:id="rId12" display="https://cspiration.com/login" xr:uid="{05136ABA-F832-6444-9448-22BAD9D990D5}"/>
-    <hyperlink ref="B137" r:id="rId13" display="https://leetcode.com/problems/android-unlock-patterns/description/" xr:uid="{D4D2A625-1C06-594E-9061-782BDAF31A24}"/>
-    <hyperlink ref="B143" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/description/" xr:uid="{EBAE420C-2F6E-2947-9A9A-EC2C6413488B}"/>
-    <hyperlink ref="C143" r:id="rId15" display="https://cspiration.com/login" xr:uid="{1553DB48-9774-2A44-8A95-6A09994C2802}"/>
-    <hyperlink ref="B144" r:id="rId16" display="https://leetcode.com/problems/unique-paths/description/" xr:uid="{95F59D7D-71AD-9C45-8332-BEEF446345DD}"/>
-    <hyperlink ref="C144" r:id="rId17" display="https://cspiration.com/login" xr:uid="{B50BC24B-E5ED-224E-BBD2-FEDB59A4B9C8}"/>
-    <hyperlink ref="B145" r:id="rId18" display="https://leetcode.com/problems/unique-paths-ii/description/" xr:uid="{3C785738-AF2C-7D49-A676-40642165F7E9}"/>
-    <hyperlink ref="C145" r:id="rId19" display="https://cspiration.com/login" xr:uid="{D139F891-E2F5-8A4E-845C-1152D649243B}"/>
-    <hyperlink ref="B146" r:id="rId20" display="https://leetcode.com/problems/perfect-squares/description/" xr:uid="{F1E40C95-00F8-2849-9001-A228CD479539}"/>
-    <hyperlink ref="C146" r:id="rId21" display="https://cspiration.com/login" xr:uid="{3D8A92E9-FB93-4E49-B14B-A18B499D0787}"/>
-    <hyperlink ref="B147" r:id="rId22" display="https://leetcode.com/problems/word-break/" xr:uid="{1C41DBB7-6CCE-FD4D-A267-F78FE233940D}"/>
-    <hyperlink ref="C147" r:id="rId23" display="https://cspiration.com/login" xr:uid="{CDE6F565-251B-2E45-9223-1D578CC89854}"/>
-    <hyperlink ref="B148" r:id="rId24" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/description/" xr:uid="{415C0B92-011D-5446-AA9F-D55206245A9E}"/>
-    <hyperlink ref="C148" r:id="rId25" display="https://cspiration.com/login" xr:uid="{6342F0B5-FAE1-9549-B0EB-BA4B9151C6A6}"/>
-    <hyperlink ref="B149" r:id="rId26" display="https://leetcode.com/problems/burst-balloons/description/" xr:uid="{462BC2C3-5EF9-0B45-B0B5-AD50E1D72B3E}"/>
-    <hyperlink ref="C149" r:id="rId27" display="https://cspiration.com/login" xr:uid="{7CC75275-A0BF-C447-8C55-0AB512699970}"/>
-    <hyperlink ref="B150" r:id="rId28" display="https://leetcode.com/problems/coin-change/description/" xr:uid="{4751D5B9-78E7-1647-A94D-B787C4C6DAC8}"/>
-    <hyperlink ref="C150" r:id="rId29" display="https://cspiration.com/login" xr:uid="{28C04F21-7959-C243-A6A5-4EEA9824A11F}"/>
-    <hyperlink ref="B152" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
-    <hyperlink ref="C152" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
-    <hyperlink ref="B153" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
-    <hyperlink ref="C153" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
-    <hyperlink ref="B154" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
-    <hyperlink ref="C154" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
-    <hyperlink ref="B155" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
-    <hyperlink ref="C155" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
-    <hyperlink ref="B156" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
-    <hyperlink ref="C156" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
-    <hyperlink ref="B157" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
-    <hyperlink ref="C157" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
-    <hyperlink ref="B158" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
-    <hyperlink ref="C158" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
-    <hyperlink ref="B159" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
-    <hyperlink ref="C159" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
-    <hyperlink ref="B160" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
-    <hyperlink ref="C160" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
-    <hyperlink ref="B162" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
-    <hyperlink ref="C162" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
-    <hyperlink ref="B163" display="House Robber II" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
-    <hyperlink ref="C163" r:id="rId50" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
-    <hyperlink ref="B164" r:id="rId51" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
-    <hyperlink ref="C164" r:id="rId52" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
-    <hyperlink ref="B165" r:id="rId53" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
-    <hyperlink ref="C165" r:id="rId54" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
-    <hyperlink ref="B166" r:id="rId55" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
-    <hyperlink ref="C166" r:id="rId56" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
-    <hyperlink ref="B167" r:id="rId57" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
-    <hyperlink ref="B173" r:id="rId58" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
-    <hyperlink ref="C173" r:id="rId59" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
-    <hyperlink ref="B174" r:id="rId60" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
-    <hyperlink ref="C174" r:id="rId61" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
-    <hyperlink ref="B175" r:id="rId62" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
-    <hyperlink ref="C175" r:id="rId63" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
-    <hyperlink ref="B176" r:id="rId64" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
-    <hyperlink ref="C176" r:id="rId65" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
-    <hyperlink ref="B177" r:id="rId66" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
-    <hyperlink ref="C177" r:id="rId67" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
-    <hyperlink ref="B178" r:id="rId68" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
-    <hyperlink ref="C178" r:id="rId69" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
-    <hyperlink ref="B179" r:id="rId70" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
-    <hyperlink ref="C179" r:id="rId71" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
-    <hyperlink ref="B180" r:id="rId72" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
-    <hyperlink ref="C180" r:id="rId73" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
-    <hyperlink ref="B181" r:id="rId74" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
-    <hyperlink ref="C181" r:id="rId75" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
-    <hyperlink ref="B182" r:id="rId76" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
-    <hyperlink ref="C182" r:id="rId77" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
-    <hyperlink ref="B183" r:id="rId78" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
-    <hyperlink ref="C183" r:id="rId79" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
-    <hyperlink ref="B184" r:id="rId80" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
-    <hyperlink ref="C184" r:id="rId81" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
-    <hyperlink ref="B185" r:id="rId82" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
-    <hyperlink ref="C185" r:id="rId83" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
-    <hyperlink ref="B186" r:id="rId84" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
-    <hyperlink ref="C186" r:id="rId85" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
-    <hyperlink ref="B188" r:id="rId86" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
-    <hyperlink ref="C188" r:id="rId87" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
-    <hyperlink ref="B189" r:id="rId88" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
-    <hyperlink ref="C189" r:id="rId89" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
-    <hyperlink ref="B190" r:id="rId90" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
-    <hyperlink ref="C190" r:id="rId91" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
-    <hyperlink ref="B191" r:id="rId92" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
-    <hyperlink ref="C191" r:id="rId93" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
-    <hyperlink ref="B192" r:id="rId94" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
-    <hyperlink ref="C192" r:id="rId95" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
-    <hyperlink ref="B193" r:id="rId96" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
-    <hyperlink ref="C193" r:id="rId97" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
-    <hyperlink ref="B194" r:id="rId98" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
-    <hyperlink ref="C194" r:id="rId99" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
-    <hyperlink ref="B195" r:id="rId100" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
-    <hyperlink ref="C195" r:id="rId101" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
-    <hyperlink ref="B196" r:id="rId102" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
-    <hyperlink ref="B201" r:id="rId103" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
-    <hyperlink ref="C201" r:id="rId104" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
-    <hyperlink ref="B202" r:id="rId105" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
-    <hyperlink ref="C202" r:id="rId106" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
-    <hyperlink ref="B203" r:id="rId107" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
-    <hyperlink ref="C203" r:id="rId108" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
-    <hyperlink ref="B204" r:id="rId109" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
-    <hyperlink ref="C204" r:id="rId110" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
-    <hyperlink ref="B205" r:id="rId111" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
-    <hyperlink ref="C205" r:id="rId112" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
-    <hyperlink ref="B206" r:id="rId113" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
-    <hyperlink ref="C206" r:id="rId114" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B208" r:id="rId115" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C208" r:id="rId116" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B209" r:id="rId117" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C209" r:id="rId118" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B207" r:id="rId119" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B215" r:id="rId120" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C215" r:id="rId121" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B216" r:id="rId122" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C216" r:id="rId123" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B217" r:id="rId124" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
-    <hyperlink ref="B85" r:id="rId125" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
-    <hyperlink ref="C85" r:id="rId126" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
-    <hyperlink ref="B87" r:id="rId127" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
-    <hyperlink ref="C87" r:id="rId128" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
-    <hyperlink ref="B88" r:id="rId129" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
-    <hyperlink ref="C88" r:id="rId130" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
-    <hyperlink ref="B89" r:id="rId131" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
-    <hyperlink ref="C89" r:id="rId132" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
-    <hyperlink ref="B90" r:id="rId133" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
-    <hyperlink ref="C90" r:id="rId134" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
-    <hyperlink ref="B91" r:id="rId135" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
-    <hyperlink ref="C91" r:id="rId136" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
-    <hyperlink ref="B92" r:id="rId137" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
-    <hyperlink ref="C92" r:id="rId138" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
-    <hyperlink ref="B94" r:id="rId139" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
-    <hyperlink ref="C94" r:id="rId140" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
-    <hyperlink ref="B95" r:id="rId141" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
-    <hyperlink ref="C95" r:id="rId142" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
-    <hyperlink ref="B96" r:id="rId143" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
-    <hyperlink ref="C96" r:id="rId144" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
-    <hyperlink ref="B98" r:id="rId145" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
-    <hyperlink ref="C98" r:id="rId146" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
-    <hyperlink ref="B99" r:id="rId147" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
-    <hyperlink ref="C99" r:id="rId148" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
-    <hyperlink ref="B100" r:id="rId149" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
-    <hyperlink ref="C100" r:id="rId150" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
-    <hyperlink ref="B101" r:id="rId151" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
-    <hyperlink ref="C101" r:id="rId152" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
-    <hyperlink ref="B102" r:id="rId153" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
-    <hyperlink ref="C102" r:id="rId154" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
-    <hyperlink ref="B103" r:id="rId155" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
-    <hyperlink ref="C103" r:id="rId156" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
-    <hyperlink ref="B104" r:id="rId157" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
-    <hyperlink ref="C104" r:id="rId158" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
-    <hyperlink ref="B105" r:id="rId159" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
-    <hyperlink ref="C105" r:id="rId160" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
-    <hyperlink ref="B106" r:id="rId161" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
-    <hyperlink ref="C106" r:id="rId162" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
-    <hyperlink ref="B107" r:id="rId163" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
-    <hyperlink ref="C107" r:id="rId164" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
-    <hyperlink ref="B108" r:id="rId165" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
-    <hyperlink ref="C108" r:id="rId166" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
-    <hyperlink ref="B109" r:id="rId167" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
-    <hyperlink ref="C109" r:id="rId168" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
-    <hyperlink ref="B111" r:id="rId169" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
-    <hyperlink ref="C111" r:id="rId170" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
-    <hyperlink ref="B112" r:id="rId171" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
-    <hyperlink ref="C112" r:id="rId172" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
-    <hyperlink ref="B113" r:id="rId173" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
-    <hyperlink ref="C113" r:id="rId174" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
-    <hyperlink ref="B114" r:id="rId175" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
-    <hyperlink ref="C114" r:id="rId176" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
-    <hyperlink ref="B120" r:id="rId177" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
-    <hyperlink ref="C120" r:id="rId178" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
-    <hyperlink ref="B121" r:id="rId179" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
-    <hyperlink ref="C121" r:id="rId180" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
-    <hyperlink ref="B122" r:id="rId181" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
-    <hyperlink ref="C122" r:id="rId182" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
-    <hyperlink ref="B123" r:id="rId183" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
-    <hyperlink ref="C123" r:id="rId184" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
-    <hyperlink ref="B124" r:id="rId185" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
-    <hyperlink ref="C124" r:id="rId186" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
-    <hyperlink ref="B125" r:id="rId187" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
-    <hyperlink ref="C125" r:id="rId188" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
-    <hyperlink ref="B126" r:id="rId189" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
-    <hyperlink ref="C126" r:id="rId190" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
-    <hyperlink ref="B127" r:id="rId191" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
-    <hyperlink ref="C127" r:id="rId192" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
-    <hyperlink ref="B128" r:id="rId193" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
-    <hyperlink ref="C128" r:id="rId194" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
-    <hyperlink ref="B129" r:id="rId195" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
-    <hyperlink ref="C129" r:id="rId196" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
-    <hyperlink ref="B130" r:id="rId197" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
-    <hyperlink ref="C130" r:id="rId198" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
-    <hyperlink ref="C84" r:id="rId199" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
-    <hyperlink ref="B84" r:id="rId200" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
-    <hyperlink ref="C83" r:id="rId201" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
-    <hyperlink ref="B83" r:id="rId202" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
-    <hyperlink ref="C82" r:id="rId203" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
-    <hyperlink ref="B82" r:id="rId204" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
-    <hyperlink ref="C81" r:id="rId205" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
-    <hyperlink ref="B81" r:id="rId206" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
-    <hyperlink ref="C80" r:id="rId207" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
-    <hyperlink ref="B80" r:id="rId208" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
-    <hyperlink ref="C79" r:id="rId209" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
-    <hyperlink ref="B79" r:id="rId210" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
-    <hyperlink ref="C78" r:id="rId211" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
-    <hyperlink ref="B78" r:id="rId212" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
-    <hyperlink ref="C77" r:id="rId213" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
-    <hyperlink ref="B77" r:id="rId214" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
-    <hyperlink ref="C75" r:id="rId215" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
-    <hyperlink ref="B75" r:id="rId216" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
-    <hyperlink ref="C74" r:id="rId217" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
-    <hyperlink ref="B74" r:id="rId218" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
-    <hyperlink ref="C73" r:id="rId219" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
-    <hyperlink ref="B73" r:id="rId220" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
-    <hyperlink ref="C72" r:id="rId221" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
-    <hyperlink ref="B72" r:id="rId222" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
-    <hyperlink ref="B4" r:id="rId223" display="https://leetcode.com/problems/implement-strstr/description/" xr:uid="{D540EA7C-EB08-D54A-8BA0-D2BF3C8D7159}"/>
-    <hyperlink ref="C4" r:id="rId224" display="https://cspiration.com/login" xr:uid="{8D4BEA64-F28F-194D-9BCA-1A1995FE751F}"/>
-    <hyperlink ref="B5" r:id="rId225" display="https://leetcode.com/problems/longest-common-prefix/description/" xr:uid="{4B66E93E-437A-C447-9D2D-14431C4B5C0D}"/>
-    <hyperlink ref="C5" r:id="rId226" display="https://cspiration.com/login" xr:uid="{4EDAA73E-B4E4-4A4D-A1A3-B1BF3B641930}"/>
-    <hyperlink ref="B6" r:id="rId227" display="https://leetcode.com/problems/length-of-last-word/description/" xr:uid="{D114781F-CCE8-1B4D-B130-1F8DAA81F929}"/>
-    <hyperlink ref="C6" r:id="rId228" display="https://cspiration.com/login" xr:uid="{D4837917-968A-1A47-A565-F2D02413B704}"/>
-    <hyperlink ref="B7" r:id="rId229" display="https://leetcode.com/problems/first-unique-character-in-a-string/description/" xr:uid="{C04F5C5C-DEE3-C44F-A74F-52C26D3F2FE9}"/>
-    <hyperlink ref="C7" r:id="rId230" display="https://cspiration.com/login" xr:uid="{83C1DBA7-7A1A-3942-8BBB-A55279A4114D}"/>
-    <hyperlink ref="B8" r:id="rId231" display="https://leetcode.com/problems/ransom-note/description/" xr:uid="{3D768C37-76A3-EB41-8CAF-A61CD430D930}"/>
-    <hyperlink ref="C8" r:id="rId232" display="https://cspiration.com/login" xr:uid="{295DA0DD-097C-494D-985C-0351F936CFAE}"/>
-    <hyperlink ref="B9" r:id="rId233" display="https://leetcode.com/problems/reverse-string/description/" xr:uid="{968C8B06-BC69-2343-84F4-4279FF45A33D}"/>
-    <hyperlink ref="C9" r:id="rId234" display="https://cspiration.com/login" xr:uid="{EF9807D4-7B95-6744-A12B-C9E96455C37F}"/>
-    <hyperlink ref="B10" r:id="rId235" display="https://leetcode.com/problems/reverse-words-in-a-string/description/" xr:uid="{E5D0091E-BD36-1849-86C4-AD6193E4DBF8}"/>
-    <hyperlink ref="C10" r:id="rId236" display="https://cspiration.com/login" xr:uid="{F3144B11-0907-9247-B034-3BE234EB0031}"/>
-    <hyperlink ref="B11" r:id="rId237" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/description/" xr:uid="{20ACD6E3-C0D3-DC40-A581-E5A1DD349E75}"/>
-    <hyperlink ref="C11" r:id="rId238" display="https://cspiration.com/login" xr:uid="{25731BF2-9D7D-2F47-8B04-2B971F79A6E7}"/>
-    <hyperlink ref="B12" r:id="rId239" display="https://leetcode.com/problems/reverse-vowels-of-a-string/description/" xr:uid="{03F64371-9FC5-6442-9F75-1D34AF197ECA}"/>
-    <hyperlink ref="C12" r:id="rId240" display="https://cspiration.com/login" xr:uid="{C8F12AB4-19EE-6143-BDA7-15328C7DA50A}"/>
-    <hyperlink ref="B13" r:id="rId241" display="https://leetcode.com/problems/isomorphic-strings/description/" xr:uid="{069B1397-F0EF-0645-8828-263251550008}"/>
-    <hyperlink ref="C13" r:id="rId242" display="https://cspiration.com/login" xr:uid="{F49DA318-AFE5-E94E-B520-D86A38E11102}"/>
-    <hyperlink ref="B14" r:id="rId243" display="https://leetcode.com/problems/flip-game/description/" xr:uid="{E38920AC-6E84-564B-B8BA-17E7F9BFDDBD}"/>
-    <hyperlink ref="C14" r:id="rId244" display="https://cspiration.com/login" xr:uid="{F52B4708-49AD-4244-B763-FD44230220CC}"/>
-    <hyperlink ref="B15" r:id="rId245" display="https://leetcode.com/problems/flip-game-ii/description/" xr:uid="{B57E6DAA-DB1C-9D49-A5F5-9A1DDBE07E8C}"/>
-    <hyperlink ref="C15" r:id="rId246" display="https://cspiration.com/login" xr:uid="{60004F03-7CA3-7A49-A7B7-7A595C09CD21}"/>
-    <hyperlink ref="B16" r:id="rId247" display="https://leetcode.com/problems/word-pattern/description/" xr:uid="{8A917EDD-4C17-0C4F-8EB3-0D2A69CF7E2D}"/>
-    <hyperlink ref="C16" r:id="rId248" display="https://cspiration.com/login" xr:uid="{D90BE585-BB70-8F4E-9C42-7DABEA1EE154}"/>
-    <hyperlink ref="B17" r:id="rId249" display="https://leetcode.com/problems/valid-anagram/description/" xr:uid="{6A427A47-B738-1B47-B40C-0720744F00EB}"/>
-    <hyperlink ref="C17" r:id="rId250" display="https://cspiration.com/login" xr:uid="{FBEBF316-2770-0D4C-AD03-785C42541C3B}"/>
-    <hyperlink ref="B18" r:id="rId251" display="https://leetcode.com/problems/group-anagrams/description/" xr:uid="{912892C7-059C-B142-AD7B-1AC6617F6F3C}"/>
-    <hyperlink ref="C18" r:id="rId252" display="https://cspiration.com/login" xr:uid="{C8C9E0D7-A9FC-7849-BE2F-7412ACBD95EC}"/>
-    <hyperlink ref="B19" r:id="rId253" display="https://leetcode.com/problems/group-shifted-strings/description/" xr:uid="{F88F7380-745F-2542-891F-D8189D659014}"/>
-    <hyperlink ref="C19" r:id="rId254" display="https://cspiration.com/login" xr:uid="{5AEB76A3-0CB4-724C-B27E-A5D3084DED56}"/>
-    <hyperlink ref="B20" r:id="rId255" display="https://leetcode.com/problems/scramble-string/description/" xr:uid="{8E7AE0F9-60C3-6C44-93A5-7BCE475FE65D}"/>
-    <hyperlink ref="C20" r:id="rId256" display="https://cspiration.com/login" xr:uid="{B897081C-536E-124F-B44D-E65CD2DAE73A}"/>
-    <hyperlink ref="B21" r:id="rId257" display="https://leetcode.com/problems/largest-number/description/" xr:uid="{AB9E53ED-88AF-BB4C-9921-E414F8D30EA3}"/>
-    <hyperlink ref="C21" r:id="rId258" display="https://cspiration.com/login" xr:uid="{83C95076-97AA-7744-9670-6FBCFFF1503C}"/>
-    <hyperlink ref="B22" r:id="rId259" display="https://leetcode.com/problems/zigzag-conversion/description/" xr:uid="{B7386A51-3267-7A43-8990-B7D4ABCCEDE7}"/>
-    <hyperlink ref="C22" r:id="rId260" display="https://cspiration.com/login" xr:uid="{42F12F18-07F3-DE40-A9AB-3BE8C2AC2013}"/>
-    <hyperlink ref="B23" r:id="rId261" display="https://leetcode.com/problems/one-edit-distance/" xr:uid="{709E24AB-4569-5E4E-B354-741841D8A3CF}"/>
-    <hyperlink ref="C23" r:id="rId262" display="https://cspiration.com/login" xr:uid="{B27AAEDC-0D30-2646-990A-5B2240B5DC3E}"/>
-    <hyperlink ref="B24" r:id="rId263" display="https://leetcode.com/problems/count-and-say/description/" xr:uid="{039EF842-D3DA-4B46-83A0-B0AE9E3B77E9}"/>
-    <hyperlink ref="C24" r:id="rId264" display="https://cspiration.com/login" xr:uid="{114602C0-CFEF-E04D-AF79-28A290AD5151}"/>
-    <hyperlink ref="B25" r:id="rId265" display="https://leetcode.com/problems/rearrange-string-k-distance-apart/description/" xr:uid="{766E9D85-1888-2C4C-84BF-92C503F606F4}"/>
-    <hyperlink ref="C25" r:id="rId266" display="https://cspiration.com/login" xr:uid="{6C5848D4-F1A3-5E43-A18B-3EF386A88DB8}"/>
-    <hyperlink ref="B26" r:id="rId267" display="https://leetcode.com/problems/remove-duplicate-letters/description/" xr:uid="{41E9DFCB-F0F7-F142-B5A6-FD4B7DBC4BBA}"/>
-    <hyperlink ref="C26" r:id="rId268" display="https://cspiration.com/login" xr:uid="{DF13B8AA-9303-BE4C-9CE0-D00E513A3293}"/>
-    <hyperlink ref="B27" r:id="rId269" display="https://leetcode.com/problems/encode-and-decode-strings/description/" xr:uid="{25875E62-4A7E-D442-92FC-3F95DFABD8D2}"/>
-    <hyperlink ref="C27" r:id="rId270" display="https://cspiration.com/login" xr:uid="{FAFD0B63-78CD-8E4D-A1CA-07E70CC0FFBA}"/>
-    <hyperlink ref="B28" r:id="rId271" display="https://leetcode.com/problems/excel-sheet-column-title/description/" xr:uid="{7BC754D8-E75A-8B44-AD1B-7A259C99BFC0}"/>
-    <hyperlink ref="C28" r:id="rId272" display="https://cspiration.com/login" xr:uid="{39D15FCE-65DE-5B4E-9BC0-B864C6EAC70B}"/>
-    <hyperlink ref="B29" r:id="rId273" display="https://leetcode.com/problems/excel-sheet-column-number/description/" xr:uid="{EE4C5B10-4ED2-8B46-B331-B687A0FC87CC}"/>
-    <hyperlink ref="C29" r:id="rId274" display="https://cspiration.com/login" xr:uid="{68673230-A15D-DF41-9113-C0EC2A891D82}"/>
-    <hyperlink ref="B30" r:id="rId275" display="https://leetcode.com/problems/roman-to-integer/description/" xr:uid="{3A2D8E6F-706D-5F42-8F12-6FDA83EDF015}"/>
-    <hyperlink ref="C30" r:id="rId276" display="https://cspiration.com/login" xr:uid="{A78FD53F-C3F7-174F-89F5-6A7F81AD86FB}"/>
-    <hyperlink ref="B31" r:id="rId277" display="https://leetcode.com/problems/integer-to-roman/description/" xr:uid="{EAE13DA7-A7CC-0045-9D4E-D3845B1D351A}"/>
-    <hyperlink ref="C31" r:id="rId278" display="https://cspiration.com/login" xr:uid="{1E917630-0E9A-CA44-B4D0-335D33B3DAD4}"/>
-    <hyperlink ref="B32" r:id="rId279" display="https://leetcode.com/problems/integer-to-english-words/description/" xr:uid="{E03F80C1-D861-5147-9CCC-8EBDA45C5F84}"/>
-    <hyperlink ref="C32" r:id="rId280" display="https://cspiration.com/login" xr:uid="{C8915A28-36A3-8D4D-A5D8-B28C51E8A13B}"/>
-    <hyperlink ref="B33" r:id="rId281" display="https://leetcode.com/problems/strobogrammatic-number/description/" xr:uid="{072EA103-1AA4-6D4D-A811-07E7EFC53754}"/>
-    <hyperlink ref="C33" r:id="rId282" display="https://cspiration.com/login" xr:uid="{118BB6D1-D892-1D4A-A278-CEBA454174C9}"/>
-    <hyperlink ref="B34" r:id="rId283" display="https://leetcode.com/problems/strobogrammatic-number-ii/description/" xr:uid="{17DD45CF-4F79-9A48-A172-DF78FFE2BAFD}"/>
-    <hyperlink ref="C34" r:id="rId284" display="https://cspiration.com/login" xr:uid="{6E8396B6-84C6-7E48-AA73-CE7E9B901407}"/>
-    <hyperlink ref="B35" r:id="rId285" display="https://leetcode.com/problems/strobogrammatic-number-iii/description/" xr:uid="{B3CED28B-852C-EE48-A737-88B7C4438F25}"/>
-    <hyperlink ref="C35" r:id="rId286" display="https://cspiration.com/login" xr:uid="{A53795EF-F175-C644-B766-F1CF3E85C75D}"/>
-    <hyperlink ref="B37" r:id="rId287" display="https://leetcode.com/problems/read-n-characters-given-read4/description/" xr:uid="{D18F3004-120C-9749-96EA-DA48816C8D97}"/>
-    <hyperlink ref="C37" r:id="rId288" display="https://cspiration.com/login" xr:uid="{D09C3F94-1D2B-AA4B-91A4-5F1C1C29C741}"/>
-    <hyperlink ref="B38" r:id="rId289" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/" xr:uid="{C10019EB-7182-1D47-B84E-E88E23C5D8FA}"/>
-    <hyperlink ref="C38" r:id="rId290" display="https://cspiration.com/login" xr:uid="{F5ACF2D2-A531-424B-B3CF-993B83A1F7FB}"/>
-    <hyperlink ref="B39" r:id="rId291" display="https://leetcode.com/problems/text-justification/description/" xr:uid="{BFE3B433-B31C-CC4A-B33B-40E03920BB14}"/>
-    <hyperlink ref="C39" r:id="rId292" display="https://cspiration.com/login" xr:uid="{2F20FF9D-1F78-994B-9CE5-4B009BFBECC5}"/>
-    <hyperlink ref="B40" r:id="rId293" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{5B3E385E-B11A-C64D-8285-B8177A8BCDA4}"/>
-    <hyperlink ref="C40" r:id="rId294" display="https://cspiration.com/login" xr:uid="{B24A14A7-52F4-E249-B609-37F1D91D19AF}"/>
-    <hyperlink ref="B42" r:id="rId295" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
-    <hyperlink ref="C42" r:id="rId296" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
-    <hyperlink ref="B43" r:id="rId297" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
-    <hyperlink ref="C43" r:id="rId298" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
-    <hyperlink ref="B44" r:id="rId299" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
-    <hyperlink ref="C44" r:id="rId300" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
-    <hyperlink ref="B45" r:id="rId301" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
-    <hyperlink ref="C45" r:id="rId302" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
-    <hyperlink ref="B46" r:id="rId303" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
-    <hyperlink ref="C46" r:id="rId304" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
-    <hyperlink ref="B47" r:id="rId305" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
-    <hyperlink ref="C47" r:id="rId306" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
-    <hyperlink ref="B49" r:id="rId307" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
-    <hyperlink ref="C49" r:id="rId308" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
-    <hyperlink ref="B50" r:id="rId309" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
-    <hyperlink ref="C50" r:id="rId310" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
-    <hyperlink ref="B51" r:id="rId311" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
-    <hyperlink ref="C51" r:id="rId312" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
-    <hyperlink ref="B52" r:id="rId313" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
-    <hyperlink ref="C52" r:id="rId314" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
-    <hyperlink ref="B53" r:id="rId315" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
-    <hyperlink ref="C53" r:id="rId316" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
-    <hyperlink ref="B54" r:id="rId317" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
-    <hyperlink ref="C54" r:id="rId318" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
-    <hyperlink ref="B55" r:id="rId319" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
-    <hyperlink ref="C55" r:id="rId320" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
-    <hyperlink ref="B56" r:id="rId321" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
-    <hyperlink ref="C56" r:id="rId322" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
-    <hyperlink ref="B57" r:id="rId323" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
-    <hyperlink ref="C57" r:id="rId324" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
-    <hyperlink ref="B59" r:id="rId325" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
-    <hyperlink ref="C59" r:id="rId326" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
-    <hyperlink ref="B60" r:id="rId327" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
-    <hyperlink ref="C60" r:id="rId328" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
-    <hyperlink ref="B61" r:id="rId329" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
-    <hyperlink ref="C61" r:id="rId330" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
-    <hyperlink ref="B62" r:id="rId331" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
-    <hyperlink ref="C62" r:id="rId332" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
-    <hyperlink ref="B63" r:id="rId333" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
-    <hyperlink ref="C63" r:id="rId334" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
-    <hyperlink ref="B65" r:id="rId335" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
-    <hyperlink ref="C65" r:id="rId336" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
-    <hyperlink ref="B66" r:id="rId337" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
-    <hyperlink ref="C66" r:id="rId338" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
-    <hyperlink ref="B67" r:id="rId339" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
-    <hyperlink ref="C67" r:id="rId340" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B223" r:id="rId341" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C223" r:id="rId342" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B224" r:id="rId343" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C224" r:id="rId344" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B225" r:id="rId345" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C225" r:id="rId346" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
-    <hyperlink ref="B227" r:id="rId347" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
-    <hyperlink ref="C227" r:id="rId348" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
-    <hyperlink ref="B233" r:id="rId349" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
-    <hyperlink ref="C233" r:id="rId350" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
-    <hyperlink ref="B232" r:id="rId351" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
-    <hyperlink ref="C232" r:id="rId352" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
-    <hyperlink ref="B234" r:id="rId353" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
-    <hyperlink ref="C234" r:id="rId354" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
-    <hyperlink ref="B239" r:id="rId355" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
-    <hyperlink ref="C239" r:id="rId356" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
-    <hyperlink ref="B240" r:id="rId357" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
-    <hyperlink ref="C240" r:id="rId358" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
-    <hyperlink ref="B241" r:id="rId359" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
-    <hyperlink ref="C241" r:id="rId360" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
-    <hyperlink ref="B242" r:id="rId361" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
-    <hyperlink ref="C242" r:id="rId362" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
-    <hyperlink ref="B243" r:id="rId363" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
-    <hyperlink ref="C243" r:id="rId364" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
-    <hyperlink ref="B244" r:id="rId365" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
-    <hyperlink ref="C244" r:id="rId366" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
-    <hyperlink ref="B245" r:id="rId367" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
-    <hyperlink ref="C245" r:id="rId368" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
-    <hyperlink ref="B246" r:id="rId369" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
-    <hyperlink ref="C246" r:id="rId370" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
-    <hyperlink ref="B247" r:id="rId371" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
-    <hyperlink ref="C247" r:id="rId372" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
-    <hyperlink ref="B248" r:id="rId373" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
-    <hyperlink ref="C248" r:id="rId374" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
-    <hyperlink ref="B249" r:id="rId375" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
-    <hyperlink ref="C249" r:id="rId376" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
-    <hyperlink ref="B250" r:id="rId377" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
-    <hyperlink ref="C250" r:id="rId378" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
-    <hyperlink ref="B251" r:id="rId379" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
-    <hyperlink ref="C251" r:id="rId380" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
-    <hyperlink ref="B252" r:id="rId381" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
-    <hyperlink ref="C252" r:id="rId382" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
-    <hyperlink ref="B253" r:id="rId383" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
-    <hyperlink ref="C253" r:id="rId384" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
-    <hyperlink ref="B254" r:id="rId385" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
-    <hyperlink ref="C254" r:id="rId386" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
-    <hyperlink ref="B255" r:id="rId387" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
+    <hyperlink ref="B126" r:id="rId1" display="https://leetcode.com/problems/permutation-sequence/description/" xr:uid="{7470F00A-0C28-9542-8BB8-840C29E37DA8}"/>
+    <hyperlink ref="C126" r:id="rId2" display="https://cspiration.com/login" xr:uid="{E339835C-3FF5-154D-83A5-D922A203F2B3}"/>
+    <hyperlink ref="B127" r:id="rId3" display="https://leetcode.com/problems/word-pattern-ii/description/" xr:uid="{475D2E19-9E2A-5A40-9967-744727496941}"/>
+    <hyperlink ref="C127" r:id="rId4" display="https://cspiration.com/login" xr:uid="{EE42A40A-13BC-BE4B-A326-E559CD4D7078}"/>
+    <hyperlink ref="B128" r:id="rId5" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/" xr:uid="{8410A8D8-2A96-2545-A707-B152E3483747}"/>
+    <hyperlink ref="C128" r:id="rId6" display="https://cspiration.com/login" xr:uid="{36FD5254-8C9A-0E48-AFDE-6B5494DFC976}"/>
+    <hyperlink ref="B129" r:id="rId7" display="https://leetcode.com/problems/generalized-abbreviation/description/" xr:uid="{A694FCD3-9DE6-C040-AE34-B16162B92776}"/>
+    <hyperlink ref="C129" r:id="rId8" display="https://cspiration.com/login" xr:uid="{C42B1CFF-4402-C94B-A66E-E0E82DDAA67D}"/>
+    <hyperlink ref="B130" r:id="rId9" display="https://leetcode.com/problems/expression-add-operators/description/" xr:uid="{C3D6AF2C-B408-D844-B031-4DA29F73A880}"/>
+    <hyperlink ref="C130" r:id="rId10" display="https://cspiration.com/login" xr:uid="{5902E035-85D4-EF41-889F-43801918206D}"/>
+    <hyperlink ref="B131" r:id="rId11" display="https://leetcode.com/problems/word-break-ii/description/" xr:uid="{C875713A-B2BF-C74B-AF74-39845CD139B9}"/>
+    <hyperlink ref="C131" r:id="rId12" display="https://cspiration.com/login" xr:uid="{05136ABA-F832-6444-9448-22BAD9D990D5}"/>
+    <hyperlink ref="B132" r:id="rId13" display="https://leetcode.com/problems/android-unlock-patterns/description/" xr:uid="{D4D2A625-1C06-594E-9061-782BDAF31A24}"/>
+    <hyperlink ref="B138" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/description/" xr:uid="{EBAE420C-2F6E-2947-9A9A-EC2C6413488B}"/>
+    <hyperlink ref="C138" r:id="rId15" display="https://cspiration.com/login" xr:uid="{1553DB48-9774-2A44-8A95-6A09994C2802}"/>
+    <hyperlink ref="B139" r:id="rId16" display="https://leetcode.com/problems/unique-paths/description/" xr:uid="{95F59D7D-71AD-9C45-8332-BEEF446345DD}"/>
+    <hyperlink ref="C139" r:id="rId17" display="https://cspiration.com/login" xr:uid="{B50BC24B-E5ED-224E-BBD2-FEDB59A4B9C8}"/>
+    <hyperlink ref="B140" r:id="rId18" display="https://leetcode.com/problems/unique-paths-ii/description/" xr:uid="{3C785738-AF2C-7D49-A676-40642165F7E9}"/>
+    <hyperlink ref="C140" r:id="rId19" display="https://cspiration.com/login" xr:uid="{D139F891-E2F5-8A4E-845C-1152D649243B}"/>
+    <hyperlink ref="B141" r:id="rId20" display="https://leetcode.com/problems/perfect-squares/description/" xr:uid="{F1E40C95-00F8-2849-9001-A228CD479539}"/>
+    <hyperlink ref="C141" r:id="rId21" display="https://cspiration.com/login" xr:uid="{3D8A92E9-FB93-4E49-B14B-A18B499D0787}"/>
+    <hyperlink ref="B142" r:id="rId22" display="https://leetcode.com/problems/word-break/" xr:uid="{1C41DBB7-6CCE-FD4D-A267-F78FE233940D}"/>
+    <hyperlink ref="C142" r:id="rId23" display="https://cspiration.com/login" xr:uid="{CDE6F565-251B-2E45-9223-1D578CC89854}"/>
+    <hyperlink ref="B143" r:id="rId24" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/description/" xr:uid="{415C0B92-011D-5446-AA9F-D55206245A9E}"/>
+    <hyperlink ref="C143" r:id="rId25" display="https://cspiration.com/login" xr:uid="{6342F0B5-FAE1-9549-B0EB-BA4B9151C6A6}"/>
+    <hyperlink ref="B144" r:id="rId26" display="https://leetcode.com/problems/burst-balloons/description/" xr:uid="{462BC2C3-5EF9-0B45-B0B5-AD50E1D72B3E}"/>
+    <hyperlink ref="C144" r:id="rId27" display="https://cspiration.com/login" xr:uid="{7CC75275-A0BF-C447-8C55-0AB512699970}"/>
+    <hyperlink ref="B145" r:id="rId28" display="https://leetcode.com/problems/coin-change/description/" xr:uid="{4751D5B9-78E7-1647-A94D-B787C4C6DAC8}"/>
+    <hyperlink ref="C145" r:id="rId29" display="https://cspiration.com/login" xr:uid="{28C04F21-7959-C243-A6A5-4EEA9824A11F}"/>
+    <hyperlink ref="B147" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
+    <hyperlink ref="C147" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
+    <hyperlink ref="B148" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
+    <hyperlink ref="C148" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
+    <hyperlink ref="B149" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
+    <hyperlink ref="C149" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
+    <hyperlink ref="B150" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
+    <hyperlink ref="C150" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
+    <hyperlink ref="B151" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
+    <hyperlink ref="C151" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
+    <hyperlink ref="B152" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
+    <hyperlink ref="C152" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
+    <hyperlink ref="B153" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
+    <hyperlink ref="C153" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
+    <hyperlink ref="B154" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
+    <hyperlink ref="C154" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
+    <hyperlink ref="B155" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
+    <hyperlink ref="C155" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
+    <hyperlink ref="B157" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
+    <hyperlink ref="C157" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
+    <hyperlink ref="B158" display="House Robber II" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
+    <hyperlink ref="C158" r:id="rId50" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
+    <hyperlink ref="B159" r:id="rId51" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
+    <hyperlink ref="C159" r:id="rId52" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
+    <hyperlink ref="B160" r:id="rId53" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
+    <hyperlink ref="C160" r:id="rId54" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
+    <hyperlink ref="B161" r:id="rId55" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
+    <hyperlink ref="C161" r:id="rId56" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
+    <hyperlink ref="B162" r:id="rId57" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
+    <hyperlink ref="B168" r:id="rId58" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
+    <hyperlink ref="C168" r:id="rId59" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
+    <hyperlink ref="B169" r:id="rId60" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
+    <hyperlink ref="C169" r:id="rId61" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
+    <hyperlink ref="B170" r:id="rId62" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
+    <hyperlink ref="C170" r:id="rId63" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
+    <hyperlink ref="B171" r:id="rId64" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
+    <hyperlink ref="C171" r:id="rId65" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
+    <hyperlink ref="B172" r:id="rId66" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
+    <hyperlink ref="C172" r:id="rId67" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
+    <hyperlink ref="B173" r:id="rId68" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
+    <hyperlink ref="C173" r:id="rId69" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
+    <hyperlink ref="B174" r:id="rId70" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
+    <hyperlink ref="C174" r:id="rId71" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
+    <hyperlink ref="B175" r:id="rId72" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
+    <hyperlink ref="C175" r:id="rId73" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
+    <hyperlink ref="B176" r:id="rId74" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
+    <hyperlink ref="C176" r:id="rId75" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
+    <hyperlink ref="B177" r:id="rId76" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
+    <hyperlink ref="C177" r:id="rId77" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
+    <hyperlink ref="B178" r:id="rId78" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
+    <hyperlink ref="C178" r:id="rId79" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
+    <hyperlink ref="B179" r:id="rId80" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
+    <hyperlink ref="C179" r:id="rId81" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
+    <hyperlink ref="B180" r:id="rId82" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
+    <hyperlink ref="C180" r:id="rId83" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
+    <hyperlink ref="B181" r:id="rId84" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
+    <hyperlink ref="C181" r:id="rId85" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
+    <hyperlink ref="B183" r:id="rId86" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
+    <hyperlink ref="C183" r:id="rId87" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
+    <hyperlink ref="B184" r:id="rId88" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
+    <hyperlink ref="C184" r:id="rId89" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
+    <hyperlink ref="B185" r:id="rId90" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
+    <hyperlink ref="C185" r:id="rId91" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
+    <hyperlink ref="B186" r:id="rId92" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
+    <hyperlink ref="C186" r:id="rId93" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
+    <hyperlink ref="B187" r:id="rId94" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
+    <hyperlink ref="C187" r:id="rId95" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
+    <hyperlink ref="B188" r:id="rId96" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
+    <hyperlink ref="C188" r:id="rId97" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
+    <hyperlink ref="B189" r:id="rId98" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
+    <hyperlink ref="C189" r:id="rId99" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
+    <hyperlink ref="B190" r:id="rId100" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
+    <hyperlink ref="C190" r:id="rId101" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
+    <hyperlink ref="B191" r:id="rId102" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
+    <hyperlink ref="B196" r:id="rId103" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
+    <hyperlink ref="C196" r:id="rId104" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
+    <hyperlink ref="B197" r:id="rId105" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
+    <hyperlink ref="C197" r:id="rId106" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
+    <hyperlink ref="B198" r:id="rId107" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
+    <hyperlink ref="C198" r:id="rId108" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
+    <hyperlink ref="B199" r:id="rId109" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
+    <hyperlink ref="C199" r:id="rId110" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
+    <hyperlink ref="B200" r:id="rId111" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
+    <hyperlink ref="C200" r:id="rId112" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
+    <hyperlink ref="B201" r:id="rId113" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
+    <hyperlink ref="C201" r:id="rId114" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
+    <hyperlink ref="B203" r:id="rId115" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
+    <hyperlink ref="C203" r:id="rId116" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
+    <hyperlink ref="B204" r:id="rId117" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
+    <hyperlink ref="C204" r:id="rId118" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
+    <hyperlink ref="B202" r:id="rId119" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
+    <hyperlink ref="B210" r:id="rId120" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
+    <hyperlink ref="C210" r:id="rId121" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
+    <hyperlink ref="B211" r:id="rId122" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
+    <hyperlink ref="C211" r:id="rId123" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
+    <hyperlink ref="B212" r:id="rId124" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
+    <hyperlink ref="B80" r:id="rId125" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
+    <hyperlink ref="C80" r:id="rId126" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
+    <hyperlink ref="B82" r:id="rId127" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
+    <hyperlink ref="C82" r:id="rId128" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
+    <hyperlink ref="B83" r:id="rId129" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
+    <hyperlink ref="C83" r:id="rId130" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
+    <hyperlink ref="B84" r:id="rId131" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
+    <hyperlink ref="C84" r:id="rId132" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
+    <hyperlink ref="B85" r:id="rId133" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
+    <hyperlink ref="C85" r:id="rId134" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
+    <hyperlink ref="B86" r:id="rId135" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
+    <hyperlink ref="C86" r:id="rId136" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
+    <hyperlink ref="B87" r:id="rId137" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
+    <hyperlink ref="C87" r:id="rId138" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
+    <hyperlink ref="B89" r:id="rId139" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
+    <hyperlink ref="C89" r:id="rId140" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
+    <hyperlink ref="B90" r:id="rId141" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
+    <hyperlink ref="C90" r:id="rId142" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
+    <hyperlink ref="B91" r:id="rId143" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
+    <hyperlink ref="C91" r:id="rId144" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
+    <hyperlink ref="B93" r:id="rId145" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
+    <hyperlink ref="C93" r:id="rId146" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
+    <hyperlink ref="B94" r:id="rId147" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
+    <hyperlink ref="C94" r:id="rId148" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
+    <hyperlink ref="B95" r:id="rId149" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
+    <hyperlink ref="C95" r:id="rId150" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
+    <hyperlink ref="B96" r:id="rId151" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
+    <hyperlink ref="C96" r:id="rId152" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
+    <hyperlink ref="B97" r:id="rId153" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
+    <hyperlink ref="C97" r:id="rId154" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
+    <hyperlink ref="B98" r:id="rId155" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
+    <hyperlink ref="C98" r:id="rId156" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
+    <hyperlink ref="B99" r:id="rId157" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
+    <hyperlink ref="C99" r:id="rId158" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
+    <hyperlink ref="B100" r:id="rId159" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
+    <hyperlink ref="C100" r:id="rId160" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
+    <hyperlink ref="B101" r:id="rId161" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
+    <hyperlink ref="C101" r:id="rId162" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
+    <hyperlink ref="B102" r:id="rId163" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
+    <hyperlink ref="C102" r:id="rId164" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
+    <hyperlink ref="B103" r:id="rId165" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
+    <hyperlink ref="C103" r:id="rId166" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
+    <hyperlink ref="B104" r:id="rId167" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
+    <hyperlink ref="C104" r:id="rId168" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
+    <hyperlink ref="B106" r:id="rId169" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
+    <hyperlink ref="C106" r:id="rId170" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
+    <hyperlink ref="B107" r:id="rId171" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
+    <hyperlink ref="C107" r:id="rId172" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
+    <hyperlink ref="B108" r:id="rId173" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
+    <hyperlink ref="C108" r:id="rId174" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
+    <hyperlink ref="B109" r:id="rId175" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
+    <hyperlink ref="C109" r:id="rId176" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
+    <hyperlink ref="B115" r:id="rId177" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
+    <hyperlink ref="C115" r:id="rId178" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
+    <hyperlink ref="B116" r:id="rId179" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
+    <hyperlink ref="C116" r:id="rId180" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
+    <hyperlink ref="B117" r:id="rId181" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
+    <hyperlink ref="C117" r:id="rId182" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
+    <hyperlink ref="B118" r:id="rId183" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
+    <hyperlink ref="C118" r:id="rId184" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
+    <hyperlink ref="B119" r:id="rId185" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
+    <hyperlink ref="C119" r:id="rId186" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
+    <hyperlink ref="B120" r:id="rId187" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
+    <hyperlink ref="C120" r:id="rId188" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
+    <hyperlink ref="B121" r:id="rId189" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
+    <hyperlink ref="C121" r:id="rId190" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
+    <hyperlink ref="B122" r:id="rId191" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
+    <hyperlink ref="C122" r:id="rId192" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
+    <hyperlink ref="B123" r:id="rId193" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
+    <hyperlink ref="C123" r:id="rId194" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
+    <hyperlink ref="B124" r:id="rId195" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
+    <hyperlink ref="C124" r:id="rId196" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
+    <hyperlink ref="B125" r:id="rId197" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
+    <hyperlink ref="C125" r:id="rId198" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
+    <hyperlink ref="C79" r:id="rId199" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
+    <hyperlink ref="B79" r:id="rId200" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
+    <hyperlink ref="C78" r:id="rId201" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
+    <hyperlink ref="B78" r:id="rId202" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
+    <hyperlink ref="C77" r:id="rId203" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
+    <hyperlink ref="B77" r:id="rId204" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
+    <hyperlink ref="C76" r:id="rId205" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
+    <hyperlink ref="B76" r:id="rId206" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
+    <hyperlink ref="C75" r:id="rId207" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
+    <hyperlink ref="B75" r:id="rId208" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
+    <hyperlink ref="C74" r:id="rId209" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
+    <hyperlink ref="B74" r:id="rId210" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
+    <hyperlink ref="C73" r:id="rId211" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
+    <hyperlink ref="B73" r:id="rId212" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
+    <hyperlink ref="C72" r:id="rId213" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
+    <hyperlink ref="B72" r:id="rId214" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
+    <hyperlink ref="C70" r:id="rId215" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
+    <hyperlink ref="B70" r:id="rId216" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
+    <hyperlink ref="C69" r:id="rId217" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
+    <hyperlink ref="B69" r:id="rId218" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
+    <hyperlink ref="C68" r:id="rId219" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
+    <hyperlink ref="B68" r:id="rId220" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
+    <hyperlink ref="C67" r:id="rId221" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
+    <hyperlink ref="B67" r:id="rId222" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
+    <hyperlink ref="B2" r:id="rId223" display="https://leetcode.com/problems/implement-strstr/description/" xr:uid="{D540EA7C-EB08-D54A-8BA0-D2BF3C8D7159}"/>
+    <hyperlink ref="C2" r:id="rId224" display="https://cspiration.com/login" xr:uid="{8D4BEA64-F28F-194D-9BCA-1A1995FE751F}"/>
+    <hyperlink ref="B3" r:id="rId225" display="https://leetcode.com/problems/longest-common-prefix/description/" xr:uid="{4B66E93E-437A-C447-9D2D-14431C4B5C0D}"/>
+    <hyperlink ref="C3" r:id="rId226" display="https://cspiration.com/login" xr:uid="{4EDAA73E-B4E4-4A4D-A1A3-B1BF3B641930}"/>
+    <hyperlink ref="B4" r:id="rId227" display="https://leetcode.com/problems/length-of-last-word/description/" xr:uid="{D114781F-CCE8-1B4D-B130-1F8DAA81F929}"/>
+    <hyperlink ref="C4" r:id="rId228" display="https://cspiration.com/login" xr:uid="{D4837917-968A-1A47-A565-F2D02413B704}"/>
+    <hyperlink ref="B5" r:id="rId229" display="https://leetcode.com/problems/first-unique-character-in-a-string/description/" xr:uid="{C04F5C5C-DEE3-C44F-A74F-52C26D3F2FE9}"/>
+    <hyperlink ref="C5" r:id="rId230" display="https://cspiration.com/login" xr:uid="{83C1DBA7-7A1A-3942-8BBB-A55279A4114D}"/>
+    <hyperlink ref="B6" r:id="rId231" display="https://leetcode.com/problems/ransom-note/description/" xr:uid="{3D768C37-76A3-EB41-8CAF-A61CD430D930}"/>
+    <hyperlink ref="C6" r:id="rId232" display="https://cspiration.com/login" xr:uid="{295DA0DD-097C-494D-985C-0351F936CFAE}"/>
+    <hyperlink ref="B7" r:id="rId233" display="https://leetcode.com/problems/reverse-string/description/" xr:uid="{968C8B06-BC69-2343-84F4-4279FF45A33D}"/>
+    <hyperlink ref="C7" r:id="rId234" display="https://cspiration.com/login" xr:uid="{EF9807D4-7B95-6744-A12B-C9E96455C37F}"/>
+    <hyperlink ref="B8" r:id="rId235" display="https://leetcode.com/problems/reverse-words-in-a-string/description/" xr:uid="{E5D0091E-BD36-1849-86C4-AD6193E4DBF8}"/>
+    <hyperlink ref="C8" r:id="rId236" display="https://cspiration.com/login" xr:uid="{F3144B11-0907-9247-B034-3BE234EB0031}"/>
+    <hyperlink ref="B9" r:id="rId237" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/description/" xr:uid="{20ACD6E3-C0D3-DC40-A581-E5A1DD349E75}"/>
+    <hyperlink ref="C9" r:id="rId238" display="https://cspiration.com/login" xr:uid="{25731BF2-9D7D-2F47-8B04-2B971F79A6E7}"/>
+    <hyperlink ref="B10" r:id="rId239" display="https://leetcode.com/problems/reverse-vowels-of-a-string/description/" xr:uid="{03F64371-9FC5-6442-9F75-1D34AF197ECA}"/>
+    <hyperlink ref="C10" r:id="rId240" display="https://cspiration.com/login" xr:uid="{C8F12AB4-19EE-6143-BDA7-15328C7DA50A}"/>
+    <hyperlink ref="B11" r:id="rId241" display="https://leetcode.com/problems/isomorphic-strings/description/" xr:uid="{069B1397-F0EF-0645-8828-263251550008}"/>
+    <hyperlink ref="C11" r:id="rId242" display="https://cspiration.com/login" xr:uid="{F49DA318-AFE5-E94E-B520-D86A38E11102}"/>
+    <hyperlink ref="B12" r:id="rId243" display="https://leetcode.com/problems/flip-game/description/" xr:uid="{E38920AC-6E84-564B-B8BA-17E7F9BFDDBD}"/>
+    <hyperlink ref="C12" r:id="rId244" display="https://cspiration.com/login" xr:uid="{F52B4708-49AD-4244-B763-FD44230220CC}"/>
+    <hyperlink ref="B13" r:id="rId245" display="https://leetcode.com/problems/flip-game-ii/description/" xr:uid="{B57E6DAA-DB1C-9D49-A5F5-9A1DDBE07E8C}"/>
+    <hyperlink ref="C13" r:id="rId246" display="https://cspiration.com/login" xr:uid="{60004F03-7CA3-7A49-A7B7-7A595C09CD21}"/>
+    <hyperlink ref="B14" r:id="rId247" display="https://leetcode.com/problems/word-pattern/description/" xr:uid="{8A917EDD-4C17-0C4F-8EB3-0D2A69CF7E2D}"/>
+    <hyperlink ref="C14" r:id="rId248" display="https://cspiration.com/login" xr:uid="{D90BE585-BB70-8F4E-9C42-7DABEA1EE154}"/>
+    <hyperlink ref="B15" r:id="rId249" display="https://leetcode.com/problems/valid-anagram/description/" xr:uid="{6A427A47-B738-1B47-B40C-0720744F00EB}"/>
+    <hyperlink ref="C15" r:id="rId250" display="https://cspiration.com/login" xr:uid="{FBEBF316-2770-0D4C-AD03-785C42541C3B}"/>
+    <hyperlink ref="B16" r:id="rId251" display="https://leetcode.com/problems/group-anagrams/description/" xr:uid="{912892C7-059C-B142-AD7B-1AC6617F6F3C}"/>
+    <hyperlink ref="C16" r:id="rId252" display="https://cspiration.com/login" xr:uid="{C8C9E0D7-A9FC-7849-BE2F-7412ACBD95EC}"/>
+    <hyperlink ref="B17" r:id="rId253" display="https://leetcode.com/problems/group-shifted-strings/description/" xr:uid="{F88F7380-745F-2542-891F-D8189D659014}"/>
+    <hyperlink ref="C17" r:id="rId254" display="https://cspiration.com/login" xr:uid="{5AEB76A3-0CB4-724C-B27E-A5D3084DED56}"/>
+    <hyperlink ref="B18" r:id="rId255" display="https://leetcode.com/problems/scramble-string/description/" xr:uid="{8E7AE0F9-60C3-6C44-93A5-7BCE475FE65D}"/>
+    <hyperlink ref="C18" r:id="rId256" display="https://cspiration.com/login" xr:uid="{B897081C-536E-124F-B44D-E65CD2DAE73A}"/>
+    <hyperlink ref="B19" r:id="rId257" display="https://leetcode.com/problems/one-edit-distance/" xr:uid="{709E24AB-4569-5E4E-B354-741841D8A3CF}"/>
+    <hyperlink ref="C19" r:id="rId258" display="https://cspiration.com/login" xr:uid="{B27AAEDC-0D30-2646-990A-5B2240B5DC3E}"/>
+    <hyperlink ref="B20" r:id="rId259" display="https://leetcode.com/problems/count-and-say/description/" xr:uid="{039EF842-D3DA-4B46-83A0-B0AE9E3B77E9}"/>
+    <hyperlink ref="C20" r:id="rId260" display="https://cspiration.com/login" xr:uid="{114602C0-CFEF-E04D-AF79-28A290AD5151}"/>
+    <hyperlink ref="B21" r:id="rId261" display="https://leetcode.com/problems/rearrange-string-k-distance-apart/description/" xr:uid="{766E9D85-1888-2C4C-84BF-92C503F606F4}"/>
+    <hyperlink ref="C21" r:id="rId262" display="https://cspiration.com/login" xr:uid="{6C5848D4-F1A3-5E43-A18B-3EF386A88DB8}"/>
+    <hyperlink ref="B22" r:id="rId263" display="https://leetcode.com/problems/remove-duplicate-letters/description/" xr:uid="{41E9DFCB-F0F7-F142-B5A6-FD4B7DBC4BBA}"/>
+    <hyperlink ref="C22" r:id="rId264" display="https://cspiration.com/login" xr:uid="{DF13B8AA-9303-BE4C-9CE0-D00E513A3293}"/>
+    <hyperlink ref="B23" r:id="rId265" display="https://leetcode.com/problems/encode-and-decode-strings/description/" xr:uid="{25875E62-4A7E-D442-92FC-3F95DFABD8D2}"/>
+    <hyperlink ref="C23" r:id="rId266" display="https://cspiration.com/login" xr:uid="{FAFD0B63-78CD-8E4D-A1CA-07E70CC0FFBA}"/>
+    <hyperlink ref="B24" r:id="rId267" display="https://leetcode.com/problems/excel-sheet-column-title/description/" xr:uid="{7BC754D8-E75A-8B44-AD1B-7A259C99BFC0}"/>
+    <hyperlink ref="C24" r:id="rId268" display="https://cspiration.com/login" xr:uid="{39D15FCE-65DE-5B4E-9BC0-B864C6EAC70B}"/>
+    <hyperlink ref="B25" r:id="rId269" display="https://leetcode.com/problems/excel-sheet-column-number/description/" xr:uid="{EE4C5B10-4ED2-8B46-B331-B687A0FC87CC}"/>
+    <hyperlink ref="C25" r:id="rId270" display="https://cspiration.com/login" xr:uid="{68673230-A15D-DF41-9113-C0EC2A891D82}"/>
+    <hyperlink ref="B26" r:id="rId271" display="https://leetcode.com/problems/roman-to-integer/description/" xr:uid="{3A2D8E6F-706D-5F42-8F12-6FDA83EDF015}"/>
+    <hyperlink ref="C26" r:id="rId272" display="https://cspiration.com/login" xr:uid="{A78FD53F-C3F7-174F-89F5-6A7F81AD86FB}"/>
+    <hyperlink ref="B27" r:id="rId273" display="https://leetcode.com/problems/integer-to-roman/description/" xr:uid="{EAE13DA7-A7CC-0045-9D4E-D3845B1D351A}"/>
+    <hyperlink ref="C27" r:id="rId274" display="https://cspiration.com/login" xr:uid="{1E917630-0E9A-CA44-B4D0-335D33B3DAD4}"/>
+    <hyperlink ref="B28" r:id="rId275" display="https://leetcode.com/problems/integer-to-english-words/description/" xr:uid="{E03F80C1-D861-5147-9CCC-8EBDA45C5F84}"/>
+    <hyperlink ref="C28" r:id="rId276" display="https://cspiration.com/login" xr:uid="{C8915A28-36A3-8D4D-A5D8-B28C51E8A13B}"/>
+    <hyperlink ref="B29" r:id="rId277" display="https://leetcode.com/problems/strobogrammatic-number/description/" xr:uid="{072EA103-1AA4-6D4D-A811-07E7EFC53754}"/>
+    <hyperlink ref="C29" r:id="rId278" display="https://cspiration.com/login" xr:uid="{118BB6D1-D892-1D4A-A278-CEBA454174C9}"/>
+    <hyperlink ref="B30" r:id="rId279" display="https://leetcode.com/problems/strobogrammatic-number-ii/description/" xr:uid="{17DD45CF-4F79-9A48-A172-DF78FFE2BAFD}"/>
+    <hyperlink ref="C30" r:id="rId280" display="https://cspiration.com/login" xr:uid="{6E8396B6-84C6-7E48-AA73-CE7E9B901407}"/>
+    <hyperlink ref="B32" r:id="rId281" display="https://leetcode.com/problems/read-n-characters-given-read4/description/" xr:uid="{D18F3004-120C-9749-96EA-DA48816C8D97}"/>
+    <hyperlink ref="C32" r:id="rId282" display="https://cspiration.com/login" xr:uid="{D09C3F94-1D2B-AA4B-91A4-5F1C1C29C741}"/>
+    <hyperlink ref="B33" r:id="rId283" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/" xr:uid="{C10019EB-7182-1D47-B84E-E88E23C5D8FA}"/>
+    <hyperlink ref="C33" r:id="rId284" display="https://cspiration.com/login" xr:uid="{F5ACF2D2-A531-424B-B3CF-993B83A1F7FB}"/>
+    <hyperlink ref="B34" r:id="rId285" display="https://leetcode.com/problems/text-justification/description/" xr:uid="{BFE3B433-B31C-CC4A-B33B-40E03920BB14}"/>
+    <hyperlink ref="C34" r:id="rId286" display="https://cspiration.com/login" xr:uid="{2F20FF9D-1F78-994B-9CE5-4B009BFBECC5}"/>
+    <hyperlink ref="B35" r:id="rId287" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{5B3E385E-B11A-C64D-8285-B8177A8BCDA4}"/>
+    <hyperlink ref="C35" r:id="rId288" display="https://cspiration.com/login" xr:uid="{B24A14A7-52F4-E249-B609-37F1D91D19AF}"/>
+    <hyperlink ref="B37" r:id="rId289" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
+    <hyperlink ref="C37" r:id="rId290" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
+    <hyperlink ref="B38" r:id="rId291" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
+    <hyperlink ref="C38" r:id="rId292" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
+    <hyperlink ref="B39" r:id="rId293" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
+    <hyperlink ref="C39" r:id="rId294" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
+    <hyperlink ref="B40" r:id="rId295" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
+    <hyperlink ref="C40" r:id="rId296" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
+    <hyperlink ref="B41" r:id="rId297" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
+    <hyperlink ref="C41" r:id="rId298" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
+    <hyperlink ref="B42" r:id="rId299" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
+    <hyperlink ref="C42" r:id="rId300" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
+    <hyperlink ref="B44" r:id="rId301" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
+    <hyperlink ref="C44" r:id="rId302" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
+    <hyperlink ref="B45" r:id="rId303" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
+    <hyperlink ref="C45" r:id="rId304" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
+    <hyperlink ref="B46" r:id="rId305" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
+    <hyperlink ref="C46" r:id="rId306" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
+    <hyperlink ref="B47" r:id="rId307" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
+    <hyperlink ref="C47" r:id="rId308" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
+    <hyperlink ref="B48" r:id="rId309" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
+    <hyperlink ref="C48" r:id="rId310" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
+    <hyperlink ref="B49" r:id="rId311" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
+    <hyperlink ref="C49" r:id="rId312" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
+    <hyperlink ref="B50" r:id="rId313" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
+    <hyperlink ref="C50" r:id="rId314" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
+    <hyperlink ref="B51" r:id="rId315" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
+    <hyperlink ref="C51" r:id="rId316" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
+    <hyperlink ref="B52" r:id="rId317" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
+    <hyperlink ref="C52" r:id="rId318" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
+    <hyperlink ref="B54" r:id="rId319" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
+    <hyperlink ref="C54" r:id="rId320" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
+    <hyperlink ref="B55" r:id="rId321" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
+    <hyperlink ref="C55" r:id="rId322" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
+    <hyperlink ref="B56" r:id="rId323" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
+    <hyperlink ref="C56" r:id="rId324" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
+    <hyperlink ref="B57" r:id="rId325" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
+    <hyperlink ref="C57" r:id="rId326" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
+    <hyperlink ref="B58" r:id="rId327" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
+    <hyperlink ref="C58" r:id="rId328" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
+    <hyperlink ref="B60" r:id="rId329" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
+    <hyperlink ref="C60" r:id="rId330" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
+    <hyperlink ref="B61" r:id="rId331" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
+    <hyperlink ref="C61" r:id="rId332" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
+    <hyperlink ref="B62" r:id="rId333" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
+    <hyperlink ref="C62" r:id="rId334" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
+    <hyperlink ref="B218" r:id="rId335" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
+    <hyperlink ref="C218" r:id="rId336" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
+    <hyperlink ref="B219" r:id="rId337" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
+    <hyperlink ref="C219" r:id="rId338" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
+    <hyperlink ref="B220" r:id="rId339" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
+    <hyperlink ref="C220" r:id="rId340" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B222" r:id="rId341" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
+    <hyperlink ref="C222" r:id="rId342" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
+    <hyperlink ref="B228" r:id="rId343" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
+    <hyperlink ref="C228" r:id="rId344" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
+    <hyperlink ref="B227" r:id="rId345" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
+    <hyperlink ref="C227" r:id="rId346" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
+    <hyperlink ref="B229" r:id="rId347" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
+    <hyperlink ref="C229" r:id="rId348" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B234" r:id="rId349" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
+    <hyperlink ref="C234" r:id="rId350" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
+    <hyperlink ref="B235" r:id="rId351" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
+    <hyperlink ref="C235" r:id="rId352" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
+    <hyperlink ref="B236" r:id="rId353" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
+    <hyperlink ref="C236" r:id="rId354" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
+    <hyperlink ref="B237" r:id="rId355" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
+    <hyperlink ref="C237" r:id="rId356" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
+    <hyperlink ref="B238" r:id="rId357" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
+    <hyperlink ref="C238" r:id="rId358" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
+    <hyperlink ref="B239" r:id="rId359" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
+    <hyperlink ref="C239" r:id="rId360" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
+    <hyperlink ref="B240" r:id="rId361" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
+    <hyperlink ref="C240" r:id="rId362" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
+    <hyperlink ref="B241" r:id="rId363" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
+    <hyperlink ref="C241" r:id="rId364" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
+    <hyperlink ref="B242" r:id="rId365" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
+    <hyperlink ref="C242" r:id="rId366" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
+    <hyperlink ref="B243" r:id="rId367" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
+    <hyperlink ref="C243" r:id="rId368" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
+    <hyperlink ref="B244" r:id="rId369" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
+    <hyperlink ref="C244" r:id="rId370" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
+    <hyperlink ref="B245" r:id="rId371" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
+    <hyperlink ref="C245" r:id="rId372" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
+    <hyperlink ref="B246" r:id="rId373" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
+    <hyperlink ref="C246" r:id="rId374" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
+    <hyperlink ref="B247" r:id="rId375" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
+    <hyperlink ref="C247" r:id="rId376" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
+    <hyperlink ref="B248" r:id="rId377" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
+    <hyperlink ref="C248" r:id="rId378" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
+    <hyperlink ref="B249" r:id="rId379" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
+    <hyperlink ref="C249" r:id="rId380" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
+    <hyperlink ref="B250" r:id="rId381" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
+    <hyperlink ref="B257" r:id="rId382" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
+    <hyperlink ref="C257" r:id="rId383" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
+    <hyperlink ref="B258" r:id="rId384" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{156CAAE5-6351-9947-BB71-247BCB4199E4}"/>
+    <hyperlink ref="C258" r:id="rId385" display="https://cspiration.com/login" xr:uid="{B32FCD33-3793-1145-9B85-1C19988C5512}"/>
+    <hyperlink ref="B259" r:id="rId386" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{988FA989-097D-3643-AFD0-51D5DE85FC28}"/>
+    <hyperlink ref="C259" r:id="rId387" display="https://cspiration.com/login" xr:uid="{236098E8-3353-2343-96D1-B31CFD341154}"/>
+    <hyperlink ref="B260" r:id="rId388" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
+    <hyperlink ref="C260" r:id="rId389" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
+    <hyperlink ref="B261" r:id="rId390" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
+    <hyperlink ref="C261" r:id="rId391" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
+    <hyperlink ref="B262" r:id="rId392" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
+    <hyperlink ref="C262" r:id="rId393" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
+    <hyperlink ref="B263" r:id="rId394" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
+    <hyperlink ref="C263" r:id="rId395" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
+    <hyperlink ref="B264" r:id="rId396" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
+    <hyperlink ref="C264" r:id="rId397" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
+    <hyperlink ref="B265" r:id="rId398" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
+    <hyperlink ref="C265" r:id="rId399" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
+    <hyperlink ref="B266" r:id="rId400" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
+    <hyperlink ref="C266" r:id="rId401" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
+    <hyperlink ref="B267" r:id="rId402" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
+    <hyperlink ref="C267" r:id="rId403" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
+    <hyperlink ref="B269" r:id="rId404" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
+    <hyperlink ref="C269" r:id="rId405" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
+    <hyperlink ref="B270" r:id="rId406" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
+    <hyperlink ref="C270" r:id="rId407" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
+    <hyperlink ref="B271" r:id="rId408" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
+    <hyperlink ref="C271" r:id="rId409" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
+    <hyperlink ref="B272" r:id="rId410" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
+    <hyperlink ref="C272" r:id="rId411" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
+    <hyperlink ref="B273" r:id="rId412" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E89DA0-E579-4242-BE51-4CBBD11281E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5813C004-13EB-0140-A1CE-E81E93F49060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="740" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="267">
   <si>
     <t>144</t>
   </si>
@@ -787,6 +787,51 @@
   </si>
   <si>
     <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Shuffle an Array</t>
+  </si>
+  <si>
+    <t>Random Pick Index</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1) - Duplicates allowed</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
   </si>
 </sst>
 </file>
@@ -829,12 +874,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -850,10 +901,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1175,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="H265" sqref="H265"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279:B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,12 +1239,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1201,10 +1253,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1213,10 +1265,10 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1225,10 +1277,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>387</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1237,10 +1289,10 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>383</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1249,10 +1301,10 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>344</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1261,10 +1313,10 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1273,10 +1325,10 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1285,10 +1337,10 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>345</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1297,10 +1349,10 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>205</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1309,10 +1361,10 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>293</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1321,10 +1373,10 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>294</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1333,10 +1385,10 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>290</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1345,10 +1397,10 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>242</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1357,10 +1409,10 @@
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1369,10 +1421,10 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>249</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1381,10 +1433,10 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1393,10 +1445,10 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1405,10 +1457,10 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1417,10 +1469,10 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>358</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1429,10 +1481,10 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>316</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1441,10 +1493,10 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>271</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1453,10 +1505,10 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1465,10 +1517,10 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>171</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1477,10 +1529,10 @@
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1489,10 +1541,10 @@
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1501,10 +1553,10 @@
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>273</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1513,10 +1565,10 @@
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>246</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1525,10 +1577,10 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>247</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1537,18 +1589,18 @@
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1557,10 +1609,10 @@
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="7">
         <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1569,10 +1621,10 @@
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1581,10 +1633,10 @@
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1593,18 +1645,18 @@
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="7">
         <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1613,12 +1665,12 @@
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="7">
         <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1627,12 +1679,12 @@
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1641,12 +1693,12 @@
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="7">
         <v>340</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1655,12 +1707,12 @@
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="7">
         <v>395</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1669,12 +1721,12 @@
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="7">
         <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1683,20 +1735,20 @@
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>125</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1705,10 +1757,10 @@
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="7">
         <v>266</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1717,10 +1769,10 @@
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="7">
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1729,10 +1781,10 @@
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="7">
         <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1741,10 +1793,10 @@
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="7">
         <v>214</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1753,10 +1805,10 @@
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="7">
         <v>336</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1765,10 +1817,10 @@
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="7">
         <v>131</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1777,10 +1829,10 @@
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="7">
         <v>132</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1789,10 +1841,10 @@
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>267</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1801,18 +1853,18 @@
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="7">
         <v>20</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1821,10 +1873,10 @@
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="7">
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1833,10 +1885,10 @@
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="7">
         <v>32</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1845,10 +1897,10 @@
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="7">
         <v>241</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1857,10 +1909,10 @@
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="7">
         <v>301</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1869,18 +1921,18 @@
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="7">
         <v>392</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1889,10 +1941,10 @@
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="7">
         <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1901,10 +1953,10 @@
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="7">
         <v>187</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1915,19 +1967,19 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1935,7 +1987,7 @@
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -1947,7 +1999,7 @@
       <c r="A68" s="1">
         <v>94</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -1959,7 +2011,7 @@
       <c r="A69" s="1">
         <v>145</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -1971,7 +2023,7 @@
       <c r="A70" s="1">
         <v>102</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -1983,7 +2035,7 @@
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="4"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
@@ -1991,7 +2043,7 @@
       <c r="A72" s="1">
         <v>100</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2003,7 +2055,7 @@
       <c r="A73" s="1">
         <v>101</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2015,7 +2067,7 @@
       <c r="A74" s="1">
         <v>226</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2029,7 +2081,7 @@
       <c r="A75" s="1">
         <v>257</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2041,7 +2093,7 @@
       <c r="A76" s="1">
         <v>112</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2053,7 +2105,7 @@
       <c r="A77" s="1">
         <v>113</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2065,7 +2117,7 @@
       <c r="A78" s="1">
         <v>129</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2077,7 +2129,7 @@
       <c r="A79" s="1">
         <v>298</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2089,7 +2141,7 @@
       <c r="A80" s="1">
         <v>111</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2101,7 +2153,7 @@
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="4"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
@@ -2109,7 +2161,7 @@
       <c r="A82" s="1">
         <v>104</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2121,7 +2173,7 @@
       <c r="A83" s="1">
         <v>110</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2133,7 +2185,7 @@
       <c r="A84" s="1">
         <v>124</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2145,7 +2197,7 @@
       <c r="A85" s="1">
         <v>250</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2157,7 +2209,7 @@
       <c r="A86" s="1">
         <v>366</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2169,7 +2221,7 @@
       <c r="A87" s="1">
         <v>337</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2183,7 +2235,7 @@
       <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="4"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
@@ -2191,7 +2243,7 @@
       <c r="A89" s="1">
         <v>107</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2203,7 +2255,7 @@
       <c r="A90" s="1">
         <v>103</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2215,7 +2267,7 @@
       <c r="A91" s="1">
         <v>199</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2229,7 +2281,7 @@
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="4"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
@@ -2237,7 +2289,7 @@
       <c r="A93" s="1">
         <v>98</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2251,7 +2303,7 @@
       <c r="A94" s="1">
         <v>235</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2265,7 +2317,7 @@
       <c r="A95" s="1">
         <v>236</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2279,7 +2331,7 @@
       <c r="A96" s="1">
         <v>108</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -2293,7 +2345,7 @@
       <c r="A97" s="1">
         <v>109</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -2307,7 +2359,7 @@
       <c r="A98" s="1">
         <v>173</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2321,7 +2373,7 @@
       <c r="A99" s="1">
         <v>230</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -2335,7 +2387,7 @@
       <c r="A100" s="1">
         <v>297</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2349,7 +2401,7 @@
       <c r="A101" s="1">
         <v>285</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -2363,7 +2415,7 @@
       <c r="A102" s="1">
         <v>270</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -2377,7 +2429,7 @@
       <c r="A103" s="1">
         <v>272</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -2391,7 +2443,7 @@
       <c r="A104" s="1">
         <v>99</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -2405,7 +2457,7 @@
       <c r="A105" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="4"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
@@ -2413,7 +2465,7 @@
       <c r="A106" s="1">
         <v>116</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -2427,7 +2479,7 @@
       <c r="A107" s="1">
         <v>117</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -2441,7 +2493,7 @@
       <c r="A108" s="1">
         <v>314</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -2455,7 +2507,7 @@
       <c r="A109" s="1">
         <v>96</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2466,1199 +2518,1199 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="8"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="8"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="8"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="8"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="6" t="s">
+      <c r="B114" s="8"/>
+      <c r="C114" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+      <c r="A115" s="7">
         <v>78</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+      <c r="A116" s="7">
         <v>90</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
+      <c r="A117" s="7">
         <v>77</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
+      <c r="A118" s="7">
         <v>39</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
+      <c r="A119" s="7">
         <v>40</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="6"/>
+      <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
+      <c r="A120" s="7">
         <v>216</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="6"/>
+      <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+      <c r="A121" s="7">
         <v>377</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
+      <c r="A122" s="7">
         <v>254</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="6"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
+      <c r="A123" s="7">
         <v>46</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
+      <c r="A124" s="7">
         <v>47</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="6"/>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
+      <c r="A125" s="7">
         <v>31</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
+      <c r="A126" s="7">
         <v>60</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
+      <c r="A127" s="7">
         <v>291</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+      <c r="A128" s="7">
         <v>17</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="6"/>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
+      <c r="A129" s="7">
         <v>320</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="6"/>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
+      <c r="A130" s="7">
         <v>282</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+      <c r="A131" s="7">
         <v>140</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
+      <c r="A132" s="7">
         <v>351</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6" t="s">
+      <c r="B136" s="7"/>
+      <c r="C136" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+      <c r="A138" s="7">
         <v>70</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="6"/>
+      <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
+      <c r="A139" s="7">
         <v>62</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="6"/>
+      <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
+      <c r="A140" s="7">
         <v>63</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
+      <c r="A141" s="7">
         <v>279</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="6"/>
+      <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
+      <c r="A142" s="7">
         <v>139</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="6"/>
+      <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
+      <c r="A143" s="7">
         <v>375</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="6"/>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
+      <c r="A144" s="7">
         <v>312</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="6"/>
+      <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
+      <c r="A145" s="7">
         <v>322</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="6"/>
+      <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
+      <c r="A147" s="7">
         <v>256</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="6"/>
+      <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
+      <c r="A148" s="7">
         <v>265</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="6"/>
+      <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="6">
+      <c r="A149" s="7">
         <v>64</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="6"/>
+      <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="6">
+      <c r="A150" s="7">
         <v>72</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="6">
+      <c r="A151" s="7">
         <v>97</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="6"/>
+      <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="6">
+      <c r="A152" s="7">
         <v>174</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="6"/>
+      <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="6">
+      <c r="A153" s="7">
         <v>221</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="6"/>
+      <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
+      <c r="A154" s="7">
         <v>85</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="6"/>
+      <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
+      <c r="A155" s="7">
         <v>363</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
+      <c r="A157" s="7">
         <v>198</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="6"/>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
+      <c r="A158" s="7">
         <v>213</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="6"/>
+      <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
+      <c r="A159" s="7">
         <v>276</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="6"/>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
+      <c r="A160" s="7">
         <v>91</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="6"/>
+      <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
+      <c r="A161" s="7">
         <v>10</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="6"/>
+      <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
+      <c r="A162" s="7">
         <v>44</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6" t="s">
+      <c r="B166" s="7"/>
+      <c r="C166" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
+      <c r="A168" s="7">
         <v>206</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D168" s="6"/>
+      <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
+      <c r="A169" s="7">
         <v>141</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="6"/>
+      <c r="D169" s="7"/>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
+      <c r="A170" s="7">
         <v>24</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D170" s="6"/>
+      <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
+      <c r="A171" s="7">
         <v>328</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="6"/>
+      <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="6">
+      <c r="A172" s="7">
         <v>92</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="6"/>
+      <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="6">
+      <c r="A173" s="7">
         <v>237</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="6"/>
+      <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="6">
+      <c r="A174" s="7">
         <v>19</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="6"/>
+      <c r="D174" s="7"/>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="6">
+      <c r="A175" s="7">
         <v>83</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="6"/>
+      <c r="D175" s="7"/>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="6">
+      <c r="A176" s="7">
         <v>203</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="6"/>
+      <c r="D176" s="7"/>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="6">
+      <c r="A177" s="7">
         <v>82</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="6"/>
+      <c r="D177" s="7"/>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="6">
+      <c r="A178" s="7">
         <v>369</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="6"/>
+      <c r="D178" s="7"/>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="6">
-        <v>2</v>
-      </c>
-      <c r="B179" s="3" t="s">
+      <c r="A179" s="7">
+        <v>2</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="6"/>
+      <c r="D179" s="7"/>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="6">
+      <c r="A180" s="7">
         <v>160</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="6"/>
+      <c r="D180" s="7"/>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="6">
+      <c r="A181" s="7">
         <v>21</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="6"/>
+      <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B182" s="7"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="6">
+      <c r="A183" s="7">
         <v>234</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="6"/>
+      <c r="D183" s="7"/>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="6">
+      <c r="A184" s="7">
         <v>143</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D184" s="6"/>
+      <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="6">
+      <c r="A185" s="7">
         <v>142</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="6"/>
+      <c r="D185" s="7"/>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="6">
+      <c r="A186" s="7">
         <v>148</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="6"/>
+      <c r="D186" s="7"/>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="6">
+      <c r="A187" s="7">
         <v>25</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="6"/>
+      <c r="D187" s="7"/>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="6">
+      <c r="A188" s="7">
         <v>61</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="6"/>
+      <c r="D188" s="7"/>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="6">
+      <c r="A189" s="7">
         <v>86</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="6"/>
+      <c r="D189" s="7"/>
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="6">
+      <c r="A190" s="7">
         <v>23</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="6"/>
+      <c r="D190" s="7"/>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="6">
+      <c r="A191" s="7">
         <v>147</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6" t="s">
+      <c r="B195" s="7"/>
+      <c r="C195" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="6">
+      <c r="A196" s="7">
         <v>200</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="6"/>
+      <c r="D196" s="7"/>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="6">
+      <c r="A197" s="7">
         <v>286</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D197" s="6"/>
+      <c r="D197" s="7"/>
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="6">
+      <c r="A198" s="7">
         <v>130</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="6"/>
+      <c r="D198" s="7"/>
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="6">
+      <c r="A199" s="7">
         <v>339</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="6"/>
+      <c r="D199" s="7"/>
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="6">
+      <c r="A200" s="7">
         <v>364</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="6"/>
+      <c r="D200" s="7"/>
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="6">
+      <c r="A201" s="7">
         <v>127</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="6"/>
+      <c r="D201" s="7"/>
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="6">
+      <c r="A202" s="7">
         <v>126</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="6">
+      <c r="A203" s="7">
         <v>51</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D203" s="6"/>
+      <c r="D203" s="7"/>
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="6">
+      <c r="A204" s="7">
         <v>52</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D204" s="6"/>
+      <c r="D204" s="7"/>
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="6"/>
-      <c r="B207" s="3"/>
+      <c r="A207" s="7"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="6"/>
+      <c r="D207" s="7"/>
     </row>
     <row r="208" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B208" s="8"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B209" s="7"/>
-      <c r="C209" s="6" t="s">
+      <c r="B209" s="8"/>
+      <c r="C209" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="6">
+      <c r="A210" s="7">
         <v>261</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D210" s="6"/>
+      <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A211" s="6">
+      <c r="A211" s="7">
         <v>323</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D211" s="6"/>
+      <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="6">
+      <c r="A212" s="7">
         <v>305</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B214" s="8"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B215" s="8"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="7"/>
-      <c r="C216" s="6" t="s">
+      <c r="B216" s="8"/>
+      <c r="C216" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D216" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B217" s="7"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
     </row>
     <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A218" s="6">
+      <c r="A218" s="7">
         <v>133</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D218" s="6"/>
+      <c r="D218" s="7"/>
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="6">
+      <c r="A219" s="7">
         <v>399</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="6"/>
+      <c r="D219" s="7"/>
     </row>
     <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A220" s="6">
+      <c r="A220" s="7">
         <v>310</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D220" s="6"/>
+      <c r="D220" s="7"/>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="7"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="6">
+      <c r="A222" s="7">
         <v>149</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D222" s="6"/>
+      <c r="D222" s="7"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B223" s="8"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B224" s="8"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B225" s="8"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B226" s="7"/>
-      <c r="C226" s="6" t="s">
+      <c r="B226" s="8"/>
+      <c r="C226" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="6">
+      <c r="A227" s="7">
         <v>208</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D227" s="6"/>
+      <c r="D227" s="7"/>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="6">
+      <c r="A228" s="7">
         <v>211</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="6"/>
+      <c r="D228" s="7"/>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A229" s="6">
+      <c r="A229" s="7">
         <v>212</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D229" s="6"/>
+      <c r="D229" s="7"/>
     </row>
     <row r="232" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6" t="s">
+      <c r="B233" s="7"/>
+      <c r="C233" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="6">
+      <c r="A234" s="7">
         <v>48</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -3667,10 +3719,10 @@
       <c r="C234" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D234" s="6"/>
+      <c r="D234" s="7"/>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A235" s="6">
+      <c r="A235" s="7">
         <v>54</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -3679,10 +3731,10 @@
       <c r="C235" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="6"/>
+      <c r="D235" s="7"/>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A236" s="6">
+      <c r="A236" s="7">
         <v>59</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -3691,10 +3743,10 @@
       <c r="C236" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D236" s="6"/>
+      <c r="D236" s="7"/>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="6">
+      <c r="A237" s="7">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -3703,10 +3755,10 @@
       <c r="C237" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D237" s="6"/>
+      <c r="D237" s="7"/>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="6">
+      <c r="A238" s="7">
         <v>311</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -3715,10 +3767,10 @@
       <c r="C238" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D238" s="6"/>
+      <c r="D238" s="7"/>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="6">
+      <c r="A239" s="7">
         <v>329</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -3727,10 +3779,10 @@
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D239" s="6"/>
+      <c r="D239" s="7"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A240" s="6">
+      <c r="A240" s="7">
         <v>378</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -3739,10 +3791,10 @@
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="6"/>
+      <c r="D240" s="7"/>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="6">
+      <c r="A241" s="7">
         <v>74</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -3751,10 +3803,10 @@
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D241" s="6"/>
+      <c r="D241" s="7"/>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A242" s="6">
+      <c r="A242" s="7">
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -3763,10 +3815,10 @@
       <c r="C242" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D242" s="6"/>
+      <c r="D242" s="7"/>
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A243" s="6">
+      <c r="A243" s="7">
         <v>370</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -3775,10 +3827,10 @@
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="6"/>
+      <c r="D243" s="7"/>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A244" s="6">
+      <c r="A244" s="7">
         <v>79</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -3787,10 +3839,10 @@
       <c r="C244" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D244" s="6"/>
+      <c r="D244" s="7"/>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A245" s="6">
+      <c r="A245" s="7">
         <v>296</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -3799,10 +3851,10 @@
       <c r="C245" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D245" s="6"/>
+      <c r="D245" s="7"/>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
+      <c r="A246" s="7">
         <v>361</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -3811,10 +3863,10 @@
       <c r="C246" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="6"/>
+      <c r="D246" s="7"/>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A247" s="6">
+      <c r="A247" s="7">
         <v>317</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -3823,10 +3875,10 @@
       <c r="C247" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D247" s="6"/>
+      <c r="D247" s="7"/>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A248" s="6">
+      <c r="A248" s="7">
         <v>302</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -3835,10 +3887,10 @@
       <c r="C248" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D248" s="6"/>
+      <c r="D248" s="7"/>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A249" s="6">
+      <c r="A249" s="7">
         <v>36</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -3847,10 +3899,10 @@
       <c r="C249" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="6"/>
+      <c r="D249" s="7"/>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A250" s="6">
+      <c r="A250" s="7">
         <v>37</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -3858,28 +3910,28 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="s">
+      <c r="A256" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="6">
+      <c r="A257" s="7">
         <v>155</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -3888,10 +3940,10 @@
       <c r="C257" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D257" s="6"/>
+      <c r="D257" s="7"/>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A258" s="6">
+      <c r="A258" s="7">
         <v>232</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -3900,10 +3952,10 @@
       <c r="C258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D258" s="6"/>
+      <c r="D258" s="7"/>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A259" s="6">
+      <c r="A259" s="7">
         <v>225</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -3912,10 +3964,10 @@
       <c r="C259" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="6"/>
+      <c r="D259" s="7"/>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A260" s="6">
+      <c r="A260" s="7">
         <v>150</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3924,10 +3976,10 @@
       <c r="C260" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="6"/>
+      <c r="D260" s="7"/>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A261" s="6">
+      <c r="A261" s="7">
         <v>71</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -3936,10 +3988,10 @@
       <c r="C261" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="6"/>
+      <c r="D261" s="7"/>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A262" s="6">
+      <c r="A262" s="7">
         <v>388</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -3948,10 +4000,10 @@
       <c r="C262" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D262" s="6"/>
+      <c r="D262" s="7"/>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="6">
+      <c r="A263" s="7">
         <v>394</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -3960,10 +4012,10 @@
       <c r="C263" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D263" s="6"/>
+      <c r="D263" s="7"/>
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A264" s="6">
+      <c r="A264" s="7">
         <v>224</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -3972,10 +4024,10 @@
       <c r="C264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D264" s="6"/>
+      <c r="D264" s="7"/>
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A265" s="6">
+      <c r="A265" s="7">
         <v>227</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -3984,94 +4036,271 @@
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="6"/>
+      <c r="D265" s="7"/>
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A266" s="6">
+      <c r="A266" s="7">
         <v>385</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="6"/>
+      <c r="D266" s="7"/>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" s="6">
+      <c r="A267" s="7">
         <v>84</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="6"/>
+      <c r="D267" s="7"/>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="s">
+      <c r="A268" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="6">
+      <c r="A269" s="7">
         <v>215</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D269" s="6"/>
+      <c r="D269" s="7"/>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" s="6">
+      <c r="A270" s="7">
         <v>347</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="6"/>
+      <c r="D270" s="7"/>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A271" s="6">
+      <c r="A271" s="7">
         <v>218</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D271" s="6"/>
+      <c r="D271" s="7"/>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" s="6">
+      <c r="A272" s="7">
         <v>332</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D272" s="6"/>
-    </row>
-    <row r="273" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A273" s="6">
+      <c r="D272" s="7"/>
+    </row>
+    <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A273" s="7">
         <v>341</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="4" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B274" s="9"/>
+    </row>
+    <row r="277" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A278" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B278" s="7"/>
+      <c r="C278" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A279" s="7">
+        <v>389</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="7"/>
+    </row>
+    <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A280" s="7">
+        <v>136</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" s="7"/>
+    </row>
+    <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A281" s="7">
+        <v>318</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A285" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B285" s="7"/>
+      <c r="C285" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="7">
+        <v>207</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286" s="7"/>
+    </row>
+    <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="7">
+        <v>210</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287" s="7"/>
+    </row>
+    <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A288" s="7">
+        <v>269</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A292" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A293" s="7">
+        <v>384</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" s="7"/>
+    </row>
+    <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A294" s="7">
+        <v>398</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" s="7"/>
+    </row>
+    <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A295" s="7">
+        <v>382</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295" s="7"/>
+    </row>
+    <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A296" s="7">
+        <v>380</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296" s="7"/>
+    </row>
+    <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A297" s="7">
+        <v>381</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297" s="7"/>
+    </row>
+    <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A298" s="7">
+        <v>138</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4489,6 +4718,27 @@
     <hyperlink ref="B272" r:id="rId410" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
     <hyperlink ref="C272" r:id="rId411" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
     <hyperlink ref="B273" r:id="rId412" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
+    <hyperlink ref="B279" r:id="rId413" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
+    <hyperlink ref="C279" r:id="rId414" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
+    <hyperlink ref="B280" r:id="rId415" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
+    <hyperlink ref="C280" r:id="rId416" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
+    <hyperlink ref="B281" r:id="rId417" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
+    <hyperlink ref="B286" r:id="rId418" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
+    <hyperlink ref="C286" r:id="rId419" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
+    <hyperlink ref="B287" r:id="rId420" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
+    <hyperlink ref="C287" r:id="rId421" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
+    <hyperlink ref="B288" r:id="rId422" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
+    <hyperlink ref="B293" r:id="rId423" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
+    <hyperlink ref="C293" r:id="rId424" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
+    <hyperlink ref="B294" r:id="rId425" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
+    <hyperlink ref="C294" r:id="rId426" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
+    <hyperlink ref="B295" r:id="rId427" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
+    <hyperlink ref="C295" r:id="rId428" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
+    <hyperlink ref="B296" r:id="rId429" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
+    <hyperlink ref="C296" r:id="rId430" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
+    <hyperlink ref="B297" r:id="rId431" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
+    <hyperlink ref="C297" r:id="rId432" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
+    <hyperlink ref="B298" r:id="rId433" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5813C004-13EB-0140-A1CE-E81E93F49060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC537D-E6AE-4E4D-91A0-CF9766309FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="740" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
+    <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -901,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -912,6 +912,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1229,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279:B281"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="114" workbookViewId="0">
+      <selection activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3522,7 +3524,7 @@
       <c r="A210" s="7">
         <v>261</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -3534,7 +3536,7 @@
       <c r="A211" s="7">
         <v>323</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -3546,27 +3548,27 @@
       <c r="A212" s="7">
         <v>305</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B213" s="9"/>
+      <c r="B213" s="11"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B214" s="9"/>
+      <c r="B214" s="11"/>
     </row>
     <row r="215" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B215" s="9"/>
+      <c r="B215" s="11"/>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="8"/>
+      <c r="B216" s="10"/>
       <c r="C216" s="7" t="s">
         <v>54</v>
       </c>
@@ -3578,7 +3580,7 @@
       <c r="A217" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B217" s="8"/>
+      <c r="B217" s="10"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
     </row>
@@ -3586,7 +3588,7 @@
       <c r="A218" s="7">
         <v>133</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -3598,7 +3600,7 @@
       <c r="A219" s="7">
         <v>399</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -3610,7 +3612,7 @@
       <c r="A220" s="7">
         <v>310</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -3622,7 +3624,7 @@
       <c r="A221" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="8"/>
+      <c r="B221" s="10"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
     </row>
@@ -3630,7 +3632,7 @@
       <c r="A222" s="7">
         <v>149</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -4147,7 +4149,7 @@
       <c r="A279" s="7">
         <v>389</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -4159,7 +4161,7 @@
       <c r="A280" s="7">
         <v>136</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -4171,7 +4173,7 @@
       <c r="A281" s="7">
         <v>318</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4354,391 +4356,391 @@
     <hyperlink ref="C155" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
     <hyperlink ref="B157" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
     <hyperlink ref="C157" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
-    <hyperlink ref="B158" display="House Robber II" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
-    <hyperlink ref="C158" r:id="rId50" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
-    <hyperlink ref="B159" r:id="rId51" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
-    <hyperlink ref="C159" r:id="rId52" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
-    <hyperlink ref="B160" r:id="rId53" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
-    <hyperlink ref="C160" r:id="rId54" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
-    <hyperlink ref="B161" r:id="rId55" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
-    <hyperlink ref="C161" r:id="rId56" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
-    <hyperlink ref="B162" r:id="rId57" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
-    <hyperlink ref="B168" r:id="rId58" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
-    <hyperlink ref="C168" r:id="rId59" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
-    <hyperlink ref="B169" r:id="rId60" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
-    <hyperlink ref="C169" r:id="rId61" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
-    <hyperlink ref="B170" r:id="rId62" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
-    <hyperlink ref="C170" r:id="rId63" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
-    <hyperlink ref="B171" r:id="rId64" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
-    <hyperlink ref="C171" r:id="rId65" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
-    <hyperlink ref="B172" r:id="rId66" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
-    <hyperlink ref="C172" r:id="rId67" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
-    <hyperlink ref="B173" r:id="rId68" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
-    <hyperlink ref="C173" r:id="rId69" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
-    <hyperlink ref="B174" r:id="rId70" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
-    <hyperlink ref="C174" r:id="rId71" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
-    <hyperlink ref="B175" r:id="rId72" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
-    <hyperlink ref="C175" r:id="rId73" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
-    <hyperlink ref="B176" r:id="rId74" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
-    <hyperlink ref="C176" r:id="rId75" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
-    <hyperlink ref="B177" r:id="rId76" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
-    <hyperlink ref="C177" r:id="rId77" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
-    <hyperlink ref="B178" r:id="rId78" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
-    <hyperlink ref="C178" r:id="rId79" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
-    <hyperlink ref="B179" r:id="rId80" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
-    <hyperlink ref="C179" r:id="rId81" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
-    <hyperlink ref="B180" r:id="rId82" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
-    <hyperlink ref="C180" r:id="rId83" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
-    <hyperlink ref="B181" r:id="rId84" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
-    <hyperlink ref="C181" r:id="rId85" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
-    <hyperlink ref="B183" r:id="rId86" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
-    <hyperlink ref="C183" r:id="rId87" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
-    <hyperlink ref="B184" r:id="rId88" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
-    <hyperlink ref="C184" r:id="rId89" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
-    <hyperlink ref="B185" r:id="rId90" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
-    <hyperlink ref="C185" r:id="rId91" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
-    <hyperlink ref="B186" r:id="rId92" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
-    <hyperlink ref="C186" r:id="rId93" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
-    <hyperlink ref="B187" r:id="rId94" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
-    <hyperlink ref="C187" r:id="rId95" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
-    <hyperlink ref="B188" r:id="rId96" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
-    <hyperlink ref="C188" r:id="rId97" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
-    <hyperlink ref="B189" r:id="rId98" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
-    <hyperlink ref="C189" r:id="rId99" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
-    <hyperlink ref="B190" r:id="rId100" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
-    <hyperlink ref="C190" r:id="rId101" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
-    <hyperlink ref="B191" r:id="rId102" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
-    <hyperlink ref="B196" r:id="rId103" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
-    <hyperlink ref="C196" r:id="rId104" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
-    <hyperlink ref="B197" r:id="rId105" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
-    <hyperlink ref="C197" r:id="rId106" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
-    <hyperlink ref="B198" r:id="rId107" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
-    <hyperlink ref="C198" r:id="rId108" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
-    <hyperlink ref="B199" r:id="rId109" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
-    <hyperlink ref="C199" r:id="rId110" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
-    <hyperlink ref="B200" r:id="rId111" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
-    <hyperlink ref="C200" r:id="rId112" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
-    <hyperlink ref="B201" r:id="rId113" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
-    <hyperlink ref="C201" r:id="rId114" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B203" r:id="rId115" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C203" r:id="rId116" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B204" r:id="rId117" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C204" r:id="rId118" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B202" r:id="rId119" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B210" r:id="rId120" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C210" r:id="rId121" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B211" r:id="rId122" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C211" r:id="rId123" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B212" r:id="rId124" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
-    <hyperlink ref="B80" r:id="rId125" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
-    <hyperlink ref="C80" r:id="rId126" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
-    <hyperlink ref="B82" r:id="rId127" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
-    <hyperlink ref="C82" r:id="rId128" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
-    <hyperlink ref="B83" r:id="rId129" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
-    <hyperlink ref="C83" r:id="rId130" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
-    <hyperlink ref="B84" r:id="rId131" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
-    <hyperlink ref="C84" r:id="rId132" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
-    <hyperlink ref="B85" r:id="rId133" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
-    <hyperlink ref="C85" r:id="rId134" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
-    <hyperlink ref="B86" r:id="rId135" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
-    <hyperlink ref="C86" r:id="rId136" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
-    <hyperlink ref="B87" r:id="rId137" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
-    <hyperlink ref="C87" r:id="rId138" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
-    <hyperlink ref="B89" r:id="rId139" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
-    <hyperlink ref="C89" r:id="rId140" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
-    <hyperlink ref="B90" r:id="rId141" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
-    <hyperlink ref="C90" r:id="rId142" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
-    <hyperlink ref="B91" r:id="rId143" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
-    <hyperlink ref="C91" r:id="rId144" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
-    <hyperlink ref="B93" r:id="rId145" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
-    <hyperlink ref="C93" r:id="rId146" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
-    <hyperlink ref="B94" r:id="rId147" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
-    <hyperlink ref="C94" r:id="rId148" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
-    <hyperlink ref="B95" r:id="rId149" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
-    <hyperlink ref="C95" r:id="rId150" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
-    <hyperlink ref="B96" r:id="rId151" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
-    <hyperlink ref="C96" r:id="rId152" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
-    <hyperlink ref="B97" r:id="rId153" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
-    <hyperlink ref="C97" r:id="rId154" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
-    <hyperlink ref="B98" r:id="rId155" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
-    <hyperlink ref="C98" r:id="rId156" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
-    <hyperlink ref="B99" r:id="rId157" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
-    <hyperlink ref="C99" r:id="rId158" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
-    <hyperlink ref="B100" r:id="rId159" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
-    <hyperlink ref="C100" r:id="rId160" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
-    <hyperlink ref="B101" r:id="rId161" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
-    <hyperlink ref="C101" r:id="rId162" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
-    <hyperlink ref="B102" r:id="rId163" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
-    <hyperlink ref="C102" r:id="rId164" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
-    <hyperlink ref="B103" r:id="rId165" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
-    <hyperlink ref="C103" r:id="rId166" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
-    <hyperlink ref="B104" r:id="rId167" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
-    <hyperlink ref="C104" r:id="rId168" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
-    <hyperlink ref="B106" r:id="rId169" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
-    <hyperlink ref="C106" r:id="rId170" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
-    <hyperlink ref="B107" r:id="rId171" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
-    <hyperlink ref="C107" r:id="rId172" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
-    <hyperlink ref="B108" r:id="rId173" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
-    <hyperlink ref="C108" r:id="rId174" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
-    <hyperlink ref="B109" r:id="rId175" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
-    <hyperlink ref="C109" r:id="rId176" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
-    <hyperlink ref="B115" r:id="rId177" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
-    <hyperlink ref="C115" r:id="rId178" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
-    <hyperlink ref="B116" r:id="rId179" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
-    <hyperlink ref="C116" r:id="rId180" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
-    <hyperlink ref="B117" r:id="rId181" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
-    <hyperlink ref="C117" r:id="rId182" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
-    <hyperlink ref="B118" r:id="rId183" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
-    <hyperlink ref="C118" r:id="rId184" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
-    <hyperlink ref="B119" r:id="rId185" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
-    <hyperlink ref="C119" r:id="rId186" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
-    <hyperlink ref="B120" r:id="rId187" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
-    <hyperlink ref="C120" r:id="rId188" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
-    <hyperlink ref="B121" r:id="rId189" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
-    <hyperlink ref="C121" r:id="rId190" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
-    <hyperlink ref="B122" r:id="rId191" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
-    <hyperlink ref="C122" r:id="rId192" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
-    <hyperlink ref="B123" r:id="rId193" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
-    <hyperlink ref="C123" r:id="rId194" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
-    <hyperlink ref="B124" r:id="rId195" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
-    <hyperlink ref="C124" r:id="rId196" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
-    <hyperlink ref="B125" r:id="rId197" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
-    <hyperlink ref="C125" r:id="rId198" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
-    <hyperlink ref="C79" r:id="rId199" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
-    <hyperlink ref="B79" r:id="rId200" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
-    <hyperlink ref="C78" r:id="rId201" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
-    <hyperlink ref="B78" r:id="rId202" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
-    <hyperlink ref="C77" r:id="rId203" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
-    <hyperlink ref="B77" r:id="rId204" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
-    <hyperlink ref="C76" r:id="rId205" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
-    <hyperlink ref="B76" r:id="rId206" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
-    <hyperlink ref="C75" r:id="rId207" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
-    <hyperlink ref="B75" r:id="rId208" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
-    <hyperlink ref="C74" r:id="rId209" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
-    <hyperlink ref="B74" r:id="rId210" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
-    <hyperlink ref="C73" r:id="rId211" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
-    <hyperlink ref="B73" r:id="rId212" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
-    <hyperlink ref="C72" r:id="rId213" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
-    <hyperlink ref="B72" r:id="rId214" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
-    <hyperlink ref="C70" r:id="rId215" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
-    <hyperlink ref="B70" r:id="rId216" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
-    <hyperlink ref="C69" r:id="rId217" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
-    <hyperlink ref="B69" r:id="rId218" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
-    <hyperlink ref="C68" r:id="rId219" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
-    <hyperlink ref="B68" r:id="rId220" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
-    <hyperlink ref="C67" r:id="rId221" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
-    <hyperlink ref="B67" r:id="rId222" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
-    <hyperlink ref="B2" r:id="rId223" display="https://leetcode.com/problems/implement-strstr/description/" xr:uid="{D540EA7C-EB08-D54A-8BA0-D2BF3C8D7159}"/>
-    <hyperlink ref="C2" r:id="rId224" display="https://cspiration.com/login" xr:uid="{8D4BEA64-F28F-194D-9BCA-1A1995FE751F}"/>
-    <hyperlink ref="B3" r:id="rId225" display="https://leetcode.com/problems/longest-common-prefix/description/" xr:uid="{4B66E93E-437A-C447-9D2D-14431C4B5C0D}"/>
-    <hyperlink ref="C3" r:id="rId226" display="https://cspiration.com/login" xr:uid="{4EDAA73E-B4E4-4A4D-A1A3-B1BF3B641930}"/>
-    <hyperlink ref="B4" r:id="rId227" display="https://leetcode.com/problems/length-of-last-word/description/" xr:uid="{D114781F-CCE8-1B4D-B130-1F8DAA81F929}"/>
-    <hyperlink ref="C4" r:id="rId228" display="https://cspiration.com/login" xr:uid="{D4837917-968A-1A47-A565-F2D02413B704}"/>
-    <hyperlink ref="B5" r:id="rId229" display="https://leetcode.com/problems/first-unique-character-in-a-string/description/" xr:uid="{C04F5C5C-DEE3-C44F-A74F-52C26D3F2FE9}"/>
-    <hyperlink ref="C5" r:id="rId230" display="https://cspiration.com/login" xr:uid="{83C1DBA7-7A1A-3942-8BBB-A55279A4114D}"/>
-    <hyperlink ref="B6" r:id="rId231" display="https://leetcode.com/problems/ransom-note/description/" xr:uid="{3D768C37-76A3-EB41-8CAF-A61CD430D930}"/>
-    <hyperlink ref="C6" r:id="rId232" display="https://cspiration.com/login" xr:uid="{295DA0DD-097C-494D-985C-0351F936CFAE}"/>
-    <hyperlink ref="B7" r:id="rId233" display="https://leetcode.com/problems/reverse-string/description/" xr:uid="{968C8B06-BC69-2343-84F4-4279FF45A33D}"/>
-    <hyperlink ref="C7" r:id="rId234" display="https://cspiration.com/login" xr:uid="{EF9807D4-7B95-6744-A12B-C9E96455C37F}"/>
-    <hyperlink ref="B8" r:id="rId235" display="https://leetcode.com/problems/reverse-words-in-a-string/description/" xr:uid="{E5D0091E-BD36-1849-86C4-AD6193E4DBF8}"/>
-    <hyperlink ref="C8" r:id="rId236" display="https://cspiration.com/login" xr:uid="{F3144B11-0907-9247-B034-3BE234EB0031}"/>
-    <hyperlink ref="B9" r:id="rId237" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/description/" xr:uid="{20ACD6E3-C0D3-DC40-A581-E5A1DD349E75}"/>
-    <hyperlink ref="C9" r:id="rId238" display="https://cspiration.com/login" xr:uid="{25731BF2-9D7D-2F47-8B04-2B971F79A6E7}"/>
-    <hyperlink ref="B10" r:id="rId239" display="https://leetcode.com/problems/reverse-vowels-of-a-string/description/" xr:uid="{03F64371-9FC5-6442-9F75-1D34AF197ECA}"/>
-    <hyperlink ref="C10" r:id="rId240" display="https://cspiration.com/login" xr:uid="{C8F12AB4-19EE-6143-BDA7-15328C7DA50A}"/>
-    <hyperlink ref="B11" r:id="rId241" display="https://leetcode.com/problems/isomorphic-strings/description/" xr:uid="{069B1397-F0EF-0645-8828-263251550008}"/>
-    <hyperlink ref="C11" r:id="rId242" display="https://cspiration.com/login" xr:uid="{F49DA318-AFE5-E94E-B520-D86A38E11102}"/>
-    <hyperlink ref="B12" r:id="rId243" display="https://leetcode.com/problems/flip-game/description/" xr:uid="{E38920AC-6E84-564B-B8BA-17E7F9BFDDBD}"/>
-    <hyperlink ref="C12" r:id="rId244" display="https://cspiration.com/login" xr:uid="{F52B4708-49AD-4244-B763-FD44230220CC}"/>
-    <hyperlink ref="B13" r:id="rId245" display="https://leetcode.com/problems/flip-game-ii/description/" xr:uid="{B57E6DAA-DB1C-9D49-A5F5-9A1DDBE07E8C}"/>
-    <hyperlink ref="C13" r:id="rId246" display="https://cspiration.com/login" xr:uid="{60004F03-7CA3-7A49-A7B7-7A595C09CD21}"/>
-    <hyperlink ref="B14" r:id="rId247" display="https://leetcode.com/problems/word-pattern/description/" xr:uid="{8A917EDD-4C17-0C4F-8EB3-0D2A69CF7E2D}"/>
-    <hyperlink ref="C14" r:id="rId248" display="https://cspiration.com/login" xr:uid="{D90BE585-BB70-8F4E-9C42-7DABEA1EE154}"/>
-    <hyperlink ref="B15" r:id="rId249" display="https://leetcode.com/problems/valid-anagram/description/" xr:uid="{6A427A47-B738-1B47-B40C-0720744F00EB}"/>
-    <hyperlink ref="C15" r:id="rId250" display="https://cspiration.com/login" xr:uid="{FBEBF316-2770-0D4C-AD03-785C42541C3B}"/>
-    <hyperlink ref="B16" r:id="rId251" display="https://leetcode.com/problems/group-anagrams/description/" xr:uid="{912892C7-059C-B142-AD7B-1AC6617F6F3C}"/>
-    <hyperlink ref="C16" r:id="rId252" display="https://cspiration.com/login" xr:uid="{C8C9E0D7-A9FC-7849-BE2F-7412ACBD95EC}"/>
-    <hyperlink ref="B17" r:id="rId253" display="https://leetcode.com/problems/group-shifted-strings/description/" xr:uid="{F88F7380-745F-2542-891F-D8189D659014}"/>
-    <hyperlink ref="C17" r:id="rId254" display="https://cspiration.com/login" xr:uid="{5AEB76A3-0CB4-724C-B27E-A5D3084DED56}"/>
-    <hyperlink ref="B18" r:id="rId255" display="https://leetcode.com/problems/scramble-string/description/" xr:uid="{8E7AE0F9-60C3-6C44-93A5-7BCE475FE65D}"/>
-    <hyperlink ref="C18" r:id="rId256" display="https://cspiration.com/login" xr:uid="{B897081C-536E-124F-B44D-E65CD2DAE73A}"/>
-    <hyperlink ref="B19" r:id="rId257" display="https://leetcode.com/problems/one-edit-distance/" xr:uid="{709E24AB-4569-5E4E-B354-741841D8A3CF}"/>
-    <hyperlink ref="C19" r:id="rId258" display="https://cspiration.com/login" xr:uid="{B27AAEDC-0D30-2646-990A-5B2240B5DC3E}"/>
-    <hyperlink ref="B20" r:id="rId259" display="https://leetcode.com/problems/count-and-say/description/" xr:uid="{039EF842-D3DA-4B46-83A0-B0AE9E3B77E9}"/>
-    <hyperlink ref="C20" r:id="rId260" display="https://cspiration.com/login" xr:uid="{114602C0-CFEF-E04D-AF79-28A290AD5151}"/>
-    <hyperlink ref="B21" r:id="rId261" display="https://leetcode.com/problems/rearrange-string-k-distance-apart/description/" xr:uid="{766E9D85-1888-2C4C-84BF-92C503F606F4}"/>
-    <hyperlink ref="C21" r:id="rId262" display="https://cspiration.com/login" xr:uid="{6C5848D4-F1A3-5E43-A18B-3EF386A88DB8}"/>
-    <hyperlink ref="B22" r:id="rId263" display="https://leetcode.com/problems/remove-duplicate-letters/description/" xr:uid="{41E9DFCB-F0F7-F142-B5A6-FD4B7DBC4BBA}"/>
-    <hyperlink ref="C22" r:id="rId264" display="https://cspiration.com/login" xr:uid="{DF13B8AA-9303-BE4C-9CE0-D00E513A3293}"/>
-    <hyperlink ref="B23" r:id="rId265" display="https://leetcode.com/problems/encode-and-decode-strings/description/" xr:uid="{25875E62-4A7E-D442-92FC-3F95DFABD8D2}"/>
-    <hyperlink ref="C23" r:id="rId266" display="https://cspiration.com/login" xr:uid="{FAFD0B63-78CD-8E4D-A1CA-07E70CC0FFBA}"/>
-    <hyperlink ref="B24" r:id="rId267" display="https://leetcode.com/problems/excel-sheet-column-title/description/" xr:uid="{7BC754D8-E75A-8B44-AD1B-7A259C99BFC0}"/>
-    <hyperlink ref="C24" r:id="rId268" display="https://cspiration.com/login" xr:uid="{39D15FCE-65DE-5B4E-9BC0-B864C6EAC70B}"/>
-    <hyperlink ref="B25" r:id="rId269" display="https://leetcode.com/problems/excel-sheet-column-number/description/" xr:uid="{EE4C5B10-4ED2-8B46-B331-B687A0FC87CC}"/>
-    <hyperlink ref="C25" r:id="rId270" display="https://cspiration.com/login" xr:uid="{68673230-A15D-DF41-9113-C0EC2A891D82}"/>
-    <hyperlink ref="B26" r:id="rId271" display="https://leetcode.com/problems/roman-to-integer/description/" xr:uid="{3A2D8E6F-706D-5F42-8F12-6FDA83EDF015}"/>
-    <hyperlink ref="C26" r:id="rId272" display="https://cspiration.com/login" xr:uid="{A78FD53F-C3F7-174F-89F5-6A7F81AD86FB}"/>
-    <hyperlink ref="B27" r:id="rId273" display="https://leetcode.com/problems/integer-to-roman/description/" xr:uid="{EAE13DA7-A7CC-0045-9D4E-D3845B1D351A}"/>
-    <hyperlink ref="C27" r:id="rId274" display="https://cspiration.com/login" xr:uid="{1E917630-0E9A-CA44-B4D0-335D33B3DAD4}"/>
-    <hyperlink ref="B28" r:id="rId275" display="https://leetcode.com/problems/integer-to-english-words/description/" xr:uid="{E03F80C1-D861-5147-9CCC-8EBDA45C5F84}"/>
-    <hyperlink ref="C28" r:id="rId276" display="https://cspiration.com/login" xr:uid="{C8915A28-36A3-8D4D-A5D8-B28C51E8A13B}"/>
-    <hyperlink ref="B29" r:id="rId277" display="https://leetcode.com/problems/strobogrammatic-number/description/" xr:uid="{072EA103-1AA4-6D4D-A811-07E7EFC53754}"/>
-    <hyperlink ref="C29" r:id="rId278" display="https://cspiration.com/login" xr:uid="{118BB6D1-D892-1D4A-A278-CEBA454174C9}"/>
-    <hyperlink ref="B30" r:id="rId279" display="https://leetcode.com/problems/strobogrammatic-number-ii/description/" xr:uid="{17DD45CF-4F79-9A48-A172-DF78FFE2BAFD}"/>
-    <hyperlink ref="C30" r:id="rId280" display="https://cspiration.com/login" xr:uid="{6E8396B6-84C6-7E48-AA73-CE7E9B901407}"/>
-    <hyperlink ref="B32" r:id="rId281" display="https://leetcode.com/problems/read-n-characters-given-read4/description/" xr:uid="{D18F3004-120C-9749-96EA-DA48816C8D97}"/>
-    <hyperlink ref="C32" r:id="rId282" display="https://cspiration.com/login" xr:uid="{D09C3F94-1D2B-AA4B-91A4-5F1C1C29C741}"/>
-    <hyperlink ref="B33" r:id="rId283" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/" xr:uid="{C10019EB-7182-1D47-B84E-E88E23C5D8FA}"/>
-    <hyperlink ref="C33" r:id="rId284" display="https://cspiration.com/login" xr:uid="{F5ACF2D2-A531-424B-B3CF-993B83A1F7FB}"/>
-    <hyperlink ref="B34" r:id="rId285" display="https://leetcode.com/problems/text-justification/description/" xr:uid="{BFE3B433-B31C-CC4A-B33B-40E03920BB14}"/>
-    <hyperlink ref="C34" r:id="rId286" display="https://cspiration.com/login" xr:uid="{2F20FF9D-1F78-994B-9CE5-4B009BFBECC5}"/>
-    <hyperlink ref="B35" r:id="rId287" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{5B3E385E-B11A-C64D-8285-B8177A8BCDA4}"/>
-    <hyperlink ref="C35" r:id="rId288" display="https://cspiration.com/login" xr:uid="{B24A14A7-52F4-E249-B609-37F1D91D19AF}"/>
-    <hyperlink ref="B37" r:id="rId289" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
-    <hyperlink ref="C37" r:id="rId290" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
-    <hyperlink ref="B38" r:id="rId291" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
-    <hyperlink ref="C38" r:id="rId292" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
-    <hyperlink ref="B39" r:id="rId293" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
-    <hyperlink ref="C39" r:id="rId294" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
-    <hyperlink ref="B40" r:id="rId295" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
-    <hyperlink ref="C40" r:id="rId296" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
-    <hyperlink ref="B41" r:id="rId297" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
-    <hyperlink ref="C41" r:id="rId298" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
-    <hyperlink ref="B42" r:id="rId299" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
-    <hyperlink ref="C42" r:id="rId300" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
-    <hyperlink ref="B44" r:id="rId301" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
-    <hyperlink ref="C44" r:id="rId302" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
-    <hyperlink ref="B45" r:id="rId303" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
-    <hyperlink ref="C45" r:id="rId304" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
-    <hyperlink ref="B46" r:id="rId305" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
-    <hyperlink ref="C46" r:id="rId306" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
-    <hyperlink ref="B47" r:id="rId307" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
-    <hyperlink ref="C47" r:id="rId308" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
-    <hyperlink ref="B48" r:id="rId309" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
-    <hyperlink ref="C48" r:id="rId310" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
-    <hyperlink ref="B49" r:id="rId311" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
-    <hyperlink ref="C49" r:id="rId312" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
-    <hyperlink ref="B50" r:id="rId313" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
-    <hyperlink ref="C50" r:id="rId314" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
-    <hyperlink ref="B51" r:id="rId315" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
-    <hyperlink ref="C51" r:id="rId316" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
-    <hyperlink ref="B52" r:id="rId317" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
-    <hyperlink ref="C52" r:id="rId318" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
-    <hyperlink ref="B54" r:id="rId319" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
-    <hyperlink ref="C54" r:id="rId320" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
-    <hyperlink ref="B55" r:id="rId321" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
-    <hyperlink ref="C55" r:id="rId322" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
-    <hyperlink ref="B56" r:id="rId323" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
-    <hyperlink ref="C56" r:id="rId324" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
-    <hyperlink ref="B57" r:id="rId325" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
-    <hyperlink ref="C57" r:id="rId326" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
-    <hyperlink ref="B58" r:id="rId327" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
-    <hyperlink ref="C58" r:id="rId328" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
-    <hyperlink ref="B60" r:id="rId329" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
-    <hyperlink ref="C60" r:id="rId330" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
-    <hyperlink ref="B61" r:id="rId331" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
-    <hyperlink ref="C61" r:id="rId332" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
-    <hyperlink ref="B62" r:id="rId333" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
-    <hyperlink ref="C62" r:id="rId334" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B218" r:id="rId335" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C218" r:id="rId336" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B219" r:id="rId337" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C219" r:id="rId338" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B220" r:id="rId339" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C220" r:id="rId340" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
-    <hyperlink ref="B222" r:id="rId341" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
-    <hyperlink ref="C222" r:id="rId342" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
-    <hyperlink ref="B228" r:id="rId343" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
-    <hyperlink ref="C228" r:id="rId344" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
-    <hyperlink ref="B227" r:id="rId345" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
-    <hyperlink ref="C227" r:id="rId346" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
-    <hyperlink ref="B229" r:id="rId347" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
-    <hyperlink ref="C229" r:id="rId348" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
-    <hyperlink ref="B234" r:id="rId349" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
-    <hyperlink ref="C234" r:id="rId350" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
-    <hyperlink ref="B235" r:id="rId351" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
-    <hyperlink ref="C235" r:id="rId352" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
-    <hyperlink ref="B236" r:id="rId353" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
-    <hyperlink ref="C236" r:id="rId354" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
-    <hyperlink ref="B237" r:id="rId355" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
-    <hyperlink ref="C237" r:id="rId356" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
-    <hyperlink ref="B238" r:id="rId357" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
-    <hyperlink ref="C238" r:id="rId358" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
-    <hyperlink ref="B239" r:id="rId359" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
-    <hyperlink ref="C239" r:id="rId360" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
-    <hyperlink ref="B240" r:id="rId361" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
-    <hyperlink ref="C240" r:id="rId362" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
-    <hyperlink ref="B241" r:id="rId363" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
-    <hyperlink ref="C241" r:id="rId364" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
-    <hyperlink ref="B242" r:id="rId365" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
-    <hyperlink ref="C242" r:id="rId366" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
-    <hyperlink ref="B243" r:id="rId367" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
-    <hyperlink ref="C243" r:id="rId368" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
-    <hyperlink ref="B244" r:id="rId369" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
-    <hyperlink ref="C244" r:id="rId370" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
-    <hyperlink ref="B245" r:id="rId371" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
-    <hyperlink ref="C245" r:id="rId372" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
-    <hyperlink ref="B246" r:id="rId373" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
-    <hyperlink ref="C246" r:id="rId374" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
-    <hyperlink ref="B247" r:id="rId375" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
-    <hyperlink ref="C247" r:id="rId376" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
-    <hyperlink ref="B248" r:id="rId377" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
-    <hyperlink ref="C248" r:id="rId378" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
-    <hyperlink ref="B249" r:id="rId379" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
-    <hyperlink ref="C249" r:id="rId380" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
-    <hyperlink ref="B250" r:id="rId381" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
-    <hyperlink ref="B257" r:id="rId382" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
-    <hyperlink ref="C257" r:id="rId383" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
-    <hyperlink ref="B258" r:id="rId384" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{156CAAE5-6351-9947-BB71-247BCB4199E4}"/>
-    <hyperlink ref="C258" r:id="rId385" display="https://cspiration.com/login" xr:uid="{B32FCD33-3793-1145-9B85-1C19988C5512}"/>
-    <hyperlink ref="B259" r:id="rId386" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{988FA989-097D-3643-AFD0-51D5DE85FC28}"/>
-    <hyperlink ref="C259" r:id="rId387" display="https://cspiration.com/login" xr:uid="{236098E8-3353-2343-96D1-B31CFD341154}"/>
-    <hyperlink ref="B260" r:id="rId388" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
-    <hyperlink ref="C260" r:id="rId389" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
-    <hyperlink ref="B261" r:id="rId390" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
-    <hyperlink ref="C261" r:id="rId391" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
-    <hyperlink ref="B262" r:id="rId392" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
-    <hyperlink ref="C262" r:id="rId393" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
-    <hyperlink ref="B263" r:id="rId394" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
-    <hyperlink ref="C263" r:id="rId395" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
-    <hyperlink ref="B264" r:id="rId396" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
-    <hyperlink ref="C264" r:id="rId397" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
-    <hyperlink ref="B265" r:id="rId398" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
-    <hyperlink ref="C265" r:id="rId399" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
-    <hyperlink ref="B266" r:id="rId400" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
-    <hyperlink ref="C266" r:id="rId401" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
-    <hyperlink ref="B267" r:id="rId402" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
-    <hyperlink ref="C267" r:id="rId403" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
-    <hyperlink ref="B269" r:id="rId404" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
-    <hyperlink ref="C269" r:id="rId405" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
-    <hyperlink ref="B270" r:id="rId406" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
-    <hyperlink ref="C270" r:id="rId407" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
-    <hyperlink ref="B271" r:id="rId408" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
-    <hyperlink ref="C271" r:id="rId409" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
-    <hyperlink ref="B272" r:id="rId410" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
-    <hyperlink ref="C272" r:id="rId411" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
-    <hyperlink ref="B273" r:id="rId412" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
-    <hyperlink ref="B279" r:id="rId413" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
-    <hyperlink ref="C279" r:id="rId414" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
-    <hyperlink ref="B280" r:id="rId415" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
-    <hyperlink ref="C280" r:id="rId416" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
-    <hyperlink ref="B281" r:id="rId417" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
-    <hyperlink ref="B286" r:id="rId418" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
-    <hyperlink ref="C286" r:id="rId419" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
-    <hyperlink ref="B287" r:id="rId420" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
-    <hyperlink ref="C287" r:id="rId421" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
-    <hyperlink ref="B288" r:id="rId422" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
-    <hyperlink ref="B293" r:id="rId423" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
-    <hyperlink ref="C293" r:id="rId424" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
-    <hyperlink ref="B294" r:id="rId425" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
-    <hyperlink ref="C294" r:id="rId426" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
-    <hyperlink ref="B295" r:id="rId427" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
-    <hyperlink ref="C295" r:id="rId428" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
-    <hyperlink ref="B296" r:id="rId429" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
-    <hyperlink ref="C296" r:id="rId430" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
-    <hyperlink ref="B297" r:id="rId431" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
-    <hyperlink ref="C297" r:id="rId432" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
-    <hyperlink ref="B298" r:id="rId433" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
+    <hyperlink ref="B158" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
+    <hyperlink ref="C158" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
+    <hyperlink ref="B159" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
+    <hyperlink ref="C159" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
+    <hyperlink ref="B160" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
+    <hyperlink ref="C160" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
+    <hyperlink ref="B161" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
+    <hyperlink ref="C161" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
+    <hyperlink ref="B162" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
+    <hyperlink ref="B168" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
+    <hyperlink ref="C168" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
+    <hyperlink ref="B169" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
+    <hyperlink ref="C169" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
+    <hyperlink ref="B170" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
+    <hyperlink ref="C170" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
+    <hyperlink ref="B171" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
+    <hyperlink ref="C171" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
+    <hyperlink ref="B172" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
+    <hyperlink ref="C172" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
+    <hyperlink ref="B173" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
+    <hyperlink ref="C173" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
+    <hyperlink ref="B174" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
+    <hyperlink ref="C174" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
+    <hyperlink ref="B175" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
+    <hyperlink ref="C175" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
+    <hyperlink ref="B176" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
+    <hyperlink ref="C176" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
+    <hyperlink ref="B177" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
+    <hyperlink ref="C177" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
+    <hyperlink ref="B178" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
+    <hyperlink ref="C178" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
+    <hyperlink ref="B179" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
+    <hyperlink ref="C179" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
+    <hyperlink ref="B180" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
+    <hyperlink ref="C180" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
+    <hyperlink ref="B181" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
+    <hyperlink ref="C181" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
+    <hyperlink ref="B183" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
+    <hyperlink ref="C183" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
+    <hyperlink ref="B184" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
+    <hyperlink ref="C184" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
+    <hyperlink ref="B185" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
+    <hyperlink ref="C185" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
+    <hyperlink ref="B186" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
+    <hyperlink ref="C186" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
+    <hyperlink ref="B187" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
+    <hyperlink ref="C187" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
+    <hyperlink ref="B188" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
+    <hyperlink ref="C188" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
+    <hyperlink ref="B189" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
+    <hyperlink ref="C189" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
+    <hyperlink ref="B190" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
+    <hyperlink ref="C190" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
+    <hyperlink ref="B191" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
+    <hyperlink ref="B196" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
+    <hyperlink ref="C196" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
+    <hyperlink ref="B197" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
+    <hyperlink ref="C197" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
+    <hyperlink ref="B198" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
+    <hyperlink ref="C198" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
+    <hyperlink ref="B199" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
+    <hyperlink ref="C199" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
+    <hyperlink ref="B200" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
+    <hyperlink ref="C200" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
+    <hyperlink ref="B201" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
+    <hyperlink ref="C201" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
+    <hyperlink ref="B203" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
+    <hyperlink ref="C203" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
+    <hyperlink ref="B204" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
+    <hyperlink ref="C204" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
+    <hyperlink ref="B202" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
+    <hyperlink ref="B210" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
+    <hyperlink ref="C210" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
+    <hyperlink ref="B211" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
+    <hyperlink ref="C211" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
+    <hyperlink ref="B212" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
+    <hyperlink ref="B80" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
+    <hyperlink ref="C80" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
+    <hyperlink ref="B82" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
+    <hyperlink ref="C82" r:id="rId129" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
+    <hyperlink ref="B83" r:id="rId130" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
+    <hyperlink ref="C83" r:id="rId131" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
+    <hyperlink ref="B84" r:id="rId132" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
+    <hyperlink ref="C84" r:id="rId133" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
+    <hyperlink ref="B85" r:id="rId134" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
+    <hyperlink ref="C85" r:id="rId135" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
+    <hyperlink ref="B86" r:id="rId136" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
+    <hyperlink ref="C86" r:id="rId137" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
+    <hyperlink ref="B87" r:id="rId138" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
+    <hyperlink ref="C87" r:id="rId139" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
+    <hyperlink ref="B89" r:id="rId140" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
+    <hyperlink ref="C89" r:id="rId141" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
+    <hyperlink ref="B90" r:id="rId142" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
+    <hyperlink ref="C90" r:id="rId143" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
+    <hyperlink ref="B91" r:id="rId144" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
+    <hyperlink ref="C91" r:id="rId145" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
+    <hyperlink ref="B93" r:id="rId146" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
+    <hyperlink ref="C93" r:id="rId147" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
+    <hyperlink ref="B94" r:id="rId148" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
+    <hyperlink ref="C94" r:id="rId149" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
+    <hyperlink ref="B95" r:id="rId150" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
+    <hyperlink ref="C95" r:id="rId151" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
+    <hyperlink ref="B96" r:id="rId152" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
+    <hyperlink ref="C96" r:id="rId153" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
+    <hyperlink ref="B97" r:id="rId154" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
+    <hyperlink ref="C97" r:id="rId155" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
+    <hyperlink ref="B98" r:id="rId156" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
+    <hyperlink ref="C98" r:id="rId157" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
+    <hyperlink ref="B99" r:id="rId158" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
+    <hyperlink ref="C99" r:id="rId159" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
+    <hyperlink ref="B100" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
+    <hyperlink ref="C100" r:id="rId161" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
+    <hyperlink ref="B101" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
+    <hyperlink ref="C101" r:id="rId163" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
+    <hyperlink ref="B102" r:id="rId164" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
+    <hyperlink ref="C102" r:id="rId165" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
+    <hyperlink ref="B103" r:id="rId166" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
+    <hyperlink ref="C103" r:id="rId167" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
+    <hyperlink ref="B104" r:id="rId168" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
+    <hyperlink ref="C104" r:id="rId169" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
+    <hyperlink ref="B106" r:id="rId170" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
+    <hyperlink ref="C106" r:id="rId171" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
+    <hyperlink ref="B107" r:id="rId172" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
+    <hyperlink ref="C107" r:id="rId173" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
+    <hyperlink ref="B108" r:id="rId174" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
+    <hyperlink ref="C108" r:id="rId175" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
+    <hyperlink ref="B109" r:id="rId176" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
+    <hyperlink ref="C109" r:id="rId177" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
+    <hyperlink ref="B115" r:id="rId178" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
+    <hyperlink ref="C115" r:id="rId179" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
+    <hyperlink ref="B116" r:id="rId180" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
+    <hyperlink ref="C116" r:id="rId181" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
+    <hyperlink ref="B117" r:id="rId182" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
+    <hyperlink ref="C117" r:id="rId183" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
+    <hyperlink ref="B118" r:id="rId184" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
+    <hyperlink ref="C118" r:id="rId185" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
+    <hyperlink ref="B119" r:id="rId186" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
+    <hyperlink ref="C119" r:id="rId187" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
+    <hyperlink ref="B120" r:id="rId188" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
+    <hyperlink ref="C120" r:id="rId189" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
+    <hyperlink ref="B121" r:id="rId190" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
+    <hyperlink ref="C121" r:id="rId191" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
+    <hyperlink ref="B122" r:id="rId192" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
+    <hyperlink ref="C122" r:id="rId193" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
+    <hyperlink ref="B123" r:id="rId194" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
+    <hyperlink ref="C123" r:id="rId195" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
+    <hyperlink ref="B124" r:id="rId196" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
+    <hyperlink ref="C124" r:id="rId197" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
+    <hyperlink ref="B125" r:id="rId198" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
+    <hyperlink ref="C125" r:id="rId199" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
+    <hyperlink ref="C79" r:id="rId200" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
+    <hyperlink ref="B79" r:id="rId201" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
+    <hyperlink ref="C78" r:id="rId202" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
+    <hyperlink ref="B78" r:id="rId203" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
+    <hyperlink ref="C77" r:id="rId204" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
+    <hyperlink ref="B77" r:id="rId205" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
+    <hyperlink ref="C76" r:id="rId206" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
+    <hyperlink ref="B76" r:id="rId207" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
+    <hyperlink ref="C75" r:id="rId208" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
+    <hyperlink ref="B75" r:id="rId209" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
+    <hyperlink ref="C74" r:id="rId210" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
+    <hyperlink ref="B74" r:id="rId211" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
+    <hyperlink ref="C73" r:id="rId212" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
+    <hyperlink ref="B73" r:id="rId213" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
+    <hyperlink ref="C72" r:id="rId214" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
+    <hyperlink ref="B72" r:id="rId215" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
+    <hyperlink ref="C70" r:id="rId216" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
+    <hyperlink ref="B70" r:id="rId217" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
+    <hyperlink ref="C69" r:id="rId218" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
+    <hyperlink ref="B69" r:id="rId219" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
+    <hyperlink ref="C68" r:id="rId220" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
+    <hyperlink ref="B68" r:id="rId221" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
+    <hyperlink ref="C67" r:id="rId222" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
+    <hyperlink ref="B67" r:id="rId223" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
+    <hyperlink ref="B2" r:id="rId224" display="https://leetcode.com/problems/implement-strstr/description/" xr:uid="{D540EA7C-EB08-D54A-8BA0-D2BF3C8D7159}"/>
+    <hyperlink ref="C2" r:id="rId225" display="https://cspiration.com/login" xr:uid="{8D4BEA64-F28F-194D-9BCA-1A1995FE751F}"/>
+    <hyperlink ref="B3" r:id="rId226" display="https://leetcode.com/problems/longest-common-prefix/description/" xr:uid="{4B66E93E-437A-C447-9D2D-14431C4B5C0D}"/>
+    <hyperlink ref="C3" r:id="rId227" display="https://cspiration.com/login" xr:uid="{4EDAA73E-B4E4-4A4D-A1A3-B1BF3B641930}"/>
+    <hyperlink ref="B4" r:id="rId228" display="https://leetcode.com/problems/length-of-last-word/description/" xr:uid="{D114781F-CCE8-1B4D-B130-1F8DAA81F929}"/>
+    <hyperlink ref="C4" r:id="rId229" display="https://cspiration.com/login" xr:uid="{D4837917-968A-1A47-A565-F2D02413B704}"/>
+    <hyperlink ref="B5" r:id="rId230" display="https://leetcode.com/problems/first-unique-character-in-a-string/description/" xr:uid="{C04F5C5C-DEE3-C44F-A74F-52C26D3F2FE9}"/>
+    <hyperlink ref="C5" r:id="rId231" display="https://cspiration.com/login" xr:uid="{83C1DBA7-7A1A-3942-8BBB-A55279A4114D}"/>
+    <hyperlink ref="B6" r:id="rId232" display="https://leetcode.com/problems/ransom-note/description/" xr:uid="{3D768C37-76A3-EB41-8CAF-A61CD430D930}"/>
+    <hyperlink ref="C6" r:id="rId233" display="https://cspiration.com/login" xr:uid="{295DA0DD-097C-494D-985C-0351F936CFAE}"/>
+    <hyperlink ref="B7" r:id="rId234" display="https://leetcode.com/problems/reverse-string/description/" xr:uid="{968C8B06-BC69-2343-84F4-4279FF45A33D}"/>
+    <hyperlink ref="C7" r:id="rId235" display="https://cspiration.com/login" xr:uid="{EF9807D4-7B95-6744-A12B-C9E96455C37F}"/>
+    <hyperlink ref="B8" r:id="rId236" display="https://leetcode.com/problems/reverse-words-in-a-string/description/" xr:uid="{E5D0091E-BD36-1849-86C4-AD6193E4DBF8}"/>
+    <hyperlink ref="C8" r:id="rId237" display="https://cspiration.com/login" xr:uid="{F3144B11-0907-9247-B034-3BE234EB0031}"/>
+    <hyperlink ref="B9" r:id="rId238" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/description/" xr:uid="{20ACD6E3-C0D3-DC40-A581-E5A1DD349E75}"/>
+    <hyperlink ref="C9" r:id="rId239" display="https://cspiration.com/login" xr:uid="{25731BF2-9D7D-2F47-8B04-2B971F79A6E7}"/>
+    <hyperlink ref="B10" r:id="rId240" display="https://leetcode.com/problems/reverse-vowels-of-a-string/description/" xr:uid="{03F64371-9FC5-6442-9F75-1D34AF197ECA}"/>
+    <hyperlink ref="C10" r:id="rId241" display="https://cspiration.com/login" xr:uid="{C8F12AB4-19EE-6143-BDA7-15328C7DA50A}"/>
+    <hyperlink ref="B11" r:id="rId242" display="https://leetcode.com/problems/isomorphic-strings/description/" xr:uid="{069B1397-F0EF-0645-8828-263251550008}"/>
+    <hyperlink ref="C11" r:id="rId243" display="https://cspiration.com/login" xr:uid="{F49DA318-AFE5-E94E-B520-D86A38E11102}"/>
+    <hyperlink ref="B12" r:id="rId244" display="https://leetcode.com/problems/flip-game/description/" xr:uid="{E38920AC-6E84-564B-B8BA-17E7F9BFDDBD}"/>
+    <hyperlink ref="C12" r:id="rId245" display="https://cspiration.com/login" xr:uid="{F52B4708-49AD-4244-B763-FD44230220CC}"/>
+    <hyperlink ref="B13" r:id="rId246" display="https://leetcode.com/problems/flip-game-ii/description/" xr:uid="{B57E6DAA-DB1C-9D49-A5F5-9A1DDBE07E8C}"/>
+    <hyperlink ref="C13" r:id="rId247" display="https://cspiration.com/login" xr:uid="{60004F03-7CA3-7A49-A7B7-7A595C09CD21}"/>
+    <hyperlink ref="B14" r:id="rId248" display="https://leetcode.com/problems/word-pattern/description/" xr:uid="{8A917EDD-4C17-0C4F-8EB3-0D2A69CF7E2D}"/>
+    <hyperlink ref="C14" r:id="rId249" display="https://cspiration.com/login" xr:uid="{D90BE585-BB70-8F4E-9C42-7DABEA1EE154}"/>
+    <hyperlink ref="B15" r:id="rId250" display="https://leetcode.com/problems/valid-anagram/description/" xr:uid="{6A427A47-B738-1B47-B40C-0720744F00EB}"/>
+    <hyperlink ref="C15" r:id="rId251" display="https://cspiration.com/login" xr:uid="{FBEBF316-2770-0D4C-AD03-785C42541C3B}"/>
+    <hyperlink ref="B16" r:id="rId252" display="https://leetcode.com/problems/group-anagrams/description/" xr:uid="{912892C7-059C-B142-AD7B-1AC6617F6F3C}"/>
+    <hyperlink ref="C16" r:id="rId253" display="https://cspiration.com/login" xr:uid="{C8C9E0D7-A9FC-7849-BE2F-7412ACBD95EC}"/>
+    <hyperlink ref="B17" r:id="rId254" display="https://leetcode.com/problems/group-shifted-strings/description/" xr:uid="{F88F7380-745F-2542-891F-D8189D659014}"/>
+    <hyperlink ref="C17" r:id="rId255" display="https://cspiration.com/login" xr:uid="{5AEB76A3-0CB4-724C-B27E-A5D3084DED56}"/>
+    <hyperlink ref="B18" r:id="rId256" display="https://leetcode.com/problems/scramble-string/description/" xr:uid="{8E7AE0F9-60C3-6C44-93A5-7BCE475FE65D}"/>
+    <hyperlink ref="C18" r:id="rId257" display="https://cspiration.com/login" xr:uid="{B897081C-536E-124F-B44D-E65CD2DAE73A}"/>
+    <hyperlink ref="B19" r:id="rId258" display="https://leetcode.com/problems/one-edit-distance/" xr:uid="{709E24AB-4569-5E4E-B354-741841D8A3CF}"/>
+    <hyperlink ref="C19" r:id="rId259" display="https://cspiration.com/login" xr:uid="{B27AAEDC-0D30-2646-990A-5B2240B5DC3E}"/>
+    <hyperlink ref="B20" r:id="rId260" display="https://leetcode.com/problems/count-and-say/description/" xr:uid="{039EF842-D3DA-4B46-83A0-B0AE9E3B77E9}"/>
+    <hyperlink ref="C20" r:id="rId261" display="https://cspiration.com/login" xr:uid="{114602C0-CFEF-E04D-AF79-28A290AD5151}"/>
+    <hyperlink ref="B21" r:id="rId262" display="https://leetcode.com/problems/rearrange-string-k-distance-apart/description/" xr:uid="{766E9D85-1888-2C4C-84BF-92C503F606F4}"/>
+    <hyperlink ref="C21" r:id="rId263" display="https://cspiration.com/login" xr:uid="{6C5848D4-F1A3-5E43-A18B-3EF386A88DB8}"/>
+    <hyperlink ref="B22" r:id="rId264" display="https://leetcode.com/problems/remove-duplicate-letters/description/" xr:uid="{41E9DFCB-F0F7-F142-B5A6-FD4B7DBC4BBA}"/>
+    <hyperlink ref="C22" r:id="rId265" display="https://cspiration.com/login" xr:uid="{DF13B8AA-9303-BE4C-9CE0-D00E513A3293}"/>
+    <hyperlink ref="B23" r:id="rId266" display="https://leetcode.com/problems/encode-and-decode-strings/description/" xr:uid="{25875E62-4A7E-D442-92FC-3F95DFABD8D2}"/>
+    <hyperlink ref="C23" r:id="rId267" display="https://cspiration.com/login" xr:uid="{FAFD0B63-78CD-8E4D-A1CA-07E70CC0FFBA}"/>
+    <hyperlink ref="B24" r:id="rId268" display="https://leetcode.com/problems/excel-sheet-column-title/description/" xr:uid="{7BC754D8-E75A-8B44-AD1B-7A259C99BFC0}"/>
+    <hyperlink ref="C24" r:id="rId269" display="https://cspiration.com/login" xr:uid="{39D15FCE-65DE-5B4E-9BC0-B864C6EAC70B}"/>
+    <hyperlink ref="B25" r:id="rId270" display="https://leetcode.com/problems/excel-sheet-column-number/description/" xr:uid="{EE4C5B10-4ED2-8B46-B331-B687A0FC87CC}"/>
+    <hyperlink ref="C25" r:id="rId271" display="https://cspiration.com/login" xr:uid="{68673230-A15D-DF41-9113-C0EC2A891D82}"/>
+    <hyperlink ref="B26" r:id="rId272" display="https://leetcode.com/problems/roman-to-integer/description/" xr:uid="{3A2D8E6F-706D-5F42-8F12-6FDA83EDF015}"/>
+    <hyperlink ref="C26" r:id="rId273" display="https://cspiration.com/login" xr:uid="{A78FD53F-C3F7-174F-89F5-6A7F81AD86FB}"/>
+    <hyperlink ref="B27" r:id="rId274" display="https://leetcode.com/problems/integer-to-roman/description/" xr:uid="{EAE13DA7-A7CC-0045-9D4E-D3845B1D351A}"/>
+    <hyperlink ref="C27" r:id="rId275" display="https://cspiration.com/login" xr:uid="{1E917630-0E9A-CA44-B4D0-335D33B3DAD4}"/>
+    <hyperlink ref="B28" r:id="rId276" display="https://leetcode.com/problems/integer-to-english-words/description/" xr:uid="{E03F80C1-D861-5147-9CCC-8EBDA45C5F84}"/>
+    <hyperlink ref="C28" r:id="rId277" display="https://cspiration.com/login" xr:uid="{C8915A28-36A3-8D4D-A5D8-B28C51E8A13B}"/>
+    <hyperlink ref="B29" r:id="rId278" display="https://leetcode.com/problems/strobogrammatic-number/description/" xr:uid="{072EA103-1AA4-6D4D-A811-07E7EFC53754}"/>
+    <hyperlink ref="C29" r:id="rId279" display="https://cspiration.com/login" xr:uid="{118BB6D1-D892-1D4A-A278-CEBA454174C9}"/>
+    <hyperlink ref="B30" r:id="rId280" display="https://leetcode.com/problems/strobogrammatic-number-ii/description/" xr:uid="{17DD45CF-4F79-9A48-A172-DF78FFE2BAFD}"/>
+    <hyperlink ref="C30" r:id="rId281" display="https://cspiration.com/login" xr:uid="{6E8396B6-84C6-7E48-AA73-CE7E9B901407}"/>
+    <hyperlink ref="B32" r:id="rId282" display="https://leetcode.com/problems/read-n-characters-given-read4/description/" xr:uid="{D18F3004-120C-9749-96EA-DA48816C8D97}"/>
+    <hyperlink ref="C32" r:id="rId283" display="https://cspiration.com/login" xr:uid="{D09C3F94-1D2B-AA4B-91A4-5F1C1C29C741}"/>
+    <hyperlink ref="B33" r:id="rId284" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/" xr:uid="{C10019EB-7182-1D47-B84E-E88E23C5D8FA}"/>
+    <hyperlink ref="C33" r:id="rId285" display="https://cspiration.com/login" xr:uid="{F5ACF2D2-A531-424B-B3CF-993B83A1F7FB}"/>
+    <hyperlink ref="B34" r:id="rId286" display="https://leetcode.com/problems/text-justification/description/" xr:uid="{BFE3B433-B31C-CC4A-B33B-40E03920BB14}"/>
+    <hyperlink ref="C34" r:id="rId287" display="https://cspiration.com/login" xr:uid="{2F20FF9D-1F78-994B-9CE5-4B009BFBECC5}"/>
+    <hyperlink ref="B35" r:id="rId288" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{5B3E385E-B11A-C64D-8285-B8177A8BCDA4}"/>
+    <hyperlink ref="C35" r:id="rId289" display="https://cspiration.com/login" xr:uid="{B24A14A7-52F4-E249-B609-37F1D91D19AF}"/>
+    <hyperlink ref="B37" r:id="rId290" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
+    <hyperlink ref="C37" r:id="rId291" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
+    <hyperlink ref="B38" r:id="rId292" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
+    <hyperlink ref="C38" r:id="rId293" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
+    <hyperlink ref="B39" r:id="rId294" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
+    <hyperlink ref="C39" r:id="rId295" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
+    <hyperlink ref="B40" r:id="rId296" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
+    <hyperlink ref="C40" r:id="rId297" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
+    <hyperlink ref="B41" r:id="rId298" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
+    <hyperlink ref="C41" r:id="rId299" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
+    <hyperlink ref="B42" r:id="rId300" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
+    <hyperlink ref="C42" r:id="rId301" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
+    <hyperlink ref="B44" r:id="rId302" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
+    <hyperlink ref="C44" r:id="rId303" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
+    <hyperlink ref="B45" r:id="rId304" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
+    <hyperlink ref="C45" r:id="rId305" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
+    <hyperlink ref="B46" r:id="rId306" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
+    <hyperlink ref="C46" r:id="rId307" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
+    <hyperlink ref="B47" r:id="rId308" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
+    <hyperlink ref="C47" r:id="rId309" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
+    <hyperlink ref="B48" r:id="rId310" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
+    <hyperlink ref="C48" r:id="rId311" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
+    <hyperlink ref="B49" r:id="rId312" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
+    <hyperlink ref="C49" r:id="rId313" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
+    <hyperlink ref="B50" r:id="rId314" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
+    <hyperlink ref="C50" r:id="rId315" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
+    <hyperlink ref="B51" r:id="rId316" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
+    <hyperlink ref="C51" r:id="rId317" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
+    <hyperlink ref="B52" r:id="rId318" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
+    <hyperlink ref="C52" r:id="rId319" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
+    <hyperlink ref="B54" r:id="rId320" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
+    <hyperlink ref="C54" r:id="rId321" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
+    <hyperlink ref="B55" r:id="rId322" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
+    <hyperlink ref="C55" r:id="rId323" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
+    <hyperlink ref="B56" r:id="rId324" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
+    <hyperlink ref="C56" r:id="rId325" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
+    <hyperlink ref="B57" r:id="rId326" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
+    <hyperlink ref="C57" r:id="rId327" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
+    <hyperlink ref="B58" r:id="rId328" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
+    <hyperlink ref="C58" r:id="rId329" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
+    <hyperlink ref="B60" r:id="rId330" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
+    <hyperlink ref="C60" r:id="rId331" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
+    <hyperlink ref="B61" r:id="rId332" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
+    <hyperlink ref="C61" r:id="rId333" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
+    <hyperlink ref="B62" r:id="rId334" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
+    <hyperlink ref="C62" r:id="rId335" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
+    <hyperlink ref="B218" r:id="rId336" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
+    <hyperlink ref="C218" r:id="rId337" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
+    <hyperlink ref="B219" r:id="rId338" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
+    <hyperlink ref="C219" r:id="rId339" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
+    <hyperlink ref="B220" r:id="rId340" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
+    <hyperlink ref="C220" r:id="rId341" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B222" r:id="rId342" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
+    <hyperlink ref="C222" r:id="rId343" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
+    <hyperlink ref="B228" r:id="rId344" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
+    <hyperlink ref="C228" r:id="rId345" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
+    <hyperlink ref="B227" r:id="rId346" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
+    <hyperlink ref="C227" r:id="rId347" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
+    <hyperlink ref="B229" r:id="rId348" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
+    <hyperlink ref="C229" r:id="rId349" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B234" r:id="rId350" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
+    <hyperlink ref="C234" r:id="rId351" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
+    <hyperlink ref="B235" r:id="rId352" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
+    <hyperlink ref="C235" r:id="rId353" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
+    <hyperlink ref="B236" r:id="rId354" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
+    <hyperlink ref="C236" r:id="rId355" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
+    <hyperlink ref="B237" r:id="rId356" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
+    <hyperlink ref="C237" r:id="rId357" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
+    <hyperlink ref="B238" r:id="rId358" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
+    <hyperlink ref="C238" r:id="rId359" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
+    <hyperlink ref="B239" r:id="rId360" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
+    <hyperlink ref="C239" r:id="rId361" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
+    <hyperlink ref="B240" r:id="rId362" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
+    <hyperlink ref="C240" r:id="rId363" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
+    <hyperlink ref="B241" r:id="rId364" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
+    <hyperlink ref="C241" r:id="rId365" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
+    <hyperlink ref="B242" r:id="rId366" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
+    <hyperlink ref="C242" r:id="rId367" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
+    <hyperlink ref="B243" r:id="rId368" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
+    <hyperlink ref="C243" r:id="rId369" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
+    <hyperlink ref="B244" r:id="rId370" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
+    <hyperlink ref="C244" r:id="rId371" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
+    <hyperlink ref="B245" r:id="rId372" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
+    <hyperlink ref="C245" r:id="rId373" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
+    <hyperlink ref="B246" r:id="rId374" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
+    <hyperlink ref="C246" r:id="rId375" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
+    <hyperlink ref="B247" r:id="rId376" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
+    <hyperlink ref="C247" r:id="rId377" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
+    <hyperlink ref="B248" r:id="rId378" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
+    <hyperlink ref="C248" r:id="rId379" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
+    <hyperlink ref="B249" r:id="rId380" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
+    <hyperlink ref="C249" r:id="rId381" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
+    <hyperlink ref="B250" r:id="rId382" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
+    <hyperlink ref="B257" r:id="rId383" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
+    <hyperlink ref="C257" r:id="rId384" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
+    <hyperlink ref="B258" r:id="rId385" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{156CAAE5-6351-9947-BB71-247BCB4199E4}"/>
+    <hyperlink ref="C258" r:id="rId386" display="https://cspiration.com/login" xr:uid="{B32FCD33-3793-1145-9B85-1C19988C5512}"/>
+    <hyperlink ref="B259" r:id="rId387" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{988FA989-097D-3643-AFD0-51D5DE85FC28}"/>
+    <hyperlink ref="C259" r:id="rId388" display="https://cspiration.com/login" xr:uid="{236098E8-3353-2343-96D1-B31CFD341154}"/>
+    <hyperlink ref="B260" r:id="rId389" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
+    <hyperlink ref="C260" r:id="rId390" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
+    <hyperlink ref="B261" r:id="rId391" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
+    <hyperlink ref="C261" r:id="rId392" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
+    <hyperlink ref="B262" r:id="rId393" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
+    <hyperlink ref="C262" r:id="rId394" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
+    <hyperlink ref="B263" r:id="rId395" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
+    <hyperlink ref="C263" r:id="rId396" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
+    <hyperlink ref="B264" r:id="rId397" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
+    <hyperlink ref="C264" r:id="rId398" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
+    <hyperlink ref="B265" r:id="rId399" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
+    <hyperlink ref="C265" r:id="rId400" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
+    <hyperlink ref="B266" r:id="rId401" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
+    <hyperlink ref="C266" r:id="rId402" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
+    <hyperlink ref="B267" r:id="rId403" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
+    <hyperlink ref="C267" r:id="rId404" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
+    <hyperlink ref="B269" r:id="rId405" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
+    <hyperlink ref="C269" r:id="rId406" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
+    <hyperlink ref="B270" r:id="rId407" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
+    <hyperlink ref="C270" r:id="rId408" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
+    <hyperlink ref="B271" r:id="rId409" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
+    <hyperlink ref="C271" r:id="rId410" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
+    <hyperlink ref="B272" r:id="rId411" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
+    <hyperlink ref="C272" r:id="rId412" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
+    <hyperlink ref="B273" r:id="rId413" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
+    <hyperlink ref="B279" r:id="rId414" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
+    <hyperlink ref="C279" r:id="rId415" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
+    <hyperlink ref="B280" r:id="rId416" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
+    <hyperlink ref="C280" r:id="rId417" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
+    <hyperlink ref="B281" r:id="rId418" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
+    <hyperlink ref="B286" r:id="rId419" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
+    <hyperlink ref="C286" r:id="rId420" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
+    <hyperlink ref="B287" r:id="rId421" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
+    <hyperlink ref="C287" r:id="rId422" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
+    <hyperlink ref="B288" r:id="rId423" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
+    <hyperlink ref="B293" r:id="rId424" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
+    <hyperlink ref="C293" r:id="rId425" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
+    <hyperlink ref="B294" r:id="rId426" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
+    <hyperlink ref="C294" r:id="rId427" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
+    <hyperlink ref="B295" r:id="rId428" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
+    <hyperlink ref="C295" r:id="rId429" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
+    <hyperlink ref="B296" r:id="rId430" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
+    <hyperlink ref="C296" r:id="rId431" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
+    <hyperlink ref="B297" r:id="rId432" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
+    <hyperlink ref="C297" r:id="rId433" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
+    <hyperlink ref="B298" r:id="rId434" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AC537D-E6AE-4E4D-91A0-CF9766309FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BBDB5C-9992-4748-BBAA-0CC167DB7BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="286">
   <si>
     <t>144</t>
   </si>
@@ -832,6 +832,63 @@
   </si>
   <si>
     <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Two Sum III - Data structure design</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Design Twitter</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>BIT &amp; ST</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable</t>
   </si>
 </sst>
 </file>
@@ -874,18 +931,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -901,19 +952,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1229,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="114" workbookViewId="0">
-      <selection activeCell="J224" sqref="J224"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="114" workbookViewId="0">
+      <selection activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,12 +1289,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1255,10 +1303,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1267,10 +1315,10 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1279,10 +1327,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>387</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1291,10 +1339,10 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>383</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1303,10 +1351,10 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>344</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1315,10 +1363,10 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1327,10 +1375,10 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1339,10 +1387,10 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>345</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1351,10 +1399,10 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>205</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1363,10 +1411,10 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>293</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1375,10 +1423,10 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>294</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1387,10 +1435,10 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>290</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1399,10 +1447,10 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>242</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1411,10 +1459,10 @@
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1423,10 +1471,10 @@
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>249</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1435,10 +1483,10 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1447,10 +1495,10 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1459,10 +1507,10 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1471,10 +1519,10 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>358</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1483,10 +1531,10 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>316</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1495,10 +1543,10 @@
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>271</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1507,10 +1555,10 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1519,10 +1567,10 @@
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>171</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1531,10 +1579,10 @@
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1543,10 +1591,10 @@
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1555,10 +1603,10 @@
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>273</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1567,10 +1615,10 @@
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>246</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1579,10 +1627,10 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>247</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1591,18 +1639,18 @@
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1611,10 +1659,10 @@
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1623,10 +1671,10 @@
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1635,10 +1683,10 @@
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1647,18 +1695,18 @@
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1667,12 +1715,12 @@
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1681,12 +1729,12 @@
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1695,12 +1743,12 @@
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>340</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1709,12 +1757,12 @@
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>395</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1723,12 +1771,12 @@
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1737,20 +1785,20 @@
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>125</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1759,10 +1807,10 @@
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>266</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1771,10 +1819,10 @@
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1783,10 +1831,10 @@
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1795,10 +1843,10 @@
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>214</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1807,10 +1855,10 @@
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>336</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1819,10 +1867,10 @@
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>131</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1831,10 +1879,10 @@
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>132</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1843,10 +1891,10 @@
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>267</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1855,18 +1903,18 @@
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>20</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1875,10 +1923,10 @@
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1887,10 +1935,10 @@
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>32</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1899,10 +1947,10 @@
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>241</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1911,10 +1959,10 @@
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>301</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -1923,18 +1971,18 @@
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>392</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1943,10 +1991,10 @@
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -1955,10 +2003,10 @@
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>187</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -1969,19 +2017,19 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1989,7 +2037,7 @@
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2001,7 +2049,7 @@
       <c r="A68" s="1">
         <v>94</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2013,7 +2061,7 @@
       <c r="A69" s="1">
         <v>145</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2025,7 +2073,7 @@
       <c r="A70" s="1">
         <v>102</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2037,7 +2085,7 @@
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
@@ -2045,7 +2093,7 @@
       <c r="A72" s="1">
         <v>100</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2057,7 +2105,7 @@
       <c r="A73" s="1">
         <v>101</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2069,7 +2117,7 @@
       <c r="A74" s="1">
         <v>226</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2083,7 +2131,7 @@
       <c r="A75" s="1">
         <v>257</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2095,7 +2143,7 @@
       <c r="A76" s="1">
         <v>112</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2107,7 +2155,7 @@
       <c r="A77" s="1">
         <v>113</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2119,7 +2167,7 @@
       <c r="A78" s="1">
         <v>129</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2131,7 +2179,7 @@
       <c r="A79" s="1">
         <v>298</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2143,7 +2191,7 @@
       <c r="A80" s="1">
         <v>111</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2155,7 +2203,7 @@
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="5"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
@@ -2163,7 +2211,7 @@
       <c r="A82" s="1">
         <v>104</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2175,7 +2223,7 @@
       <c r="A83" s="1">
         <v>110</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2187,7 +2235,7 @@
       <c r="A84" s="1">
         <v>124</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2199,7 +2247,7 @@
       <c r="A85" s="1">
         <v>250</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2211,7 +2259,7 @@
       <c r="A86" s="1">
         <v>366</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2223,7 +2271,7 @@
       <c r="A87" s="1">
         <v>337</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2237,7 +2285,7 @@
       <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
@@ -2245,7 +2293,7 @@
       <c r="A89" s="1">
         <v>107</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2257,7 +2305,7 @@
       <c r="A90" s="1">
         <v>103</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2269,7 +2317,7 @@
       <c r="A91" s="1">
         <v>199</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2283,7 +2331,7 @@
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="5"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
@@ -2291,7 +2339,7 @@
       <c r="A93" s="1">
         <v>98</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2305,7 +2353,7 @@
       <c r="A94" s="1">
         <v>235</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2319,7 +2367,7 @@
       <c r="A95" s="1">
         <v>236</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2333,7 +2381,7 @@
       <c r="A96" s="1">
         <v>108</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -2347,7 +2395,7 @@
       <c r="A97" s="1">
         <v>109</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -2361,7 +2409,7 @@
       <c r="A98" s="1">
         <v>173</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2375,7 +2423,7 @@
       <c r="A99" s="1">
         <v>230</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -2389,7 +2437,7 @@
       <c r="A100" s="1">
         <v>297</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2403,7 +2451,7 @@
       <c r="A101" s="1">
         <v>285</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -2417,7 +2465,7 @@
       <c r="A102" s="1">
         <v>270</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -2431,7 +2479,7 @@
       <c r="A103" s="1">
         <v>272</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -2445,7 +2493,7 @@
       <c r="A104" s="1">
         <v>99</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -2459,7 +2507,7 @@
       <c r="A105" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="5"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
@@ -2467,7 +2515,7 @@
       <c r="A106" s="1">
         <v>116</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -2481,7 +2529,7 @@
       <c r="A107" s="1">
         <v>117</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -2495,7 +2543,7 @@
       <c r="A108" s="1">
         <v>314</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -2509,7 +2557,7 @@
       <c r="A109" s="1">
         <v>96</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2520,1008 +2568,1008 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="9"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="9"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="9"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="9"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7" t="s">
+      <c r="B114" s="7"/>
+      <c r="C114" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>78</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>90</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>77</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="7"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>39</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="7"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>40</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>216</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>377</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>254</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="7"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>46</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="7"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>47</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="7"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>31</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>60</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>291</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="7"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>17</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>320</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="7"/>
+      <c r="D129" s="6"/>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>282</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="7"/>
+      <c r="D130" s="6"/>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>140</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="7"/>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>351</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>70</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="7"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>62</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="7"/>
+      <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>63</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>279</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="7"/>
+      <c r="D141" s="6"/>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>139</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="7"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>375</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="7"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>312</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="7"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>322</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="6"/>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>256</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="7"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>265</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="7"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>64</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="7"/>
+      <c r="D149" s="6"/>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>72</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="7"/>
+      <c r="D150" s="6"/>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>97</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="7"/>
+      <c r="D151" s="6"/>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>174</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>221</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>85</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>363</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>198</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="7"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>213</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="7"/>
+      <c r="D158" s="6"/>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>276</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D159" s="6"/>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>91</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="7"/>
+      <c r="D160" s="6"/>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>10</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="7"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>44</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7" t="s">
+      <c r="B166" s="6"/>
+      <c r="C166" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="7">
+      <c r="A168" s="6">
         <v>206</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D168" s="7"/>
+      <c r="D168" s="6"/>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>141</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>24</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D170" s="7"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>328</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
+      <c r="A172" s="6">
         <v>92</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>237</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>19</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="7"/>
+      <c r="D174" s="6"/>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>83</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="7"/>
+      <c r="D175" s="6"/>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>203</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="7"/>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>82</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="7"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>369</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="7"/>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="7">
-        <v>2</v>
-      </c>
-      <c r="B179" s="4" t="s">
+      <c r="A179" s="6">
+        <v>2</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="7"/>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>160</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="7"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>21</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="7"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>234</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="7"/>
+      <c r="D183" s="6"/>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="7">
+      <c r="A184" s="6">
         <v>143</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="6"/>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>142</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="7"/>
+      <c r="D185" s="6"/>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>148</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="7"/>
+      <c r="D186" s="6"/>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="7">
+      <c r="A187" s="6">
         <v>25</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="7"/>
+      <c r="D187" s="6"/>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>61</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="7"/>
+      <c r="D188" s="6"/>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>86</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="6"/>
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="7">
+      <c r="A190" s="6">
         <v>23</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="7"/>
+      <c r="D190" s="6"/>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>147</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7" t="s">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="7">
+      <c r="A196" s="6">
         <v>200</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="7"/>
+      <c r="D196" s="6"/>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="7">
+      <c r="A197" s="6">
         <v>286</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D197" s="7"/>
+      <c r="D197" s="6"/>
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="7">
+      <c r="A198" s="6">
         <v>130</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="7"/>
+      <c r="D198" s="6"/>
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="7">
+      <c r="A199" s="6">
         <v>339</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="7"/>
+      <c r="D199" s="6"/>
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="7">
+      <c r="A200" s="6">
         <v>364</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="7"/>
+      <c r="D200" s="6"/>
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>127</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="7"/>
+      <c r="D201" s="6"/>
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="7">
+      <c r="A202" s="6">
         <v>126</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>51</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D203" s="7"/>
+      <c r="D203" s="6"/>
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="7">
+      <c r="A204" s="6">
         <v>52</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="6"/>
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="7"/>
-      <c r="B207" s="4"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="3"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="7"/>
+      <c r="D207" s="6"/>
     </row>
     <row r="208" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B208" s="9"/>
+      <c r="B208" s="8"/>
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B209" s="8"/>
-      <c r="C209" s="7" t="s">
+      <c r="B209" s="7"/>
+      <c r="C209" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="7">
+      <c r="A210" s="6">
         <v>261</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -3530,10 +3578,10 @@
       <c r="C210" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D210" s="7"/>
+      <c r="D210" s="6"/>
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A211" s="7">
+      <c r="A211" s="6">
         <v>323</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -3542,10 +3590,10 @@
       <c r="C211" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D211" s="7"/>
+      <c r="D211" s="6"/>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="7">
+      <c r="A212" s="6">
         <v>305</v>
       </c>
       <c r="B212" s="3" t="s">
@@ -3553,39 +3601,39 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B213" s="11"/>
+      <c r="B213" s="8"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B214" s="11"/>
+      <c r="B214" s="8"/>
     </row>
     <row r="215" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B215" s="11"/>
+      <c r="B215" s="8"/>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="10"/>
-      <c r="C216" s="7" t="s">
+      <c r="B216" s="7"/>
+      <c r="C216" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D216" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B217" s="10"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
     </row>
     <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A218" s="7">
+      <c r="A218" s="6">
         <v>133</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -3594,10 +3642,10 @@
       <c r="C218" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D218" s="7"/>
+      <c r="D218" s="6"/>
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="7">
+      <c r="A219" s="6">
         <v>399</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -3606,10 +3654,10 @@
       <c r="C219" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="7"/>
+      <c r="D219" s="6"/>
     </row>
     <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A220" s="7">
+      <c r="A220" s="6">
         <v>310</v>
       </c>
       <c r="B220" s="3" t="s">
@@ -3618,18 +3666,18 @@
       <c r="C220" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D220" s="7"/>
+      <c r="D220" s="6"/>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="10"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="7">
+      <c r="A222" s="6">
         <v>149</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -3638,81 +3686,81 @@
       <c r="C222" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D222" s="7"/>
+      <c r="D222" s="6"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B223" s="9"/>
+      <c r="B223" s="8"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B224" s="9"/>
+      <c r="B224" s="8"/>
     </row>
     <row r="225" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B225" s="9"/>
+      <c r="B225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B226" s="8"/>
-      <c r="C226" s="7" t="s">
+      <c r="B226" s="7"/>
+      <c r="C226" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="7">
+      <c r="A227" s="6">
         <v>208</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D227" s="7"/>
+      <c r="D227" s="6"/>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="7">
+      <c r="A228" s="6">
         <v>211</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="7"/>
+      <c r="D228" s="6"/>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A229" s="7">
+      <c r="A229" s="6">
         <v>212</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D229" s="7"/>
+      <c r="D229" s="6"/>
     </row>
     <row r="232" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7" t="s">
+      <c r="B233" s="6"/>
+      <c r="C233" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="7">
+      <c r="A234" s="6">
         <v>48</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -3721,10 +3769,10 @@
       <c r="C234" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D234" s="7"/>
+      <c r="D234" s="6"/>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A235" s="7">
+      <c r="A235" s="6">
         <v>54</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -3733,10 +3781,10 @@
       <c r="C235" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="7"/>
+      <c r="D235" s="6"/>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A236" s="7">
+      <c r="A236" s="6">
         <v>59</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -3745,10 +3793,10 @@
       <c r="C236" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D236" s="7"/>
+      <c r="D236" s="6"/>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="7">
+      <c r="A237" s="6">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -3757,10 +3805,10 @@
       <c r="C237" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D237" s="7"/>
+      <c r="D237" s="6"/>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="7">
+      <c r="A238" s="6">
         <v>311</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -3769,10 +3817,10 @@
       <c r="C238" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D238" s="7"/>
+      <c r="D238" s="6"/>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="7">
+      <c r="A239" s="6">
         <v>329</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -3781,10 +3829,10 @@
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D239" s="7"/>
+      <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A240" s="7">
+      <c r="A240" s="6">
         <v>378</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -3793,10 +3841,10 @@
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="7"/>
+      <c r="D240" s="6"/>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="7">
+      <c r="A241" s="6">
         <v>74</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -3805,10 +3853,10 @@
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D241" s="7"/>
+      <c r="D241" s="6"/>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A242" s="7">
+      <c r="A242" s="6">
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -3817,10 +3865,10 @@
       <c r="C242" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D242" s="7"/>
+      <c r="D242" s="6"/>
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A243" s="7">
+      <c r="A243" s="6">
         <v>370</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -3829,10 +3877,10 @@
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="7"/>
+      <c r="D243" s="6"/>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A244" s="7">
+      <c r="A244" s="6">
         <v>79</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -3841,10 +3889,10 @@
       <c r="C244" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D244" s="7"/>
+      <c r="D244" s="6"/>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A245" s="7">
+      <c r="A245" s="6">
         <v>296</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -3853,10 +3901,10 @@
       <c r="C245" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D245" s="7"/>
+      <c r="D245" s="6"/>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="7">
+      <c r="A246" s="6">
         <v>361</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -3865,10 +3913,10 @@
       <c r="C246" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="7"/>
+      <c r="D246" s="6"/>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A247" s="7">
+      <c r="A247" s="6">
         <v>317</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -3877,10 +3925,10 @@
       <c r="C247" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D247" s="7"/>
+      <c r="D247" s="6"/>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A248" s="7">
+      <c r="A248" s="6">
         <v>302</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -3889,10 +3937,10 @@
       <c r="C248" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D248" s="7"/>
+      <c r="D248" s="6"/>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A249" s="7">
+      <c r="A249" s="6">
         <v>36</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -3901,10 +3949,10 @@
       <c r="C249" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="7"/>
+      <c r="D249" s="6"/>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A250" s="7">
+      <c r="A250" s="6">
         <v>37</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -3912,28 +3960,28 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
+      <c r="A254" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A255" s="7" t="s">
+      <c r="A255" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B255" s="7"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="7"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
+      <c r="A256" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B256" s="7"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="7"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="7">
+      <c r="A257" s="6">
         <v>155</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -3942,10 +3990,10 @@
       <c r="C257" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D257" s="7"/>
+      <c r="D257" s="6"/>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A258" s="7">
+      <c r="A258" s="6">
         <v>232</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -3954,10 +4002,10 @@
       <c r="C258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D258" s="7"/>
+      <c r="D258" s="6"/>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A259" s="7">
+      <c r="A259" s="6">
         <v>225</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -3966,10 +4014,10 @@
       <c r="C259" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="7"/>
+      <c r="D259" s="6"/>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A260" s="7">
+      <c r="A260" s="6">
         <v>150</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -3978,10 +4026,10 @@
       <c r="C260" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="7"/>
+      <c r="D260" s="6"/>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A261" s="7">
+      <c r="A261" s="6">
         <v>71</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -3990,10 +4038,10 @@
       <c r="C261" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="7"/>
+      <c r="D261" s="6"/>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A262" s="7">
+      <c r="A262" s="6">
         <v>388</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -4002,10 +4050,10 @@
       <c r="C262" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D262" s="7"/>
+      <c r="D262" s="6"/>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="7">
+      <c r="A263" s="6">
         <v>394</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -4014,10 +4062,10 @@
       <c r="C263" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D263" s="7"/>
+      <c r="D263" s="6"/>
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A264" s="7">
+      <c r="A264" s="6">
         <v>224</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -4026,10 +4074,10 @@
       <c r="C264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D264" s="7"/>
+      <c r="D264" s="6"/>
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A265" s="7">
+      <c r="A265" s="6">
         <v>227</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -4038,161 +4086,161 @@
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="7"/>
+      <c r="D265" s="6"/>
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A266" s="7">
+      <c r="A266" s="6">
         <v>385</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="7"/>
+      <c r="D266" s="6"/>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" s="7">
+      <c r="A267" s="6">
         <v>84</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="7"/>
+      <c r="D267" s="6"/>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268" s="7" t="s">
+      <c r="A268" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B268" s="8"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="7"/>
+      <c r="B268" s="7"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="7">
+      <c r="A269" s="6">
         <v>215</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D269" s="7"/>
+      <c r="D269" s="6"/>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" s="7">
+      <c r="A270" s="6">
         <v>347</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="7"/>
+      <c r="D270" s="6"/>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A271" s="7">
+      <c r="A271" s="6">
         <v>218</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D271" s="7"/>
+      <c r="D271" s="6"/>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" s="7">
+      <c r="A272" s="6">
         <v>332</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D272" s="7"/>
+      <c r="D272" s="6"/>
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A273" s="7">
+      <c r="A273" s="6">
         <v>341</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B274" s="9"/>
+      <c r="B274" s="8"/>
     </row>
     <row r="277" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A278" s="7" t="s">
+      <c r="A278" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B278" s="7"/>
-      <c r="C278" s="7" t="s">
+      <c r="B278" s="6"/>
+      <c r="C278" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A279" s="7">
+      <c r="A279" s="6">
         <v>389</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D279" s="7"/>
+      <c r="D279" s="6"/>
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A280" s="7">
+      <c r="A280" s="6">
         <v>136</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D280" s="7"/>
+      <c r="D280" s="6"/>
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A281" s="7">
+      <c r="A281" s="6">
         <v>318</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
+      <c r="A284" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A285" s="7" t="s">
+      <c r="A285" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B285" s="7"/>
-      <c r="C285" s="7" t="s">
+      <c r="B285" s="6"/>
+      <c r="C285" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A286" s="7">
+      <c r="A286" s="6">
         <v>207</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -4201,10 +4249,10 @@
       <c r="C286" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D286" s="7"/>
+      <c r="D286" s="6"/>
     </row>
     <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A287" s="7">
+      <c r="A287" s="6">
         <v>210</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -4213,10 +4261,10 @@
       <c r="C287" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D287" s="7"/>
+      <c r="D287" s="6"/>
     </row>
     <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A288" s="7">
+      <c r="A288" s="6">
         <v>269</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -4224,21 +4272,21 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
+      <c r="A291" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A292" s="7" t="s">
+      <c r="A292" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B292" s="7"/>
-      <c r="C292" s="7" t="s">
+      <c r="B292" s="6"/>
+      <c r="C292" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A293" s="7">
+      <c r="A293" s="6">
         <v>384</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -4247,10 +4295,10 @@
       <c r="C293" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D293" s="7"/>
+      <c r="D293" s="6"/>
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A294" s="7">
+      <c r="A294" s="6">
         <v>398</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -4259,10 +4307,10 @@
       <c r="C294" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D294" s="7"/>
+      <c r="D294" s="6"/>
     </row>
     <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A295" s="7">
+      <c r="A295" s="6">
         <v>382</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -4271,10 +4319,10 @@
       <c r="C295" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D295" s="7"/>
+      <c r="D295" s="6"/>
     </row>
     <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A296" s="7">
+      <c r="A296" s="6">
         <v>380</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -4283,10 +4331,10 @@
       <c r="C296" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D296" s="7"/>
+      <c r="D296" s="6"/>
     </row>
     <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A297" s="7">
+      <c r="A297" s="6">
         <v>381</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -4295,14 +4343,237 @@
       <c r="C297" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D297" s="7"/>
+      <c r="D297" s="6"/>
     </row>
     <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A298" s="7">
+      <c r="A298" s="6">
         <v>138</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="6"/>
+    </row>
+    <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A303" s="6">
+        <v>359</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" s="6"/>
+    </row>
+    <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A304" s="6">
+        <v>346</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A305" s="6">
+        <v>362</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305" s="6"/>
+    </row>
+    <row r="306" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A306" s="6">
+        <v>281</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306" s="6"/>
+    </row>
+    <row r="307" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A307" s="6">
+        <v>284</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D307" s="6"/>
+    </row>
+    <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A308" s="6">
+        <v>251</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" s="6"/>
+    </row>
+    <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A309" s="6">
+        <v>288</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" s="6"/>
+    </row>
+    <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A310" s="6">
+        <v>170</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" s="6"/>
+    </row>
+    <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A311" s="6">
+        <v>348</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" s="6"/>
+    </row>
+    <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A312" s="6">
+        <v>379</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312" s="6"/>
+    </row>
+    <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A313" s="6">
+        <v>353</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313" s="6"/>
+    </row>
+    <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A314" s="6">
+        <v>146</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="6"/>
+    </row>
+    <row r="315" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A315" s="6">
+        <v>355</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" s="6"/>
+    </row>
+    <row r="316" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A316" s="6">
+        <v>303</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" s="6"/>
+    </row>
+    <row r="317" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A317" s="6">
+        <v>304</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" s="6"/>
+    </row>
+    <row r="318" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A318" s="6">
+        <v>307</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A319" s="6">
+        <v>308</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4741,6 +5012,40 @@
     <hyperlink ref="B297" r:id="rId432" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
     <hyperlink ref="C297" r:id="rId433" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
     <hyperlink ref="B298" r:id="rId434" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
+    <hyperlink ref="B303" r:id="rId435" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
+    <hyperlink ref="C303" r:id="rId436" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
+    <hyperlink ref="B304" r:id="rId437" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
+    <hyperlink ref="C304" r:id="rId438" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
+    <hyperlink ref="B305" r:id="rId439" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
+    <hyperlink ref="C305" r:id="rId440" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
+    <hyperlink ref="B306" r:id="rId441" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
+    <hyperlink ref="C306" r:id="rId442" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
+    <hyperlink ref="B307" r:id="rId443" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
+    <hyperlink ref="C307" r:id="rId444" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
+    <hyperlink ref="B308" r:id="rId445" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
+    <hyperlink ref="C308" r:id="rId446" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
+    <hyperlink ref="B309" r:id="rId447" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
+    <hyperlink ref="C309" r:id="rId448" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
+    <hyperlink ref="B310" r:id="rId449" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
+    <hyperlink ref="C310" r:id="rId450" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
+    <hyperlink ref="B311" r:id="rId451" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
+    <hyperlink ref="C311" r:id="rId452" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
+    <hyperlink ref="B312" r:id="rId453" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
+    <hyperlink ref="C312" r:id="rId454" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
+    <hyperlink ref="B313" r:id="rId455" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
+    <hyperlink ref="C313" r:id="rId456" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
+    <hyperlink ref="B314" r:id="rId457" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
+    <hyperlink ref="C314" r:id="rId458" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
+    <hyperlink ref="B315" r:id="rId459" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
+    <hyperlink ref="C315" r:id="rId460" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
+    <hyperlink ref="B316" r:id="rId461" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
+    <hyperlink ref="C316" r:id="rId462" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
+    <hyperlink ref="B317" r:id="rId463" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
+    <hyperlink ref="C317" r:id="rId464" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
+    <hyperlink ref="B318" r:id="rId465" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
+    <hyperlink ref="C318" r:id="rId466" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
+    <hyperlink ref="B319" r:id="rId467" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
+    <hyperlink ref="C319" r:id="rId468" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BBDB5C-9992-4748-BBAA-0CC167DB7BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC034E0-3534-CF4C-8396-C3B0396D12D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
   <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F301" sqref="F301"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC034E0-3534-CF4C-8396-C3B0396D12D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C87173-E649-7F46-BFF1-02A588EE2E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
   <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B318" sqref="B318"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1345,7 +1345,7 @@
       <c r="A6" s="6">
         <v>383</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1357,7 +1357,7 @@
       <c r="A7" s="6">
         <v>344</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1369,7 +1369,7 @@
       <c r="A8" s="6">
         <v>151</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1381,7 +1381,7 @@
       <c r="A9" s="6">
         <v>186</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1393,7 +1393,7 @@
       <c r="A10" s="6">
         <v>345</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1405,7 +1405,7 @@
       <c r="A11" s="6">
         <v>205</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1417,7 +1417,7 @@
       <c r="A12" s="6">
         <v>293</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1429,7 +1429,7 @@
       <c r="A13" s="6">
         <v>294</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1441,7 +1441,7 @@
       <c r="A14" s="6">
         <v>290</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1453,7 +1453,7 @@
       <c r="A15" s="6">
         <v>242</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1465,7 +1465,7 @@
       <c r="A16" s="6">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1477,7 +1477,7 @@
       <c r="A17" s="6">
         <v>249</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="2" t="s">

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C87173-E649-7F46-BFF1-02A588EE2E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB878773-D308-774D-90AF-C1A147A4212C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="290">
   <si>
     <t>144</t>
   </si>
@@ -889,6 +891,18 @@
   </si>
   <si>
     <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                       </t>
+  </si>
+  <si>
+    <t>Degree of an Array</t>
+  </si>
+  <si>
+    <t>Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>Design HashSet</t>
   </si>
 </sst>
 </file>
@@ -931,12 +945,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -952,10 +972,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1277,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:D319"/>
+  <dimension ref="A1:H323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1288,13 +1309,13 @@
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1303,10 +1324,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1315,10 +1336,10 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1327,10 +1348,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>387</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1339,416 +1360,419 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>383</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>344</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>151</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>186</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>345</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>205</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="D11" s="7"/>
+      <c r="H11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>293</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>294</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>290</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>242</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>49</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>249</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>87</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>161</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>358</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>316</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>271</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>168</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>171</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>13</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>12</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>273</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>246</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>247</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>157</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="7">
         <v>158</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>68</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>65</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="7">
         <v>76</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="7">
         <v>30</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="7">
         <v>340</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1757,60 +1781,60 @@
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="7">
         <v>395</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="7">
         <v>159</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>125</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="7">
         <v>266</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1819,102 +1843,102 @@
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="7">
         <v>5</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="7">
         <v>9</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="7">
         <v>214</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="7">
         <v>336</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="7">
         <v>131</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="7">
         <v>132</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>267</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="7">
         <v>20</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1923,10 +1947,10 @@
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="7">
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1935,81 +1959,81 @@
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="7">
         <v>32</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="7">
         <v>241</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="7">
         <v>301</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="7">
         <v>392</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="7">
         <v>115</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="7">
         <v>187</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2017,19 +2041,19 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2037,7 +2061,7 @@
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2049,7 +2073,7 @@
       <c r="A68" s="1">
         <v>94</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2061,7 +2085,7 @@
       <c r="A69" s="1">
         <v>145</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2073,7 +2097,7 @@
       <c r="A70" s="1">
         <v>102</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2085,7 +2109,7 @@
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="4"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
@@ -2093,7 +2117,7 @@
       <c r="A72" s="1">
         <v>100</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2105,7 +2129,7 @@
       <c r="A73" s="1">
         <v>101</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2117,7 +2141,7 @@
       <c r="A74" s="1">
         <v>226</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2131,7 +2155,7 @@
       <c r="A75" s="1">
         <v>257</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2143,7 +2167,7 @@
       <c r="A76" s="1">
         <v>112</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2155,7 +2179,7 @@
       <c r="A77" s="1">
         <v>113</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2167,7 +2191,7 @@
       <c r="A78" s="1">
         <v>129</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2179,7 +2203,7 @@
       <c r="A79" s="1">
         <v>298</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2191,7 +2215,7 @@
       <c r="A80" s="1">
         <v>111</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2203,7 +2227,7 @@
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="4"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
@@ -2211,7 +2235,7 @@
       <c r="A82" s="1">
         <v>104</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2223,7 +2247,7 @@
       <c r="A83" s="1">
         <v>110</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2235,7 +2259,7 @@
       <c r="A84" s="1">
         <v>124</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2247,7 +2271,7 @@
       <c r="A85" s="1">
         <v>250</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2259,7 +2283,7 @@
       <c r="A86" s="1">
         <v>366</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2271,7 +2295,7 @@
       <c r="A87" s="1">
         <v>337</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2285,7 +2309,7 @@
       <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="4"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
@@ -2293,7 +2317,7 @@
       <c r="A89" s="1">
         <v>107</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2305,7 +2329,7 @@
       <c r="A90" s="1">
         <v>103</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2317,7 +2341,7 @@
       <c r="A91" s="1">
         <v>199</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2331,7 +2355,7 @@
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="4"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
@@ -2339,7 +2363,7 @@
       <c r="A93" s="1">
         <v>98</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2353,7 +2377,7 @@
       <c r="A94" s="1">
         <v>235</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2367,7 +2391,7 @@
       <c r="A95" s="1">
         <v>236</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2381,7 +2405,7 @@
       <c r="A96" s="1">
         <v>108</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -2395,7 +2419,7 @@
       <c r="A97" s="1">
         <v>109</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -2409,7 +2433,7 @@
       <c r="A98" s="1">
         <v>173</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2423,7 +2447,7 @@
       <c r="A99" s="1">
         <v>230</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -2437,7 +2461,7 @@
       <c r="A100" s="1">
         <v>297</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2451,7 +2475,7 @@
       <c r="A101" s="1">
         <v>285</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -2465,7 +2489,7 @@
       <c r="A102" s="1">
         <v>270</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -2479,7 +2503,7 @@
       <c r="A103" s="1">
         <v>272</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -2493,7 +2517,7 @@
       <c r="A104" s="1">
         <v>99</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -2507,7 +2531,7 @@
       <c r="A105" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="4"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
@@ -2515,7 +2539,7 @@
       <c r="A106" s="1">
         <v>116</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -2529,7 +2553,7 @@
       <c r="A107" s="1">
         <v>117</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -2543,7 +2567,7 @@
       <c r="A108" s="1">
         <v>314</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -2557,7 +2581,7 @@
       <c r="A109" s="1">
         <v>96</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2568,120 +2592,120 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="8"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="8"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="8"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="8"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="6" t="s">
+      <c r="B114" s="8"/>
+      <c r="C114" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+      <c r="A115" s="7">
         <v>78</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+      <c r="A116" s="7">
         <v>90</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
+      <c r="A117" s="7">
         <v>77</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
+      <c r="A118" s="7">
         <v>39</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
+      <c r="A119" s="7">
         <v>40</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="6"/>
+      <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
+      <c r="A120" s="7">
         <v>216</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="6"/>
+      <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+      <c r="A121" s="7">
         <v>377</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
+      <c r="A122" s="7">
         <v>254</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -2690,10 +2714,10 @@
       <c r="C122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="6"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
+      <c r="A123" s="7">
         <v>46</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -2702,10 +2726,10 @@
       <c r="C123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
+      <c r="A124" s="7">
         <v>47</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -2714,10 +2738,10 @@
       <c r="C124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="6"/>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
+      <c r="A125" s="7">
         <v>31</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -2726,1041 +2750,1049 @@
       <c r="C125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
+      <c r="A126" s="7">
         <v>60</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
+      <c r="A127" s="7">
         <v>291</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+      <c r="A128" s="7">
         <v>17</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="6"/>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
+      <c r="A129" s="7">
         <v>320</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="6"/>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
+      <c r="A130" s="7">
         <v>282</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+      <c r="A131" s="7">
         <v>140</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
+      <c r="A132" s="7">
         <v>351</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
+        <v>93</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
     <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6" t="s">
+      <c r="B136" s="7"/>
+      <c r="C136" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+      <c r="A138" s="7">
         <v>70</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="6"/>
+      <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
+      <c r="A139" s="7">
         <v>62</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="6"/>
+      <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
+      <c r="A140" s="7">
         <v>63</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
+      <c r="A141" s="7">
         <v>279</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="6"/>
+      <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
+      <c r="A142" s="7">
         <v>139</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="6"/>
+      <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
+      <c r="A143" s="7">
         <v>375</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="6"/>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
+      <c r="A144" s="7">
         <v>312</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="6"/>
+      <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
+      <c r="A145" s="7">
         <v>322</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="6"/>
+      <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
+      <c r="A147" s="7">
         <v>256</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="6"/>
+      <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
+      <c r="A148" s="7">
         <v>265</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="6"/>
+      <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="6">
+      <c r="A149" s="7">
         <v>64</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="6"/>
+      <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="6">
+      <c r="A150" s="7">
         <v>72</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="6">
+      <c r="A151" s="7">
         <v>97</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="6"/>
+      <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="6">
+      <c r="A152" s="7">
         <v>174</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="6"/>
+      <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="6">
+      <c r="A153" s="7">
         <v>221</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="6"/>
+      <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
+      <c r="A154" s="7">
         <v>85</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="6"/>
+      <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
+      <c r="A155" s="7">
         <v>363</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
+      <c r="A157" s="7">
         <v>198</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="6"/>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
+      <c r="A158" s="7">
         <v>213</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="6"/>
+      <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
+      <c r="A159" s="7">
         <v>276</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="6"/>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
+      <c r="A160" s="7">
         <v>91</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="6"/>
+      <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
+      <c r="A161" s="7">
         <v>10</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="6"/>
+      <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
+      <c r="A162" s="7">
         <v>44</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6" t="s">
+      <c r="B166" s="7"/>
+      <c r="C166" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
+      <c r="A168" s="7">
         <v>206</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D168" s="6"/>
+      <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
+      <c r="A169" s="7">
         <v>141</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="6"/>
+      <c r="D169" s="7"/>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
+      <c r="A170" s="7">
         <v>24</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D170" s="6"/>
+      <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
+      <c r="A171" s="7">
         <v>328</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="6"/>
+      <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="6">
+      <c r="A172" s="7">
         <v>92</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="6"/>
+      <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="6">
+      <c r="A173" s="7">
         <v>237</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="6"/>
+      <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="6">
+      <c r="A174" s="7">
         <v>19</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="6"/>
+      <c r="D174" s="7"/>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="6">
+      <c r="A175" s="7">
         <v>83</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="6"/>
+      <c r="D175" s="7"/>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="6">
+      <c r="A176" s="7">
         <v>203</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="6"/>
+      <c r="D176" s="7"/>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="6">
+      <c r="A177" s="7">
         <v>82</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="6"/>
+      <c r="D177" s="7"/>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="6">
+      <c r="A178" s="7">
         <v>369</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="6"/>
+      <c r="D178" s="7"/>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="6">
-        <v>2</v>
-      </c>
-      <c r="B179" s="3" t="s">
+      <c r="A179" s="7">
+        <v>2</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="6"/>
+      <c r="D179" s="7"/>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="6">
+      <c r="A180" s="7">
         <v>160</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="6"/>
+      <c r="D180" s="7"/>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="6">
+      <c r="A181" s="7">
         <v>21</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="6"/>
+      <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B182" s="7"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="6">
+      <c r="A183" s="7">
         <v>234</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="6"/>
+      <c r="D183" s="7"/>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="6">
+      <c r="A184" s="7">
         <v>143</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D184" s="6"/>
+      <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="6">
+      <c r="A185" s="7">
         <v>142</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="6"/>
+      <c r="D185" s="7"/>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="6">
+      <c r="A186" s="7">
         <v>148</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="6"/>
+      <c r="D186" s="7"/>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="6">
+      <c r="A187" s="7">
         <v>25</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="6"/>
+      <c r="D187" s="7"/>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="6">
+      <c r="A188" s="7">
         <v>61</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="6"/>
+      <c r="D188" s="7"/>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="6">
+      <c r="A189" s="7">
         <v>86</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="6"/>
+      <c r="D189" s="7"/>
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="6">
+      <c r="A190" s="7">
         <v>23</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="6"/>
+      <c r="D190" s="7"/>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="6">
+      <c r="A191" s="7">
         <v>147</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6" t="s">
+      <c r="B195" s="7"/>
+      <c r="C195" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="6">
+      <c r="A196" s="7">
         <v>200</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="6"/>
+      <c r="D196" s="7"/>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="6">
+      <c r="A197" s="7">
         <v>286</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D197" s="6"/>
+      <c r="D197" s="7"/>
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="6">
+      <c r="A198" s="7">
         <v>130</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="6"/>
+      <c r="D198" s="7"/>
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="6">
+      <c r="A199" s="7">
         <v>339</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="6"/>
+      <c r="D199" s="7"/>
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="6">
+      <c r="A200" s="7">
         <v>364</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="6"/>
+      <c r="D200" s="7"/>
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="6">
+      <c r="A201" s="7">
         <v>127</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="6"/>
+      <c r="D201" s="7"/>
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="6">
+      <c r="A202" s="7">
         <v>126</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="6">
+      <c r="A203" s="7">
         <v>51</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D203" s="6"/>
+      <c r="D203" s="7"/>
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="6">
+      <c r="A204" s="7">
         <v>52</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D204" s="6"/>
+      <c r="D204" s="7"/>
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="6"/>
-      <c r="B207" s="3"/>
+      <c r="A207" s="7"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="6"/>
+      <c r="D207" s="7"/>
     </row>
     <row r="208" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B208" s="8"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B209" s="7"/>
-      <c r="C209" s="6" t="s">
+      <c r="B209" s="8"/>
+      <c r="C209" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="6">
+      <c r="A210" s="7">
         <v>261</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D210" s="6"/>
+      <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A211" s="6">
+      <c r="A211" s="7">
         <v>323</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D211" s="6"/>
+      <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="6">
+      <c r="A212" s="7">
         <v>305</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B214" s="8"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B215" s="8"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="7"/>
-      <c r="C216" s="6" t="s">
+      <c r="B216" s="8"/>
+      <c r="C216" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D216" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B217" s="7"/>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
     </row>
     <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A218" s="6">
+      <c r="A218" s="7">
         <v>133</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D218" s="6"/>
+      <c r="D218" s="7"/>
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="6">
+      <c r="A219" s="7">
         <v>399</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="6"/>
+      <c r="D219" s="7"/>
     </row>
     <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A220" s="6">
+      <c r="A220" s="7">
         <v>310</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D220" s="6"/>
+      <c r="D220" s="7"/>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="7"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="6">
+      <c r="A222" s="7">
         <v>149</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D222" s="6"/>
+      <c r="D222" s="7"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B223" s="8"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B224" s="8"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B225" s="8"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B226" s="7"/>
-      <c r="C226" s="6" t="s">
+      <c r="B226" s="8"/>
+      <c r="C226" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="6">
+      <c r="A227" s="7">
         <v>208</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D227" s="6"/>
+      <c r="D227" s="7"/>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="6">
+      <c r="A228" s="7">
         <v>211</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="6"/>
+      <c r="D228" s="7"/>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A229" s="6">
+      <c r="A229" s="7">
         <v>212</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D229" s="6"/>
+      <c r="D229" s="7"/>
     </row>
     <row r="232" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6" t="s">
+      <c r="B233" s="7"/>
+      <c r="C233" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="6">
+      <c r="A234" s="7">
         <v>48</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -3769,10 +3801,10 @@
       <c r="C234" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D234" s="6"/>
+      <c r="D234" s="7"/>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A235" s="6">
+      <c r="A235" s="7">
         <v>54</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -3781,10 +3813,10 @@
       <c r="C235" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="6"/>
+      <c r="D235" s="7"/>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A236" s="6">
+      <c r="A236" s="7">
         <v>59</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -3793,10 +3825,10 @@
       <c r="C236" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D236" s="6"/>
+      <c r="D236" s="7"/>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="6">
+      <c r="A237" s="7">
         <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -3805,10 +3837,10 @@
       <c r="C237" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D237" s="6"/>
+      <c r="D237" s="7"/>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="6">
+      <c r="A238" s="7">
         <v>311</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -3817,10 +3849,10 @@
       <c r="C238" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D238" s="6"/>
+      <c r="D238" s="7"/>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="6">
+      <c r="A239" s="7">
         <v>329</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -3829,10 +3861,10 @@
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D239" s="6"/>
+      <c r="D239" s="7"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A240" s="6">
+      <c r="A240" s="7">
         <v>378</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -3841,10 +3873,10 @@
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="6"/>
+      <c r="D240" s="7"/>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="6">
+      <c r="A241" s="7">
         <v>74</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -3853,10 +3885,10 @@
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D241" s="6"/>
+      <c r="D241" s="7"/>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A242" s="6">
+      <c r="A242" s="7">
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -3865,10 +3897,10 @@
       <c r="C242" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D242" s="6"/>
+      <c r="D242" s="7"/>
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A243" s="6">
+      <c r="A243" s="7">
         <v>370</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -3877,10 +3909,10 @@
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="6"/>
+      <c r="D243" s="7"/>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A244" s="6">
+      <c r="A244" s="7">
         <v>79</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -3889,10 +3921,10 @@
       <c r="C244" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D244" s="6"/>
+      <c r="D244" s="7"/>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A245" s="6">
+      <c r="A245" s="7">
         <v>296</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -3901,10 +3933,10 @@
       <c r="C245" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D245" s="6"/>
+      <c r="D245" s="7"/>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
+      <c r="A246" s="7">
         <v>361</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -3913,10 +3945,10 @@
       <c r="C246" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="6"/>
+      <c r="D246" s="7"/>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A247" s="6">
+      <c r="A247" s="7">
         <v>317</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -3925,10 +3957,10 @@
       <c r="C247" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D247" s="6"/>
+      <c r="D247" s="7"/>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A248" s="6">
+      <c r="A248" s="7">
         <v>302</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -3937,10 +3969,10 @@
       <c r="C248" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D248" s="6"/>
+      <c r="D248" s="7"/>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A249" s="6">
+      <c r="A249" s="7">
         <v>36</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -3949,10 +3981,10 @@
       <c r="C249" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="6"/>
+      <c r="D249" s="7"/>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A250" s="6">
+      <c r="A250" s="7">
         <v>37</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -3960,28 +3992,28 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="s">
+      <c r="A256" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="6">
+      <c r="A257" s="7">
         <v>155</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -3990,10 +4022,10 @@
       <c r="C257" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D257" s="6"/>
+      <c r="D257" s="7"/>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A258" s="6">
+      <c r="A258" s="7">
         <v>232</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -4002,10 +4034,10 @@
       <c r="C258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D258" s="6"/>
+      <c r="D258" s="7"/>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A259" s="6">
+      <c r="A259" s="7">
         <v>225</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -4014,10 +4046,10 @@
       <c r="C259" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="6"/>
+      <c r="D259" s="7"/>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A260" s="6">
+      <c r="A260" s="7">
         <v>150</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -4026,10 +4058,10 @@
       <c r="C260" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="6"/>
+      <c r="D260" s="7"/>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A261" s="6">
+      <c r="A261" s="7">
         <v>71</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -4038,10 +4070,10 @@
       <c r="C261" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="6"/>
+      <c r="D261" s="7"/>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A262" s="6">
+      <c r="A262" s="7">
         <v>388</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -4050,10 +4082,10 @@
       <c r="C262" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D262" s="6"/>
+      <c r="D262" s="7"/>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="6">
+      <c r="A263" s="7">
         <v>394</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -4062,90 +4094,90 @@
       <c r="C263" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D263" s="6"/>
+      <c r="D263" s="7"/>
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A264" s="6">
+      <c r="A264" s="7">
         <v>224</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D264" s="6"/>
+      <c r="D264" s="7"/>
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A265" s="6">
+      <c r="A265" s="7">
         <v>227</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="6"/>
+      <c r="D265" s="7"/>
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A266" s="6">
+      <c r="A266" s="7">
         <v>385</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="6"/>
+      <c r="D266" s="7"/>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" s="6">
+      <c r="A267" s="7">
         <v>84</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="6"/>
+      <c r="D267" s="7"/>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="s">
+      <c r="A268" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B268" s="7"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="6">
+      <c r="A269" s="7">
         <v>215</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D269" s="6"/>
+      <c r="D269" s="7"/>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" s="6">
+      <c r="A270" s="7">
         <v>347</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="6"/>
+      <c r="D270" s="7"/>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A271" s="6">
+      <c r="A271" s="7">
         <v>218</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -4154,10 +4186,10 @@
       <c r="C271" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D271" s="6"/>
+      <c r="D271" s="7"/>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" s="6">
+      <c r="A272" s="7">
         <v>332</v>
       </c>
       <c r="B272" s="3" t="s">
@@ -4166,10 +4198,10 @@
       <c r="C272" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D272" s="6"/>
+      <c r="D272" s="7"/>
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A273" s="6">
+      <c r="A273" s="7">
         <v>341</v>
       </c>
       <c r="B273" s="3" t="s">
@@ -4177,70 +4209,70 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B274" s="8"/>
+      <c r="B274" s="9"/>
     </row>
     <row r="277" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B278" s="6"/>
-      <c r="C278" s="6" t="s">
+      <c r="B278" s="7"/>
+      <c r="C278" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A279" s="6">
+      <c r="A279" s="7">
         <v>389</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D279" s="6"/>
+      <c r="D279" s="7"/>
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A280" s="6">
+      <c r="A280" s="7">
         <v>136</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D280" s="6"/>
+      <c r="D280" s="7"/>
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A281" s="6">
+      <c r="A281" s="7">
         <v>318</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B285" s="6"/>
-      <c r="C285" s="6" t="s">
+      <c r="B285" s="7"/>
+      <c r="C285" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A286" s="6">
+      <c r="A286" s="7">
         <v>207</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -4249,10 +4281,10 @@
       <c r="C286" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D286" s="6"/>
+      <c r="D286" s="7"/>
     </row>
     <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A287" s="6">
+      <c r="A287" s="7">
         <v>210</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -4261,10 +4293,10 @@
       <c r="C287" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D287" s="6"/>
+      <c r="D287" s="7"/>
     </row>
     <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A288" s="6">
+      <c r="A288" s="7">
         <v>269</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -4272,21 +4304,21 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
+      <c r="A292" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B292" s="6"/>
-      <c r="C292" s="6" t="s">
+      <c r="B292" s="7"/>
+      <c r="C292" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A293" s="6">
+      <c r="A293" s="7">
         <v>384</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -4295,10 +4327,10 @@
       <c r="C293" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D293" s="6"/>
+      <c r="D293" s="7"/>
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A294" s="6">
+      <c r="A294" s="7">
         <v>398</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -4307,10 +4339,10 @@
       <c r="C294" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D294" s="6"/>
+      <c r="D294" s="7"/>
     </row>
     <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A295" s="6">
+      <c r="A295" s="7">
         <v>382</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -4319,10 +4351,10 @@
       <c r="C295" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D295" s="6"/>
+      <c r="D295" s="7"/>
     </row>
     <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A296" s="6">
+      <c r="A296" s="7">
         <v>380</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -4331,10 +4363,10 @@
       <c r="C296" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D296" s="6"/>
+      <c r="D296" s="7"/>
     </row>
     <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A297" s="6">
+      <c r="A297" s="7">
         <v>381</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -4343,10 +4375,10 @@
       <c r="C297" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D297" s="6"/>
+      <c r="D297" s="7"/>
     </row>
     <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A298" s="6">
+      <c r="A298" s="7">
         <v>138</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -4354,106 +4386,106 @@
       </c>
     </row>
     <row r="301" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
-      <c r="D302" s="6"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
     </row>
     <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A303" s="6">
+      <c r="A303" s="7">
         <v>359</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D303" s="6"/>
+      <c r="D303" s="7"/>
     </row>
     <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A304" s="6">
+      <c r="A304" s="7">
         <v>346</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D304" s="6" t="s">
+      <c r="D304" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A305" s="6">
+      <c r="A305" s="7">
         <v>362</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D305" s="6"/>
+      <c r="D305" s="7"/>
     </row>
     <row r="306" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A306" s="6">
+      <c r="A306" s="7">
         <v>281</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D306" s="6"/>
+      <c r="D306" s="7"/>
     </row>
     <row r="307" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A307" s="6">
+      <c r="A307" s="7">
         <v>284</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D307" s="6"/>
+      <c r="D307" s="7"/>
     </row>
     <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A308" s="6">
+      <c r="A308" s="7">
         <v>251</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D308" s="6"/>
+      <c r="D308" s="7"/>
     </row>
     <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A309" s="6">
+      <c r="A309" s="7">
         <v>288</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D309" s="6"/>
+      <c r="D309" s="7"/>
     </row>
     <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A310" s="6">
+      <c r="A310" s="7">
         <v>170</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -4462,10 +4494,10 @@
       <c r="C310" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D310" s="6"/>
+      <c r="D310" s="7"/>
     </row>
     <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A311" s="6">
+      <c r="A311" s="7">
         <v>348</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -4474,10 +4506,10 @@
       <c r="C311" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D311" s="6"/>
+      <c r="D311" s="7"/>
     </row>
     <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A312" s="6">
+      <c r="A312" s="7">
         <v>379</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -4486,10 +4518,10 @@
       <c r="C312" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D312" s="6"/>
+      <c r="D312" s="7"/>
     </row>
     <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A313" s="6">
+      <c r="A313" s="7">
         <v>353</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -4498,10 +4530,10 @@
       <c r="C313" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D313" s="6"/>
+      <c r="D313" s="7"/>
     </row>
     <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A314" s="6">
+      <c r="A314" s="7">
         <v>146</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -4510,10 +4542,10 @@
       <c r="C314" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D314" s="6"/>
+      <c r="D314" s="7"/>
     </row>
     <row r="315" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A315" s="6">
+      <c r="A315" s="7">
         <v>355</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -4522,10 +4554,10 @@
       <c r="C315" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D315" s="6"/>
+      <c r="D315" s="7"/>
     </row>
     <row r="316" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A316" s="6">
+      <c r="A316" s="7">
         <v>303</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -4534,10 +4566,10 @@
       <c r="C316" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D316" s="6"/>
+      <c r="D316" s="7"/>
     </row>
     <row r="317" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A317" s="6">
+      <c r="A317" s="7">
         <v>304</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -4546,10 +4578,10 @@
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D317" s="6"/>
+      <c r="D317" s="7"/>
     </row>
     <row r="318" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A318" s="6">
+      <c r="A318" s="7">
         <v>307</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -4558,12 +4590,12 @@
       <c r="C318" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D318" s="6" t="s">
+      <c r="D318" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A319" s="6">
+      <c r="A319" s="7">
         <v>308</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -4572,8 +4604,29 @@
       <c r="C319" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D319" s="6" t="s">
+      <c r="D319" s="7" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A320" s="7">
+        <v>705</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A322" s="7">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>697</v>
+      </c>
+      <c r="B323" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5046,6 +5099,8 @@
     <hyperlink ref="C318" r:id="rId466" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
     <hyperlink ref="B319" r:id="rId467" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
     <hyperlink ref="C319" r:id="rId468" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
+    <hyperlink ref="B320" r:id="rId469" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
+    <hyperlink ref="B133" r:id="rId470" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB878773-D308-774D-90AF-C1A147A4212C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC811D-5FB0-F747-B238-3346F021E73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="291">
   <si>
     <t>144</t>
   </si>
@@ -903,6 +903,9 @@
   </si>
   <si>
     <t>Design HashSet</t>
+  </si>
+  <si>
+    <t>Longest String Chain</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:H323"/>
+  <dimension ref="A1:H324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2708,7 +2711,7 @@
       <c r="A122" s="7">
         <v>254</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -2720,7 +2723,7 @@
       <c r="A123" s="7">
         <v>46</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -2732,7 +2735,7 @@
       <c r="A124" s="7">
         <v>47</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -2744,7 +2747,7 @@
       <c r="A125" s="7">
         <v>31</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -2840,7 +2843,7 @@
       <c r="A133" s="7">
         <v>93</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3059,56 +3062,54 @@
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C154" s="2"/>
       <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
+        <v>85</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" s="7">
         <v>363</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B156" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="7" t="s">
+      <c r="C156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
+    <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-    </row>
-    <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
-        <v>198</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
@@ -3117,10 +3118,10 @@
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
@@ -3129,10 +3130,10 @@
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
@@ -3141,10 +3142,10 @@
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
@@ -3153,52 +3154,60 @@
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
+        <v>10</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" s="7">
         <v>44</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B163" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+    <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="7">
+        <v>1048</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-    </row>
-    <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="7">
-        <v>206</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
@@ -3207,10 +3216,10 @@
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2</v>
@@ -3219,10 +3228,10 @@
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
-        <v>328</v>
+        <v>24</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2</v>
@@ -3231,10 +3240,10 @@
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
@@ -3243,10 +3252,10 @@
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
@@ -3255,10 +3264,10 @@
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
@@ -3267,10 +3276,10 @@
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
@@ -3279,10 +3288,10 @@
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
@@ -3291,10 +3300,10 @@
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
@@ -3303,10 +3312,10 @@
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
@@ -3315,10 +3324,10 @@
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
@@ -3327,10 +3336,10 @@
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -3339,42 +3348,42 @@
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
+        <v>160</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="7">
         <v>21</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B182" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D181" s="7"/>
-    </row>
-    <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="C182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-    </row>
-    <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="7">
-        <v>234</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="7"/>
       <c r="D183" s="7"/>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -3383,10 +3392,10 @@
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
@@ -3395,10 +3404,10 @@
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -3407,10 +3416,10 @@
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
@@ -3419,10 +3428,10 @@
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
@@ -3431,10 +3440,10 @@
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -3443,10 +3452,10 @@
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
@@ -3455,44 +3464,44 @@
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
+        <v>23</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="7">
         <v>147</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B192" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
+    <row r="195" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
+    <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7" t="s">
+      <c r="B196" s="7"/>
+      <c r="C196" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="7">
-        <v>200</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="7"/>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
-        <v>286</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>131</v>
+        <v>200</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
@@ -3501,10 +3510,10 @@
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
-        <v>130</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>132</v>
+        <v>286</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -3513,10 +3522,10 @@
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
-        <v>339</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
@@ -3525,10 +3534,10 @@
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
@@ -3537,10 +3546,10 @@
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
@@ -3549,75 +3558,75 @@
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="7"/>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="7"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
+        <v>51</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A205" s="7">
         <v>52</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B205" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" s="7"/>
-    </row>
-    <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="7"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="7"/>
-    </row>
-    <row r="208" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
+      <c r="C205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="7"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B208" s="9"/>
-    </row>
-    <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A209" s="7" t="s">
+      <c r="B209" s="9"/>
+    </row>
+    <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B209" s="8"/>
-      <c r="C209" s="7" t="s">
+      <c r="B210" s="8"/>
+      <c r="C210" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="7">
-        <v>261</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
@@ -3626,62 +3635,62 @@
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
+        <v>323</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A213" s="7">
         <v>305</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B213" s="9"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B214" s="9"/>
     </row>
-    <row r="215" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B215" s="9"/>
+    </row>
+    <row r="216" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B215" s="9"/>
-    </row>
-    <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B216" s="8"/>
-      <c r="C216" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B217" s="8"/>
+      <c r="C217" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B217" s="8"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-    </row>
-    <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A218" s="7">
-        <v>133</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B218" s="8"/>
+      <c r="C218" s="7"/>
       <c r="D218" s="7"/>
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2</v>
@@ -3690,75 +3699,75 @@
     </row>
     <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
+        <v>399</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="7"/>
+    </row>
+    <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A221" s="7">
         <v>310</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B221" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="7"/>
-    </row>
-    <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+      <c r="C221" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="7"/>
+    </row>
+    <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A222" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="8"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-    </row>
-    <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="7">
+      <c r="B222" s="8"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+    </row>
+    <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A223" s="7">
         <v>149</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B223" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="7"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B223" s="9"/>
+      <c r="C223" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B224" s="9"/>
     </row>
-    <row r="225" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B225" s="9"/>
+    </row>
+    <row r="226" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B225" s="9"/>
-    </row>
-    <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
+      <c r="B226" s="9"/>
+    </row>
+    <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A227" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B226" s="8"/>
-      <c r="C226" s="7" t="s">
+      <c r="B227" s="8"/>
+      <c r="C227" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="7">
-        <v>208</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" s="7"/>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
@@ -3767,48 +3776,48 @@
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
+        <v>211</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="C229" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="7"/>
+    </row>
+    <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A230" s="7">
+        <v>212</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D229" s="7"/>
-    </row>
-    <row r="232" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
+      <c r="C230" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="7"/>
+    </row>
+    <row r="233" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A233" s="7" t="s">
+    <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7" t="s">
+      <c r="B234" s="7"/>
+      <c r="C234" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="7">
-        <v>48</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="7"/>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>2</v>
@@ -3817,10 +3826,10 @@
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>2</v>
@@ -3829,10 +3838,10 @@
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2</v>
@@ -3841,10 +3850,10 @@
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
-        <v>311</v>
+        <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2</v>
@@ -3853,10 +3862,10 @@
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -3865,10 +3874,10 @@
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -3877,10 +3886,10 @@
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
@@ -3889,10 +3898,10 @@
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -3901,10 +3910,10 @@
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -3913,10 +3922,10 @@
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -3925,10 +3934,10 @@
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>2</v>
@@ -3937,10 +3946,10 @@
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>2</v>
@@ -3949,10 +3958,10 @@
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2</v>
@@ -3961,10 +3970,10 @@
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>2</v>
@@ -3973,10 +3982,10 @@
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2</v>
@@ -3985,51 +3994,51 @@
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
+        <v>36</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="7"/>
+    </row>
+    <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A251" s="7">
         <v>37</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
+    <row r="255" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A255" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B255" s="7"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="7"/>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="7">
-        <v>155</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A257" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
       <c r="D257" s="7"/>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>2</v>
@@ -4038,10 +4047,10 @@
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>2</v>
@@ -4050,10 +4059,10 @@
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>2</v>
@@ -4062,10 +4071,10 @@
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>2</v>
@@ -4074,10 +4083,10 @@
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>2</v>
@@ -4086,10 +4095,10 @@
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>2</v>
@@ -4098,10 +4107,10 @@
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
-        <v>224</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>242</v>
+        <v>394</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>2</v>
@@ -4110,10 +4119,10 @@
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>2</v>
@@ -4122,10 +4131,10 @@
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="7">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -4134,42 +4143,42 @@
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
+        <v>385</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" s="7"/>
+    </row>
+    <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A268" s="7">
         <v>84</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B268" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D267" s="7"/>
-    </row>
-    <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268" s="7" t="s">
+      <c r="C268" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="7"/>
+    </row>
+    <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A269" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B268" s="8"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="7"/>
-    </row>
-    <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="7">
-        <v>215</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B269" s="8"/>
+      <c r="C269" s="7"/>
       <c r="D269" s="7"/>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -4178,10 +4187,10 @@
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
-        <v>218</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>249</v>
+        <v>347</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
@@ -4190,10 +4199,10 @@
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
-        <v>332</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>250</v>
+        <v>218</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
@@ -4202,47 +4211,47 @@
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
+        <v>332</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A274" s="7">
         <v>341</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B274" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B274" s="9"/>
-    </row>
-    <row r="277" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B275" s="9"/>
+    </row>
+    <row r="278" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A278" s="7" t="s">
+    <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A279" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B278" s="7"/>
-      <c r="C278" s="7" t="s">
+      <c r="B279" s="7"/>
+      <c r="C279" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A279" s="7">
-        <v>389</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" s="7"/>
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>2</v>
@@ -4251,44 +4260,44 @@
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
+        <v>136</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A282" s="7">
         <v>318</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B282" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
+    <row r="285" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A285" s="7" t="s">
+    <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B285" s="7"/>
-      <c r="C285" s="7" t="s">
+      <c r="B286" s="7"/>
+      <c r="C286" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A286" s="7">
-        <v>207</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D286" s="7"/>
     </row>
     <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>2</v>
@@ -4297,44 +4306,44 @@
     </row>
     <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
+        <v>210</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288" s="7"/>
+    </row>
+    <row r="289" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A289" s="7">
         <v>269</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B289" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
+    <row r="292" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A292" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A292" s="7" t="s">
+    <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A293" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B292" s="7"/>
-      <c r="C292" s="7" t="s">
+      <c r="B293" s="7"/>
+      <c r="C293" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A293" s="7">
-        <v>384</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D293" s="7"/>
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>2</v>
@@ -4343,10 +4352,10 @@
     </row>
     <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>2</v>
@@ -4355,10 +4364,10 @@
     </row>
     <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>2</v>
@@ -4367,10 +4376,10 @@
     </row>
     <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>2</v>
@@ -4379,69 +4388,69 @@
     </row>
     <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
+        <v>381</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" s="7"/>
+    </row>
+    <row r="299" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A299" s="7">
         <v>138</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B299" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
+    <row r="302" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A302" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A302" s="7" t="s">
+    <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A303" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B302" s="7"/>
-      <c r="C302" s="7"/>
-      <c r="D302" s="7"/>
-    </row>
-    <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A303" s="7">
-        <v>359</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B303" s="7"/>
+      <c r="C303" s="7"/>
       <c r="D303" s="7"/>
     </row>
     <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D304" s="7" t="s">
-        <v>179</v>
-      </c>
+      <c r="D304" s="7"/>
     </row>
     <row r="305" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D305" s="7"/>
+      <c r="D305" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="306" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="7">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>2</v>
@@ -4450,10 +4459,10 @@
     </row>
     <row r="307" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -4462,10 +4471,10 @@
     </row>
     <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>2</v>
@@ -4474,10 +4483,10 @@
     </row>
     <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="7">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>2</v>
@@ -4486,10 +4495,10 @@
     </row>
     <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="7">
-        <v>170</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>2</v>
@@ -4498,10 +4507,10 @@
     </row>
     <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>2</v>
@@ -4510,10 +4519,10 @@
     </row>
     <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="7">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>2</v>
@@ -4522,10 +4531,10 @@
     </row>
     <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="7">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>2</v>
@@ -4534,10 +4543,10 @@
     </row>
     <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="7">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>2</v>
@@ -4546,10 +4555,10 @@
     </row>
     <row r="315" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="7">
-        <v>355</v>
+        <v>146</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>2</v>
@@ -4558,10 +4567,10 @@
     </row>
     <row r="316" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="7">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>2</v>
@@ -4570,10 +4579,10 @@
     </row>
     <row r="317" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="7">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>2</v>
@@ -4582,24 +4591,22 @@
     </row>
     <row r="318" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="7">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D318" s="7" t="s">
-        <v>284</v>
-      </c>
+      <c r="D318" s="7"/>
     </row>
     <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="7">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>2</v>
@@ -4610,22 +4617,36 @@
     </row>
     <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="7">
+        <v>308</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A321" s="7">
         <v>705</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B321" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A322" s="7">
+    <row r="323" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A323" s="7">
         <v>3.31</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324">
         <v>697</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4674,88 +4695,88 @@
     <hyperlink ref="C152" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
     <hyperlink ref="B153" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
     <hyperlink ref="C153" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
-    <hyperlink ref="B154" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
-    <hyperlink ref="C154" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
-    <hyperlink ref="B155" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
-    <hyperlink ref="C155" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
-    <hyperlink ref="B157" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
-    <hyperlink ref="C157" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
-    <hyperlink ref="B158" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
-    <hyperlink ref="C158" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
-    <hyperlink ref="B159" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
-    <hyperlink ref="C159" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
-    <hyperlink ref="B160" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
-    <hyperlink ref="C160" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
-    <hyperlink ref="B161" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
-    <hyperlink ref="C161" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
-    <hyperlink ref="B162" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
-    <hyperlink ref="B168" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
-    <hyperlink ref="C168" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
-    <hyperlink ref="B169" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
-    <hyperlink ref="C169" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
-    <hyperlink ref="B170" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
-    <hyperlink ref="C170" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
-    <hyperlink ref="B171" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
-    <hyperlink ref="C171" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
-    <hyperlink ref="B172" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
-    <hyperlink ref="C172" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
-    <hyperlink ref="B173" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
-    <hyperlink ref="C173" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
-    <hyperlink ref="B174" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
-    <hyperlink ref="C174" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
-    <hyperlink ref="B175" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
-    <hyperlink ref="C175" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
-    <hyperlink ref="B176" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
-    <hyperlink ref="C176" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
-    <hyperlink ref="B177" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
-    <hyperlink ref="C177" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
-    <hyperlink ref="B178" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
-    <hyperlink ref="C178" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
-    <hyperlink ref="B179" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
-    <hyperlink ref="C179" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
-    <hyperlink ref="B180" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
-    <hyperlink ref="C180" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
-    <hyperlink ref="B181" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
-    <hyperlink ref="C181" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
-    <hyperlink ref="B183" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
-    <hyperlink ref="C183" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
-    <hyperlink ref="B184" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
-    <hyperlink ref="C184" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
-    <hyperlink ref="B185" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
-    <hyperlink ref="C185" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
-    <hyperlink ref="B186" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
-    <hyperlink ref="C186" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
-    <hyperlink ref="B187" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
-    <hyperlink ref="C187" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
-    <hyperlink ref="B188" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
-    <hyperlink ref="C188" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
-    <hyperlink ref="B189" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
-    <hyperlink ref="C189" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
-    <hyperlink ref="B190" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
-    <hyperlink ref="C190" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
-    <hyperlink ref="B191" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
-    <hyperlink ref="B196" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
-    <hyperlink ref="C196" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
-    <hyperlink ref="B197" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
-    <hyperlink ref="C197" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
-    <hyperlink ref="B198" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
-    <hyperlink ref="C198" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
-    <hyperlink ref="B199" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
-    <hyperlink ref="C199" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
-    <hyperlink ref="B200" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
-    <hyperlink ref="C200" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
-    <hyperlink ref="B201" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
-    <hyperlink ref="C201" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B203" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C203" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B204" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C204" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B202" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B210" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C210" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B211" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C211" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B212" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
+    <hyperlink ref="B155" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
+    <hyperlink ref="C155" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
+    <hyperlink ref="B156" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
+    <hyperlink ref="C156" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
+    <hyperlink ref="B158" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
+    <hyperlink ref="C158" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
+    <hyperlink ref="B159" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
+    <hyperlink ref="C159" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
+    <hyperlink ref="B160" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
+    <hyperlink ref="C160" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
+    <hyperlink ref="B161" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
+    <hyperlink ref="C161" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
+    <hyperlink ref="B162" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
+    <hyperlink ref="C162" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
+    <hyperlink ref="B163" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
+    <hyperlink ref="B169" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
+    <hyperlink ref="C169" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
+    <hyperlink ref="B170" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
+    <hyperlink ref="C170" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
+    <hyperlink ref="B171" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
+    <hyperlink ref="C171" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
+    <hyperlink ref="B172" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
+    <hyperlink ref="C172" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
+    <hyperlink ref="B173" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
+    <hyperlink ref="C173" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
+    <hyperlink ref="B174" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
+    <hyperlink ref="C174" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
+    <hyperlink ref="B175" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
+    <hyperlink ref="C175" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
+    <hyperlink ref="B176" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
+    <hyperlink ref="C176" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
+    <hyperlink ref="B177" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
+    <hyperlink ref="C177" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
+    <hyperlink ref="B178" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
+    <hyperlink ref="C178" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
+    <hyperlink ref="B179" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
+    <hyperlink ref="C179" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
+    <hyperlink ref="B180" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
+    <hyperlink ref="C180" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
+    <hyperlink ref="B181" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
+    <hyperlink ref="C181" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
+    <hyperlink ref="B182" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
+    <hyperlink ref="C182" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
+    <hyperlink ref="B184" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
+    <hyperlink ref="C184" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
+    <hyperlink ref="B185" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
+    <hyperlink ref="C185" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
+    <hyperlink ref="B186" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
+    <hyperlink ref="C186" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
+    <hyperlink ref="B187" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
+    <hyperlink ref="C187" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
+    <hyperlink ref="B188" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
+    <hyperlink ref="C188" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
+    <hyperlink ref="B189" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
+    <hyperlink ref="C189" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
+    <hyperlink ref="B190" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
+    <hyperlink ref="C190" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
+    <hyperlink ref="B191" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
+    <hyperlink ref="C191" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
+    <hyperlink ref="B192" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
+    <hyperlink ref="B197" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
+    <hyperlink ref="C197" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
+    <hyperlink ref="B198" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
+    <hyperlink ref="C198" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
+    <hyperlink ref="B199" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
+    <hyperlink ref="C199" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
+    <hyperlink ref="B200" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
+    <hyperlink ref="C200" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
+    <hyperlink ref="B201" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
+    <hyperlink ref="C201" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
+    <hyperlink ref="B202" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
+    <hyperlink ref="C202" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
+    <hyperlink ref="B204" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
+    <hyperlink ref="C204" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
+    <hyperlink ref="B205" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
+    <hyperlink ref="C205" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
+    <hyperlink ref="B203" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
+    <hyperlink ref="B211" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
+    <hyperlink ref="C211" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
+    <hyperlink ref="B212" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
+    <hyperlink ref="C212" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
+    <hyperlink ref="B213" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
     <hyperlink ref="B80" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
     <hyperlink ref="C80" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
     <hyperlink ref="B82" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
@@ -4966,141 +4987,143 @@
     <hyperlink ref="C61" r:id="rId333" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
     <hyperlink ref="B62" r:id="rId334" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
     <hyperlink ref="C62" r:id="rId335" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B218" r:id="rId336" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C218" r:id="rId337" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B219" r:id="rId338" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C219" r:id="rId339" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B220" r:id="rId340" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C220" r:id="rId341" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
-    <hyperlink ref="B222" r:id="rId342" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
-    <hyperlink ref="C222" r:id="rId343" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
-    <hyperlink ref="B228" r:id="rId344" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
-    <hyperlink ref="C228" r:id="rId345" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
-    <hyperlink ref="B227" r:id="rId346" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
-    <hyperlink ref="C227" r:id="rId347" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
-    <hyperlink ref="B229" r:id="rId348" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
-    <hyperlink ref="C229" r:id="rId349" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
-    <hyperlink ref="B234" r:id="rId350" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
-    <hyperlink ref="C234" r:id="rId351" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
-    <hyperlink ref="B235" r:id="rId352" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
-    <hyperlink ref="C235" r:id="rId353" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
-    <hyperlink ref="B236" r:id="rId354" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
-    <hyperlink ref="C236" r:id="rId355" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
-    <hyperlink ref="B237" r:id="rId356" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
-    <hyperlink ref="C237" r:id="rId357" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
-    <hyperlink ref="B238" r:id="rId358" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
-    <hyperlink ref="C238" r:id="rId359" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
-    <hyperlink ref="B239" r:id="rId360" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
-    <hyperlink ref="C239" r:id="rId361" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
-    <hyperlink ref="B240" r:id="rId362" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
-    <hyperlink ref="C240" r:id="rId363" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
-    <hyperlink ref="B241" r:id="rId364" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
-    <hyperlink ref="C241" r:id="rId365" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
-    <hyperlink ref="B242" r:id="rId366" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
-    <hyperlink ref="C242" r:id="rId367" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
-    <hyperlink ref="B243" r:id="rId368" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
-    <hyperlink ref="C243" r:id="rId369" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
-    <hyperlink ref="B244" r:id="rId370" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
-    <hyperlink ref="C244" r:id="rId371" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
-    <hyperlink ref="B245" r:id="rId372" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
-    <hyperlink ref="C245" r:id="rId373" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
-    <hyperlink ref="B246" r:id="rId374" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
-    <hyperlink ref="C246" r:id="rId375" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
-    <hyperlink ref="B247" r:id="rId376" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
-    <hyperlink ref="C247" r:id="rId377" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
-    <hyperlink ref="B248" r:id="rId378" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
-    <hyperlink ref="C248" r:id="rId379" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
-    <hyperlink ref="B249" r:id="rId380" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
-    <hyperlink ref="C249" r:id="rId381" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
-    <hyperlink ref="B250" r:id="rId382" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
-    <hyperlink ref="B257" r:id="rId383" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
-    <hyperlink ref="C257" r:id="rId384" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
-    <hyperlink ref="B258" r:id="rId385" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{156CAAE5-6351-9947-BB71-247BCB4199E4}"/>
-    <hyperlink ref="C258" r:id="rId386" display="https://cspiration.com/login" xr:uid="{B32FCD33-3793-1145-9B85-1C19988C5512}"/>
-    <hyperlink ref="B259" r:id="rId387" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{988FA989-097D-3643-AFD0-51D5DE85FC28}"/>
-    <hyperlink ref="C259" r:id="rId388" display="https://cspiration.com/login" xr:uid="{236098E8-3353-2343-96D1-B31CFD341154}"/>
-    <hyperlink ref="B260" r:id="rId389" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
-    <hyperlink ref="C260" r:id="rId390" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
-    <hyperlink ref="B261" r:id="rId391" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
-    <hyperlink ref="C261" r:id="rId392" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
-    <hyperlink ref="B262" r:id="rId393" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
-    <hyperlink ref="C262" r:id="rId394" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
-    <hyperlink ref="B263" r:id="rId395" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
-    <hyperlink ref="C263" r:id="rId396" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
-    <hyperlink ref="B264" r:id="rId397" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
-    <hyperlink ref="C264" r:id="rId398" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
-    <hyperlink ref="B265" r:id="rId399" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
-    <hyperlink ref="C265" r:id="rId400" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
-    <hyperlink ref="B266" r:id="rId401" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
-    <hyperlink ref="C266" r:id="rId402" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
-    <hyperlink ref="B267" r:id="rId403" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
-    <hyperlink ref="C267" r:id="rId404" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
-    <hyperlink ref="B269" r:id="rId405" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
-    <hyperlink ref="C269" r:id="rId406" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
-    <hyperlink ref="B270" r:id="rId407" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
-    <hyperlink ref="C270" r:id="rId408" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
-    <hyperlink ref="B271" r:id="rId409" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
-    <hyperlink ref="C271" r:id="rId410" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
-    <hyperlink ref="B272" r:id="rId411" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
-    <hyperlink ref="C272" r:id="rId412" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
-    <hyperlink ref="B273" r:id="rId413" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
-    <hyperlink ref="B279" r:id="rId414" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
-    <hyperlink ref="C279" r:id="rId415" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
-    <hyperlink ref="B280" r:id="rId416" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
-    <hyperlink ref="C280" r:id="rId417" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
-    <hyperlink ref="B281" r:id="rId418" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
-    <hyperlink ref="B286" r:id="rId419" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
-    <hyperlink ref="C286" r:id="rId420" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
-    <hyperlink ref="B287" r:id="rId421" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
-    <hyperlink ref="C287" r:id="rId422" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
-    <hyperlink ref="B288" r:id="rId423" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
-    <hyperlink ref="B293" r:id="rId424" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
-    <hyperlink ref="C293" r:id="rId425" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
-    <hyperlink ref="B294" r:id="rId426" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
-    <hyperlink ref="C294" r:id="rId427" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
-    <hyperlink ref="B295" r:id="rId428" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
-    <hyperlink ref="C295" r:id="rId429" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
-    <hyperlink ref="B296" r:id="rId430" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
-    <hyperlink ref="C296" r:id="rId431" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
-    <hyperlink ref="B297" r:id="rId432" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
-    <hyperlink ref="C297" r:id="rId433" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
-    <hyperlink ref="B298" r:id="rId434" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
-    <hyperlink ref="B303" r:id="rId435" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
-    <hyperlink ref="C303" r:id="rId436" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
-    <hyperlink ref="B304" r:id="rId437" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
-    <hyperlink ref="C304" r:id="rId438" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
-    <hyperlink ref="B305" r:id="rId439" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
-    <hyperlink ref="C305" r:id="rId440" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
-    <hyperlink ref="B306" r:id="rId441" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
-    <hyperlink ref="C306" r:id="rId442" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
-    <hyperlink ref="B307" r:id="rId443" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
-    <hyperlink ref="C307" r:id="rId444" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
-    <hyperlink ref="B308" r:id="rId445" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
-    <hyperlink ref="C308" r:id="rId446" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
-    <hyperlink ref="B309" r:id="rId447" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
-    <hyperlink ref="C309" r:id="rId448" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
-    <hyperlink ref="B310" r:id="rId449" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
-    <hyperlink ref="C310" r:id="rId450" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
-    <hyperlink ref="B311" r:id="rId451" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
-    <hyperlink ref="C311" r:id="rId452" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
-    <hyperlink ref="B312" r:id="rId453" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
-    <hyperlink ref="C312" r:id="rId454" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
-    <hyperlink ref="B313" r:id="rId455" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
-    <hyperlink ref="C313" r:id="rId456" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
-    <hyperlink ref="B314" r:id="rId457" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
-    <hyperlink ref="C314" r:id="rId458" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
-    <hyperlink ref="B315" r:id="rId459" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
-    <hyperlink ref="C315" r:id="rId460" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
-    <hyperlink ref="B316" r:id="rId461" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
-    <hyperlink ref="C316" r:id="rId462" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
-    <hyperlink ref="B317" r:id="rId463" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
-    <hyperlink ref="C317" r:id="rId464" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
-    <hyperlink ref="B318" r:id="rId465" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
-    <hyperlink ref="C318" r:id="rId466" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
-    <hyperlink ref="B319" r:id="rId467" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
-    <hyperlink ref="C319" r:id="rId468" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
-    <hyperlink ref="B320" r:id="rId469" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
+    <hyperlink ref="B219" r:id="rId336" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
+    <hyperlink ref="C219" r:id="rId337" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
+    <hyperlink ref="B220" r:id="rId338" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
+    <hyperlink ref="C220" r:id="rId339" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
+    <hyperlink ref="B221" r:id="rId340" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
+    <hyperlink ref="C221" r:id="rId341" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B223" r:id="rId342" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
+    <hyperlink ref="C223" r:id="rId343" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
+    <hyperlink ref="B229" r:id="rId344" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
+    <hyperlink ref="C229" r:id="rId345" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
+    <hyperlink ref="B228" r:id="rId346" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
+    <hyperlink ref="C228" r:id="rId347" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
+    <hyperlink ref="B230" r:id="rId348" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
+    <hyperlink ref="C230" r:id="rId349" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B235" r:id="rId350" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
+    <hyperlink ref="C235" r:id="rId351" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
+    <hyperlink ref="B236" r:id="rId352" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
+    <hyperlink ref="C236" r:id="rId353" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
+    <hyperlink ref="B237" r:id="rId354" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
+    <hyperlink ref="C237" r:id="rId355" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
+    <hyperlink ref="B238" r:id="rId356" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
+    <hyperlink ref="C238" r:id="rId357" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
+    <hyperlink ref="B239" r:id="rId358" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
+    <hyperlink ref="C239" r:id="rId359" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
+    <hyperlink ref="B240" r:id="rId360" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
+    <hyperlink ref="C240" r:id="rId361" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
+    <hyperlink ref="B241" r:id="rId362" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
+    <hyperlink ref="C241" r:id="rId363" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
+    <hyperlink ref="B242" r:id="rId364" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
+    <hyperlink ref="C242" r:id="rId365" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
+    <hyperlink ref="B243" r:id="rId366" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
+    <hyperlink ref="C243" r:id="rId367" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
+    <hyperlink ref="B244" r:id="rId368" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
+    <hyperlink ref="C244" r:id="rId369" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
+    <hyperlink ref="B245" r:id="rId370" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
+    <hyperlink ref="C245" r:id="rId371" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
+    <hyperlink ref="B246" r:id="rId372" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
+    <hyperlink ref="C246" r:id="rId373" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
+    <hyperlink ref="B247" r:id="rId374" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
+    <hyperlink ref="C247" r:id="rId375" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
+    <hyperlink ref="B248" r:id="rId376" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
+    <hyperlink ref="C248" r:id="rId377" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
+    <hyperlink ref="B249" r:id="rId378" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
+    <hyperlink ref="C249" r:id="rId379" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
+    <hyperlink ref="B250" r:id="rId380" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
+    <hyperlink ref="C250" r:id="rId381" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
+    <hyperlink ref="B251" r:id="rId382" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
+    <hyperlink ref="B258" r:id="rId383" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
+    <hyperlink ref="C258" r:id="rId384" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
+    <hyperlink ref="B259" r:id="rId385" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{156CAAE5-6351-9947-BB71-247BCB4199E4}"/>
+    <hyperlink ref="C259" r:id="rId386" display="https://cspiration.com/login" xr:uid="{B32FCD33-3793-1145-9B85-1C19988C5512}"/>
+    <hyperlink ref="B260" r:id="rId387" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{988FA989-097D-3643-AFD0-51D5DE85FC28}"/>
+    <hyperlink ref="C260" r:id="rId388" display="https://cspiration.com/login" xr:uid="{236098E8-3353-2343-96D1-B31CFD341154}"/>
+    <hyperlink ref="B261" r:id="rId389" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
+    <hyperlink ref="C261" r:id="rId390" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
+    <hyperlink ref="B262" r:id="rId391" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
+    <hyperlink ref="C262" r:id="rId392" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
+    <hyperlink ref="B263" r:id="rId393" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
+    <hyperlink ref="C263" r:id="rId394" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
+    <hyperlink ref="B264" r:id="rId395" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
+    <hyperlink ref="C264" r:id="rId396" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
+    <hyperlink ref="B265" r:id="rId397" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
+    <hyperlink ref="C265" r:id="rId398" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
+    <hyperlink ref="B266" r:id="rId399" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
+    <hyperlink ref="C266" r:id="rId400" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
+    <hyperlink ref="B267" r:id="rId401" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
+    <hyperlink ref="C267" r:id="rId402" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
+    <hyperlink ref="B268" r:id="rId403" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
+    <hyperlink ref="C268" r:id="rId404" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
+    <hyperlink ref="B270" r:id="rId405" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
+    <hyperlink ref="C270" r:id="rId406" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
+    <hyperlink ref="B271" r:id="rId407" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
+    <hyperlink ref="C271" r:id="rId408" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
+    <hyperlink ref="B272" r:id="rId409" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
+    <hyperlink ref="C272" r:id="rId410" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
+    <hyperlink ref="B273" r:id="rId411" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
+    <hyperlink ref="C273" r:id="rId412" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
+    <hyperlink ref="B274" r:id="rId413" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
+    <hyperlink ref="B280" r:id="rId414" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
+    <hyperlink ref="C280" r:id="rId415" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
+    <hyperlink ref="B281" r:id="rId416" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
+    <hyperlink ref="C281" r:id="rId417" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
+    <hyperlink ref="B282" r:id="rId418" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
+    <hyperlink ref="B287" r:id="rId419" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
+    <hyperlink ref="C287" r:id="rId420" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
+    <hyperlink ref="B288" r:id="rId421" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
+    <hyperlink ref="C288" r:id="rId422" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
+    <hyperlink ref="B289" r:id="rId423" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
+    <hyperlink ref="B294" r:id="rId424" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
+    <hyperlink ref="C294" r:id="rId425" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
+    <hyperlink ref="B295" r:id="rId426" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
+    <hyperlink ref="C295" r:id="rId427" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
+    <hyperlink ref="B296" r:id="rId428" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
+    <hyperlink ref="C296" r:id="rId429" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
+    <hyperlink ref="B297" r:id="rId430" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
+    <hyperlink ref="C297" r:id="rId431" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
+    <hyperlink ref="B298" r:id="rId432" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
+    <hyperlink ref="C298" r:id="rId433" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
+    <hyperlink ref="B299" r:id="rId434" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
+    <hyperlink ref="B304" r:id="rId435" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
+    <hyperlink ref="C304" r:id="rId436" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
+    <hyperlink ref="B305" r:id="rId437" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
+    <hyperlink ref="C305" r:id="rId438" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
+    <hyperlink ref="B306" r:id="rId439" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
+    <hyperlink ref="C306" r:id="rId440" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
+    <hyperlink ref="B307" r:id="rId441" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
+    <hyperlink ref="C307" r:id="rId442" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
+    <hyperlink ref="B308" r:id="rId443" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
+    <hyperlink ref="C308" r:id="rId444" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
+    <hyperlink ref="B309" r:id="rId445" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
+    <hyperlink ref="C309" r:id="rId446" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
+    <hyperlink ref="B310" r:id="rId447" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
+    <hyperlink ref="C310" r:id="rId448" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
+    <hyperlink ref="B311" r:id="rId449" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
+    <hyperlink ref="C311" r:id="rId450" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
+    <hyperlink ref="B312" r:id="rId451" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
+    <hyperlink ref="C312" r:id="rId452" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
+    <hyperlink ref="B313" r:id="rId453" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
+    <hyperlink ref="C313" r:id="rId454" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
+    <hyperlink ref="B314" r:id="rId455" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
+    <hyperlink ref="C314" r:id="rId456" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
+    <hyperlink ref="B315" r:id="rId457" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
+    <hyperlink ref="C315" r:id="rId458" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
+    <hyperlink ref="B316" r:id="rId459" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
+    <hyperlink ref="C316" r:id="rId460" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
+    <hyperlink ref="B317" r:id="rId461" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
+    <hyperlink ref="C317" r:id="rId462" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
+    <hyperlink ref="B318" r:id="rId463" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
+    <hyperlink ref="C318" r:id="rId464" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
+    <hyperlink ref="B319" r:id="rId465" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
+    <hyperlink ref="C319" r:id="rId466" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
+    <hyperlink ref="B320" r:id="rId467" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
+    <hyperlink ref="C320" r:id="rId468" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
+    <hyperlink ref="B321" r:id="rId469" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
     <hyperlink ref="B133" r:id="rId470" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
+    <hyperlink ref="B154" r:id="rId471" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
+    <hyperlink ref="B164" r:id="rId472" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC811D-5FB0-F747-B238-3346F021E73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B37D3B-E712-8A45-8EA2-01EC9A104E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="292">
   <si>
     <t>144</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>Longest String Chain</t>
+  </si>
+  <si>
+    <t>Critical Connections in a Network</t>
   </si>
 </sst>
 </file>
@@ -948,18 +951,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -975,11 +972,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1303,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
   <dimension ref="A1:H324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="138" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,12 +1309,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1327,10 +1323,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1339,10 +1335,10 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1351,10 +1347,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>387</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1363,419 +1359,419 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>383</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>344</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>151</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>186</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>345</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>205</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
       <c r="H11" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>293</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>294</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>290</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>242</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>49</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>249</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>87</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>161</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>358</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>316</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>271</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>168</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>171</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>13</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>273</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>246</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>247</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>157</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>158</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>68</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>65</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>76</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>30</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>3</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>340</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1784,60 +1780,60 @@
       <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>395</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>159</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>125</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>266</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1846,102 +1842,102 @@
       <c r="C45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>5</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>9</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>214</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>336</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>131</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>132</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>267</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>20</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1950,10 +1946,10 @@
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1962,81 +1958,81 @@
       <c r="C55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>32</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>241</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>301</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>392</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>115</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>187</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2044,19 +2040,19 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2064,7 +2060,7 @@
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2076,7 +2072,7 @@
       <c r="A68" s="1">
         <v>94</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2088,7 +2084,7 @@
       <c r="A69" s="1">
         <v>145</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2100,7 +2096,7 @@
       <c r="A70" s="1">
         <v>102</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2112,7 +2108,7 @@
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
@@ -2120,7 +2116,7 @@
       <c r="A72" s="1">
         <v>100</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2132,7 +2128,7 @@
       <c r="A73" s="1">
         <v>101</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2144,7 +2140,7 @@
       <c r="A74" s="1">
         <v>226</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2158,7 +2154,7 @@
       <c r="A75" s="1">
         <v>257</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2170,7 +2166,7 @@
       <c r="A76" s="1">
         <v>112</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2182,7 +2178,7 @@
       <c r="A77" s="1">
         <v>113</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2194,7 +2190,7 @@
       <c r="A78" s="1">
         <v>129</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2206,7 +2202,7 @@
       <c r="A79" s="1">
         <v>298</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2218,7 +2214,7 @@
       <c r="A80" s="1">
         <v>111</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2230,7 +2226,7 @@
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="5"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
@@ -2238,7 +2234,7 @@
       <c r="A82" s="1">
         <v>104</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2250,7 +2246,7 @@
       <c r="A83" s="1">
         <v>110</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2262,7 +2258,7 @@
       <c r="A84" s="1">
         <v>124</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2274,7 +2270,7 @@
       <c r="A85" s="1">
         <v>250</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2286,7 +2282,7 @@
       <c r="A86" s="1">
         <v>366</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2298,7 +2294,7 @@
       <c r="A87" s="1">
         <v>337</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2312,7 +2308,7 @@
       <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="5"/>
+      <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
@@ -2320,7 +2316,7 @@
       <c r="A89" s="1">
         <v>107</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2332,7 +2328,7 @@
       <c r="A90" s="1">
         <v>103</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2344,7 +2340,7 @@
       <c r="A91" s="1">
         <v>199</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2358,7 +2354,7 @@
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="5"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
@@ -2366,7 +2362,7 @@
       <c r="A93" s="1">
         <v>98</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2380,7 +2376,7 @@
       <c r="A94" s="1">
         <v>235</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2394,7 +2390,7 @@
       <c r="A95" s="1">
         <v>236</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2408,7 +2404,7 @@
       <c r="A96" s="1">
         <v>108</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -2422,7 +2418,7 @@
       <c r="A97" s="1">
         <v>109</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -2436,7 +2432,7 @@
       <c r="A98" s="1">
         <v>173</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2450,7 +2446,7 @@
       <c r="A99" s="1">
         <v>230</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -2464,7 +2460,7 @@
       <c r="A100" s="1">
         <v>297</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2478,7 +2474,7 @@
       <c r="A101" s="1">
         <v>285</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -2492,7 +2488,7 @@
       <c r="A102" s="1">
         <v>270</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -2506,7 +2502,7 @@
       <c r="A103" s="1">
         <v>272</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -2520,7 +2516,7 @@
       <c r="A104" s="1">
         <v>99</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -2534,7 +2530,7 @@
       <c r="A105" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="5"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
@@ -2542,7 +2538,7 @@
       <c r="A106" s="1">
         <v>116</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -2556,7 +2552,7 @@
       <c r="A107" s="1">
         <v>117</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -2570,7 +2566,7 @@
       <c r="A108" s="1">
         <v>314</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -2584,7 +2580,7 @@
       <c r="A109" s="1">
         <v>96</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2595,585 +2591,585 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="9"/>
+      <c r="B110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="9"/>
+      <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="9"/>
+      <c r="B112" s="8"/>
     </row>
     <row r="113" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="9"/>
+      <c r="B113" s="8"/>
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7" t="s">
+      <c r="B114" s="7"/>
+      <c r="C114" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>78</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>90</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>77</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="7"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>39</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="7"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>40</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>216</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>377</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>254</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="7"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>46</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="7"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>47</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="7"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>31</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>60</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>291</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="7"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>17</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="6"/>
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>320</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="7"/>
+      <c r="D129" s="6"/>
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>282</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="7"/>
+      <c r="D130" s="6"/>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>140</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="7"/>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>351</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>93</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>70</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="7"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>62</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="7"/>
+      <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>63</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>279</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="7"/>
+      <c r="D141" s="6"/>
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>139</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="7"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>375</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="7"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>312</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="7"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>322</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="6"/>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>256</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="7"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>265</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="7"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>64</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="7"/>
+      <c r="D149" s="6"/>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>72</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="7"/>
+      <c r="D150" s="6"/>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>97</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="7"/>
+      <c r="D151" s="6"/>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>174</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>221</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>84</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C154" s="2"/>
-      <c r="D154" s="7"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>85</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="7"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>363</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>198</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="7"/>
+      <c r="D158" s="6"/>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>213</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D159" s="6"/>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>276</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="7"/>
+      <c r="D160" s="6"/>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>91</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="7"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>10</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D162" s="7"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>44</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>1048</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -3181,323 +3177,323 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7" t="s">
+      <c r="B167" s="6"/>
+      <c r="C167" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>206</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>141</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D170" s="7"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>24</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
+      <c r="A172" s="6">
         <v>328</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>92</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>237</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="7"/>
+      <c r="D174" s="6"/>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>19</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="7"/>
+      <c r="D175" s="6"/>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>83</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="7"/>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>203</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="7"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>82</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="7"/>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>369</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="7"/>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="7">
-        <v>2</v>
-      </c>
-      <c r="B180" s="4" t="s">
+      <c r="A180" s="6">
+        <v>2</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="7"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>160</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D181" s="7"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>21</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D182" s="7"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="7">
+      <c r="A184" s="6">
         <v>234</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="6"/>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>143</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="7"/>
+      <c r="D185" s="6"/>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>142</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="7"/>
+      <c r="D186" s="6"/>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="7">
+      <c r="A187" s="6">
         <v>148</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="7"/>
+      <c r="D187" s="6"/>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>25</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="7"/>
+      <c r="D188" s="6"/>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>61</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="6"/>
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="7">
+      <c r="A190" s="6">
         <v>86</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="7"/>
+      <c r="D190" s="6"/>
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>23</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D191" s="7"/>
+      <c r="D191" s="6"/>
     </row>
     <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="7">
+      <c r="A192" s="6">
         <v>147</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7" t="s">
+      <c r="B196" s="6"/>
+      <c r="C196" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="7">
+      <c r="A197" s="6">
         <v>200</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -3506,10 +3502,10 @@
       <c r="C197" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D197" s="7"/>
+      <c r="D197" s="6"/>
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A198" s="7">
+      <c r="A198" s="6">
         <v>286</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -3518,10 +3514,10 @@
       <c r="C198" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="7"/>
+      <c r="D198" s="6"/>
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A199" s="7">
+      <c r="A199" s="6">
         <v>130</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -3530,290 +3526,298 @@
       <c r="C199" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="7"/>
+      <c r="D199" s="6"/>
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A200" s="7">
+      <c r="A200" s="6">
         <v>339</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="7"/>
+      <c r="D200" s="6"/>
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A201" s="7">
+      <c r="A201" s="6">
         <v>364</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="7"/>
+      <c r="D201" s="6"/>
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A202" s="7">
+      <c r="A202" s="6">
         <v>127</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D202" s="7"/>
+      <c r="D202" s="6"/>
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A203" s="7">
+      <c r="A203" s="6">
         <v>126</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="7">
+      <c r="A204" s="6">
         <v>51</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="6"/>
     </row>
     <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="7">
+      <c r="A205" s="6">
         <v>52</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="7"/>
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A206" s="6">
+        <v>1192</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="7"/>
-      <c r="B208" s="4"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="3"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="7"/>
+      <c r="D208" s="6"/>
     </row>
     <row r="209" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B209" s="9"/>
+      <c r="B209" s="8"/>
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B210" s="8"/>
-      <c r="C210" s="7" t="s">
+      <c r="B210" s="7"/>
+      <c r="C210" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A211" s="7">
+      <c r="A211" s="6">
         <v>261</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D211" s="7"/>
+      <c r="D211" s="6"/>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A212" s="7">
+      <c r="A212" s="6">
         <v>323</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D212" s="7"/>
+      <c r="D212" s="6"/>
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A213" s="7">
+      <c r="A213" s="6">
         <v>305</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B214" s="9"/>
+      <c r="B214" s="8"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B215" s="9"/>
+      <c r="B215" s="8"/>
     </row>
     <row r="216" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B216" s="9"/>
+      <c r="B216" s="8"/>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B217" s="8"/>
-      <c r="C217" s="7" t="s">
+      <c r="B217" s="7"/>
+      <c r="C217" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B218" s="8"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="7">
+      <c r="A219" s="6">
         <v>133</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="7"/>
+      <c r="D219" s="6"/>
     </row>
     <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A220" s="7">
+      <c r="A220" s="6">
         <v>399</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D220" s="7"/>
+      <c r="D220" s="6"/>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="7">
+      <c r="A221" s="6">
         <v>310</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D221" s="7"/>
+      <c r="D221" s="6"/>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B222" s="8"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A223" s="7">
+      <c r="A223" s="6">
         <v>149</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D223" s="7"/>
+      <c r="D223" s="6"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B224" s="9"/>
+      <c r="B224" s="8"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B225" s="9"/>
+      <c r="B225" s="8"/>
     </row>
     <row r="226" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B226" s="9"/>
+      <c r="B226" s="8"/>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="7" t="s">
+      <c r="A227" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B227" s="8"/>
-      <c r="C227" s="7" t="s">
+      <c r="B227" s="7"/>
+      <c r="C227" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="7">
+      <c r="A228" s="6">
         <v>208</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="7"/>
+      <c r="D228" s="6"/>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A229" s="7">
+      <c r="A229" s="6">
         <v>211</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D229" s="7"/>
+      <c r="D229" s="6"/>
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A230" s="7">
+      <c r="A230" s="6">
         <v>212</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D230" s="7"/>
+      <c r="D230" s="6"/>
     </row>
     <row r="233" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B234" s="7"/>
-      <c r="C234" s="7" t="s">
+      <c r="B234" s="6"/>
+      <c r="C234" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A235" s="7">
+      <c r="A235" s="6">
         <v>48</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -3822,10 +3826,10 @@
       <c r="C235" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="7"/>
+      <c r="D235" s="6"/>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A236" s="7">
+      <c r="A236" s="6">
         <v>54</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -3834,10 +3838,10 @@
       <c r="C236" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D236" s="7"/>
+      <c r="D236" s="6"/>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="7">
+      <c r="A237" s="6">
         <v>59</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -3846,10 +3850,10 @@
       <c r="C237" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D237" s="7"/>
+      <c r="D237" s="6"/>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="7">
+      <c r="A238" s="6">
         <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -3858,10 +3862,10 @@
       <c r="C238" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D238" s="7"/>
+      <c r="D238" s="6"/>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="7">
+      <c r="A239" s="6">
         <v>311</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -3870,10 +3874,10 @@
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D239" s="7"/>
+      <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A240" s="7">
+      <c r="A240" s="6">
         <v>329</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -3882,10 +3886,10 @@
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="7"/>
+      <c r="D240" s="6"/>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="7">
+      <c r="A241" s="6">
         <v>378</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -3894,10 +3898,10 @@
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D241" s="7"/>
+      <c r="D241" s="6"/>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A242" s="7">
+      <c r="A242" s="6">
         <v>74</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -3906,10 +3910,10 @@
       <c r="C242" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D242" s="7"/>
+      <c r="D242" s="6"/>
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A243" s="7">
+      <c r="A243" s="6">
         <v>240</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -3918,10 +3922,10 @@
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="7"/>
+      <c r="D243" s="6"/>
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A244" s="7">
+      <c r="A244" s="6">
         <v>370</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -3930,10 +3934,10 @@
       <c r="C244" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D244" s="7"/>
+      <c r="D244" s="6"/>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A245" s="7">
+      <c r="A245" s="6">
         <v>79</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -3942,10 +3946,10 @@
       <c r="C245" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D245" s="7"/>
+      <c r="D245" s="6"/>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="7">
+      <c r="A246" s="6">
         <v>296</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -3954,10 +3958,10 @@
       <c r="C246" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="7"/>
+      <c r="D246" s="6"/>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A247" s="7">
+      <c r="A247" s="6">
         <v>361</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -3966,10 +3970,10 @@
       <c r="C247" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D247" s="7"/>
+      <c r="D247" s="6"/>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A248" s="7">
+      <c r="A248" s="6">
         <v>317</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -3978,10 +3982,10 @@
       <c r="C248" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D248" s="7"/>
+      <c r="D248" s="6"/>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A249" s="7">
+      <c r="A249" s="6">
         <v>302</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -3990,10 +3994,10 @@
       <c r="C249" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="7"/>
+      <c r="D249" s="6"/>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A250" s="7">
+      <c r="A250" s="6">
         <v>36</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -4002,10 +4006,10 @@
       <c r="C250" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D250" s="7"/>
+      <c r="D250" s="6"/>
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A251" s="7">
+      <c r="A251" s="6">
         <v>37</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -4013,28 +4017,28 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
+      <c r="A256" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B256" s="7"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="7"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B257" s="7"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="7"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A258" s="7">
+      <c r="A258" s="6">
         <v>155</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -4043,10 +4047,10 @@
       <c r="C258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D258" s="7"/>
+      <c r="D258" s="6"/>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A259" s="7">
+      <c r="A259" s="6">
         <v>232</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -4055,10 +4059,10 @@
       <c r="C259" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="7"/>
+      <c r="D259" s="6"/>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A260" s="7">
+      <c r="A260" s="6">
         <v>225</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -4067,10 +4071,10 @@
       <c r="C260" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="7"/>
+      <c r="D260" s="6"/>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A261" s="7">
+      <c r="A261" s="6">
         <v>150</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -4079,10 +4083,10 @@
       <c r="C261" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="7"/>
+      <c r="D261" s="6"/>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A262" s="7">
+      <c r="A262" s="6">
         <v>71</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -4091,10 +4095,10 @@
       <c r="C262" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D262" s="7"/>
+      <c r="D262" s="6"/>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="7">
+      <c r="A263" s="6">
         <v>388</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -4103,10 +4107,10 @@
       <c r="C263" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D263" s="7"/>
+      <c r="D263" s="6"/>
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A264" s="7">
+      <c r="A264" s="6">
         <v>394</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -4115,185 +4119,185 @@
       <c r="C264" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D264" s="7"/>
+      <c r="D264" s="6"/>
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A265" s="7">
+      <c r="A265" s="6">
         <v>224</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D265" s="7"/>
+      <c r="D265" s="6"/>
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A266" s="7">
+      <c r="A266" s="6">
         <v>227</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="7"/>
+      <c r="D266" s="6"/>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" s="7">
+      <c r="A267" s="6">
         <v>385</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="7"/>
+      <c r="D267" s="6"/>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268" s="7">
+      <c r="A268" s="6">
         <v>84</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D268" s="7"/>
+      <c r="D268" s="6"/>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="7" t="s">
+      <c r="A269" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B269" s="8"/>
-      <c r="C269" s="7"/>
-      <c r="D269" s="7"/>
+      <c r="B269" s="7"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" s="7">
+      <c r="A270" s="6">
         <v>215</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="7"/>
+      <c r="D270" s="6"/>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A271" s="7">
+      <c r="A271" s="6">
         <v>347</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D271" s="7"/>
+      <c r="D271" s="6"/>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" s="7">
+      <c r="A272" s="6">
         <v>218</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D272" s="7"/>
+      <c r="D272" s="6"/>
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A273" s="7">
+      <c r="A273" s="6">
         <v>332</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D273" s="7"/>
+      <c r="D273" s="6"/>
     </row>
     <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A274" s="7">
+      <c r="A274" s="6">
         <v>341</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B275" s="9"/>
+      <c r="B275" s="8"/>
     </row>
     <row r="278" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A279" s="7" t="s">
+      <c r="A279" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B279" s="7"/>
-      <c r="C279" s="7" t="s">
+      <c r="B279" s="6"/>
+      <c r="C279" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A280" s="7">
+      <c r="A280" s="6">
         <v>389</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D280" s="7"/>
+      <c r="D280" s="6"/>
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A281" s="7">
+      <c r="A281" s="6">
         <v>136</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D281" s="7"/>
+      <c r="D281" s="6"/>
     </row>
     <row r="282" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A282" s="7">
+      <c r="A282" s="6">
         <v>318</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A286" s="7" t="s">
+      <c r="A286" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B286" s="7"/>
-      <c r="C286" s="7" t="s">
+      <c r="B286" s="6"/>
+      <c r="C286" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A287" s="7">
+      <c r="A287" s="6">
         <v>207</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -4302,10 +4306,10 @@
       <c r="C287" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D287" s="7"/>
+      <c r="D287" s="6"/>
     </row>
     <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A288" s="7">
+      <c r="A288" s="6">
         <v>210</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -4314,10 +4318,10 @@
       <c r="C288" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D288" s="7"/>
+      <c r="D288" s="6"/>
     </row>
     <row r="289" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A289" s="7">
+      <c r="A289" s="6">
         <v>269</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -4325,21 +4329,21 @@
       </c>
     </row>
     <row r="292" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="s">
+      <c r="A292" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A293" s="7" t="s">
+      <c r="A293" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B293" s="7"/>
-      <c r="C293" s="7" t="s">
+      <c r="B293" s="6"/>
+      <c r="C293" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A294" s="7">
+      <c r="A294" s="6">
         <v>384</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -4348,10 +4352,10 @@
       <c r="C294" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D294" s="7"/>
+      <c r="D294" s="6"/>
     </row>
     <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A295" s="7">
+      <c r="A295" s="6">
         <v>398</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -4360,10 +4364,10 @@
       <c r="C295" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D295" s="7"/>
+      <c r="D295" s="6"/>
     </row>
     <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A296" s="7">
+      <c r="A296" s="6">
         <v>382</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -4372,10 +4376,10 @@
       <c r="C296" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D296" s="7"/>
+      <c r="D296" s="6"/>
     </row>
     <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A297" s="7">
+      <c r="A297" s="6">
         <v>380</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -4384,10 +4388,10 @@
       <c r="C297" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D297" s="7"/>
+      <c r="D297" s="6"/>
     </row>
     <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A298" s="7">
+      <c r="A298" s="6">
         <v>381</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -4396,10 +4400,10 @@
       <c r="C298" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D298" s="7"/>
+      <c r="D298" s="6"/>
     </row>
     <row r="299" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A299" s="7">
+      <c r="A299" s="6">
         <v>138</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -4407,106 +4411,106 @@
       </c>
     </row>
     <row r="302" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="5" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A303" s="7" t="s">
+      <c r="A303" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B303" s="7"/>
-      <c r="C303" s="7"/>
-      <c r="D303" s="7"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="6"/>
     </row>
     <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A304" s="7">
+      <c r="A304" s="6">
         <v>359</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D304" s="7"/>
+      <c r="D304" s="6"/>
     </row>
     <row r="305" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A305" s="7">
+      <c r="A305" s="6">
         <v>346</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D305" s="7" t="s">
+      <c r="D305" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A306" s="7">
+      <c r="A306" s="6">
         <v>362</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D306" s="7"/>
+      <c r="D306" s="6"/>
     </row>
     <row r="307" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A307" s="7">
+      <c r="A307" s="6">
         <v>281</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D307" s="7"/>
+      <c r="D307" s="6"/>
     </row>
     <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A308" s="7">
+      <c r="A308" s="6">
         <v>284</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D308" s="7"/>
+      <c r="D308" s="6"/>
     </row>
     <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A309" s="7">
+      <c r="A309" s="6">
         <v>251</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D309" s="7"/>
+      <c r="D309" s="6"/>
     </row>
     <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A310" s="7">
+      <c r="A310" s="6">
         <v>288</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D310" s="7"/>
+      <c r="D310" s="6"/>
     </row>
     <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A311" s="7">
+      <c r="A311" s="6">
         <v>170</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -4515,10 +4519,10 @@
       <c r="C311" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D311" s="7"/>
+      <c r="D311" s="6"/>
     </row>
     <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A312" s="7">
+      <c r="A312" s="6">
         <v>348</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -4527,10 +4531,10 @@
       <c r="C312" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D312" s="7"/>
+      <c r="D312" s="6"/>
     </row>
     <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A313" s="7">
+      <c r="A313" s="6">
         <v>379</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -4539,10 +4543,10 @@
       <c r="C313" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D313" s="7"/>
+      <c r="D313" s="6"/>
     </row>
     <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A314" s="7">
+      <c r="A314" s="6">
         <v>353</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -4551,10 +4555,10 @@
       <c r="C314" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D314" s="7"/>
+      <c r="D314" s="6"/>
     </row>
     <row r="315" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A315" s="7">
+      <c r="A315" s="6">
         <v>146</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -4563,10 +4567,10 @@
       <c r="C315" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D315" s="7"/>
+      <c r="D315" s="6"/>
     </row>
     <row r="316" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A316" s="7">
+      <c r="A316" s="6">
         <v>355</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -4575,10 +4579,10 @@
       <c r="C316" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D316" s="7"/>
+      <c r="D316" s="6"/>
     </row>
     <row r="317" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A317" s="7">
+      <c r="A317" s="6">
         <v>303</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -4587,10 +4591,10 @@
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D317" s="7"/>
+      <c r="D317" s="6"/>
     </row>
     <row r="318" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A318" s="7">
+      <c r="A318" s="6">
         <v>304</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -4599,10 +4603,10 @@
       <c r="C318" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D318" s="7"/>
+      <c r="D318" s="6"/>
     </row>
     <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A319" s="7">
+      <c r="A319" s="6">
         <v>307</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -4611,12 +4615,12 @@
       <c r="C319" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D319" s="7" t="s">
+      <c r="D319" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A320" s="7">
+      <c r="A320" s="6">
         <v>308</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -4625,12 +4629,12 @@
       <c r="C320" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D320" s="7" t="s">
+      <c r="D320" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A321" s="7">
+      <c r="A321" s="6">
         <v>705</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -4638,7 +4642,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A323" s="7">
+      <c r="A323" s="6">
         <v>3.31</v>
       </c>
     </row>
@@ -5124,6 +5128,7 @@
     <hyperlink ref="B133" r:id="rId470" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
     <hyperlink ref="B154" r:id="rId471" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
     <hyperlink ref="B164" r:id="rId472" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
+    <hyperlink ref="B206" r:id="rId473" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B37D3B-E712-8A45-8EA2-01EC9A104E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE86D7-B59B-3544-85B7-E149783DB13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="310">
   <si>
     <t>144</t>
   </si>
@@ -743,179 +743,233 @@
     <t>Min Stack</t>
   </si>
   <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>Mini Parser</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Shuffle an Array</t>
+  </si>
+  <si>
+    <t>Random Pick Index</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1) - Duplicates allowed</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Two Sum III - Data structure design</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Design Phone Directory</t>
+  </si>
+  <si>
+    <t>Design Snake Game</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Design Twitter</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>BIT &amp; ST</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                       </t>
+  </si>
+  <si>
+    <t>Degree of an Array</t>
+  </si>
+  <si>
+    <t>Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>Design HashSet</t>
+  </si>
+  <si>
+    <t>Longest String Chain</t>
+  </si>
+  <si>
+    <t>Critical Connections in a Network</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Find Peak Element </t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Hash table</t>
+  </si>
+  <si>
+    <t>Keyboard Row</t>
+  </si>
+  <si>
+    <t>Largest 1-Bordered Square</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Tallest Billboard</t>
+  </si>
+  <si>
+    <t>Remove Outermost Parentheses</t>
+  </si>
+  <si>
     <t>Implement Queue using Stacks</t>
   </si>
   <si>
     <t>Implement Stack using Queues</t>
-  </si>
-  <si>
-    <t>Evaluate Reverse Polish Notation</t>
-  </si>
-  <si>
-    <t>Simplify Path</t>
-  </si>
-  <si>
-    <t>Longest Absolute File Path</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-  </si>
-  <si>
-    <t>Basic Calculator II</t>
-  </si>
-  <si>
-    <t>Mini Parser</t>
-  </si>
-  <si>
-    <t>Largest Rectangle in Histogram</t>
-  </si>
-  <si>
-    <t>PriorityQueue</t>
-  </si>
-  <si>
-    <t>Kth Largest Element in an Array</t>
-  </si>
-  <si>
-    <t>Top K Frequent Elements</t>
-  </si>
-  <si>
-    <t>The Skyline Problem</t>
-  </si>
-  <si>
-    <t>Reconstruct Itinerary</t>
-  </si>
-  <si>
-    <t>Flatten Nested List Iterator</t>
-  </si>
-  <si>
-    <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>Find the Difference</t>
-  </si>
-  <si>
-    <t>Single Number</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-  </si>
-  <si>
-    <t>Topological Sort</t>
-  </si>
-  <si>
-    <t>Course Schedule</t>
-  </si>
-  <si>
-    <t>Course Schedule II</t>
-  </si>
-  <si>
-    <t>Alien Dictionary</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Shuffle an Array</t>
-  </si>
-  <si>
-    <t>Random Pick Index</t>
-  </si>
-  <si>
-    <t>Linked List Random Node</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1)</t>
-  </si>
-  <si>
-    <t>Insert Delete GetRandom O(1) - Duplicates allowed</t>
-  </si>
-  <si>
-    <t>Copy List with Random Pointer</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Logger Rate Limiter</t>
-  </si>
-  <si>
-    <t>Moving Average from Data Stream</t>
-  </si>
-  <si>
-    <t>Design Hit Counter</t>
-  </si>
-  <si>
-    <t>Zigzag Iterator</t>
-  </si>
-  <si>
-    <t>Peeking Iterator</t>
-  </si>
-  <si>
-    <t>Flatten 2D Vector</t>
-  </si>
-  <si>
-    <t>Unique Word Abbreviation</t>
-  </si>
-  <si>
-    <t>Two Sum III - Data structure design</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Design Phone Directory</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>Design Twitter</t>
-  </si>
-  <si>
-    <t>Range Sum Query - Immutable</t>
-  </si>
-  <si>
-    <t>Range Sum Query 2D - Immutable</t>
-  </si>
-  <si>
-    <t>Range Sum Query - Mutable</t>
-  </si>
-  <si>
-    <t>BIT &amp; ST</t>
-  </si>
-  <si>
-    <t>Range Sum Query 2D - Mutable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                       </t>
-  </si>
-  <si>
-    <t>Degree of an Array</t>
-  </si>
-  <si>
-    <t>Restore IP Addresses</t>
-  </si>
-  <si>
-    <t>Design HashSet</t>
-  </si>
-  <si>
-    <t>Longest String Chain</t>
-  </si>
-  <si>
-    <t>Critical Connections in a Network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -950,6 +1004,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -972,7 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -982,6 +1044,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1297,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:H324"/>
+  <dimension ref="A1:H357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1433,7 +1496,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="H11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2840,7 +2903,7 @@
         <v>93</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
@@ -3061,7 +3124,7 @@
         <v>84</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="6"/>
@@ -3093,31 +3156,22 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
-        <v>198</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B158" s="7"/>
+      <c r="C158" s="6"/>
       <c r="D158" s="6"/>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
@@ -3126,10 +3180,10 @@
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
@@ -3138,10 +3192,10 @@
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
@@ -3150,10 +3204,10 @@
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2</v>
@@ -3162,180 +3216,137 @@
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
+        <v>44</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A165" s="6">
         <v>1048</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="B165" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A167" s="6">
+        <v>746</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
+      <c r="A168" s="6">
+        <v>1025</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
-        <v>206</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D169" s="6"/>
+        <v>1139</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
-        <v>141</v>
+        <v>1139</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D170" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
-        <v>24</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="6"/>
+        <v>740</v>
+      </c>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
-        <v>328</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="6"/>
+        <v>464</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
-        <v>92</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="6"/>
+        <v>523</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
-        <v>237</v>
+        <v>956</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
-        <v>19</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D175" s="6"/>
+        <v>1320</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="6">
-        <v>83</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="6">
-        <v>203</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D177" s="6"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="6">
-        <v>82</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D178" s="6"/>
+      <c r="A178" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="6">
-        <v>369</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A179" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
       <c r="D179" s="6"/>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -3344,10 +3355,10 @@
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
@@ -3356,10 +3367,10 @@
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
@@ -3367,19 +3378,23 @@
       <c r="D182" s="6"/>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B183" s="7"/>
-      <c r="C183" s="6"/>
+      <c r="A183" s="6">
+        <v>328</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D183" s="6"/>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -3388,10 +3403,10 @@
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
@@ -3400,10 +3415,10 @@
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -3412,10 +3427,10 @@
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
@@ -3424,10 +3439,10 @@
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
@@ -3436,10 +3451,10 @@
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -3448,10 +3463,10 @@
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
-        <v>86</v>
+        <v>369</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
@@ -3460,10 +3475,10 @@
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
@@ -3472,32 +3487,66 @@
     </row>
     <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="6">
+        <v>21</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="6">
+        <v>234</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="6"/>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A196" s="6">
+        <v>143</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="6"/>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
@@ -3506,10 +3555,10 @@
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -3518,10 +3567,10 @@
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
@@ -3530,10 +3579,10 @@
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
-        <v>339</v>
+        <v>61</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
@@ -3542,10 +3591,10 @@
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
-        <v>364</v>
+        <v>86</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
@@ -3554,10 +3603,10 @@
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
+        <v>23</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
@@ -3566,71 +3615,68 @@
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A204" s="6">
-        <v>51</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A205" s="6">
-        <v>52</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A206" s="6">
-        <v>1192</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>291</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="6"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="2"/>
+      <c r="A208" s="6">
+        <v>200</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B209" s="8"/>
+    <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209" s="6">
+        <v>286</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="6"/>
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B210" s="7"/>
-      <c r="C210" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A210" s="6">
+        <v>130</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="6"/>
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
@@ -3639,10 +3685,10 @@
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
@@ -3651,225 +3697,224 @@
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B214" s="8"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B215" s="8"/>
-    </row>
-    <row r="216" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B216" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="6"/>
+    </row>
+    <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A214" s="6">
+        <v>126</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" s="6">
+        <v>51</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="6"/>
+    </row>
+    <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A216" s="6">
+        <v>52</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="6"/>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="6">
+        <v>1192</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219" s="6"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="6"/>
+    </row>
+    <row r="220" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B220" s="8"/>
+    </row>
+    <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B217" s="7"/>
-      <c r="C217" s="6" t="s">
+      <c r="B221" s="7"/>
+      <c r="C221" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D217" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A218" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B218" s="7"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="6"/>
-    </row>
-    <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="6">
-        <v>133</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A220" s="6">
-        <v>399</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="6">
-        <v>310</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="6"/>
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B222" s="7"/>
-      <c r="C222" s="6"/>
+      <c r="A222" s="6">
+        <v>261</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D222" s="6"/>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
-        <v>149</v>
+        <v>323</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B224" s="8"/>
+    <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A224" s="6">
+        <v>305</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B225" s="8"/>
     </row>
-    <row r="226" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
-        <v>211</v>
-      </c>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B226" s="8"/>
     </row>
-    <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="6" t="s">
+    <row r="227" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B227" s="8"/>
+    </row>
+    <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B227" s="7"/>
-      <c r="C227" s="6" t="s">
+      <c r="B228" s="7"/>
+      <c r="C228" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="6">
-        <v>208</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D228" s="6"/>
+      <c r="D228" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A229" s="6">
-        <v>211</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A229" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B229" s="7"/>
+      <c r="C229" s="6"/>
       <c r="D229" s="6"/>
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D230" s="6"/>
     </row>
-    <row r="233" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
-        <v>215</v>
-      </c>
+    <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A231" s="6">
+        <v>399</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="6"/>
+    </row>
+    <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A232" s="6">
+        <v>310</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="6"/>
+    </row>
+    <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B233" s="7"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="6">
+        <v>149</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="6"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B235" s="8"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B236" s="8"/>
+    </row>
+    <row r="237" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B237" s="8"/>
+    </row>
+    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6" t="s">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A235" s="6">
-        <v>48</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D235" s="6"/>
-    </row>
-    <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A236" s="6">
-        <v>54</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D236" s="6"/>
-    </row>
-    <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="6">
-        <v>59</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D237" s="6"/>
-    </row>
-    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="6">
-        <v>73</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D238" s="6"/>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
-        <v>311</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -3878,10 +3923,10 @@
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
-        <v>329</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -3890,70 +3935,36 @@
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
-        <v>378</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A242" s="6">
-        <v>74</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D242" s="6"/>
-    </row>
-    <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A243" s="6">
-        <v>240</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D243" s="6"/>
-    </row>
-    <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A244" s="6">
-        <v>370</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244" s="6"/>
+    <row r="244" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A245" s="6">
-        <v>79</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D245" s="6"/>
+      <c r="A245" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B245" s="6"/>
+      <c r="C245" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
-        <v>296</v>
+        <v>48</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>2</v>
@@ -3962,10 +3973,10 @@
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
-        <v>361</v>
+        <v>54</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2</v>
@@ -3974,10 +3985,10 @@
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
-        <v>317</v>
+        <v>59</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>2</v>
@@ -3986,10 +3997,10 @@
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2</v>
@@ -3998,10 +4009,10 @@
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>2</v>
@@ -4010,39 +4021,94 @@
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
-        <v>233</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="6"/>
+    </row>
+    <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A252" s="6">
+        <v>378</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="6"/>
+    </row>
+    <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A253" s="6">
+        <v>74</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="6"/>
+    </row>
+    <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A254" s="6">
+        <v>240</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="6"/>
+    </row>
+    <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A255" s="6">
+        <v>370</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="6"/>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
+      <c r="A256" s="6">
+        <v>79</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D256" s="6"/>
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
+      <c r="A257" s="6">
+        <v>296</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D257" s="6"/>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>2</v>
@@ -4051,10 +4117,10 @@
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>2</v>
@@ -4063,10 +4129,10 @@
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>2</v>
@@ -4075,10 +4141,10 @@
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>2</v>
@@ -4087,126 +4153,71 @@
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D262" s="6"/>
-    </row>
-    <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A263" s="6">
-        <v>388</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D263" s="6"/>
-    </row>
-    <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A264" s="6">
-        <v>394</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D264" s="6"/>
-    </row>
-    <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A265" s="6">
-        <v>224</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D265" s="6"/>
-    </row>
-    <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A266" s="6">
-        <v>227</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D266" s="6"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" s="6">
-        <v>385</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A267" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
       <c r="D267" s="6"/>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268" s="6">
-        <v>84</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A268" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
       <c r="D268" s="6"/>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B269" s="7"/>
-      <c r="C269" s="6"/>
+      <c r="A269" s="6">
+        <v>155</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D269" s="6"/>
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" s="6">
-        <v>215</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>247</v>
+      <c r="A270" s="1">
+        <v>232</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="6"/>
+      <c r="D270" s="1"/>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A271" s="6">
-        <v>347</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D271" s="6"/>
+      <c r="A271" s="1">
+        <v>225</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
@@ -4215,10 +4226,10 @@
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
-        <v>332</v>
+        <v>71</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>2</v>
@@ -4227,47 +4238,90 @@
     </row>
     <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B275" s="8"/>
-    </row>
-    <row r="278" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A278" s="5" t="s">
-        <v>252</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="6"/>
+    </row>
+    <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A275" s="6">
+        <v>394</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" s="6"/>
+    </row>
+    <row r="276" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A276" s="6">
+        <v>224</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="6"/>
+    </row>
+    <row r="277" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A277" s="6">
+        <v>227</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" s="6"/>
+    </row>
+    <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A278" s="6">
+        <v>385</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="6"/>
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A279" s="6">
+        <v>84</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="6"/>
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A280" s="6">
-        <v>389</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A280" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B280" s="7"/>
+      <c r="C280" s="6"/>
       <c r="D280" s="6"/>
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
@@ -4276,61 +4330,71 @@
     </row>
     <row r="282" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B286" s="6"/>
-      <c r="C286" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A283" s="6">
+        <v>218</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A284" s="6">
+        <v>332</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A285" s="6">
+        <v>341</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>305</v>
+      </c>
+      <c r="B286" s="8"/>
     </row>
     <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="6">
-        <v>207</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D287" s="6"/>
-    </row>
-    <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A288" s="6">
-        <v>210</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D288" s="6"/>
-    </row>
-    <row r="289" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A289" s="6">
-        <v>269</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B288" s="8"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B289" s="8"/>
     </row>
     <row r="292" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4344,10 +4408,10 @@
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
-        <v>384</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>261</v>
+        <v>389</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>2</v>
@@ -4356,10 +4420,10 @@
     </row>
     <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
-        <v>398</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>262</v>
+        <v>136</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>2</v>
@@ -4368,117 +4432,78 @@
     </row>
     <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
-        <v>382</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D296" s="6"/>
-    </row>
-    <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A297" s="6">
-        <v>380</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D297" s="6"/>
-    </row>
-    <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A298" s="6">
-        <v>381</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D298" s="6"/>
-    </row>
-    <row r="299" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A299" s="6">
-        <v>138</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A302" s="5" t="s">
-        <v>267</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A301" s="6">
+        <v>207</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D301" s="6"/>
+    </row>
+    <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A302" s="6">
+        <v>210</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" s="6"/>
     </row>
     <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="6">
+        <v>269</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A307" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-    </row>
-    <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A304" s="6">
-        <v>359</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D304" s="6"/>
-    </row>
-    <row r="305" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A305" s="6">
-        <v>346</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A306" s="6">
-        <v>362</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D306" s="6"/>
-    </row>
-    <row r="307" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A307" s="6">
-        <v>281</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D307" s="6"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="6">
-        <v>284</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>272</v>
+        <v>384</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>2</v>
@@ -4487,10 +4512,10 @@
     </row>
     <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
-        <v>251</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>273</v>
+        <v>398</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>2</v>
@@ -4499,10 +4524,10 @@
     </row>
     <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
-        <v>288</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>274</v>
+        <v>382</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>2</v>
@@ -4511,10 +4536,10 @@
     </row>
     <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>2</v>
@@ -4523,10 +4548,10 @@
     </row>
     <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>2</v>
@@ -4535,70 +4560,31 @@
     </row>
     <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
-        <v>379</v>
+        <v>138</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D313" s="6"/>
-    </row>
-    <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A314" s="6">
-        <v>353</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D314" s="6"/>
-    </row>
-    <row r="315" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A315" s="6">
-        <v>146</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D315" s="6"/>
-    </row>
-    <row r="316" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A316" s="6">
-        <v>355</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D316" s="6"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="317" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A317" s="6">
-        <v>303</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A317" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
       <c r="D317" s="6"/>
     </row>
     <row r="318" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
-        <v>304</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>282</v>
+        <v>359</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>2</v>
@@ -4607,51 +4593,374 @@
     </row>
     <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
-        <v>307</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>283</v>
+        <v>346</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>284</v>
+        <v>179</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
+        <v>362</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" s="6"/>
+    </row>
+    <row r="321" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A321" s="6">
+        <v>281</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" s="6"/>
+    </row>
+    <row r="322" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A322" s="6">
+        <v>284</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322" s="6"/>
+    </row>
+    <row r="323" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A323" s="6">
+        <v>251</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D323" s="6"/>
+    </row>
+    <row r="324" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A324" s="6">
+        <v>288</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324" s="6"/>
+    </row>
+    <row r="325" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A325" s="6">
+        <v>170</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D325" s="6"/>
+    </row>
+    <row r="326" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A326" s="6">
+        <v>348</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" s="6"/>
+    </row>
+    <row r="327" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A327" s="6">
+        <v>379</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327" s="6"/>
+    </row>
+    <row r="328" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A328" s="6">
+        <v>353</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D328" s="6"/>
+    </row>
+    <row r="329" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A329" s="6">
+        <v>146</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329" s="6"/>
+    </row>
+    <row r="330" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A330" s="6">
+        <v>355</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D330" s="6"/>
+    </row>
+    <row r="331" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A331" s="6">
+        <v>303</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D331" s="6"/>
+    </row>
+    <row r="332" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A332" s="6">
+        <v>304</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D332" s="6"/>
+    </row>
+    <row r="333" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A333" s="6">
+        <v>307</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A334" s="6">
         <v>308</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B334" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A335" s="6">
+        <v>705</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A337" s="6">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>697</v>
+      </c>
+      <c r="B338" t="s">
         <v>285</v>
       </c>
-      <c r="C320" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A321" s="6">
-        <v>705</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A323" s="6">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324">
-        <v>697</v>
-      </c>
-      <c r="B324" t="s">
-        <v>287</v>
+    </row>
+    <row r="341" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A341" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>35</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>33</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>81</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>153</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>154</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>162</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>374</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>34</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>315</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>300</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>354</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+      <c r="A356" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>500</v>
+      </c>
+      <c r="B357" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4703,84 +5012,84 @@
     <hyperlink ref="C155" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
     <hyperlink ref="B156" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
     <hyperlink ref="C156" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
-    <hyperlink ref="B158" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
-    <hyperlink ref="C158" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
-    <hyperlink ref="B159" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
-    <hyperlink ref="C159" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
-    <hyperlink ref="B160" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
-    <hyperlink ref="C160" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
-    <hyperlink ref="B161" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
-    <hyperlink ref="C161" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
-    <hyperlink ref="B162" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
-    <hyperlink ref="C162" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
-    <hyperlink ref="B163" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
-    <hyperlink ref="B169" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
-    <hyperlink ref="C169" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
-    <hyperlink ref="B170" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
-    <hyperlink ref="C170" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
-    <hyperlink ref="B171" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
-    <hyperlink ref="C171" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
-    <hyperlink ref="B172" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
-    <hyperlink ref="C172" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
-    <hyperlink ref="B173" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
-    <hyperlink ref="C173" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
-    <hyperlink ref="B174" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
-    <hyperlink ref="C174" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
-    <hyperlink ref="B175" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
-    <hyperlink ref="C175" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
-    <hyperlink ref="B176" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
-    <hyperlink ref="C176" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
-    <hyperlink ref="B177" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
-    <hyperlink ref="C177" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
-    <hyperlink ref="B178" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
-    <hyperlink ref="C178" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
-    <hyperlink ref="B179" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
-    <hyperlink ref="C179" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
-    <hyperlink ref="B180" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
-    <hyperlink ref="C180" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
-    <hyperlink ref="B181" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
-    <hyperlink ref="C181" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
-    <hyperlink ref="B182" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
-    <hyperlink ref="C182" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
-    <hyperlink ref="B184" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
-    <hyperlink ref="C184" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
-    <hyperlink ref="B185" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
-    <hyperlink ref="C185" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
-    <hyperlink ref="B186" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
-    <hyperlink ref="C186" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
-    <hyperlink ref="B187" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
-    <hyperlink ref="C187" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
-    <hyperlink ref="B188" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
-    <hyperlink ref="C188" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
-    <hyperlink ref="B189" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
-    <hyperlink ref="C189" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
-    <hyperlink ref="B190" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
-    <hyperlink ref="C190" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
-    <hyperlink ref="B191" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
-    <hyperlink ref="C191" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
-    <hyperlink ref="B192" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
-    <hyperlink ref="B197" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
-    <hyperlink ref="C197" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
-    <hyperlink ref="B198" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
-    <hyperlink ref="C198" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
-    <hyperlink ref="B199" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
-    <hyperlink ref="C199" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
-    <hyperlink ref="B200" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
-    <hyperlink ref="C200" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
-    <hyperlink ref="B201" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
-    <hyperlink ref="C201" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
-    <hyperlink ref="B202" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
-    <hyperlink ref="C202" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B204" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C204" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B205" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C205" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B203" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B211" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C211" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B212" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C212" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B213" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
+    <hyperlink ref="B159" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
+    <hyperlink ref="C159" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
+    <hyperlink ref="B160" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
+    <hyperlink ref="C160" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
+    <hyperlink ref="B161" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
+    <hyperlink ref="C161" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
+    <hyperlink ref="B162" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
+    <hyperlink ref="C162" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
+    <hyperlink ref="B163" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
+    <hyperlink ref="C163" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
+    <hyperlink ref="B164" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
+    <hyperlink ref="B180" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
+    <hyperlink ref="C180" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
+    <hyperlink ref="B181" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
+    <hyperlink ref="C181" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
+    <hyperlink ref="B182" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
+    <hyperlink ref="C182" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
+    <hyperlink ref="B183" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
+    <hyperlink ref="C183" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
+    <hyperlink ref="B184" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
+    <hyperlink ref="C184" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
+    <hyperlink ref="B185" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
+    <hyperlink ref="C185" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
+    <hyperlink ref="B186" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
+    <hyperlink ref="C186" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
+    <hyperlink ref="B187" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
+    <hyperlink ref="C187" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
+    <hyperlink ref="B188" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
+    <hyperlink ref="C188" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
+    <hyperlink ref="B189" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
+    <hyperlink ref="C189" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
+    <hyperlink ref="B190" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
+    <hyperlink ref="C190" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
+    <hyperlink ref="B191" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
+    <hyperlink ref="C191" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
+    <hyperlink ref="B192" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
+    <hyperlink ref="C192" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
+    <hyperlink ref="B193" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
+    <hyperlink ref="C193" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
+    <hyperlink ref="B195" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
+    <hyperlink ref="C195" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
+    <hyperlink ref="B196" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
+    <hyperlink ref="C196" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
+    <hyperlink ref="B197" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
+    <hyperlink ref="C197" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
+    <hyperlink ref="B198" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
+    <hyperlink ref="C198" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
+    <hyperlink ref="B199" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
+    <hyperlink ref="C199" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
+    <hyperlink ref="B200" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
+    <hyperlink ref="C200" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
+    <hyperlink ref="B201" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
+    <hyperlink ref="C201" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
+    <hyperlink ref="B202" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
+    <hyperlink ref="C202" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
+    <hyperlink ref="B203" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
+    <hyperlink ref="B208" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
+    <hyperlink ref="C208" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
+    <hyperlink ref="B209" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
+    <hyperlink ref="C209" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
+    <hyperlink ref="B210" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
+    <hyperlink ref="C210" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
+    <hyperlink ref="B211" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
+    <hyperlink ref="C211" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
+    <hyperlink ref="B212" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
+    <hyperlink ref="C212" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
+    <hyperlink ref="B213" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
+    <hyperlink ref="C213" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
+    <hyperlink ref="B215" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
+    <hyperlink ref="C215" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
+    <hyperlink ref="B216" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
+    <hyperlink ref="C216" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
+    <hyperlink ref="B214" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
+    <hyperlink ref="B222" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
+    <hyperlink ref="C222" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
+    <hyperlink ref="B223" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
+    <hyperlink ref="C223" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
+    <hyperlink ref="B224" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
     <hyperlink ref="B80" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
     <hyperlink ref="C80" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
     <hyperlink ref="B82" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
@@ -4991,144 +5300,167 @@
     <hyperlink ref="C61" r:id="rId333" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
     <hyperlink ref="B62" r:id="rId334" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
     <hyperlink ref="C62" r:id="rId335" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B219" r:id="rId336" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C219" r:id="rId337" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B220" r:id="rId338" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C220" r:id="rId339" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B221" r:id="rId340" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C221" r:id="rId341" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
-    <hyperlink ref="B223" r:id="rId342" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
-    <hyperlink ref="C223" r:id="rId343" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
-    <hyperlink ref="B229" r:id="rId344" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
-    <hyperlink ref="C229" r:id="rId345" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
-    <hyperlink ref="B228" r:id="rId346" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
-    <hyperlink ref="C228" r:id="rId347" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
-    <hyperlink ref="B230" r:id="rId348" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
-    <hyperlink ref="C230" r:id="rId349" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
-    <hyperlink ref="B235" r:id="rId350" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
-    <hyperlink ref="C235" r:id="rId351" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
-    <hyperlink ref="B236" r:id="rId352" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
-    <hyperlink ref="C236" r:id="rId353" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
-    <hyperlink ref="B237" r:id="rId354" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
-    <hyperlink ref="C237" r:id="rId355" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
-    <hyperlink ref="B238" r:id="rId356" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
-    <hyperlink ref="C238" r:id="rId357" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
-    <hyperlink ref="B239" r:id="rId358" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
-    <hyperlink ref="C239" r:id="rId359" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
-    <hyperlink ref="B240" r:id="rId360" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
-    <hyperlink ref="C240" r:id="rId361" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
-    <hyperlink ref="B241" r:id="rId362" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
-    <hyperlink ref="C241" r:id="rId363" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
-    <hyperlink ref="B242" r:id="rId364" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
-    <hyperlink ref="C242" r:id="rId365" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
-    <hyperlink ref="B243" r:id="rId366" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
-    <hyperlink ref="C243" r:id="rId367" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
-    <hyperlink ref="B244" r:id="rId368" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
-    <hyperlink ref="C244" r:id="rId369" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
-    <hyperlink ref="B245" r:id="rId370" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
-    <hyperlink ref="C245" r:id="rId371" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
-    <hyperlink ref="B246" r:id="rId372" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
-    <hyperlink ref="C246" r:id="rId373" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
-    <hyperlink ref="B247" r:id="rId374" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
-    <hyperlink ref="C247" r:id="rId375" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
-    <hyperlink ref="B248" r:id="rId376" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
-    <hyperlink ref="C248" r:id="rId377" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
-    <hyperlink ref="B249" r:id="rId378" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
-    <hyperlink ref="C249" r:id="rId379" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
-    <hyperlink ref="B250" r:id="rId380" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
-    <hyperlink ref="C250" r:id="rId381" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
-    <hyperlink ref="B251" r:id="rId382" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
-    <hyperlink ref="B258" r:id="rId383" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
-    <hyperlink ref="C258" r:id="rId384" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
-    <hyperlink ref="B259" r:id="rId385" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{156CAAE5-6351-9947-BB71-247BCB4199E4}"/>
-    <hyperlink ref="C259" r:id="rId386" display="https://cspiration.com/login" xr:uid="{B32FCD33-3793-1145-9B85-1C19988C5512}"/>
-    <hyperlink ref="B260" r:id="rId387" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{988FA989-097D-3643-AFD0-51D5DE85FC28}"/>
-    <hyperlink ref="C260" r:id="rId388" display="https://cspiration.com/login" xr:uid="{236098E8-3353-2343-96D1-B31CFD341154}"/>
-    <hyperlink ref="B261" r:id="rId389" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
-    <hyperlink ref="C261" r:id="rId390" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
-    <hyperlink ref="B262" r:id="rId391" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
-    <hyperlink ref="C262" r:id="rId392" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
-    <hyperlink ref="B263" r:id="rId393" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
-    <hyperlink ref="C263" r:id="rId394" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
-    <hyperlink ref="B264" r:id="rId395" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
-    <hyperlink ref="C264" r:id="rId396" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
-    <hyperlink ref="B265" r:id="rId397" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
-    <hyperlink ref="C265" r:id="rId398" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
-    <hyperlink ref="B266" r:id="rId399" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
-    <hyperlink ref="C266" r:id="rId400" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
-    <hyperlink ref="B267" r:id="rId401" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
-    <hyperlink ref="C267" r:id="rId402" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
-    <hyperlink ref="B268" r:id="rId403" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
-    <hyperlink ref="C268" r:id="rId404" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
-    <hyperlink ref="B270" r:id="rId405" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
-    <hyperlink ref="C270" r:id="rId406" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
-    <hyperlink ref="B271" r:id="rId407" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
-    <hyperlink ref="C271" r:id="rId408" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
-    <hyperlink ref="B272" r:id="rId409" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
-    <hyperlink ref="C272" r:id="rId410" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
-    <hyperlink ref="B273" r:id="rId411" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
-    <hyperlink ref="C273" r:id="rId412" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
-    <hyperlink ref="B274" r:id="rId413" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
-    <hyperlink ref="B280" r:id="rId414" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
-    <hyperlink ref="C280" r:id="rId415" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
-    <hyperlink ref="B281" r:id="rId416" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
-    <hyperlink ref="C281" r:id="rId417" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
-    <hyperlink ref="B282" r:id="rId418" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
-    <hyperlink ref="B287" r:id="rId419" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
-    <hyperlink ref="C287" r:id="rId420" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
-    <hyperlink ref="B288" r:id="rId421" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
-    <hyperlink ref="C288" r:id="rId422" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
-    <hyperlink ref="B289" r:id="rId423" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
-    <hyperlink ref="B294" r:id="rId424" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
-    <hyperlink ref="C294" r:id="rId425" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
-    <hyperlink ref="B295" r:id="rId426" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
-    <hyperlink ref="C295" r:id="rId427" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
-    <hyperlink ref="B296" r:id="rId428" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
-    <hyperlink ref="C296" r:id="rId429" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
-    <hyperlink ref="B297" r:id="rId430" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
-    <hyperlink ref="C297" r:id="rId431" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
-    <hyperlink ref="B298" r:id="rId432" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
-    <hyperlink ref="C298" r:id="rId433" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
-    <hyperlink ref="B299" r:id="rId434" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
-    <hyperlink ref="B304" r:id="rId435" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
-    <hyperlink ref="C304" r:id="rId436" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
-    <hyperlink ref="B305" r:id="rId437" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
-    <hyperlink ref="C305" r:id="rId438" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
-    <hyperlink ref="B306" r:id="rId439" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
-    <hyperlink ref="C306" r:id="rId440" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
-    <hyperlink ref="B307" r:id="rId441" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
-    <hyperlink ref="C307" r:id="rId442" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
-    <hyperlink ref="B308" r:id="rId443" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
-    <hyperlink ref="C308" r:id="rId444" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
-    <hyperlink ref="B309" r:id="rId445" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
-    <hyperlink ref="C309" r:id="rId446" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
-    <hyperlink ref="B310" r:id="rId447" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
-    <hyperlink ref="C310" r:id="rId448" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
-    <hyperlink ref="B311" r:id="rId449" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
-    <hyperlink ref="C311" r:id="rId450" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
-    <hyperlink ref="B312" r:id="rId451" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
-    <hyperlink ref="C312" r:id="rId452" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
-    <hyperlink ref="B313" r:id="rId453" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
-    <hyperlink ref="C313" r:id="rId454" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
-    <hyperlink ref="B314" r:id="rId455" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
-    <hyperlink ref="C314" r:id="rId456" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
-    <hyperlink ref="B315" r:id="rId457" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
-    <hyperlink ref="C315" r:id="rId458" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
-    <hyperlink ref="B316" r:id="rId459" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
-    <hyperlink ref="C316" r:id="rId460" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
-    <hyperlink ref="B317" r:id="rId461" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
-    <hyperlink ref="C317" r:id="rId462" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
-    <hyperlink ref="B318" r:id="rId463" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
-    <hyperlink ref="C318" r:id="rId464" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
-    <hyperlink ref="B319" r:id="rId465" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
-    <hyperlink ref="C319" r:id="rId466" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
-    <hyperlink ref="B320" r:id="rId467" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
-    <hyperlink ref="C320" r:id="rId468" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
-    <hyperlink ref="B321" r:id="rId469" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
-    <hyperlink ref="B133" r:id="rId470" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
-    <hyperlink ref="B154" r:id="rId471" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
-    <hyperlink ref="B164" r:id="rId472" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
-    <hyperlink ref="B206" r:id="rId473" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
+    <hyperlink ref="B230" r:id="rId336" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
+    <hyperlink ref="C230" r:id="rId337" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
+    <hyperlink ref="B231" r:id="rId338" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
+    <hyperlink ref="C231" r:id="rId339" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
+    <hyperlink ref="B232" r:id="rId340" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
+    <hyperlink ref="C232" r:id="rId341" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B234" r:id="rId342" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
+    <hyperlink ref="C234" r:id="rId343" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
+    <hyperlink ref="B240" r:id="rId344" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
+    <hyperlink ref="C240" r:id="rId345" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
+    <hyperlink ref="B239" r:id="rId346" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
+    <hyperlink ref="C239" r:id="rId347" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
+    <hyperlink ref="B241" r:id="rId348" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
+    <hyperlink ref="C241" r:id="rId349" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B246" r:id="rId350" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
+    <hyperlink ref="C246" r:id="rId351" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
+    <hyperlink ref="B247" r:id="rId352" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
+    <hyperlink ref="C247" r:id="rId353" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
+    <hyperlink ref="B248" r:id="rId354" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
+    <hyperlink ref="C248" r:id="rId355" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
+    <hyperlink ref="B249" r:id="rId356" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
+    <hyperlink ref="C249" r:id="rId357" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
+    <hyperlink ref="B250" r:id="rId358" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
+    <hyperlink ref="C250" r:id="rId359" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
+    <hyperlink ref="B251" r:id="rId360" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
+    <hyperlink ref="C251" r:id="rId361" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
+    <hyperlink ref="B252" r:id="rId362" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
+    <hyperlink ref="C252" r:id="rId363" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
+    <hyperlink ref="B253" r:id="rId364" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
+    <hyperlink ref="C253" r:id="rId365" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
+    <hyperlink ref="B254" r:id="rId366" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
+    <hyperlink ref="C254" r:id="rId367" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
+    <hyperlink ref="B255" r:id="rId368" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
+    <hyperlink ref="C255" r:id="rId369" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
+    <hyperlink ref="B256" r:id="rId370" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
+    <hyperlink ref="C256" r:id="rId371" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
+    <hyperlink ref="B257" r:id="rId372" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
+    <hyperlink ref="C257" r:id="rId373" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
+    <hyperlink ref="B258" r:id="rId374" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
+    <hyperlink ref="C258" r:id="rId375" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
+    <hyperlink ref="B259" r:id="rId376" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
+    <hyperlink ref="C259" r:id="rId377" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
+    <hyperlink ref="B260" r:id="rId378" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
+    <hyperlink ref="C260" r:id="rId379" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
+    <hyperlink ref="B261" r:id="rId380" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
+    <hyperlink ref="C261" r:id="rId381" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
+    <hyperlink ref="B262" r:id="rId382" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
+    <hyperlink ref="B269" r:id="rId383" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
+    <hyperlink ref="C269" r:id="rId384" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
+    <hyperlink ref="B272" r:id="rId385" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
+    <hyperlink ref="C272" r:id="rId386" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
+    <hyperlink ref="B273" r:id="rId387" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
+    <hyperlink ref="C273" r:id="rId388" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
+    <hyperlink ref="B274" r:id="rId389" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
+    <hyperlink ref="C274" r:id="rId390" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
+    <hyperlink ref="B275" r:id="rId391" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
+    <hyperlink ref="C275" r:id="rId392" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
+    <hyperlink ref="B276" r:id="rId393" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
+    <hyperlink ref="C276" r:id="rId394" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
+    <hyperlink ref="B277" r:id="rId395" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
+    <hyperlink ref="C277" r:id="rId396" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
+    <hyperlink ref="B278" r:id="rId397" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
+    <hyperlink ref="C278" r:id="rId398" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
+    <hyperlink ref="B279" r:id="rId399" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
+    <hyperlink ref="C279" r:id="rId400" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
+    <hyperlink ref="B281" r:id="rId401" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
+    <hyperlink ref="C281" r:id="rId402" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
+    <hyperlink ref="B282" r:id="rId403" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
+    <hyperlink ref="C282" r:id="rId404" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
+    <hyperlink ref="B283" r:id="rId405" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
+    <hyperlink ref="C283" r:id="rId406" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
+    <hyperlink ref="B284" r:id="rId407" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
+    <hyperlink ref="C284" r:id="rId408" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
+    <hyperlink ref="B285" r:id="rId409" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
+    <hyperlink ref="B294" r:id="rId410" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
+    <hyperlink ref="C294" r:id="rId411" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
+    <hyperlink ref="B295" r:id="rId412" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
+    <hyperlink ref="C295" r:id="rId413" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
+    <hyperlink ref="B296" r:id="rId414" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
+    <hyperlink ref="B301" r:id="rId415" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
+    <hyperlink ref="C301" r:id="rId416" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
+    <hyperlink ref="B302" r:id="rId417" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
+    <hyperlink ref="C302" r:id="rId418" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
+    <hyperlink ref="B303" r:id="rId419" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
+    <hyperlink ref="B308" r:id="rId420" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
+    <hyperlink ref="C308" r:id="rId421" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
+    <hyperlink ref="B309" r:id="rId422" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
+    <hyperlink ref="C309" r:id="rId423" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
+    <hyperlink ref="B310" r:id="rId424" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
+    <hyperlink ref="C310" r:id="rId425" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
+    <hyperlink ref="B311" r:id="rId426" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
+    <hyperlink ref="C311" r:id="rId427" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
+    <hyperlink ref="B312" r:id="rId428" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
+    <hyperlink ref="C312" r:id="rId429" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
+    <hyperlink ref="B313" r:id="rId430" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
+    <hyperlink ref="B318" r:id="rId431" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
+    <hyperlink ref="C318" r:id="rId432" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
+    <hyperlink ref="B319" r:id="rId433" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
+    <hyperlink ref="C319" r:id="rId434" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
+    <hyperlink ref="B320" r:id="rId435" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
+    <hyperlink ref="C320" r:id="rId436" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
+    <hyperlink ref="B321" r:id="rId437" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
+    <hyperlink ref="C321" r:id="rId438" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
+    <hyperlink ref="B322" r:id="rId439" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
+    <hyperlink ref="C322" r:id="rId440" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
+    <hyperlink ref="B323" r:id="rId441" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
+    <hyperlink ref="C323" r:id="rId442" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
+    <hyperlink ref="B324" r:id="rId443" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
+    <hyperlink ref="C324" r:id="rId444" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
+    <hyperlink ref="B325" r:id="rId445" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
+    <hyperlink ref="C325" r:id="rId446" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
+    <hyperlink ref="B326" r:id="rId447" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
+    <hyperlink ref="C326" r:id="rId448" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
+    <hyperlink ref="B327" r:id="rId449" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
+    <hyperlink ref="C327" r:id="rId450" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
+    <hyperlink ref="B328" r:id="rId451" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
+    <hyperlink ref="C328" r:id="rId452" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
+    <hyperlink ref="B329" r:id="rId453" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
+    <hyperlink ref="C329" r:id="rId454" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
+    <hyperlink ref="B330" r:id="rId455" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
+    <hyperlink ref="C330" r:id="rId456" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
+    <hyperlink ref="B331" r:id="rId457" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
+    <hyperlink ref="C331" r:id="rId458" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
+    <hyperlink ref="B332" r:id="rId459" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
+    <hyperlink ref="C332" r:id="rId460" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
+    <hyperlink ref="B333" r:id="rId461" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
+    <hyperlink ref="C333" r:id="rId462" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
+    <hyperlink ref="B334" r:id="rId463" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
+    <hyperlink ref="C334" r:id="rId464" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
+    <hyperlink ref="B335" r:id="rId465" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
+    <hyperlink ref="B133" r:id="rId466" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
+    <hyperlink ref="B154" r:id="rId467" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
+    <hyperlink ref="B165" r:id="rId468" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
+    <hyperlink ref="B217" r:id="rId469" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
+    <hyperlink ref="B343" r:id="rId470" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{EB4E5B68-F05A-0C4B-9F53-41E4DBCA4F9E}"/>
+    <hyperlink ref="C343" r:id="rId471" display="https://cspiration.com/login" xr:uid="{CA1BBCD7-117A-A64E-8F77-852F33D02DB2}"/>
+    <hyperlink ref="B344" r:id="rId472" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{5B45788F-BB03-4843-BD6A-B976C9FCAEF1}"/>
+    <hyperlink ref="C344" r:id="rId473" display="https://cspiration.com/login" xr:uid="{551CAD20-3D2A-A64A-B23A-A01403C05DE0}"/>
+    <hyperlink ref="B345" r:id="rId474" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{89F11509-794F-0147-A002-99DBFE4011DC}"/>
+    <hyperlink ref="C345" r:id="rId475" display="https://cspiration.com/login" xr:uid="{A8D71102-8F66-8143-AADE-EC0B951315AF}"/>
+    <hyperlink ref="B346" r:id="rId476" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{A4765584-11DB-8C47-A9D8-28BCD3B3DB04}"/>
+    <hyperlink ref="C346" r:id="rId477" display="https://cspiration.com/login" xr:uid="{67A40D64-8C16-AB40-AF02-EC047B85587D}"/>
+    <hyperlink ref="B347" r:id="rId478" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{1C321054-4E86-0A4C-A5A9-D1503A97B9B0}"/>
+    <hyperlink ref="C347" r:id="rId479" display="https://cspiration.com/login" xr:uid="{4230A88F-C71C-F14B-89AA-04DA1B742A89}"/>
+    <hyperlink ref="B348" r:id="rId480" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{736794C5-518A-194B-A096-354260C26D19}"/>
+    <hyperlink ref="C348" r:id="rId481" display="https://cspiration.com/login" xr:uid="{CC616423-7FF6-4546-BE49-14971E421AB1}"/>
+    <hyperlink ref="B349" r:id="rId482" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{AA2881B4-D507-6C4E-B5AC-66556CE2E240}"/>
+    <hyperlink ref="C349" r:id="rId483" display="https://cspiration.com/login" xr:uid="{497BA16C-CBAB-CD4C-B123-9991F3A2E286}"/>
+    <hyperlink ref="B350" r:id="rId484" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{D78ED803-9C52-3C4E-8DAB-2FE615A62AB4}"/>
+    <hyperlink ref="C350" r:id="rId485" display="https://cspiration.com/login" xr:uid="{A8AD4217-A555-BA44-A724-8A04E7730E30}"/>
+    <hyperlink ref="B351" r:id="rId486" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{39F3DFF8-98F3-604E-9124-DD7F0D40F1B0}"/>
+    <hyperlink ref="C351" r:id="rId487" display="https://cspiration.com/login" xr:uid="{3561FB2C-CD0E-A746-8C4B-80613899C341}"/>
+    <hyperlink ref="B352" r:id="rId488" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{E9195674-DC99-4B46-B0EE-98194075832A}"/>
+    <hyperlink ref="C352" r:id="rId489" display="https://cspiration.com/login" xr:uid="{916F2DEE-639E-C943-A663-2517B8604445}"/>
+    <hyperlink ref="B353" r:id="rId490" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{320B423A-BCFA-CE44-9951-2BD15ECD57E2}"/>
+    <hyperlink ref="B170" r:id="rId491" xr:uid="{600A5416-B5C9-BA47-892A-EE12A30AA3C9}"/>
+    <hyperlink ref="B174" r:id="rId492" xr:uid="{EADB0E54-5800-704D-A97B-CDE42026CFF8}"/>
+    <hyperlink ref="B287" r:id="rId493" xr:uid="{49EE6590-FC3C-C54F-A151-AA1FC6EF5061}"/>
+    <hyperlink ref="B270" r:id="rId494" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{E018DFB4-01AC-F645-8B90-8199997E6DD0}"/>
+    <hyperlink ref="C270" r:id="rId495" display="https://cspiration.com/login" xr:uid="{706E0A6D-CD70-2245-A6EA-B10034698AA6}"/>
+    <hyperlink ref="B271" r:id="rId496" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{0DF8CEC5-24F8-E745-8AEF-C177BA8C38D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE86D7-B59B-3544-85B7-E149783DB13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF15FD9-9255-3E41-99A1-9BD55BA30EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="319">
   <si>
     <t>144</t>
   </si>
@@ -963,6 +963,33 @@
   </si>
   <si>
     <t>Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>132 Pattern</t>
+  </si>
+  <si>
+    <t>Exclusive Time of Functions</t>
+  </si>
+  <si>
+    <t>Asteroid Collision</t>
+  </si>
+  <si>
+    <t>Decoded String at Index</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>面试题 16.07. 最大数值</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:H357"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C271" sqref="C271"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1784,33 +1811,29 @@
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="6">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>76</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -1821,10 +1844,10 @@
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
@@ -1835,10 +1858,10 @@
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>340</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>182</v>
+        <v>3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2</v>
@@ -1849,10 +1872,10 @@
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>395</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>183</v>
+        <v>340</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
@@ -1863,10 +1886,10 @@
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>159</v>
+        <v>395</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -1876,31 +1899,33 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="6">
+        <v>159</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>125</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>266</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>187</v>
+        <v>125</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -1909,10 +1934,10 @@
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>5</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>188</v>
+        <v>266</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
@@ -1921,10 +1946,10 @@
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -1933,10 +1958,10 @@
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -1945,10 +1970,10 @@
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -1957,10 +1982,10 @@
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -1969,10 +1994,10 @@
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -1981,42 +2006,42 @@
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
+        <v>132</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <v>267</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>20</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -2025,10 +2050,10 @@
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>32</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>198</v>
+        <v>22</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
@@ -2037,10 +2062,10 @@
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>2</v>
@@ -2049,42 +2074,42 @@
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
+        <v>241</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
         <v>301</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
-        <v>392</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>115</v>
+        <v>392</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
@@ -2093,50 +2118,50 @@
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
+        <v>115</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
         <v>187</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>94</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2</v>
@@ -2145,10 +2170,10 @@
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2</v>
@@ -2157,42 +2182,42 @@
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
+        <v>145</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>102</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>100</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
@@ -2201,36 +2226,36 @@
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2</v>
@@ -2239,10 +2264,10 @@
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>2</v>
@@ -2251,10 +2276,10 @@
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>2</v>
@@ -2263,10 +2288,10 @@
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>2</v>
@@ -2275,42 +2300,42 @@
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
+        <v>298</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>111</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>104</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
@@ -2319,10 +2344,10 @@
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -2331,10 +2356,10 @@
     </row>
     <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -2343,10 +2368,10 @@
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>366</v>
+        <v>250</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
@@ -2355,44 +2380,44 @@
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
+        <v>366</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>337</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="C88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>107</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -2401,46 +2426,44 @@
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
+        <v>103</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>199</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>98</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
@@ -2451,38 +2474,38 @@
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
@@ -2493,24 +2516,24 @@
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
@@ -2521,66 +2544,66 @@
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
@@ -2590,33 +2613,33 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="1">
+        <v>99</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>116</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
@@ -2627,10 +2650,10 @@
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>314</v>
+        <v>117</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>2</v>
@@ -2641,10 +2664,10 @@
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>2</v>
@@ -2653,8 +2676,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="8"/>
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>96</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" s="8"/>
@@ -2662,42 +2696,33 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" s="8"/>
     </row>
-    <row r="113" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="8"/>
-    </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="6" t="s">
+      <c r="B115" s="7"/>
+      <c r="C115" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D115" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
-        <v>78</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
@@ -2706,10 +2731,10 @@
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
@@ -2718,10 +2743,10 @@
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2</v>
@@ -2730,10 +2755,10 @@
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
@@ -2742,10 +2767,10 @@
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
@@ -2754,36 +2779,36 @@
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
-        <v>377</v>
+        <v>216</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
-        <v>254</v>
+        <v>377</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="6"/>
+      <c r="D122" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
@@ -2792,10 +2817,10 @@
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
@@ -2804,24 +2829,22 @@
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
@@ -2832,22 +2855,24 @@
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
@@ -2856,10 +2881,10 @@
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
@@ -2868,10 +2893,10 @@
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
@@ -2880,10 +2905,10 @@
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>2</v>
@@ -2892,63 +2917,63 @@
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>351</v>
+        <v>140</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="6"/>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
+        <v>351</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
         <v>93</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+    <row r="136" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
-        <v>70</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
       <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2</v>
@@ -2957,10 +2982,10 @@
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2</v>
@@ -2969,10 +2994,10 @@
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>2</v>
@@ -2981,10 +3006,10 @@
     </row>
     <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>2</v>
@@ -2993,10 +3018,10 @@
     </row>
     <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
-        <v>375</v>
+        <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>2</v>
@@ -3005,10 +3030,10 @@
     </row>
     <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>2</v>
@@ -3017,42 +3042,42 @@
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
+        <v>312</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="6">
         <v>322</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
+      <c r="C146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
-        <v>256</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
       <c r="D147" s="6"/>
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
@@ -3061,10 +3086,10 @@
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
@@ -3073,10 +3098,10 @@
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>2</v>
@@ -3085,10 +3110,10 @@
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
@@ -3097,10 +3122,10 @@
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
@@ -3109,10 +3134,10 @@
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
@@ -3121,69 +3146,69 @@
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C154" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C155" s="2"/>
       <c r="D155" s="6"/>
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
+        <v>85</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="6">
         <v>363</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="6" t="s">
+      <c r="C157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D157" s="6"/>
-    </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B158" s="7"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
-        <v>198</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="6"/>
       <c r="D159" s="6"/>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>2</v>
@@ -3192,10 +3217,10 @@
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
@@ -3204,10 +3229,10 @@
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2</v>
@@ -3216,10 +3241,10 @@
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>2</v>
@@ -3228,43 +3253,48 @@
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="6"/>
     </row>
     <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
+        <v>44</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
         <v>1048</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+    <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="6">
-        <v>746</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="2"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
-        <v>1025</v>
+        <v>746</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
-        <v>1139</v>
+        <v>1025</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="2"/>
@@ -3273,92 +3303,87 @@
       <c r="A170" s="6">
         <v>1139</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="B170" s="3"/>
       <c r="C170" s="2"/>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
-        <v>740</v>
+        <v>1139</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
-        <v>464</v>
-      </c>
-      <c r="B172" s="3"/>
+        <v>740</v>
+      </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
-        <v>523</v>
+        <v>464</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
-        <v>956</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B174" s="3"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
+        <v>956</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
         <v>1320</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
       <c r="B176" s="3"/>
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="6"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="6">
-        <v>206</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
       <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
@@ -3367,10 +3392,10 @@
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
@@ -3379,10 +3404,10 @@
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
-        <v>328</v>
+        <v>24</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2</v>
@@ -3391,10 +3416,10 @@
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -3403,10 +3428,10 @@
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
@@ -3415,10 +3440,10 @@
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -3427,10 +3452,10 @@
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>2</v>
@@ -3439,10 +3464,10 @@
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>2</v>
@@ -3451,10 +3476,10 @@
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -3463,10 +3488,10 @@
     </row>
     <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>2</v>
@@ -3475,10 +3500,10 @@
     </row>
     <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>2</v>
@@ -3487,10 +3512,10 @@
     </row>
     <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2</v>
@@ -3499,42 +3524,42 @@
     </row>
     <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
+        <v>160</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="6">
         <v>21</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
+      <c r="C194" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B194" s="7"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A195" s="6">
-        <v>234</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B195" s="7"/>
+      <c r="C195" s="6"/>
       <c r="D195" s="6"/>
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
@@ -3543,10 +3568,10 @@
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
@@ -3555,10 +3580,10 @@
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -3567,10 +3592,10 @@
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
@@ -3579,10 +3604,10 @@
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
@@ -3591,10 +3616,10 @@
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
@@ -3603,10 +3628,10 @@
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
@@ -3615,44 +3640,44 @@
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
+        <v>23</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="6">
         <v>147</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B204" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+    <row r="207" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
+    <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6" t="s">
+      <c r="B208" s="6"/>
+      <c r="C208" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="6">
-        <v>200</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D208" s="6"/>
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
@@ -3661,10 +3686,10 @@
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
@@ -3673,10 +3698,10 @@
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
@@ -3685,10 +3710,10 @@
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
@@ -3697,10 +3722,10 @@
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -3709,30 +3734,30 @@
     </row>
     <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" s="6"/>
     </row>
     <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215" s="6"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>2</v>
@@ -3741,51 +3766,51 @@
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
+        <v>52</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="6">
         <v>1192</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B218" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="6"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+    <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220" s="6"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="6"/>
+    </row>
+    <row r="221" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B220" s="8"/>
-    </row>
-    <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
+      <c r="B221" s="8"/>
+    </row>
+    <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A222" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B221" s="7"/>
-      <c r="C221" s="6" t="s">
+      <c r="B222" s="7"/>
+      <c r="C222" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222" s="6">
-        <v>261</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="6"/>
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
@@ -3794,62 +3819,62 @@
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
+        <v>323</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="6"/>
+    </row>
+    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A225" s="6">
         <v>305</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B225" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B225" s="8"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B226" s="8"/>
     </row>
-    <row r="227" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B227" s="8"/>
+    </row>
+    <row r="228" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B227" s="8"/>
-    </row>
-    <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B228" s="7"/>
-      <c r="C228" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B228" s="8"/>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B229" s="7"/>
+      <c r="C229" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B229" s="7"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-    </row>
-    <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A230" s="6">
-        <v>133</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B230" s="7"/>
+      <c r="C230" s="6"/>
       <c r="D230" s="6"/>
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
@@ -3858,75 +3883,75 @@
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
+        <v>399</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="6"/>
+    </row>
+    <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233" s="6">
         <v>310</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B233" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A233" s="6" t="s">
+      <c r="C233" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="6"/>
+    </row>
+    <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B233" s="7"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-    </row>
-    <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A234" s="6">
+      <c r="B234" s="7"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+    </row>
+    <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="6">
         <v>149</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B235" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B235" s="8"/>
+      <c r="C235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="6"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B236" s="8"/>
     </row>
-    <row r="237" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B237" s="8"/>
+    </row>
+    <row r="238" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B237" s="8"/>
-    </row>
-    <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="6" t="s">
+      <c r="B238" s="8"/>
+    </row>
+    <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B238" s="7"/>
-      <c r="C238" s="6" t="s">
+      <c r="B239" s="7"/>
+      <c r="C239" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="6">
-        <v>208</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -3935,48 +3960,48 @@
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
+        <v>211</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="C241" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="6"/>
+    </row>
+    <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A242" s="6">
+        <v>212</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D241" s="6"/>
-    </row>
-    <row r="244" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A244" s="5" t="s">
+      <c r="C242" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="6"/>
+    </row>
+    <row r="245" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="s">
+    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B245" s="6"/>
-      <c r="C245" s="6" t="s">
+      <c r="B246" s="6"/>
+      <c r="C246" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
-        <v>48</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="6"/>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>2</v>
@@ -3985,10 +4010,10 @@
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>2</v>
@@ -3997,10 +4022,10 @@
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2</v>
@@ -4009,10 +4034,10 @@
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
-        <v>311</v>
+        <v>73</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>2</v>
@@ -4021,10 +4046,10 @@
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>2</v>
@@ -4033,10 +4058,10 @@
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>2</v>
@@ -4045,10 +4070,10 @@
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>2</v>
@@ -4057,10 +4082,10 @@
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>2</v>
@@ -4069,10 +4094,10 @@
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>2</v>
@@ -4081,10 +4106,10 @@
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>2</v>
@@ -4093,10 +4118,10 @@
     </row>
     <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>2</v>
@@ -4105,10 +4130,10 @@
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>2</v>
@@ -4117,10 +4142,10 @@
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>2</v>
@@ -4129,10 +4154,10 @@
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>2</v>
@@ -4141,10 +4166,10 @@
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>2</v>
@@ -4153,83 +4178,83 @@
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
+        <v>36</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="6"/>
+    </row>
+    <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A263" s="6">
         <v>37</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
+    <row r="267" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A267" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6"/>
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A269" s="6">
+      <c r="A269" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+    </row>
+    <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A270" s="6">
         <v>155</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B270" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D269" s="6"/>
-    </row>
-    <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
-        <v>232</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="1"/>
+      <c r="D270" s="6"/>
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
+        <v>232</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
         <v>225</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B272" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A272" s="6">
-        <v>150</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D272" s="6"/>
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>2</v>
@@ -4238,10 +4263,10 @@
     </row>
     <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>2</v>
@@ -4250,10 +4275,10 @@
     </row>
     <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>2</v>
@@ -4262,10 +4287,10 @@
     </row>
     <row r="276" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
-        <v>224</v>
+        <v>394</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>2</v>
@@ -4274,10 +4299,10 @@
     </row>
     <row r="277" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>2</v>
@@ -4286,10 +4311,10 @@
     </row>
     <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>2</v>
@@ -4298,42 +4323,42 @@
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
+        <v>385</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A280" s="6">
         <v>84</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B280" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" s="6"/>
-    </row>
-    <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="s">
+      <c r="C280" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B280" s="7"/>
-      <c r="C280" s="6"/>
-      <c r="D280" s="6"/>
-    </row>
-    <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A281" s="6">
-        <v>215</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B281" s="7"/>
+      <c r="C281" s="6"/>
       <c r="D281" s="6"/>
     </row>
     <row r="282" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>2</v>
@@ -4342,10 +4367,10 @@
     </row>
     <row r="283" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>2</v>
@@ -4354,10 +4379,10 @@
     </row>
     <row r="284" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="6">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>2</v>
@@ -4366,156 +4391,166 @@
     </row>
     <row r="285" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="6">
+        <v>332</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="6">
         <v>341</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B286" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>305</v>
       </c>
-      <c r="B286" s="8"/>
-    </row>
-    <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A287" s="6">
+      <c r="B287" s="8"/>
+    </row>
+    <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A288" s="6">
         <v>1021</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B288" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B288" s="8"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B289" s="8"/>
-    </row>
-    <row r="292" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A292" s="5" t="s">
+    <row r="289" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A289" s="6">
+        <v>456</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A290" s="6">
+        <v>636</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A291" s="6">
+        <v>735</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A292" s="6">
+        <v>880</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A293" s="6"/>
+      <c r="B293" s="3"/>
+    </row>
+    <row r="296" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="s">
+    <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6" t="s">
+      <c r="B297" s="6"/>
+      <c r="C297" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A294" s="6">
+    <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A298" s="6">
         <v>389</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D294" s="6"/>
-    </row>
-    <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A295" s="6">
+      <c r="C298" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" s="6"/>
+    </row>
+    <row r="299" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A299" s="6">
         <v>136</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B299" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C295" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D295" s="6"/>
-    </row>
-    <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A296" s="6">
+      <c r="C299" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D299" s="6"/>
+    </row>
+    <row r="300" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A300" s="6">
         <v>318</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B300" s="3" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A299" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A300" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B300" s="6"/>
-      <c r="C300" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="6">
-        <v>207</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D301" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A302" s="6">
-        <v>210</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D302" s="6"/>
+      <c r="A302" s="6"/>
+      <c r="B302" s="3" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
-        <v>269</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A307" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A304" s="6"/>
+      <c r="B304" s="3"/>
+    </row>
+    <row r="307" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B307" s="6"/>
-      <c r="C307" s="6" t="s">
+      <c r="B308" s="6"/>
+      <c r="C308" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A308" s="6">
-        <v>384</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D308" s="6"/>
     </row>
     <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="6">
-        <v>398</v>
+        <v>207</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>2</v>
@@ -4524,10 +4559,10 @@
     </row>
     <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="6">
-        <v>382</v>
+        <v>210</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>2</v>
@@ -4536,55 +4571,56 @@
     </row>
     <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D311" s="6"/>
-    </row>
-    <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A312" s="6">
-        <v>381</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D312" s="6"/>
-    </row>
-    <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A313" s="6">
-        <v>138</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A316" s="5" t="s">
-        <v>265</v>
-      </c>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A315" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B315" s="6"/>
+      <c r="C315" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A316" s="6">
+        <v>384</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D316" s="6"/>
     </row>
     <row r="317" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A317" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
+      <c r="A317" s="6">
+        <v>398</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D317" s="6"/>
     </row>
     <row r="318" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="6">
-        <v>359</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>266</v>
+        <v>382</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>2</v>
@@ -4593,24 +4629,22 @@
     </row>
     <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="6">
-        <v>346</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>267</v>
+        <v>380</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D319" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="D319" s="6"/>
     </row>
     <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
-        <v>362</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>268</v>
+        <v>381</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>2</v>
@@ -4619,70 +4653,31 @@
     </row>
     <row r="321" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
-        <v>281</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D321" s="6"/>
-    </row>
-    <row r="322" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A322" s="6">
-        <v>284</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D322" s="6"/>
-    </row>
-    <row r="323" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A323" s="6">
-        <v>251</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D323" s="6"/>
-    </row>
-    <row r="324" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A324" s="6">
-        <v>288</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D324" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="325" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A325" s="6">
-        <v>170</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A325" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B325" s="6"/>
+      <c r="C325" s="6"/>
       <c r="D325" s="6"/>
     </row>
     <row r="326" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" s="6">
-        <v>348</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>274</v>
+        <v>359</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>2</v>
@@ -4691,22 +4686,24 @@
     </row>
     <row r="327" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
-        <v>379</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>275</v>
+        <v>346</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D327" s="6"/>
+      <c r="D327" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="328" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
-        <v>353</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>276</v>
+        <v>362</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>2</v>
@@ -4715,10 +4712,10 @@
     </row>
     <row r="329" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
-        <v>146</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>2</v>
@@ -4727,10 +4724,10 @@
     </row>
     <row r="330" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
-        <v>355</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>2</v>
@@ -4739,10 +4736,10 @@
     </row>
     <row r="331" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
-        <v>303</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>279</v>
+        <v>251</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>2</v>
@@ -4751,10 +4748,10 @@
     </row>
     <row r="332" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
-        <v>304</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>2</v>
@@ -4763,167 +4760,167 @@
     </row>
     <row r="333" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D333" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="D333" s="6"/>
     </row>
     <row r="334" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D334" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="D334" s="6"/>
     </row>
     <row r="335" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
-        <v>705</v>
+        <v>379</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>287</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" s="6"/>
+    </row>
+    <row r="336" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A336" s="6">
+        <v>353</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336" s="6"/>
     </row>
     <row r="337" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
+        <v>146</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D337" s="6"/>
+    </row>
+    <row r="338" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A338" s="6">
+        <v>355</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D338" s="6"/>
+    </row>
+    <row r="339" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A339" s="6">
+        <v>303</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D339" s="6"/>
+    </row>
+    <row r="340" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A340" s="6">
+        <v>304</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D340" s="6"/>
+    </row>
+    <row r="341" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A341" s="6">
+        <v>307</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A342" s="6">
+        <v>308</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A343" s="6">
+        <v>705</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A345" s="6">
         <v>3.31</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A338">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346">
         <v>697</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B346" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A341" s="9" t="s">
+    <row r="349" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A349" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A342" s="1" t="s">
+    <row r="350" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
-    </row>
-    <row r="343" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
-        <v>35</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D343" s="1"/>
-    </row>
-    <row r="344" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
-        <v>33</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D344" s="1"/>
-    </row>
-    <row r="345" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
-        <v>81</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D345" s="1"/>
-    </row>
-    <row r="346" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
-        <v>153</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D346" s="1"/>
-    </row>
-    <row r="347" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
-        <v>154</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D347" s="1"/>
-    </row>
-    <row r="348" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
-        <v>162</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D348" s="1"/>
-    </row>
-    <row r="349" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
-        <v>374</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D349" s="1"/>
-    </row>
-    <row r="350" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
-        <v>34</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
     </row>
     <row r="351" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>315</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>299</v>
+        <v>35</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>2</v>
@@ -4932,262 +4929,366 @@
     </row>
     <row r="352" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
+        <v>33</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>81</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>153</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>154</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>162</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>374</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>34</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>315</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
         <v>300</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B360" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D352" s="1"/>
-    </row>
-    <row r="353" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
+      <c r="C360" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
         <v>354</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B361" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A356" s="9" t="s">
+    <row r="362" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>4</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A364" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365">
         <v>500</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B365" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" display="https://leetcode.com/problems/permutation-sequence/description/" xr:uid="{7470F00A-0C28-9542-8BB8-840C29E37DA8}"/>
-    <hyperlink ref="C126" r:id="rId2" display="https://cspiration.com/login" xr:uid="{E339835C-3FF5-154D-83A5-D922A203F2B3}"/>
-    <hyperlink ref="B127" r:id="rId3" display="https://leetcode.com/problems/word-pattern-ii/description/" xr:uid="{475D2E19-9E2A-5A40-9967-744727496941}"/>
-    <hyperlink ref="C127" r:id="rId4" display="https://cspiration.com/login" xr:uid="{EE42A40A-13BC-BE4B-A326-E559CD4D7078}"/>
-    <hyperlink ref="B128" r:id="rId5" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/" xr:uid="{8410A8D8-2A96-2545-A707-B152E3483747}"/>
-    <hyperlink ref="C128" r:id="rId6" display="https://cspiration.com/login" xr:uid="{36FD5254-8C9A-0E48-AFDE-6B5494DFC976}"/>
-    <hyperlink ref="B129" r:id="rId7" display="https://leetcode.com/problems/generalized-abbreviation/description/" xr:uid="{A694FCD3-9DE6-C040-AE34-B16162B92776}"/>
-    <hyperlink ref="C129" r:id="rId8" display="https://cspiration.com/login" xr:uid="{C42B1CFF-4402-C94B-A66E-E0E82DDAA67D}"/>
-    <hyperlink ref="B130" r:id="rId9" display="https://leetcode.com/problems/expression-add-operators/description/" xr:uid="{C3D6AF2C-B408-D844-B031-4DA29F73A880}"/>
-    <hyperlink ref="C130" r:id="rId10" display="https://cspiration.com/login" xr:uid="{5902E035-85D4-EF41-889F-43801918206D}"/>
-    <hyperlink ref="B131" r:id="rId11" display="https://leetcode.com/problems/word-break-ii/description/" xr:uid="{C875713A-B2BF-C74B-AF74-39845CD139B9}"/>
-    <hyperlink ref="C131" r:id="rId12" display="https://cspiration.com/login" xr:uid="{05136ABA-F832-6444-9448-22BAD9D990D5}"/>
-    <hyperlink ref="B132" r:id="rId13" display="https://leetcode.com/problems/android-unlock-patterns/description/" xr:uid="{D4D2A625-1C06-594E-9061-782BDAF31A24}"/>
-    <hyperlink ref="B138" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/description/" xr:uid="{EBAE420C-2F6E-2947-9A9A-EC2C6413488B}"/>
-    <hyperlink ref="C138" r:id="rId15" display="https://cspiration.com/login" xr:uid="{1553DB48-9774-2A44-8A95-6A09994C2802}"/>
-    <hyperlink ref="B139" r:id="rId16" display="https://leetcode.com/problems/unique-paths/description/" xr:uid="{95F59D7D-71AD-9C45-8332-BEEF446345DD}"/>
-    <hyperlink ref="C139" r:id="rId17" display="https://cspiration.com/login" xr:uid="{B50BC24B-E5ED-224E-BBD2-FEDB59A4B9C8}"/>
-    <hyperlink ref="B140" r:id="rId18" display="https://leetcode.com/problems/unique-paths-ii/description/" xr:uid="{3C785738-AF2C-7D49-A676-40642165F7E9}"/>
-    <hyperlink ref="C140" r:id="rId19" display="https://cspiration.com/login" xr:uid="{D139F891-E2F5-8A4E-845C-1152D649243B}"/>
-    <hyperlink ref="B141" r:id="rId20" display="https://leetcode.com/problems/perfect-squares/description/" xr:uid="{F1E40C95-00F8-2849-9001-A228CD479539}"/>
-    <hyperlink ref="C141" r:id="rId21" display="https://cspiration.com/login" xr:uid="{3D8A92E9-FB93-4E49-B14B-A18B499D0787}"/>
-    <hyperlink ref="B142" r:id="rId22" display="https://leetcode.com/problems/word-break/" xr:uid="{1C41DBB7-6CCE-FD4D-A267-F78FE233940D}"/>
-    <hyperlink ref="C142" r:id="rId23" display="https://cspiration.com/login" xr:uid="{CDE6F565-251B-2E45-9223-1D578CC89854}"/>
-    <hyperlink ref="B143" r:id="rId24" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/description/" xr:uid="{415C0B92-011D-5446-AA9F-D55206245A9E}"/>
-    <hyperlink ref="C143" r:id="rId25" display="https://cspiration.com/login" xr:uid="{6342F0B5-FAE1-9549-B0EB-BA4B9151C6A6}"/>
-    <hyperlink ref="B144" r:id="rId26" display="https://leetcode.com/problems/burst-balloons/description/" xr:uid="{462BC2C3-5EF9-0B45-B0B5-AD50E1D72B3E}"/>
-    <hyperlink ref="C144" r:id="rId27" display="https://cspiration.com/login" xr:uid="{7CC75275-A0BF-C447-8C55-0AB512699970}"/>
-    <hyperlink ref="B145" r:id="rId28" display="https://leetcode.com/problems/coin-change/description/" xr:uid="{4751D5B9-78E7-1647-A94D-B787C4C6DAC8}"/>
-    <hyperlink ref="C145" r:id="rId29" display="https://cspiration.com/login" xr:uid="{28C04F21-7959-C243-A6A5-4EEA9824A11F}"/>
-    <hyperlink ref="B147" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
-    <hyperlink ref="C147" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
-    <hyperlink ref="B148" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
-    <hyperlink ref="C148" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
-    <hyperlink ref="B149" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
-    <hyperlink ref="C149" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
-    <hyperlink ref="B150" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
-    <hyperlink ref="C150" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
-    <hyperlink ref="B151" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
-    <hyperlink ref="C151" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
-    <hyperlink ref="B152" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
-    <hyperlink ref="C152" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
-    <hyperlink ref="B153" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
-    <hyperlink ref="C153" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
-    <hyperlink ref="B155" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
-    <hyperlink ref="C155" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
-    <hyperlink ref="B156" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
-    <hyperlink ref="C156" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
-    <hyperlink ref="B159" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
-    <hyperlink ref="C159" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
-    <hyperlink ref="B160" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
-    <hyperlink ref="C160" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
-    <hyperlink ref="B161" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
-    <hyperlink ref="C161" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
-    <hyperlink ref="B162" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
-    <hyperlink ref="C162" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
-    <hyperlink ref="B163" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
-    <hyperlink ref="C163" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
-    <hyperlink ref="B164" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
-    <hyperlink ref="B180" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
-    <hyperlink ref="C180" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
-    <hyperlink ref="B181" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
-    <hyperlink ref="C181" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
-    <hyperlink ref="B182" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
-    <hyperlink ref="C182" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
-    <hyperlink ref="B183" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
-    <hyperlink ref="C183" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
-    <hyperlink ref="B184" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
-    <hyperlink ref="C184" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
-    <hyperlink ref="B185" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
-    <hyperlink ref="C185" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
-    <hyperlink ref="B186" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
-    <hyperlink ref="C186" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
-    <hyperlink ref="B187" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
-    <hyperlink ref="C187" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
-    <hyperlink ref="B188" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
-    <hyperlink ref="C188" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
-    <hyperlink ref="B189" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
-    <hyperlink ref="C189" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
-    <hyperlink ref="B190" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
-    <hyperlink ref="C190" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
-    <hyperlink ref="B191" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
-    <hyperlink ref="C191" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
-    <hyperlink ref="B192" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
-    <hyperlink ref="C192" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
-    <hyperlink ref="B193" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
-    <hyperlink ref="C193" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
-    <hyperlink ref="B195" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
-    <hyperlink ref="C195" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
-    <hyperlink ref="B196" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
-    <hyperlink ref="C196" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
-    <hyperlink ref="B197" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
-    <hyperlink ref="C197" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
-    <hyperlink ref="B198" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
-    <hyperlink ref="C198" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
-    <hyperlink ref="B199" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
-    <hyperlink ref="C199" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
-    <hyperlink ref="B200" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
-    <hyperlink ref="C200" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
-    <hyperlink ref="B201" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
-    <hyperlink ref="C201" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
-    <hyperlink ref="B202" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
-    <hyperlink ref="C202" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
-    <hyperlink ref="B203" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
-    <hyperlink ref="B208" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
-    <hyperlink ref="C208" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
-    <hyperlink ref="B209" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
-    <hyperlink ref="C209" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
-    <hyperlink ref="B210" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
-    <hyperlink ref="C210" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
-    <hyperlink ref="B211" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
-    <hyperlink ref="C211" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
-    <hyperlink ref="B212" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
-    <hyperlink ref="C212" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
-    <hyperlink ref="B213" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
-    <hyperlink ref="C213" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B215" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C215" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B216" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C216" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B214" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B222" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C222" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B223" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C223" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B224" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
-    <hyperlink ref="B80" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
-    <hyperlink ref="C80" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
-    <hyperlink ref="B82" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
-    <hyperlink ref="C82" r:id="rId129" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
-    <hyperlink ref="B83" r:id="rId130" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
-    <hyperlink ref="C83" r:id="rId131" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
-    <hyperlink ref="B84" r:id="rId132" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
-    <hyperlink ref="C84" r:id="rId133" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
-    <hyperlink ref="B85" r:id="rId134" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
-    <hyperlink ref="C85" r:id="rId135" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
-    <hyperlink ref="B86" r:id="rId136" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
-    <hyperlink ref="C86" r:id="rId137" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
-    <hyperlink ref="B87" r:id="rId138" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
-    <hyperlink ref="C87" r:id="rId139" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
-    <hyperlink ref="B89" r:id="rId140" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
-    <hyperlink ref="C89" r:id="rId141" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
-    <hyperlink ref="B90" r:id="rId142" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
-    <hyperlink ref="C90" r:id="rId143" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
-    <hyperlink ref="B91" r:id="rId144" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
-    <hyperlink ref="C91" r:id="rId145" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
-    <hyperlink ref="B93" r:id="rId146" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
-    <hyperlink ref="C93" r:id="rId147" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
-    <hyperlink ref="B94" r:id="rId148" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
-    <hyperlink ref="C94" r:id="rId149" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
-    <hyperlink ref="B95" r:id="rId150" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
-    <hyperlink ref="C95" r:id="rId151" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
-    <hyperlink ref="B96" r:id="rId152" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
-    <hyperlink ref="C96" r:id="rId153" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
-    <hyperlink ref="B97" r:id="rId154" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
-    <hyperlink ref="C97" r:id="rId155" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
-    <hyperlink ref="B98" r:id="rId156" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
-    <hyperlink ref="C98" r:id="rId157" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
-    <hyperlink ref="B99" r:id="rId158" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
-    <hyperlink ref="C99" r:id="rId159" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
-    <hyperlink ref="B100" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
-    <hyperlink ref="C100" r:id="rId161" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
-    <hyperlink ref="B101" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
-    <hyperlink ref="C101" r:id="rId163" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
-    <hyperlink ref="B102" r:id="rId164" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
-    <hyperlink ref="C102" r:id="rId165" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
-    <hyperlink ref="B103" r:id="rId166" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
-    <hyperlink ref="C103" r:id="rId167" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
-    <hyperlink ref="B104" r:id="rId168" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
-    <hyperlink ref="C104" r:id="rId169" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
-    <hyperlink ref="B106" r:id="rId170" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
-    <hyperlink ref="C106" r:id="rId171" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
-    <hyperlink ref="B107" r:id="rId172" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
-    <hyperlink ref="C107" r:id="rId173" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
-    <hyperlink ref="B108" r:id="rId174" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
-    <hyperlink ref="C108" r:id="rId175" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
-    <hyperlink ref="B109" r:id="rId176" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
-    <hyperlink ref="C109" r:id="rId177" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
-    <hyperlink ref="B115" r:id="rId178" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
-    <hyperlink ref="C115" r:id="rId179" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
-    <hyperlink ref="B116" r:id="rId180" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
-    <hyperlink ref="C116" r:id="rId181" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
-    <hyperlink ref="B117" r:id="rId182" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
-    <hyperlink ref="C117" r:id="rId183" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
-    <hyperlink ref="B118" r:id="rId184" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
-    <hyperlink ref="C118" r:id="rId185" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
-    <hyperlink ref="B119" r:id="rId186" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
-    <hyperlink ref="C119" r:id="rId187" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
-    <hyperlink ref="B120" r:id="rId188" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
-    <hyperlink ref="C120" r:id="rId189" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
-    <hyperlink ref="B121" r:id="rId190" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
-    <hyperlink ref="C121" r:id="rId191" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
-    <hyperlink ref="B122" r:id="rId192" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
-    <hyperlink ref="C122" r:id="rId193" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
-    <hyperlink ref="B123" r:id="rId194" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
-    <hyperlink ref="C123" r:id="rId195" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
-    <hyperlink ref="B124" r:id="rId196" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
-    <hyperlink ref="C124" r:id="rId197" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
-    <hyperlink ref="B125" r:id="rId198" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
-    <hyperlink ref="C125" r:id="rId199" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
-    <hyperlink ref="C79" r:id="rId200" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
-    <hyperlink ref="B79" r:id="rId201" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
-    <hyperlink ref="C78" r:id="rId202" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
-    <hyperlink ref="B78" r:id="rId203" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
-    <hyperlink ref="C77" r:id="rId204" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
-    <hyperlink ref="B77" r:id="rId205" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
-    <hyperlink ref="C76" r:id="rId206" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
-    <hyperlink ref="B76" r:id="rId207" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
-    <hyperlink ref="C75" r:id="rId208" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
-    <hyperlink ref="B75" r:id="rId209" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
-    <hyperlink ref="C74" r:id="rId210" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
-    <hyperlink ref="B74" r:id="rId211" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
-    <hyperlink ref="C73" r:id="rId212" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
-    <hyperlink ref="B73" r:id="rId213" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
-    <hyperlink ref="C72" r:id="rId214" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
-    <hyperlink ref="B72" r:id="rId215" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
-    <hyperlink ref="C70" r:id="rId216" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
-    <hyperlink ref="B70" r:id="rId217" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
-    <hyperlink ref="C69" r:id="rId218" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
-    <hyperlink ref="B69" r:id="rId219" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
-    <hyperlink ref="C68" r:id="rId220" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
-    <hyperlink ref="B68" r:id="rId221" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
-    <hyperlink ref="C67" r:id="rId222" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
-    <hyperlink ref="B67" r:id="rId223" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
+    <hyperlink ref="B127" r:id="rId1" display="https://leetcode.com/problems/permutation-sequence/description/" xr:uid="{7470F00A-0C28-9542-8BB8-840C29E37DA8}"/>
+    <hyperlink ref="C127" r:id="rId2" display="https://cspiration.com/login" xr:uid="{E339835C-3FF5-154D-83A5-D922A203F2B3}"/>
+    <hyperlink ref="B128" r:id="rId3" display="https://leetcode.com/problems/word-pattern-ii/description/" xr:uid="{475D2E19-9E2A-5A40-9967-744727496941}"/>
+    <hyperlink ref="C128" r:id="rId4" display="https://cspiration.com/login" xr:uid="{EE42A40A-13BC-BE4B-A326-E559CD4D7078}"/>
+    <hyperlink ref="B129" r:id="rId5" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/" xr:uid="{8410A8D8-2A96-2545-A707-B152E3483747}"/>
+    <hyperlink ref="C129" r:id="rId6" display="https://cspiration.com/login" xr:uid="{36FD5254-8C9A-0E48-AFDE-6B5494DFC976}"/>
+    <hyperlink ref="B130" r:id="rId7" display="https://leetcode.com/problems/generalized-abbreviation/description/" xr:uid="{A694FCD3-9DE6-C040-AE34-B16162B92776}"/>
+    <hyperlink ref="C130" r:id="rId8" display="https://cspiration.com/login" xr:uid="{C42B1CFF-4402-C94B-A66E-E0E82DDAA67D}"/>
+    <hyperlink ref="B131" r:id="rId9" display="https://leetcode.com/problems/expression-add-operators/description/" xr:uid="{C3D6AF2C-B408-D844-B031-4DA29F73A880}"/>
+    <hyperlink ref="C131" r:id="rId10" display="https://cspiration.com/login" xr:uid="{5902E035-85D4-EF41-889F-43801918206D}"/>
+    <hyperlink ref="B132" r:id="rId11" display="https://leetcode.com/problems/word-break-ii/description/" xr:uid="{C875713A-B2BF-C74B-AF74-39845CD139B9}"/>
+    <hyperlink ref="C132" r:id="rId12" display="https://cspiration.com/login" xr:uid="{05136ABA-F832-6444-9448-22BAD9D990D5}"/>
+    <hyperlink ref="B133" r:id="rId13" display="https://leetcode.com/problems/android-unlock-patterns/description/" xr:uid="{D4D2A625-1C06-594E-9061-782BDAF31A24}"/>
+    <hyperlink ref="B139" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/description/" xr:uid="{EBAE420C-2F6E-2947-9A9A-EC2C6413488B}"/>
+    <hyperlink ref="C139" r:id="rId15" display="https://cspiration.com/login" xr:uid="{1553DB48-9774-2A44-8A95-6A09994C2802}"/>
+    <hyperlink ref="B140" r:id="rId16" display="https://leetcode.com/problems/unique-paths/description/" xr:uid="{95F59D7D-71AD-9C45-8332-BEEF446345DD}"/>
+    <hyperlink ref="C140" r:id="rId17" display="https://cspiration.com/login" xr:uid="{B50BC24B-E5ED-224E-BBD2-FEDB59A4B9C8}"/>
+    <hyperlink ref="B141" r:id="rId18" display="https://leetcode.com/problems/unique-paths-ii/description/" xr:uid="{3C785738-AF2C-7D49-A676-40642165F7E9}"/>
+    <hyperlink ref="C141" r:id="rId19" display="https://cspiration.com/login" xr:uid="{D139F891-E2F5-8A4E-845C-1152D649243B}"/>
+    <hyperlink ref="B142" r:id="rId20" display="https://leetcode.com/problems/perfect-squares/description/" xr:uid="{F1E40C95-00F8-2849-9001-A228CD479539}"/>
+    <hyperlink ref="C142" r:id="rId21" display="https://cspiration.com/login" xr:uid="{3D8A92E9-FB93-4E49-B14B-A18B499D0787}"/>
+    <hyperlink ref="B143" r:id="rId22" display="https://leetcode.com/problems/word-break/" xr:uid="{1C41DBB7-6CCE-FD4D-A267-F78FE233940D}"/>
+    <hyperlink ref="C143" r:id="rId23" display="https://cspiration.com/login" xr:uid="{CDE6F565-251B-2E45-9223-1D578CC89854}"/>
+    <hyperlink ref="B144" r:id="rId24" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/description/" xr:uid="{415C0B92-011D-5446-AA9F-D55206245A9E}"/>
+    <hyperlink ref="C144" r:id="rId25" display="https://cspiration.com/login" xr:uid="{6342F0B5-FAE1-9549-B0EB-BA4B9151C6A6}"/>
+    <hyperlink ref="B145" r:id="rId26" display="https://leetcode.com/problems/burst-balloons/description/" xr:uid="{462BC2C3-5EF9-0B45-B0B5-AD50E1D72B3E}"/>
+    <hyperlink ref="C145" r:id="rId27" display="https://cspiration.com/login" xr:uid="{7CC75275-A0BF-C447-8C55-0AB512699970}"/>
+    <hyperlink ref="B146" r:id="rId28" display="https://leetcode.com/problems/coin-change/description/" xr:uid="{4751D5B9-78E7-1647-A94D-B787C4C6DAC8}"/>
+    <hyperlink ref="C146" r:id="rId29" display="https://cspiration.com/login" xr:uid="{28C04F21-7959-C243-A6A5-4EEA9824A11F}"/>
+    <hyperlink ref="B148" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
+    <hyperlink ref="C148" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
+    <hyperlink ref="B149" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
+    <hyperlink ref="C149" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
+    <hyperlink ref="B150" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
+    <hyperlink ref="C150" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
+    <hyperlink ref="B151" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
+    <hyperlink ref="C151" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
+    <hyperlink ref="B152" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
+    <hyperlink ref="C152" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
+    <hyperlink ref="B153" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
+    <hyperlink ref="C153" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
+    <hyperlink ref="B154" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
+    <hyperlink ref="C154" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
+    <hyperlink ref="B156" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
+    <hyperlink ref="C156" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
+    <hyperlink ref="B157" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
+    <hyperlink ref="C157" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
+    <hyperlink ref="B160" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
+    <hyperlink ref="C160" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
+    <hyperlink ref="B161" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
+    <hyperlink ref="C161" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
+    <hyperlink ref="B162" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
+    <hyperlink ref="C162" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
+    <hyperlink ref="B163" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
+    <hyperlink ref="C163" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
+    <hyperlink ref="B164" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
+    <hyperlink ref="C164" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
+    <hyperlink ref="B165" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
+    <hyperlink ref="B181" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
+    <hyperlink ref="C181" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
+    <hyperlink ref="B182" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
+    <hyperlink ref="C182" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
+    <hyperlink ref="B183" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
+    <hyperlink ref="C183" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
+    <hyperlink ref="B184" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
+    <hyperlink ref="C184" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
+    <hyperlink ref="B185" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
+    <hyperlink ref="C185" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
+    <hyperlink ref="B186" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
+    <hyperlink ref="C186" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
+    <hyperlink ref="B187" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
+    <hyperlink ref="C187" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
+    <hyperlink ref="B188" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
+    <hyperlink ref="C188" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
+    <hyperlink ref="B189" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
+    <hyperlink ref="C189" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
+    <hyperlink ref="B190" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
+    <hyperlink ref="C190" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
+    <hyperlink ref="B191" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
+    <hyperlink ref="C191" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
+    <hyperlink ref="B192" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
+    <hyperlink ref="C192" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
+    <hyperlink ref="B193" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
+    <hyperlink ref="C193" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
+    <hyperlink ref="B194" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
+    <hyperlink ref="C194" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
+    <hyperlink ref="B196" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
+    <hyperlink ref="C196" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
+    <hyperlink ref="B197" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
+    <hyperlink ref="C197" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
+    <hyperlink ref="B198" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
+    <hyperlink ref="C198" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
+    <hyperlink ref="B199" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
+    <hyperlink ref="C199" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
+    <hyperlink ref="B200" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
+    <hyperlink ref="C200" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
+    <hyperlink ref="B201" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
+    <hyperlink ref="C201" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
+    <hyperlink ref="B202" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
+    <hyperlink ref="C202" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
+    <hyperlink ref="B203" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
+    <hyperlink ref="C203" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
+    <hyperlink ref="B204" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
+    <hyperlink ref="B209" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
+    <hyperlink ref="C209" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
+    <hyperlink ref="B210" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
+    <hyperlink ref="C210" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
+    <hyperlink ref="B211" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
+    <hyperlink ref="C211" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
+    <hyperlink ref="B212" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
+    <hyperlink ref="C212" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
+    <hyperlink ref="B213" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
+    <hyperlink ref="C213" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
+    <hyperlink ref="B214" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
+    <hyperlink ref="C214" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
+    <hyperlink ref="B216" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
+    <hyperlink ref="C216" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
+    <hyperlink ref="B217" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
+    <hyperlink ref="C217" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
+    <hyperlink ref="B215" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
+    <hyperlink ref="B223" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
+    <hyperlink ref="C223" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
+    <hyperlink ref="B224" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
+    <hyperlink ref="C224" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
+    <hyperlink ref="B225" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
+    <hyperlink ref="B81" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
+    <hyperlink ref="C81" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
+    <hyperlink ref="B83" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
+    <hyperlink ref="C83" r:id="rId129" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
+    <hyperlink ref="B84" r:id="rId130" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
+    <hyperlink ref="C84" r:id="rId131" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
+    <hyperlink ref="B85" r:id="rId132" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
+    <hyperlink ref="C85" r:id="rId133" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
+    <hyperlink ref="B86" r:id="rId134" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
+    <hyperlink ref="C86" r:id="rId135" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
+    <hyperlink ref="B87" r:id="rId136" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
+    <hyperlink ref="C87" r:id="rId137" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
+    <hyperlink ref="B88" r:id="rId138" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
+    <hyperlink ref="C88" r:id="rId139" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
+    <hyperlink ref="B90" r:id="rId140" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
+    <hyperlink ref="C90" r:id="rId141" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
+    <hyperlink ref="B91" r:id="rId142" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
+    <hyperlink ref="C91" r:id="rId143" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
+    <hyperlink ref="B92" r:id="rId144" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
+    <hyperlink ref="C92" r:id="rId145" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
+    <hyperlink ref="B94" r:id="rId146" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
+    <hyperlink ref="C94" r:id="rId147" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
+    <hyperlink ref="B95" r:id="rId148" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
+    <hyperlink ref="C95" r:id="rId149" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
+    <hyperlink ref="B96" r:id="rId150" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
+    <hyperlink ref="C96" r:id="rId151" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
+    <hyperlink ref="B97" r:id="rId152" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
+    <hyperlink ref="C97" r:id="rId153" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
+    <hyperlink ref="B98" r:id="rId154" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
+    <hyperlink ref="C98" r:id="rId155" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
+    <hyperlink ref="B99" r:id="rId156" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
+    <hyperlink ref="C99" r:id="rId157" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
+    <hyperlink ref="B100" r:id="rId158" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
+    <hyperlink ref="C100" r:id="rId159" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
+    <hyperlink ref="B101" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
+    <hyperlink ref="C101" r:id="rId161" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
+    <hyperlink ref="B102" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
+    <hyperlink ref="C102" r:id="rId163" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
+    <hyperlink ref="B103" r:id="rId164" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
+    <hyperlink ref="C103" r:id="rId165" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
+    <hyperlink ref="B104" r:id="rId166" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
+    <hyperlink ref="C104" r:id="rId167" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
+    <hyperlink ref="B105" r:id="rId168" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
+    <hyperlink ref="C105" r:id="rId169" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
+    <hyperlink ref="B107" r:id="rId170" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
+    <hyperlink ref="C107" r:id="rId171" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
+    <hyperlink ref="B108" r:id="rId172" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
+    <hyperlink ref="C108" r:id="rId173" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
+    <hyperlink ref="B109" r:id="rId174" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
+    <hyperlink ref="C109" r:id="rId175" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
+    <hyperlink ref="B110" r:id="rId176" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
+    <hyperlink ref="C110" r:id="rId177" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
+    <hyperlink ref="B116" r:id="rId178" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
+    <hyperlink ref="C116" r:id="rId179" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
+    <hyperlink ref="B117" r:id="rId180" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
+    <hyperlink ref="C117" r:id="rId181" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
+    <hyperlink ref="B118" r:id="rId182" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
+    <hyperlink ref="C118" r:id="rId183" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
+    <hyperlink ref="B119" r:id="rId184" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
+    <hyperlink ref="C119" r:id="rId185" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
+    <hyperlink ref="B120" r:id="rId186" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
+    <hyperlink ref="C120" r:id="rId187" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
+    <hyperlink ref="B121" r:id="rId188" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
+    <hyperlink ref="C121" r:id="rId189" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
+    <hyperlink ref="B122" r:id="rId190" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
+    <hyperlink ref="C122" r:id="rId191" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
+    <hyperlink ref="B123" r:id="rId192" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
+    <hyperlink ref="C123" r:id="rId193" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
+    <hyperlink ref="B124" r:id="rId194" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
+    <hyperlink ref="C124" r:id="rId195" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
+    <hyperlink ref="B125" r:id="rId196" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
+    <hyperlink ref="C125" r:id="rId197" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
+    <hyperlink ref="B126" r:id="rId198" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
+    <hyperlink ref="C126" r:id="rId199" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
+    <hyperlink ref="C80" r:id="rId200" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
+    <hyperlink ref="B80" r:id="rId201" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
+    <hyperlink ref="C79" r:id="rId202" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
+    <hyperlink ref="B79" r:id="rId203" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
+    <hyperlink ref="C78" r:id="rId204" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
+    <hyperlink ref="B78" r:id="rId205" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
+    <hyperlink ref="C77" r:id="rId206" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
+    <hyperlink ref="B77" r:id="rId207" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
+    <hyperlink ref="C76" r:id="rId208" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
+    <hyperlink ref="B76" r:id="rId209" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
+    <hyperlink ref="C75" r:id="rId210" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
+    <hyperlink ref="B75" r:id="rId211" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
+    <hyperlink ref="C74" r:id="rId212" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
+    <hyperlink ref="B74" r:id="rId213" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
+    <hyperlink ref="C73" r:id="rId214" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
+    <hyperlink ref="B73" r:id="rId215" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
+    <hyperlink ref="C71" r:id="rId216" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
+    <hyperlink ref="B71" r:id="rId217" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
+    <hyperlink ref="C70" r:id="rId218" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
+    <hyperlink ref="B70" r:id="rId219" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
+    <hyperlink ref="C69" r:id="rId220" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
+    <hyperlink ref="B69" r:id="rId221" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
+    <hyperlink ref="C68" r:id="rId222" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
+    <hyperlink ref="B68" r:id="rId223" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
     <hyperlink ref="B2" r:id="rId224" display="https://leetcode.com/problems/implement-strstr/description/" xr:uid="{D540EA7C-EB08-D54A-8BA0-D2BF3C8D7159}"/>
     <hyperlink ref="C2" r:id="rId225" display="https://cspiration.com/login" xr:uid="{8D4BEA64-F28F-194D-9BCA-1A1995FE751F}"/>
     <hyperlink ref="B3" r:id="rId226" display="https://leetcode.com/problems/longest-common-prefix/description/" xr:uid="{4B66E93E-437A-C447-9D2D-14431C4B5C0D}"/>
@@ -5254,213 +5355,222 @@
     <hyperlink ref="C34" r:id="rId287" display="https://cspiration.com/login" xr:uid="{2F20FF9D-1F78-994B-9CE5-4B009BFBECC5}"/>
     <hyperlink ref="B35" r:id="rId288" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{5B3E385E-B11A-C64D-8285-B8177A8BCDA4}"/>
     <hyperlink ref="C35" r:id="rId289" display="https://cspiration.com/login" xr:uid="{B24A14A7-52F4-E249-B609-37F1D91D19AF}"/>
-    <hyperlink ref="B37" r:id="rId290" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
-    <hyperlink ref="C37" r:id="rId291" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
-    <hyperlink ref="B38" r:id="rId292" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
-    <hyperlink ref="C38" r:id="rId293" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
-    <hyperlink ref="B39" r:id="rId294" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
-    <hyperlink ref="C39" r:id="rId295" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
-    <hyperlink ref="B40" r:id="rId296" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
-    <hyperlink ref="C40" r:id="rId297" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
-    <hyperlink ref="B41" r:id="rId298" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
-    <hyperlink ref="C41" r:id="rId299" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
-    <hyperlink ref="B42" r:id="rId300" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
-    <hyperlink ref="C42" r:id="rId301" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
-    <hyperlink ref="B44" r:id="rId302" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
-    <hyperlink ref="C44" r:id="rId303" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
-    <hyperlink ref="B45" r:id="rId304" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
-    <hyperlink ref="C45" r:id="rId305" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
-    <hyperlink ref="B46" r:id="rId306" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
-    <hyperlink ref="C46" r:id="rId307" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
-    <hyperlink ref="B47" r:id="rId308" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
-    <hyperlink ref="C47" r:id="rId309" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
-    <hyperlink ref="B48" r:id="rId310" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
-    <hyperlink ref="C48" r:id="rId311" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
-    <hyperlink ref="B49" r:id="rId312" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
-    <hyperlink ref="C49" r:id="rId313" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
-    <hyperlink ref="B50" r:id="rId314" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
-    <hyperlink ref="C50" r:id="rId315" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
-    <hyperlink ref="B51" r:id="rId316" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
-    <hyperlink ref="C51" r:id="rId317" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
-    <hyperlink ref="B52" r:id="rId318" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
-    <hyperlink ref="C52" r:id="rId319" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
-    <hyperlink ref="B54" r:id="rId320" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
-    <hyperlink ref="C54" r:id="rId321" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
-    <hyperlink ref="B55" r:id="rId322" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
-    <hyperlink ref="C55" r:id="rId323" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
-    <hyperlink ref="B56" r:id="rId324" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
-    <hyperlink ref="C56" r:id="rId325" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
-    <hyperlink ref="B57" r:id="rId326" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
-    <hyperlink ref="C57" r:id="rId327" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
-    <hyperlink ref="B58" r:id="rId328" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
-    <hyperlink ref="C58" r:id="rId329" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
-    <hyperlink ref="B60" r:id="rId330" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
-    <hyperlink ref="C60" r:id="rId331" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
-    <hyperlink ref="B61" r:id="rId332" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
-    <hyperlink ref="C61" r:id="rId333" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
-    <hyperlink ref="B62" r:id="rId334" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
-    <hyperlink ref="C62" r:id="rId335" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B230" r:id="rId336" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C230" r:id="rId337" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B231" r:id="rId338" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C231" r:id="rId339" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B232" r:id="rId340" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C232" r:id="rId341" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
-    <hyperlink ref="B234" r:id="rId342" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
-    <hyperlink ref="C234" r:id="rId343" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
-    <hyperlink ref="B240" r:id="rId344" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
-    <hyperlink ref="C240" r:id="rId345" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
-    <hyperlink ref="B239" r:id="rId346" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
-    <hyperlink ref="C239" r:id="rId347" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
-    <hyperlink ref="B241" r:id="rId348" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
-    <hyperlink ref="C241" r:id="rId349" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
-    <hyperlink ref="B246" r:id="rId350" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
-    <hyperlink ref="C246" r:id="rId351" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
-    <hyperlink ref="B247" r:id="rId352" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
-    <hyperlink ref="C247" r:id="rId353" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
-    <hyperlink ref="B248" r:id="rId354" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
-    <hyperlink ref="C248" r:id="rId355" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
-    <hyperlink ref="B249" r:id="rId356" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
-    <hyperlink ref="C249" r:id="rId357" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
-    <hyperlink ref="B250" r:id="rId358" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
-    <hyperlink ref="C250" r:id="rId359" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
-    <hyperlink ref="B251" r:id="rId360" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
-    <hyperlink ref="C251" r:id="rId361" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
-    <hyperlink ref="B252" r:id="rId362" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
-    <hyperlink ref="C252" r:id="rId363" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
-    <hyperlink ref="B253" r:id="rId364" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
-    <hyperlink ref="C253" r:id="rId365" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
-    <hyperlink ref="B254" r:id="rId366" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
-    <hyperlink ref="C254" r:id="rId367" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
-    <hyperlink ref="B255" r:id="rId368" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
-    <hyperlink ref="C255" r:id="rId369" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
-    <hyperlink ref="B256" r:id="rId370" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
-    <hyperlink ref="C256" r:id="rId371" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
-    <hyperlink ref="B257" r:id="rId372" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
-    <hyperlink ref="C257" r:id="rId373" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
-    <hyperlink ref="B258" r:id="rId374" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
-    <hyperlink ref="C258" r:id="rId375" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
-    <hyperlink ref="B259" r:id="rId376" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
-    <hyperlink ref="C259" r:id="rId377" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
-    <hyperlink ref="B260" r:id="rId378" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
-    <hyperlink ref="C260" r:id="rId379" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
-    <hyperlink ref="B261" r:id="rId380" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
-    <hyperlink ref="C261" r:id="rId381" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
-    <hyperlink ref="B262" r:id="rId382" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
-    <hyperlink ref="B269" r:id="rId383" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
-    <hyperlink ref="C269" r:id="rId384" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
-    <hyperlink ref="B272" r:id="rId385" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
-    <hyperlink ref="C272" r:id="rId386" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
-    <hyperlink ref="B273" r:id="rId387" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
-    <hyperlink ref="C273" r:id="rId388" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
-    <hyperlink ref="B274" r:id="rId389" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
-    <hyperlink ref="C274" r:id="rId390" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
-    <hyperlink ref="B275" r:id="rId391" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
-    <hyperlink ref="C275" r:id="rId392" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
-    <hyperlink ref="B276" r:id="rId393" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
-    <hyperlink ref="C276" r:id="rId394" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
-    <hyperlink ref="B277" r:id="rId395" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
-    <hyperlink ref="C277" r:id="rId396" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
-    <hyperlink ref="B278" r:id="rId397" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
-    <hyperlink ref="C278" r:id="rId398" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
-    <hyperlink ref="B279" r:id="rId399" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
-    <hyperlink ref="C279" r:id="rId400" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
-    <hyperlink ref="B281" r:id="rId401" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
-    <hyperlink ref="C281" r:id="rId402" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
-    <hyperlink ref="B282" r:id="rId403" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
-    <hyperlink ref="C282" r:id="rId404" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
-    <hyperlink ref="B283" r:id="rId405" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
-    <hyperlink ref="C283" r:id="rId406" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
-    <hyperlink ref="B284" r:id="rId407" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
-    <hyperlink ref="C284" r:id="rId408" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
-    <hyperlink ref="B285" r:id="rId409" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
-    <hyperlink ref="B294" r:id="rId410" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
-    <hyperlink ref="C294" r:id="rId411" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
-    <hyperlink ref="B295" r:id="rId412" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
-    <hyperlink ref="C295" r:id="rId413" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
-    <hyperlink ref="B296" r:id="rId414" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
-    <hyperlink ref="B301" r:id="rId415" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
-    <hyperlink ref="C301" r:id="rId416" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
-    <hyperlink ref="B302" r:id="rId417" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
-    <hyperlink ref="C302" r:id="rId418" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
-    <hyperlink ref="B303" r:id="rId419" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
-    <hyperlink ref="B308" r:id="rId420" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
-    <hyperlink ref="C308" r:id="rId421" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
-    <hyperlink ref="B309" r:id="rId422" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
-    <hyperlink ref="C309" r:id="rId423" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
-    <hyperlink ref="B310" r:id="rId424" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
-    <hyperlink ref="C310" r:id="rId425" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
-    <hyperlink ref="B311" r:id="rId426" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
-    <hyperlink ref="C311" r:id="rId427" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
-    <hyperlink ref="B312" r:id="rId428" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
-    <hyperlink ref="C312" r:id="rId429" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
-    <hyperlink ref="B313" r:id="rId430" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
-    <hyperlink ref="B318" r:id="rId431" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
-    <hyperlink ref="C318" r:id="rId432" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
-    <hyperlink ref="B319" r:id="rId433" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
-    <hyperlink ref="C319" r:id="rId434" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
-    <hyperlink ref="B320" r:id="rId435" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
-    <hyperlink ref="C320" r:id="rId436" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
-    <hyperlink ref="B321" r:id="rId437" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
-    <hyperlink ref="C321" r:id="rId438" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
-    <hyperlink ref="B322" r:id="rId439" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
-    <hyperlink ref="C322" r:id="rId440" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
-    <hyperlink ref="B323" r:id="rId441" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
-    <hyperlink ref="C323" r:id="rId442" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
-    <hyperlink ref="B324" r:id="rId443" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
-    <hyperlink ref="C324" r:id="rId444" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
-    <hyperlink ref="B325" r:id="rId445" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
-    <hyperlink ref="C325" r:id="rId446" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
-    <hyperlink ref="B326" r:id="rId447" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
-    <hyperlink ref="C326" r:id="rId448" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
-    <hyperlink ref="B327" r:id="rId449" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
-    <hyperlink ref="C327" r:id="rId450" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
-    <hyperlink ref="B328" r:id="rId451" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
-    <hyperlink ref="C328" r:id="rId452" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
-    <hyperlink ref="B329" r:id="rId453" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
-    <hyperlink ref="C329" r:id="rId454" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
-    <hyperlink ref="B330" r:id="rId455" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
-    <hyperlink ref="C330" r:id="rId456" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
-    <hyperlink ref="B331" r:id="rId457" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
-    <hyperlink ref="C331" r:id="rId458" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
-    <hyperlink ref="B332" r:id="rId459" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
-    <hyperlink ref="C332" r:id="rId460" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
-    <hyperlink ref="B333" r:id="rId461" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
-    <hyperlink ref="C333" r:id="rId462" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
-    <hyperlink ref="B334" r:id="rId463" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
-    <hyperlink ref="C334" r:id="rId464" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
-    <hyperlink ref="B335" r:id="rId465" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
-    <hyperlink ref="B133" r:id="rId466" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
-    <hyperlink ref="B154" r:id="rId467" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
-    <hyperlink ref="B165" r:id="rId468" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
-    <hyperlink ref="B217" r:id="rId469" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
-    <hyperlink ref="B343" r:id="rId470" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{EB4E5B68-F05A-0C4B-9F53-41E4DBCA4F9E}"/>
-    <hyperlink ref="C343" r:id="rId471" display="https://cspiration.com/login" xr:uid="{CA1BBCD7-117A-A64E-8F77-852F33D02DB2}"/>
-    <hyperlink ref="B344" r:id="rId472" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{5B45788F-BB03-4843-BD6A-B976C9FCAEF1}"/>
-    <hyperlink ref="C344" r:id="rId473" display="https://cspiration.com/login" xr:uid="{551CAD20-3D2A-A64A-B23A-A01403C05DE0}"/>
-    <hyperlink ref="B345" r:id="rId474" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{89F11509-794F-0147-A002-99DBFE4011DC}"/>
-    <hyperlink ref="C345" r:id="rId475" display="https://cspiration.com/login" xr:uid="{A8D71102-8F66-8143-AADE-EC0B951315AF}"/>
-    <hyperlink ref="B346" r:id="rId476" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{A4765584-11DB-8C47-A9D8-28BCD3B3DB04}"/>
-    <hyperlink ref="C346" r:id="rId477" display="https://cspiration.com/login" xr:uid="{67A40D64-8C16-AB40-AF02-EC047B85587D}"/>
-    <hyperlink ref="B347" r:id="rId478" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{1C321054-4E86-0A4C-A5A9-D1503A97B9B0}"/>
-    <hyperlink ref="C347" r:id="rId479" display="https://cspiration.com/login" xr:uid="{4230A88F-C71C-F14B-89AA-04DA1B742A89}"/>
-    <hyperlink ref="B348" r:id="rId480" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{736794C5-518A-194B-A096-354260C26D19}"/>
-    <hyperlink ref="C348" r:id="rId481" display="https://cspiration.com/login" xr:uid="{CC616423-7FF6-4546-BE49-14971E421AB1}"/>
-    <hyperlink ref="B349" r:id="rId482" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{AA2881B4-D507-6C4E-B5AC-66556CE2E240}"/>
-    <hyperlink ref="C349" r:id="rId483" display="https://cspiration.com/login" xr:uid="{497BA16C-CBAB-CD4C-B123-9991F3A2E286}"/>
-    <hyperlink ref="B350" r:id="rId484" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{D78ED803-9C52-3C4E-8DAB-2FE615A62AB4}"/>
-    <hyperlink ref="C350" r:id="rId485" display="https://cspiration.com/login" xr:uid="{A8AD4217-A555-BA44-A724-8A04E7730E30}"/>
-    <hyperlink ref="B351" r:id="rId486" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{39F3DFF8-98F3-604E-9124-DD7F0D40F1B0}"/>
-    <hyperlink ref="C351" r:id="rId487" display="https://cspiration.com/login" xr:uid="{3561FB2C-CD0E-A746-8C4B-80613899C341}"/>
-    <hyperlink ref="B352" r:id="rId488" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{E9195674-DC99-4B46-B0EE-98194075832A}"/>
-    <hyperlink ref="C352" r:id="rId489" display="https://cspiration.com/login" xr:uid="{916F2DEE-639E-C943-A663-2517B8604445}"/>
-    <hyperlink ref="B353" r:id="rId490" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{320B423A-BCFA-CE44-9951-2BD15ECD57E2}"/>
-    <hyperlink ref="B170" r:id="rId491" xr:uid="{600A5416-B5C9-BA47-892A-EE12A30AA3C9}"/>
-    <hyperlink ref="B174" r:id="rId492" xr:uid="{EADB0E54-5800-704D-A97B-CDE42026CFF8}"/>
-    <hyperlink ref="B287" r:id="rId493" xr:uid="{49EE6590-FC3C-C54F-A151-AA1FC6EF5061}"/>
-    <hyperlink ref="B270" r:id="rId494" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{E018DFB4-01AC-F645-8B90-8199997E6DD0}"/>
-    <hyperlink ref="C270" r:id="rId495" display="https://cspiration.com/login" xr:uid="{706E0A6D-CD70-2245-A6EA-B10034698AA6}"/>
-    <hyperlink ref="B271" r:id="rId496" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{0DF8CEC5-24F8-E745-8AEF-C177BA8C38D8}"/>
+    <hyperlink ref="B38" r:id="rId290" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
+    <hyperlink ref="C38" r:id="rId291" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
+    <hyperlink ref="B39" r:id="rId292" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
+    <hyperlink ref="C39" r:id="rId293" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
+    <hyperlink ref="B40" r:id="rId294" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
+    <hyperlink ref="C40" r:id="rId295" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
+    <hyperlink ref="B41" r:id="rId296" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
+    <hyperlink ref="C41" r:id="rId297" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
+    <hyperlink ref="B42" r:id="rId298" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
+    <hyperlink ref="C42" r:id="rId299" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
+    <hyperlink ref="B43" r:id="rId300" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
+    <hyperlink ref="C43" r:id="rId301" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
+    <hyperlink ref="B45" r:id="rId302" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
+    <hyperlink ref="C45" r:id="rId303" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
+    <hyperlink ref="B46" r:id="rId304" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
+    <hyperlink ref="C46" r:id="rId305" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
+    <hyperlink ref="B47" r:id="rId306" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
+    <hyperlink ref="C47" r:id="rId307" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
+    <hyperlink ref="B48" r:id="rId308" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
+    <hyperlink ref="C48" r:id="rId309" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
+    <hyperlink ref="B49" r:id="rId310" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
+    <hyperlink ref="C49" r:id="rId311" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
+    <hyperlink ref="B50" r:id="rId312" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
+    <hyperlink ref="C50" r:id="rId313" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
+    <hyperlink ref="B51" r:id="rId314" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
+    <hyperlink ref="C51" r:id="rId315" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
+    <hyperlink ref="B52" r:id="rId316" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
+    <hyperlink ref="C52" r:id="rId317" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
+    <hyperlink ref="B53" r:id="rId318" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
+    <hyperlink ref="C53" r:id="rId319" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
+    <hyperlink ref="B55" r:id="rId320" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
+    <hyperlink ref="C55" r:id="rId321" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
+    <hyperlink ref="B56" r:id="rId322" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
+    <hyperlink ref="C56" r:id="rId323" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
+    <hyperlink ref="B57" r:id="rId324" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
+    <hyperlink ref="C57" r:id="rId325" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
+    <hyperlink ref="B58" r:id="rId326" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
+    <hyperlink ref="C58" r:id="rId327" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
+    <hyperlink ref="B59" r:id="rId328" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
+    <hyperlink ref="C59" r:id="rId329" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
+    <hyperlink ref="B61" r:id="rId330" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
+    <hyperlink ref="C61" r:id="rId331" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
+    <hyperlink ref="B62" r:id="rId332" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
+    <hyperlink ref="C62" r:id="rId333" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
+    <hyperlink ref="B63" r:id="rId334" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
+    <hyperlink ref="C63" r:id="rId335" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
+    <hyperlink ref="B231" r:id="rId336" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
+    <hyperlink ref="C231" r:id="rId337" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
+    <hyperlink ref="B232" r:id="rId338" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
+    <hyperlink ref="C232" r:id="rId339" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
+    <hyperlink ref="B233" r:id="rId340" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
+    <hyperlink ref="C233" r:id="rId341" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B235" r:id="rId342" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
+    <hyperlink ref="C235" r:id="rId343" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
+    <hyperlink ref="B241" r:id="rId344" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
+    <hyperlink ref="C241" r:id="rId345" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
+    <hyperlink ref="B240" r:id="rId346" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
+    <hyperlink ref="C240" r:id="rId347" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
+    <hyperlink ref="B242" r:id="rId348" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
+    <hyperlink ref="C242" r:id="rId349" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B247" r:id="rId350" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
+    <hyperlink ref="C247" r:id="rId351" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
+    <hyperlink ref="B248" r:id="rId352" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
+    <hyperlink ref="C248" r:id="rId353" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
+    <hyperlink ref="B249" r:id="rId354" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
+    <hyperlink ref="C249" r:id="rId355" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
+    <hyperlink ref="B250" r:id="rId356" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
+    <hyperlink ref="C250" r:id="rId357" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
+    <hyperlink ref="B251" r:id="rId358" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
+    <hyperlink ref="C251" r:id="rId359" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
+    <hyperlink ref="B252" r:id="rId360" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
+    <hyperlink ref="C252" r:id="rId361" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
+    <hyperlink ref="B253" r:id="rId362" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
+    <hyperlink ref="C253" r:id="rId363" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
+    <hyperlink ref="B254" r:id="rId364" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
+    <hyperlink ref="C254" r:id="rId365" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
+    <hyperlink ref="B255" r:id="rId366" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
+    <hyperlink ref="C255" r:id="rId367" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
+    <hyperlink ref="B256" r:id="rId368" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
+    <hyperlink ref="C256" r:id="rId369" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
+    <hyperlink ref="B257" r:id="rId370" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
+    <hyperlink ref="C257" r:id="rId371" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
+    <hyperlink ref="B258" r:id="rId372" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
+    <hyperlink ref="C258" r:id="rId373" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
+    <hyperlink ref="B259" r:id="rId374" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
+    <hyperlink ref="C259" r:id="rId375" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
+    <hyperlink ref="B260" r:id="rId376" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
+    <hyperlink ref="C260" r:id="rId377" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
+    <hyperlink ref="B261" r:id="rId378" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
+    <hyperlink ref="C261" r:id="rId379" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
+    <hyperlink ref="B262" r:id="rId380" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
+    <hyperlink ref="C262" r:id="rId381" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
+    <hyperlink ref="B263" r:id="rId382" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
+    <hyperlink ref="B270" r:id="rId383" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
+    <hyperlink ref="C270" r:id="rId384" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
+    <hyperlink ref="B273" r:id="rId385" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
+    <hyperlink ref="C273" r:id="rId386" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
+    <hyperlink ref="B274" r:id="rId387" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
+    <hyperlink ref="C274" r:id="rId388" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
+    <hyperlink ref="B275" r:id="rId389" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
+    <hyperlink ref="C275" r:id="rId390" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
+    <hyperlink ref="B276" r:id="rId391" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
+    <hyperlink ref="C276" r:id="rId392" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
+    <hyperlink ref="B277" r:id="rId393" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
+    <hyperlink ref="C277" r:id="rId394" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
+    <hyperlink ref="B278" r:id="rId395" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
+    <hyperlink ref="C278" r:id="rId396" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
+    <hyperlink ref="B279" r:id="rId397" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
+    <hyperlink ref="C279" r:id="rId398" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
+    <hyperlink ref="B280" r:id="rId399" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
+    <hyperlink ref="C280" r:id="rId400" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
+    <hyperlink ref="B282" r:id="rId401" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
+    <hyperlink ref="C282" r:id="rId402" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
+    <hyperlink ref="B283" r:id="rId403" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
+    <hyperlink ref="C283" r:id="rId404" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
+    <hyperlink ref="B284" r:id="rId405" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
+    <hyperlink ref="C284" r:id="rId406" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
+    <hyperlink ref="B285" r:id="rId407" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
+    <hyperlink ref="C285" r:id="rId408" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
+    <hyperlink ref="B286" r:id="rId409" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
+    <hyperlink ref="B298" r:id="rId410" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
+    <hyperlink ref="C298" r:id="rId411" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
+    <hyperlink ref="B299" r:id="rId412" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
+    <hyperlink ref="C299" r:id="rId413" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
+    <hyperlink ref="B300" r:id="rId414" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
+    <hyperlink ref="B309" r:id="rId415" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
+    <hyperlink ref="C309" r:id="rId416" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
+    <hyperlink ref="B310" r:id="rId417" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
+    <hyperlink ref="C310" r:id="rId418" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
+    <hyperlink ref="B311" r:id="rId419" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
+    <hyperlink ref="B316" r:id="rId420" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
+    <hyperlink ref="C316" r:id="rId421" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
+    <hyperlink ref="B317" r:id="rId422" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
+    <hyperlink ref="C317" r:id="rId423" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
+    <hyperlink ref="B318" r:id="rId424" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
+    <hyperlink ref="C318" r:id="rId425" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
+    <hyperlink ref="B319" r:id="rId426" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
+    <hyperlink ref="C319" r:id="rId427" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
+    <hyperlink ref="B320" r:id="rId428" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
+    <hyperlink ref="C320" r:id="rId429" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
+    <hyperlink ref="B321" r:id="rId430" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
+    <hyperlink ref="B326" r:id="rId431" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
+    <hyperlink ref="C326" r:id="rId432" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
+    <hyperlink ref="B327" r:id="rId433" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
+    <hyperlink ref="C327" r:id="rId434" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
+    <hyperlink ref="B328" r:id="rId435" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
+    <hyperlink ref="C328" r:id="rId436" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
+    <hyperlink ref="B329" r:id="rId437" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
+    <hyperlink ref="C329" r:id="rId438" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
+    <hyperlink ref="B330" r:id="rId439" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
+    <hyperlink ref="C330" r:id="rId440" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
+    <hyperlink ref="B331" r:id="rId441" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
+    <hyperlink ref="C331" r:id="rId442" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
+    <hyperlink ref="B332" r:id="rId443" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
+    <hyperlink ref="C332" r:id="rId444" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
+    <hyperlink ref="B333" r:id="rId445" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
+    <hyperlink ref="C333" r:id="rId446" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
+    <hyperlink ref="B334" r:id="rId447" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
+    <hyperlink ref="C334" r:id="rId448" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
+    <hyperlink ref="B335" r:id="rId449" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
+    <hyperlink ref="C335" r:id="rId450" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
+    <hyperlink ref="B336" r:id="rId451" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
+    <hyperlink ref="C336" r:id="rId452" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
+    <hyperlink ref="B337" r:id="rId453" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
+    <hyperlink ref="C337" r:id="rId454" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
+    <hyperlink ref="B338" r:id="rId455" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
+    <hyperlink ref="C338" r:id="rId456" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
+    <hyperlink ref="B339" r:id="rId457" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
+    <hyperlink ref="C339" r:id="rId458" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
+    <hyperlink ref="B340" r:id="rId459" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
+    <hyperlink ref="C340" r:id="rId460" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
+    <hyperlink ref="B341" r:id="rId461" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
+    <hyperlink ref="C341" r:id="rId462" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
+    <hyperlink ref="B342" r:id="rId463" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
+    <hyperlink ref="C342" r:id="rId464" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
+    <hyperlink ref="B343" r:id="rId465" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
+    <hyperlink ref="B134" r:id="rId466" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
+    <hyperlink ref="B166" r:id="rId467" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
+    <hyperlink ref="B218" r:id="rId468" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
+    <hyperlink ref="B351" r:id="rId469" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{EB4E5B68-F05A-0C4B-9F53-41E4DBCA4F9E}"/>
+    <hyperlink ref="C351" r:id="rId470" display="https://cspiration.com/login" xr:uid="{CA1BBCD7-117A-A64E-8F77-852F33D02DB2}"/>
+    <hyperlink ref="B352" r:id="rId471" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{5B45788F-BB03-4843-BD6A-B976C9FCAEF1}"/>
+    <hyperlink ref="C352" r:id="rId472" display="https://cspiration.com/login" xr:uid="{551CAD20-3D2A-A64A-B23A-A01403C05DE0}"/>
+    <hyperlink ref="B353" r:id="rId473" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{89F11509-794F-0147-A002-99DBFE4011DC}"/>
+    <hyperlink ref="C353" r:id="rId474" display="https://cspiration.com/login" xr:uid="{A8D71102-8F66-8143-AADE-EC0B951315AF}"/>
+    <hyperlink ref="B354" r:id="rId475" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{A4765584-11DB-8C47-A9D8-28BCD3B3DB04}"/>
+    <hyperlink ref="C354" r:id="rId476" display="https://cspiration.com/login" xr:uid="{67A40D64-8C16-AB40-AF02-EC047B85587D}"/>
+    <hyperlink ref="B355" r:id="rId477" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{1C321054-4E86-0A4C-A5A9-D1503A97B9B0}"/>
+    <hyperlink ref="C355" r:id="rId478" display="https://cspiration.com/login" xr:uid="{4230A88F-C71C-F14B-89AA-04DA1B742A89}"/>
+    <hyperlink ref="B356" r:id="rId479" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{736794C5-518A-194B-A096-354260C26D19}"/>
+    <hyperlink ref="C356" r:id="rId480" display="https://cspiration.com/login" xr:uid="{CC616423-7FF6-4546-BE49-14971E421AB1}"/>
+    <hyperlink ref="B357" r:id="rId481" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{AA2881B4-D507-6C4E-B5AC-66556CE2E240}"/>
+    <hyperlink ref="C357" r:id="rId482" display="https://cspiration.com/login" xr:uid="{497BA16C-CBAB-CD4C-B123-9991F3A2E286}"/>
+    <hyperlink ref="B358" r:id="rId483" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{D78ED803-9C52-3C4E-8DAB-2FE615A62AB4}"/>
+    <hyperlink ref="C358" r:id="rId484" display="https://cspiration.com/login" xr:uid="{A8AD4217-A555-BA44-A724-8A04E7730E30}"/>
+    <hyperlink ref="B359" r:id="rId485" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{39F3DFF8-98F3-604E-9124-DD7F0D40F1B0}"/>
+    <hyperlink ref="C359" r:id="rId486" display="https://cspiration.com/login" xr:uid="{3561FB2C-CD0E-A746-8C4B-80613899C341}"/>
+    <hyperlink ref="B360" r:id="rId487" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{E9195674-DC99-4B46-B0EE-98194075832A}"/>
+    <hyperlink ref="C360" r:id="rId488" display="https://cspiration.com/login" xr:uid="{916F2DEE-639E-C943-A663-2517B8604445}"/>
+    <hyperlink ref="B361" r:id="rId489" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{320B423A-BCFA-CE44-9951-2BD15ECD57E2}"/>
+    <hyperlink ref="B171" r:id="rId490" xr:uid="{600A5416-B5C9-BA47-892A-EE12A30AA3C9}"/>
+    <hyperlink ref="B175" r:id="rId491" xr:uid="{EADB0E54-5800-704D-A97B-CDE42026CFF8}"/>
+    <hyperlink ref="B288" r:id="rId492" xr:uid="{49EE6590-FC3C-C54F-A151-AA1FC6EF5061}"/>
+    <hyperlink ref="B271" r:id="rId493" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{E018DFB4-01AC-F645-8B90-8199997E6DD0}"/>
+    <hyperlink ref="C271" r:id="rId494" display="https://cspiration.com/login" xr:uid="{706E0A6D-CD70-2245-A6EA-B10034698AA6}"/>
+    <hyperlink ref="B272" r:id="rId495" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{0DF8CEC5-24F8-E745-8AEF-C177BA8C38D8}"/>
+    <hyperlink ref="B289" r:id="rId496" xr:uid="{6D13D071-F78E-C442-8632-E396881ABD22}"/>
+    <hyperlink ref="B290" r:id="rId497" xr:uid="{B66856FD-8BB7-CF4C-9F54-EF95505D135F}"/>
+    <hyperlink ref="B291" r:id="rId498" xr:uid="{3202C9A2-D22F-454B-BEEC-EC2EF095CF78}"/>
+    <hyperlink ref="B292" r:id="rId499" xr:uid="{0F820F81-AD67-2D4C-B1D6-92E7AE13C361}"/>
+    <hyperlink ref="B155" r:id="rId500" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
+    <hyperlink ref="B301" r:id="rId501" xr:uid="{12FCA401-D49E-F648-925D-5AA92C613FEE}"/>
+    <hyperlink ref="B302" r:id="rId502" xr:uid="{2AC0AA2F-79DF-D044-84B7-A131AC44BC10}"/>
+    <hyperlink ref="B303" r:id="rId503" xr:uid="{7F474B46-9483-0F48-AE6E-83C002C6D472}"/>
+    <hyperlink ref="B362" r:id="rId504" xr:uid="{30FFAA64-911B-8A47-9B10-24A60021362C}"/>
+    <hyperlink ref="B36" r:id="rId505" xr:uid="{328EC544-84F7-C546-82CB-6D867891F222}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483EA27-8D36-4A46-82D0-F7845E2DC42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB2AE0-9867-E347-8BD0-25400CBC28AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="384">
   <si>
     <t>144</t>
   </si>
@@ -491,15 +491,9 @@
     <t>Reverse Words in a String II</t>
   </si>
   <si>
-    <t>Reverse Vowels of a String</t>
-  </si>
-  <si>
     <t>Isomorphic Strings</t>
   </si>
   <si>
-    <t>Flip Game</t>
-  </si>
-  <si>
     <t>Flip Game II</t>
   </si>
   <si>
@@ -519,9 +513,6 @@
   </si>
   <si>
     <t>One Edit Distance</t>
-  </si>
-  <si>
-    <t>Count and Say</t>
   </si>
   <si>
     <t>Rearrange String k Distance Apart</t>
@@ -1283,7 +1274,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1599,20 +1592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:H448"/>
+  <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1620,7 +1613,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>54</v>
@@ -1642,7 +1635,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1654,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -1666,7 +1659,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1678,7 +1671,7 @@
         <v>277</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -1690,7 +1683,7 @@
         <v>189</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -1702,7 +1695,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1714,7 +1707,7 @@
         <v>299</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -1726,7 +1719,7 @@
         <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -1738,13 +1731,13 @@
         <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1752,13 +1745,13 @@
         <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1766,13 +1759,13 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1780,13 +1773,13 @@
         <v>229</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1794,7 +1787,7 @@
         <v>274</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -1806,13 +1799,13 @@
         <v>275</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1820,7 +1813,7 @@
         <v>243</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
@@ -1832,7 +1825,7 @@
         <v>244</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -1844,7 +1837,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
@@ -1856,7 +1849,7 @@
         <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
@@ -1868,13 +1861,13 @@
         <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1882,13 +1875,13 @@
         <v>220</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1896,7 +1889,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
@@ -1908,7 +1901,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
@@ -1920,7 +1913,7 @@
         <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
@@ -1932,7 +1925,7 @@
         <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -1944,7 +1937,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -1956,7 +1949,7 @@
         <v>188</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -1968,7 +1961,7 @@
         <v>309</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -1980,7 +1973,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -1992,7 +1985,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -2004,7 +1997,7 @@
         <v>334</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -2016,7 +2009,7 @@
         <v>128</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -2028,13 +2021,13 @@
         <v>164</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2042,7 +2035,7 @@
         <v>287</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -2062,7 +2055,7 @@
         <v>327</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -2074,7 +2067,7 @@
         <v>289</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
@@ -2086,14 +2079,14 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2104,7 +2097,7 @@
         <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -2116,7 +2109,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -2128,7 +2121,7 @@
         <v>252</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -2140,7 +2133,7 @@
         <v>253</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -2152,18 +2145,18 @@
         <v>352</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2174,7 +2167,7 @@
         <v>239</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -2186,7 +2179,7 @@
         <v>295</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -2198,7 +2191,7 @@
         <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -2210,7 +2203,7 @@
         <v>325</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -2222,7 +2215,7 @@
         <v>209</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -2234,7 +2227,7 @@
         <v>238</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
@@ -2246,7 +2239,7 @@
         <v>152</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2</v>
@@ -2258,7 +2251,7 @@
         <v>228</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -2270,7 +2263,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>2</v>
@@ -2279,7 +2272,7 @@
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2290,7 +2283,7 @@
         <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
@@ -2302,7 +2295,7 @@
         <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
@@ -2314,7 +2307,7 @@
         <v>283</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
@@ -2326,7 +2319,7 @@
         <v>376</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
@@ -2338,7 +2331,7 @@
         <v>280</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
@@ -2350,7 +2343,7 @@
         <v>324</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
@@ -2362,7 +2355,7 @@
         <v>278</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -2374,7 +2367,7 @@
         <v>35</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
@@ -2386,7 +2379,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
@@ -2398,7 +2391,7 @@
         <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2</v>
@@ -2410,7 +2403,7 @@
         <v>153</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2</v>
@@ -2422,7 +2415,7 @@
         <v>154</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2</v>
@@ -2434,7 +2427,7 @@
         <v>162</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
@@ -2446,7 +2439,7 @@
         <v>374</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
@@ -2458,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -2470,7 +2463,7 @@
         <v>349</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
@@ -2482,7 +2475,7 @@
         <v>350</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
@@ -2494,7 +2487,7 @@
         <v>315</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
@@ -2506,7 +2499,7 @@
         <v>300</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2</v>
@@ -2518,7 +2511,7 @@
         <v>354</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="25" x14ac:dyDescent="0.25">
@@ -2530,7 +2523,7 @@
       <c r="A83" s="6">
         <v>28</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2542,7 +2535,7 @@
       <c r="A84" s="6">
         <v>14</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2554,7 +2547,7 @@
       <c r="A85" s="6">
         <v>58</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2566,7 +2559,7 @@
       <c r="A86" s="6">
         <v>387</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2624,7 +2617,7 @@
     </row>
     <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>345</v>
+        <v>205</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>152</v>
@@ -2633,10 +2626,13 @@
         <v>2</v>
       </c>
       <c r="D91" s="6"/>
+      <c r="H91" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>153</v>
@@ -2645,13 +2641,10 @@
         <v>2</v>
       </c>
       <c r="D92" s="6"/>
-      <c r="H92" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>154</v>
@@ -2663,7 +2656,7 @@
     </row>
     <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>155</v>
@@ -2675,7 +2668,7 @@
     </row>
     <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>290</v>
+        <v>49</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>156</v>
@@ -2687,7 +2680,7 @@
     </row>
     <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>157</v>
@@ -2699,7 +2692,7 @@
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>158</v>
@@ -2711,7 +2704,7 @@
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>159</v>
@@ -2723,7 +2716,7 @@
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>87</v>
+        <v>358</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>160</v>
@@ -2735,7 +2728,7 @@
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>161</v>
@@ -2747,7 +2740,7 @@
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>162</v>
@@ -2759,7 +2752,7 @@
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>163</v>
@@ -2771,7 +2764,7 @@
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
-        <v>316</v>
+        <v>171</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>164</v>
@@ -2783,7 +2776,7 @@
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>165</v>
@@ -2795,7 +2788,7 @@
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>166</v>
@@ -2807,7 +2800,7 @@
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>167</v>
@@ -2819,7 +2812,7 @@
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>168</v>
@@ -2831,7 +2824,7 @@
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>169</v>
@@ -2842,23 +2835,19 @@
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
-        <v>273</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A109" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
@@ -2867,27 +2856,31 @@
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>68</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="6"/>
+      <c r="C112" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D112" s="6"/>
     </row>
     <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>173</v>
@@ -2899,75 +2892,81 @@
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
-        <v>68</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
+      <c r="A118" s="6">
+        <v>3</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>30</v>
+        <v>395</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>180</v>
@@ -2976,12 +2975,12 @@
         <v>2</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>181</v>
@@ -2990,26 +2989,20 @@
         <v>2</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
-        <v>340</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="A122" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
-        <v>395</v>
+        <v>125</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>183</v>
@@ -3017,35 +3010,35 @@
       <c r="C123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>159</v>
-      </c>
-      <c r="B124" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="6">
+        <v>5</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>186</v>
@@ -3057,9 +3050,9 @@
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <v>266</v>
-      </c>
-      <c r="B127" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -3069,7 +3062,7 @@
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>5</v>
+        <v>336</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>188</v>
@@ -3081,7 +3074,7 @@
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>189</v>
@@ -3093,7 +3086,7 @@
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>190</v>
@@ -3105,7 +3098,7 @@
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>191</v>
@@ -3116,22 +3109,18 @@
       <c r="D131" s="6"/>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
-        <v>131</v>
-      </c>
-      <c r="B132" s="3" t="s">
+      <c r="A132" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
       <c r="D132" s="6"/>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
-        <v>132</v>
-      </c>
-      <c r="B133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -3141,9 +3130,9 @@
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
-        <v>267</v>
-      </c>
-      <c r="B134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -3152,18 +3141,22 @@
       <c r="D134" s="6"/>
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="6">
+        <v>32</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D135" s="6"/>
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
-        <v>20</v>
-      </c>
-      <c r="B136" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -3173,9 +3166,9 @@
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
-        <v>22</v>
-      </c>
-      <c r="B137" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -3184,20 +3177,16 @@
       <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
-        <v>32</v>
-      </c>
-      <c r="B138" s="3" t="s">
+      <c r="A138" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B138" s="7"/>
+      <c r="C138" s="6"/>
       <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
-        <v>241</v>
+        <v>392</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>199</v>
@@ -3209,7 +3198,7 @@
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>200</v>
@@ -3220,71 +3209,75 @@
       <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="6">
+        <v>187</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
-        <v>392</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
-        <v>115</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
-        <v>187</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+      <c r="C141" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
     </row>
+    <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>94</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A148" s="1">
+        <v>145</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>0</v>
+      <c r="A149" s="1">
+        <v>102</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
@@ -3292,35 +3285,33 @@
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>94</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="4"/>
+      <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
@@ -3328,33 +3319,37 @@
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="4"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="A153" s="1">
+        <v>226</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>385</v>
-      </c>
+      <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
@@ -3363,24 +3358,22 @@
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2</v>
@@ -3389,10 +3382,10 @@
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
@@ -3401,10 +3394,10 @@
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>2</v>
@@ -3412,23 +3405,19 @@
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>129</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="4"/>
+      <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
@@ -3437,10 +3426,10 @@
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2</v>
@@ -3448,19 +3437,23 @@
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="1"/>
+      <c r="A163" s="1">
+        <v>124</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>2</v>
@@ -3469,10 +3462,10 @@
     </row>
     <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>110</v>
+        <v>366</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>2</v>
@@ -3481,34 +3474,32 @@
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>124</v>
+        <v>337</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="1"/>
+      <c r="D166" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>250</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A167" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="4"/>
+      <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>366</v>
+        <v>107</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2</v>
@@ -3517,148 +3508,156 @@
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="A170" s="1">
+        <v>199</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>107</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171" s="4"/>
+      <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="1"/>
+      <c r="D172" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="A174" s="1">
+        <v>236</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>173</v>
+        <v>285</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -3669,38 +3668,38 @@
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>297</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>41</v>
+        <v>272</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>285</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>2</v>
@@ -3710,75 +3709,71 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>270</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A184" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>272</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>44</v>
+        <v>116</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>99</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B187" s="11"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="A187" s="1">
+        <v>314</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>116</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>117</v>
-      </c>
-      <c r="B189" s="10" t="s">
-        <v>49</v>
+        <v>96</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -3787,77 +3782,75 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>314</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>95</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>96</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B190" s="8"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B191" s="8"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B192" s="8"/>
+    </row>
+    <row r="193" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B193" s="8"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B194" s="8"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B195" s="8"/>
-    </row>
-    <row r="196" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B196" s="8"/>
+    <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="6">
+        <v>78</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="6">
+        <v>90</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="6"/>
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B197" s="7"/>
-      <c r="C197" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A197" s="6">
+        <v>77</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="6"/>
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -3866,10 +3859,10 @@
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
@@ -3878,10 +3871,10 @@
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
@@ -3890,22 +3883,24 @@
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
-        <v>39</v>
+        <v>377</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="6"/>
+      <c r="D201" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
@@ -3914,10 +3909,10 @@
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
@@ -3926,48 +3921,50 @@
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
-        <v>377</v>
+        <v>47</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D204" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="D204" s="6"/>
     </row>
     <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="6"/>
+      <c r="D205" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="6"/>
+      <c r="D206" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
-        <v>47</v>
+        <v>291</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>2</v>
@@ -3976,38 +3973,34 @@
     </row>
     <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D208" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D208" s="6"/>
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D209" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D209" s="6"/>
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
@@ -4016,10 +4009,10 @@
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>2</v>
@@ -4028,87 +4021,87 @@
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D212" s="6"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A214" s="6">
-        <v>140</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A215" s="6">
-        <v>351</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>75</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A216" s="6">
-        <v>93</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+      <c r="A216" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A218" s="6">
+        <v>70</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="6"/>
+    </row>
+    <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219" s="6">
+        <v>62</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="6"/>
+    </row>
+    <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220" s="6">
         <v>63</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A219" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
+      <c r="B220" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D220" s="6"/>
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2</v>
@@ -4117,10 +4110,10 @@
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>2</v>
@@ -4129,10 +4122,10 @@
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
-        <v>63</v>
+        <v>375</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
@@ -4141,10 +4134,10 @@
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
@@ -4153,10 +4146,10 @@
     </row>
     <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>2</v>
@@ -4164,23 +4157,19 @@
       <c r="D225" s="6"/>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="6">
-        <v>375</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A226" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B226" s="7"/>
+      <c r="C226" s="6"/>
       <c r="D226" s="6"/>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>2</v>
@@ -4189,10 +4178,10 @@
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
@@ -4200,19 +4189,23 @@
       <c r="D228" s="6"/>
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A229" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B229" s="7"/>
-      <c r="C229" s="6"/>
+      <c r="A229" s="6">
+        <v>64</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D229" s="6"/>
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2</v>
@@ -4221,10 +4214,10 @@
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
@@ -4233,10 +4226,10 @@
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>2</v>
@@ -4245,10 +4238,10 @@
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
@@ -4257,22 +4250,20 @@
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C234" s="2"/>
       <c r="D234" s="6"/>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>2</v>
@@ -4281,69 +4272,71 @@
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
-        <v>221</v>
+        <v>363</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D236" s="6"/>
+      <c r="D236" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="6">
-        <v>84</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C237" s="2"/>
       <c r="D237" s="6"/>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="6">
-        <v>85</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A238" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="6"/>
       <c r="D238" s="6"/>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D239" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A240" s="6">
+        <v>213</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D240" s="6"/>
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B241" s="7"/>
-      <c r="C241" s="6"/>
+      <c r="A241" s="6">
+        <v>276</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D241" s="6"/>
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -4352,10 +4345,10 @@
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -4364,161 +4357,161 @@
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244" s="6"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
-        <v>91</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D245" s="6"/>
+        <v>1048</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
-        <v>10</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="6"/>
+      <c r="A246" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
-        <v>44</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
-        <v>1048</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>288</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A249" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B249" s="2"/>
+      <c r="A249" s="6">
+        <v>1139</v>
+      </c>
+      <c r="B249" s="3"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="6">
-        <v>746</v>
-      </c>
-      <c r="B250" s="3"/>
+        <v>1139</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
-        <v>1025</v>
-      </c>
-      <c r="B251" s="3"/>
+        <v>740</v>
+      </c>
       <c r="C251" s="2"/>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
-        <v>1139</v>
+        <v>464</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
-        <v>1139</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>304</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B253" s="3"/>
       <c r="C253" s="2"/>
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
-        <v>740</v>
+        <v>956</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
-        <v>464</v>
+        <v>1320</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="2"/>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="6">
-        <v>523</v>
-      </c>
+      <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="6">
-        <v>956</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C257" s="2"/>
+    <row r="257" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A258" s="6">
-        <v>1320</v>
-      </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="2"/>
+      <c r="A258" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B258" s="6"/>
+      <c r="C258" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A259" s="6"/>
-      <c r="B259" s="3"/>
-      <c r="C259" s="2"/>
-    </row>
-    <row r="260" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A260" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A259" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+    </row>
+    <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A260" s="6">
+        <v>206</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="6"/>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A261" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B261" s="6"/>
-      <c r="C261" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A261" s="6">
+        <v>141</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" s="6"/>
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A262" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
+      <c r="A262" s="6">
+        <v>24</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D262" s="6"/>
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>2</v>
@@ -4527,10 +4520,10 @@
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>2</v>
@@ -4539,10 +4532,10 @@
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>2</v>
@@ -4551,10 +4544,10 @@
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -4563,10 +4556,10 @@
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
@@ -4575,10 +4568,10 @@
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>2</v>
@@ -4587,10 +4580,10 @@
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
-        <v>19</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
@@ -4599,10 +4592,10 @@
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
-        <v>83</v>
+        <v>369</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -4611,10 +4604,10 @@
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
@@ -4623,10 +4616,10 @@
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
@@ -4635,10 +4628,10 @@
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
-        <v>369</v>
+        <v>21</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>2</v>
@@ -4646,23 +4639,19 @@
       <c r="D273" s="6"/>
     </row>
     <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A274" s="6">
-        <v>2</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A274" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B274" s="7"/>
+      <c r="C274" s="6"/>
       <c r="D274" s="6"/>
     </row>
     <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>2</v>
@@ -4671,10 +4660,10 @@
     </row>
     <row r="276" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>2</v>
@@ -4682,19 +4671,23 @@
       <c r="D276" s="6"/>
     </row>
     <row r="277" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B277" s="7"/>
-      <c r="C277" s="6"/>
+      <c r="A277" s="6">
+        <v>142</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D277" s="6"/>
     </row>
     <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>2</v>
@@ -4703,10 +4696,10 @@
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>2</v>
@@ -4715,10 +4708,10 @@
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>2</v>
@@ -4727,10 +4720,10 @@
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
@@ -4739,10 +4732,10 @@
     </row>
     <row r="282" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>2</v>
@@ -4751,68 +4744,68 @@
     </row>
     <row r="283" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D283" s="6"/>
-    </row>
-    <row r="284" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A284" s="6">
-        <v>86</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D284" s="6"/>
-    </row>
-    <row r="285" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A285" s="6">
-        <v>23</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D285" s="6"/>
-    </row>
-    <row r="286" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A286" s="6">
-        <v>147</v>
-      </c>
-      <c r="B286" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A289" s="5" t="s">
+    <row r="286" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B287" s="6"/>
+      <c r="C287" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A288" s="6">
+        <v>200</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A289" s="6">
+        <v>286</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" s="6"/>
+    </row>
     <row r="290" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A290" s="6">
+        <v>130</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D290" s="6"/>
     </row>
     <row r="291" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>2</v>
@@ -4821,10 +4814,10 @@
     </row>
     <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>2</v>
@@ -4833,10 +4826,10 @@
     </row>
     <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>2</v>
@@ -4845,22 +4838,18 @@
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D294" s="6"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
-        <v>364</v>
+        <v>51</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>2</v>
@@ -4869,10 +4858,10 @@
     </row>
     <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>2</v>
@@ -4881,144 +4870,144 @@
     </row>
     <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
-        <v>126</v>
+        <v>1192</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A298" s="6">
-        <v>51</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D298" s="6"/>
+        <v>286</v>
+      </c>
     </row>
     <row r="299" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A299" s="6">
-        <v>52</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A299" s="6"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="2"/>
       <c r="D299" s="6"/>
     </row>
-    <row r="300" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A300" s="6">
-        <v>1192</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>289</v>
+    <row r="300" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B300" s="8"/>
+    </row>
+    <row r="301" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B301" s="7"/>
+      <c r="C301" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A302" s="6"/>
-      <c r="B302" s="3"/>
-      <c r="C302" s="2"/>
+      <c r="A302" s="6">
+        <v>261</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D302" s="6"/>
     </row>
-    <row r="303" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A303" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B303" s="8"/>
+    <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A303" s="6">
+        <v>323</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" s="6"/>
     </row>
     <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A304" s="6" t="s">
+      <c r="A304" s="6">
+        <v>305</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B305" s="8"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B306" s="8"/>
+    </row>
+    <row r="307" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B307" s="8"/>
+    </row>
+    <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B304" s="7"/>
-      <c r="C304" s="6" t="s">
+      <c r="B308" s="7"/>
+      <c r="C308" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A305" s="6">
-        <v>261</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D305" s="6"/>
-    </row>
-    <row r="306" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A306" s="6">
-        <v>323</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D306" s="6"/>
-    </row>
-    <row r="307" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A307" s="6">
-        <v>305</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B308" s="8"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B309" s="8"/>
-    </row>
-    <row r="310" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
+      <c r="D308" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B309" s="7"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="6"/>
+    </row>
+    <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A310" s="6">
+        <v>133</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" s="6"/>
+    </row>
+    <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A311" s="6">
+        <v>399</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" s="6"/>
+    </row>
+    <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A312" s="6">
+        <v>310</v>
+      </c>
+      <c r="B312" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B310" s="8"/>
-    </row>
-    <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A311" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B311" s="7"/>
-      <c r="C311" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D311" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A312" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B312" s="7"/>
-      <c r="C312" s="6"/>
+      <c r="C312" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D312" s="6"/>
     </row>
     <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A313" s="6">
-        <v>133</v>
-      </c>
-      <c r="B313" s="3" t="s">
+      <c r="A313" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B313" s="7"/>
+      <c r="C313" s="6"/>
       <c r="D313" s="6"/>
     </row>
     <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="6">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>207</v>
@@ -5028,112 +5017,116 @@
       </c>
       <c r="D314" s="6"/>
     </row>
-    <row r="315" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A315" s="6">
-        <v>310</v>
-      </c>
-      <c r="B315" s="3" t="s">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B315" s="8"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B316" s="8"/>
+    </row>
+    <row r="317" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D315" s="6"/>
-    </row>
-    <row r="316" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A316" s="6" t="s">
+      <c r="B317" s="8"/>
+    </row>
+    <row r="318" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B318" s="7"/>
+      <c r="C318" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A319" s="6">
+        <v>208</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D319" s="6"/>
+    </row>
+    <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A320" s="6">
+        <v>211</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B316" s="7"/>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-    </row>
-    <row r="317" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A317" s="6">
-        <v>149</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D317" s="6"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B318" s="8"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B319" s="8"/>
-    </row>
-    <row r="320" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
+      <c r="C320" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D320" s="6"/>
+    </row>
+    <row r="321" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A321" s="6">
+        <v>212</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B320" s="8"/>
-    </row>
-    <row r="321" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A321" s="6" t="s">
+      <c r="C321" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" s="6"/>
+    </row>
+    <row r="324" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A325" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B321" s="7"/>
-      <c r="C321" s="6" t="s">
+      <c r="B325" s="6"/>
+      <c r="C325" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A322" s="6">
-        <v>208</v>
-      </c>
-      <c r="B322" s="3" t="s">
+    <row r="326" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A326" s="6">
+        <v>48</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D322" s="6"/>
-    </row>
-    <row r="323" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A323" s="6">
-        <v>211</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D323" s="6"/>
-    </row>
-    <row r="324" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A324" s="6">
-        <v>212</v>
-      </c>
-      <c r="B324" s="3" t="s">
+      <c r="C326" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" s="6"/>
+    </row>
+    <row r="327" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A327" s="6">
+        <v>54</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D324" s="6"/>
-    </row>
-    <row r="327" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A327" s="5" t="s">
+      <c r="C327" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D327" s="6"/>
+    </row>
+    <row r="328" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A328" s="6">
+        <v>59</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A328" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B328" s="6"/>
-      <c r="C328" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C328" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D328" s="6"/>
     </row>
     <row r="329" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>216</v>
@@ -5145,7 +5138,7 @@
     </row>
     <row r="330" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
-        <v>54</v>
+        <v>311</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>217</v>
@@ -5157,7 +5150,7 @@
     </row>
     <row r="331" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
-        <v>59</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>218</v>
@@ -5169,7 +5162,7 @@
     </row>
     <row r="332" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
-        <v>73</v>
+        <v>378</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>219</v>
@@ -5181,7 +5174,7 @@
     </row>
     <row r="333" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>220</v>
@@ -5193,7 +5186,7 @@
     </row>
     <row r="334" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>221</v>
@@ -5205,7 +5198,7 @@
     </row>
     <row r="335" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>222</v>
@@ -5217,7 +5210,7 @@
     </row>
     <row r="336" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>223</v>
@@ -5229,7 +5222,7 @@
     </row>
     <row r="337" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>224</v>
@@ -5241,7 +5234,7 @@
     </row>
     <row r="338" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>225</v>
@@ -5253,7 +5246,7 @@
     </row>
     <row r="339" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>226</v>
@@ -5265,7 +5258,7 @@
     </row>
     <row r="340" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>227</v>
@@ -5277,7 +5270,7 @@
     </row>
     <row r="341" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
-        <v>361</v>
+        <v>36</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>228</v>
@@ -5289,104 +5282,104 @@
     </row>
     <row r="342" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D342" s="6"/>
-    </row>
-    <row r="343" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A343" s="6">
-        <v>302</v>
-      </c>
-      <c r="B343" s="2" t="s">
+    </row>
+    <row r="346" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D343" s="6"/>
-    </row>
-    <row r="344" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A344" s="6">
-        <v>36</v>
-      </c>
-      <c r="B344" s="2" t="s">
+    </row>
+    <row r="347" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A347" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B347" s="6"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="6"/>
+    </row>
+    <row r="348" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A348" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D344" s="6"/>
-    </row>
-    <row r="345" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A345" s="6">
-        <v>37</v>
-      </c>
-      <c r="B345" s="2" t="s">
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="6"/>
+    </row>
+    <row r="349" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A349" s="6">
+        <v>155</v>
+      </c>
+      <c r="B349" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A349" s="5" t="s">
-        <v>233</v>
-      </c>
+      <c r="C349" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D349" s="6"/>
     </row>
     <row r="350" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A350" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B350" s="6"/>
-      <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
+      <c r="A350" s="1">
+        <v>232</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D350" s="1"/>
     </row>
     <row r="351" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A351" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B351" s="6"/>
-      <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
+      <c r="A351" s="1">
+        <v>225</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="352" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="6">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D352" s="6"/>
+    </row>
+    <row r="353" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A353" s="6">
+        <v>71</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353" s="6"/>
+    </row>
+    <row r="354" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A354" s="6">
+        <v>388</v>
+      </c>
+      <c r="B354" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D352" s="6"/>
-    </row>
-    <row r="353" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
-        <v>232</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D353" s="1"/>
-    </row>
-    <row r="354" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
-        <v>225</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>309</v>
-      </c>
+      <c r="C354" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D354" s="6"/>
     </row>
     <row r="355" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>236</v>
@@ -5398,7 +5391,7 @@
     </row>
     <row r="356" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>237</v>
@@ -5410,7 +5403,7 @@
     </row>
     <row r="357" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
-        <v>388</v>
+        <v>227</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>238</v>
@@ -5422,7 +5415,7 @@
     </row>
     <row r="358" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>239</v>
@@ -5434,7 +5427,7 @@
     </row>
     <row r="359" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>240</v>
@@ -5445,20 +5438,16 @@
       <c r="D359" s="6"/>
     </row>
     <row r="360" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A360" s="6">
-        <v>227</v>
-      </c>
-      <c r="B360" s="3" t="s">
+      <c r="A360" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C360" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B360" s="7"/>
+      <c r="C360" s="6"/>
       <c r="D360" s="6"/>
     </row>
     <row r="361" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="6">
-        <v>385</v>
+        <v>215</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>242</v>
@@ -5470,7 +5459,7 @@
     </row>
     <row r="362" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
-        <v>84</v>
+        <v>347</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>243</v>
@@ -5481,16 +5470,20 @@
       <c r="D362" s="6"/>
     </row>
     <row r="363" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A363" s="6" t="s">
+      <c r="A363" s="6">
+        <v>218</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B363" s="7"/>
-      <c r="C363" s="6"/>
+      <c r="C363" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D363" s="6"/>
     </row>
     <row r="364" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>245</v>
@@ -5502,233 +5495,233 @@
     </row>
     <row r="365" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D365" s="6"/>
-    </row>
-    <row r="366" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A366" s="6">
-        <v>218</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D366" s="6"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>302</v>
+      </c>
+      <c r="B366" s="8"/>
     </row>
     <row r="367" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="6">
-        <v>332</v>
+        <v>1021</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D367" s="6"/>
+        <v>304</v>
+      </c>
     </row>
     <row r="368" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
-        <v>341</v>
+        <v>456</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>305</v>
-      </c>
-      <c r="B369" s="8"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A369" s="6">
+        <v>636</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="370" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
-        <v>1021</v>
+        <v>735</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
-        <v>456</v>
+        <v>880</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A372" s="6">
-        <v>636</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A373" s="6">
-        <v>735</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A374" s="6">
-        <v>880</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A375" s="6"/>
-      <c r="B375" s="3"/>
-    </row>
-    <row r="378" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A378" s="5" t="s">
+      <c r="A372" s="6"/>
+      <c r="B372" s="3"/>
+    </row>
+    <row r="375" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A376" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B376" s="6"/>
+      <c r="C376" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A377" s="6">
+        <v>389</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D377" s="6"/>
+    </row>
+    <row r="378" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A378" s="6">
+        <v>136</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D378" s="6"/>
+    </row>
+    <row r="379" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A379" s="6">
+        <v>318</v>
+      </c>
+      <c r="B379" s="3" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A379" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B379" s="6"/>
-      <c r="C379" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
-        <v>389</v>
+        <v>169</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D380" s="6"/>
+        <v>311</v>
+      </c>
     </row>
     <row r="381" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A381" s="6">
-        <v>136</v>
-      </c>
+      <c r="A381" s="6"/>
       <c r="B381" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D381" s="6"/>
+        <v>312</v>
+      </c>
     </row>
     <row r="382" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="6">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A383" s="6"/>
+      <c r="B383" s="3"/>
+    </row>
+    <row r="386" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A387" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B387" s="6"/>
+      <c r="C387" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A388" s="6">
+        <v>207</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D388" s="6"/>
+    </row>
+    <row r="389" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A389" s="6">
+        <v>210</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A383" s="6">
-        <v>169</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A384" s="6"/>
-      <c r="B384" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A385" s="6">
-        <v>268</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A386" s="6"/>
-      <c r="B386" s="3"/>
-    </row>
-    <row r="389" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A389" s="5" t="s">
+      <c r="C389" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D389" s="6"/>
+    </row>
+    <row r="390" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A390" s="6">
+        <v>269</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A390" s="6" t="s">
+    <row r="393" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A394" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B390" s="6"/>
-      <c r="C390" s="6" t="s">
+      <c r="B394" s="6"/>
+      <c r="C394" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A391" s="6">
-        <v>207</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D391" s="6"/>
-    </row>
-    <row r="392" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A392" s="6">
-        <v>210</v>
-      </c>
-      <c r="B392" s="2" t="s">
+    <row r="395" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A395" s="6">
+        <v>384</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C392" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D392" s="6"/>
-    </row>
-    <row r="393" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A393" s="6">
-        <v>269</v>
-      </c>
-      <c r="B393" s="2" t="s">
+      <c r="C395" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D395" s="6"/>
+    </row>
+    <row r="396" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A396" s="6">
+        <v>398</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A396" s="5" t="s">
+      <c r="C396" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D396" s="6"/>
+    </row>
+    <row r="397" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A397" s="6">
+        <v>382</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A397" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B397" s="6"/>
-      <c r="C397" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C397" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D397" s="6"/>
     </row>
     <row r="398" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>259</v>
@@ -5740,7 +5733,7 @@
     </row>
     <row r="399" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>260</v>
@@ -5752,64 +5745,66 @@
     </row>
     <row r="400" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D400" s="6"/>
-    </row>
-    <row r="401" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A401" s="6">
-        <v>380</v>
-      </c>
-      <c r="B401" s="2" t="s">
+    </row>
+    <row r="403" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D401" s="6"/>
-    </row>
-    <row r="402" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A402" s="6">
-        <v>381</v>
-      </c>
-      <c r="B402" s="2" t="s">
+    </row>
+    <row r="404" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A404" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B404" s="6"/>
+      <c r="C404" s="6"/>
+      <c r="D404" s="6"/>
+    </row>
+    <row r="405" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A405" s="6">
+        <v>359</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D402" s="6"/>
-    </row>
-    <row r="403" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A403" s="6">
-        <v>138</v>
-      </c>
-      <c r="B403" s="2" t="s">
+      <c r="C405" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D405" s="6"/>
+    </row>
+    <row r="406" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A406" s="6">
+        <v>346</v>
+      </c>
+      <c r="B406" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A406" s="5" t="s">
+      <c r="C406" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A407" s="6">
+        <v>362</v>
+      </c>
+      <c r="B407" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A407" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B407" s="6"/>
-      <c r="C407" s="6"/>
+      <c r="C407" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D407" s="6"/>
     </row>
     <row r="408" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
-        <v>359</v>
+        <v>281</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>266</v>
@@ -5821,7 +5816,7 @@
     </row>
     <row r="409" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>267</v>
@@ -5829,13 +5824,11 @@
       <c r="C409" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D409" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="D409" s="6"/>
     </row>
     <row r="410" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
-        <v>362</v>
+        <v>251</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>268</v>
@@ -5847,7 +5840,7 @@
     </row>
     <row r="411" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>269</v>
@@ -5859,9 +5852,9 @@
     </row>
     <row r="412" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
-        <v>284</v>
-      </c>
-      <c r="B412" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C412" s="2" t="s">
@@ -5871,9 +5864,9 @@
     </row>
     <row r="413" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
-        <v>251</v>
-      </c>
-      <c r="B413" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>271</v>
       </c>
       <c r="C413" s="2" t="s">
@@ -5883,9 +5876,9 @@
     </row>
     <row r="414" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
-        <v>288</v>
-      </c>
-      <c r="B414" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C414" s="2" t="s">
@@ -5895,7 +5888,7 @@
     </row>
     <row r="415" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
-        <v>170</v>
+        <v>353</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>273</v>
@@ -5907,7 +5900,7 @@
     </row>
     <row r="416" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
-        <v>348</v>
+        <v>146</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>274</v>
@@ -5919,7 +5912,7 @@
     </row>
     <row r="417" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>275</v>
@@ -5931,7 +5924,7 @@
     </row>
     <row r="418" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>276</v>
@@ -5943,7 +5936,7 @@
     </row>
     <row r="419" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>277</v>
@@ -5955,7 +5948,7 @@
     </row>
     <row r="420" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>278</v>
@@ -5963,98 +5956,98 @@
       <c r="C420" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D420" s="6"/>
+      <c r="D420" s="6" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="421" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B421" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D421" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C421" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D421" s="6"/>
     </row>
     <row r="422" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
-        <v>304</v>
+        <v>705</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D422" s="6"/>
-    </row>
-    <row r="423" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A423" s="6">
-        <v>307</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D423" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
-        <v>308</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D424" s="6" t="s">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>697</v>
+      </c>
+      <c r="B425" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A425" s="6">
-        <v>705</v>
-      </c>
-      <c r="B425" s="2" t="s">
+    <row r="428" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A428" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A427" s="6">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428">
-        <v>697</v>
-      </c>
-      <c r="B428" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A431" s="9" t="s">
+    <row r="429" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+    </row>
+    <row r="430" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>35</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>33</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D431" s="1"/>
+    </row>
+    <row r="432" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>81</v>
+      </c>
+      <c r="B432" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A432" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
+      <c r="C432" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D432" s="1"/>
     </row>
     <row r="433" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>35</v>
-      </c>
-      <c r="B433" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B433" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C433" s="2" t="s">
@@ -6064,7 +6057,7 @@
     </row>
     <row r="434" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>292</v>
@@ -6076,7 +6069,7 @@
     </row>
     <row r="435" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>293</v>
@@ -6088,7 +6081,7 @@
     </row>
     <row r="436" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>153</v>
+        <v>374</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>294</v>
@@ -6100,7 +6093,7 @@
     </row>
     <row r="437" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>295</v>
@@ -6112,7 +6105,7 @@
     </row>
     <row r="438" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>296</v>
@@ -6124,7 +6117,7 @@
     </row>
     <row r="439" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>297</v>
@@ -6136,724 +6129,682 @@
     </row>
     <row r="440" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D440" s="1"/>
     </row>
     <row r="441" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>315</v>
-      </c>
-      <c r="B441" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D441" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="442" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
+        <v>50</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A444" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>500</v>
+      </c>
+      <c r="B445" t="s">
         <v>300</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D442" s="1"/>
-    </row>
-    <row r="443" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
-        <v>354</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A444" s="1">
-        <v>4</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
-        <v>50</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A447" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448">
-        <v>500</v>
-      </c>
-      <c r="B448" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B209" r:id="rId1" display="https://leetcode.com/problems/permutation-sequence/description/" xr:uid="{7470F00A-0C28-9542-8BB8-840C29E37DA8}"/>
-    <hyperlink ref="C209" r:id="rId2" display="https://cspiration.com/login" xr:uid="{E339835C-3FF5-154D-83A5-D922A203F2B3}"/>
-    <hyperlink ref="B210" r:id="rId3" display="https://leetcode.com/problems/word-pattern-ii/description/" xr:uid="{475D2E19-9E2A-5A40-9967-744727496941}"/>
-    <hyperlink ref="C210" r:id="rId4" display="https://cspiration.com/login" xr:uid="{EE42A40A-13BC-BE4B-A326-E559CD4D7078}"/>
-    <hyperlink ref="B211" r:id="rId5" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/" xr:uid="{8410A8D8-2A96-2545-A707-B152E3483747}"/>
-    <hyperlink ref="C211" r:id="rId6" display="https://cspiration.com/login" xr:uid="{36FD5254-8C9A-0E48-AFDE-6B5494DFC976}"/>
-    <hyperlink ref="B212" r:id="rId7" display="https://leetcode.com/problems/generalized-abbreviation/description/" xr:uid="{A694FCD3-9DE6-C040-AE34-B16162B92776}"/>
-    <hyperlink ref="C212" r:id="rId8" display="https://cspiration.com/login" xr:uid="{C42B1CFF-4402-C94B-A66E-E0E82DDAA67D}"/>
-    <hyperlink ref="B213" r:id="rId9" display="https://leetcode.com/problems/expression-add-operators/description/" xr:uid="{C3D6AF2C-B408-D844-B031-4DA29F73A880}"/>
-    <hyperlink ref="C213" r:id="rId10" display="https://cspiration.com/login" xr:uid="{5902E035-85D4-EF41-889F-43801918206D}"/>
-    <hyperlink ref="B214" r:id="rId11" display="https://leetcode.com/problems/word-break-ii/description/" xr:uid="{C875713A-B2BF-C74B-AF74-39845CD139B9}"/>
-    <hyperlink ref="C214" r:id="rId12" display="https://cspiration.com/login" xr:uid="{05136ABA-F832-6444-9448-22BAD9D990D5}"/>
-    <hyperlink ref="B215" r:id="rId13" display="https://leetcode.com/problems/android-unlock-patterns/description/" xr:uid="{D4D2A625-1C06-594E-9061-782BDAF31A24}"/>
-    <hyperlink ref="B221" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/description/" xr:uid="{EBAE420C-2F6E-2947-9A9A-EC2C6413488B}"/>
-    <hyperlink ref="C221" r:id="rId15" display="https://cspiration.com/login" xr:uid="{1553DB48-9774-2A44-8A95-6A09994C2802}"/>
-    <hyperlink ref="B222" r:id="rId16" display="https://leetcode.com/problems/unique-paths/description/" xr:uid="{95F59D7D-71AD-9C45-8332-BEEF446345DD}"/>
-    <hyperlink ref="C222" r:id="rId17" display="https://cspiration.com/login" xr:uid="{B50BC24B-E5ED-224E-BBD2-FEDB59A4B9C8}"/>
-    <hyperlink ref="B223" r:id="rId18" display="https://leetcode.com/problems/unique-paths-ii/description/" xr:uid="{3C785738-AF2C-7D49-A676-40642165F7E9}"/>
-    <hyperlink ref="C223" r:id="rId19" display="https://cspiration.com/login" xr:uid="{D139F891-E2F5-8A4E-845C-1152D649243B}"/>
-    <hyperlink ref="B224" r:id="rId20" display="https://leetcode.com/problems/perfect-squares/description/" xr:uid="{F1E40C95-00F8-2849-9001-A228CD479539}"/>
-    <hyperlink ref="C224" r:id="rId21" display="https://cspiration.com/login" xr:uid="{3D8A92E9-FB93-4E49-B14B-A18B499D0787}"/>
-    <hyperlink ref="B225" r:id="rId22" display="https://leetcode.com/problems/word-break/" xr:uid="{1C41DBB7-6CCE-FD4D-A267-F78FE233940D}"/>
-    <hyperlink ref="C225" r:id="rId23" display="https://cspiration.com/login" xr:uid="{CDE6F565-251B-2E45-9223-1D578CC89854}"/>
-    <hyperlink ref="B226" r:id="rId24" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/description/" xr:uid="{415C0B92-011D-5446-AA9F-D55206245A9E}"/>
-    <hyperlink ref="C226" r:id="rId25" display="https://cspiration.com/login" xr:uid="{6342F0B5-FAE1-9549-B0EB-BA4B9151C6A6}"/>
-    <hyperlink ref="B227" r:id="rId26" display="https://leetcode.com/problems/burst-balloons/description/" xr:uid="{462BC2C3-5EF9-0B45-B0B5-AD50E1D72B3E}"/>
-    <hyperlink ref="C227" r:id="rId27" display="https://cspiration.com/login" xr:uid="{7CC75275-A0BF-C447-8C55-0AB512699970}"/>
-    <hyperlink ref="B228" r:id="rId28" display="https://leetcode.com/problems/coin-change/description/" xr:uid="{4751D5B9-78E7-1647-A94D-B787C4C6DAC8}"/>
-    <hyperlink ref="C228" r:id="rId29" display="https://cspiration.com/login" xr:uid="{28C04F21-7959-C243-A6A5-4EEA9824A11F}"/>
-    <hyperlink ref="B230" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
-    <hyperlink ref="C230" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
-    <hyperlink ref="B231" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
-    <hyperlink ref="C231" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
-    <hyperlink ref="B232" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
-    <hyperlink ref="C232" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
-    <hyperlink ref="B233" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
-    <hyperlink ref="C233" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
-    <hyperlink ref="B234" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
-    <hyperlink ref="C234" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
-    <hyperlink ref="B235" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
-    <hyperlink ref="C235" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
-    <hyperlink ref="B236" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
-    <hyperlink ref="C236" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
-    <hyperlink ref="B238" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
-    <hyperlink ref="C238" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
-    <hyperlink ref="B239" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
-    <hyperlink ref="C239" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
-    <hyperlink ref="B242" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
-    <hyperlink ref="C242" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
-    <hyperlink ref="B243" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
-    <hyperlink ref="C243" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
-    <hyperlink ref="B244" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
-    <hyperlink ref="C244" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
-    <hyperlink ref="B245" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
-    <hyperlink ref="C245" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
-    <hyperlink ref="B246" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
-    <hyperlink ref="C246" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
-    <hyperlink ref="B247" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
-    <hyperlink ref="B263" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
-    <hyperlink ref="C263" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
-    <hyperlink ref="B264" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
-    <hyperlink ref="C264" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
-    <hyperlink ref="B265" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
-    <hyperlink ref="C265" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
-    <hyperlink ref="B266" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
-    <hyperlink ref="C266" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
-    <hyperlink ref="B267" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
-    <hyperlink ref="C267" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
-    <hyperlink ref="B268" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
-    <hyperlink ref="C268" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
-    <hyperlink ref="B269" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
-    <hyperlink ref="C269" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
-    <hyperlink ref="B270" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
-    <hyperlink ref="C270" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
-    <hyperlink ref="B271" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
-    <hyperlink ref="C271" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
-    <hyperlink ref="B272" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
-    <hyperlink ref="C272" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
-    <hyperlink ref="B273" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
-    <hyperlink ref="C273" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
-    <hyperlink ref="B274" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
-    <hyperlink ref="C274" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
-    <hyperlink ref="B275" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
-    <hyperlink ref="C275" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
-    <hyperlink ref="B276" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
-    <hyperlink ref="C276" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
-    <hyperlink ref="B278" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
-    <hyperlink ref="C278" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
-    <hyperlink ref="B279" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
-    <hyperlink ref="C279" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
-    <hyperlink ref="B280" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
-    <hyperlink ref="C280" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
-    <hyperlink ref="B281" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
-    <hyperlink ref="C281" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
-    <hyperlink ref="B282" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
-    <hyperlink ref="C282" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
-    <hyperlink ref="B283" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
-    <hyperlink ref="C283" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
-    <hyperlink ref="B284" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
-    <hyperlink ref="C284" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
-    <hyperlink ref="B285" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
-    <hyperlink ref="C285" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
-    <hyperlink ref="B286" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
-    <hyperlink ref="B291" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
-    <hyperlink ref="C291" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
-    <hyperlink ref="B292" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
-    <hyperlink ref="C292" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
-    <hyperlink ref="B293" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
-    <hyperlink ref="C293" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
-    <hyperlink ref="B294" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
-    <hyperlink ref="C294" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
-    <hyperlink ref="B295" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
-    <hyperlink ref="C295" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
-    <hyperlink ref="B296" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
-    <hyperlink ref="C296" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B298" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C298" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B299" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C299" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B297" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B305" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C305" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B306" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C306" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B307" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
-    <hyperlink ref="B162" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
-    <hyperlink ref="C162" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
-    <hyperlink ref="B164" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
-    <hyperlink ref="C164" r:id="rId129" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
-    <hyperlink ref="B165" r:id="rId130" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
-    <hyperlink ref="C165" r:id="rId131" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
-    <hyperlink ref="B166" r:id="rId132" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
-    <hyperlink ref="C166" r:id="rId133" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
-    <hyperlink ref="B167" r:id="rId134" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
-    <hyperlink ref="C167" r:id="rId135" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
-    <hyperlink ref="B168" r:id="rId136" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
-    <hyperlink ref="C168" r:id="rId137" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
-    <hyperlink ref="B169" r:id="rId138" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
-    <hyperlink ref="C169" r:id="rId139" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
-    <hyperlink ref="B171" r:id="rId140" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
-    <hyperlink ref="C171" r:id="rId141" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
-    <hyperlink ref="B172" r:id="rId142" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
-    <hyperlink ref="C172" r:id="rId143" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
-    <hyperlink ref="B173" r:id="rId144" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
-    <hyperlink ref="C173" r:id="rId145" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
-    <hyperlink ref="B175" r:id="rId146" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
-    <hyperlink ref="C175" r:id="rId147" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
-    <hyperlink ref="B176" r:id="rId148" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
-    <hyperlink ref="C176" r:id="rId149" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
-    <hyperlink ref="B177" r:id="rId150" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
-    <hyperlink ref="C177" r:id="rId151" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
-    <hyperlink ref="B178" r:id="rId152" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
-    <hyperlink ref="C178" r:id="rId153" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
-    <hyperlink ref="B179" r:id="rId154" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
-    <hyperlink ref="C179" r:id="rId155" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
-    <hyperlink ref="B180" r:id="rId156" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
-    <hyperlink ref="C180" r:id="rId157" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
-    <hyperlink ref="B181" r:id="rId158" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
-    <hyperlink ref="C181" r:id="rId159" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
-    <hyperlink ref="B182" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
-    <hyperlink ref="C182" r:id="rId161" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
-    <hyperlink ref="B183" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
-    <hyperlink ref="C183" r:id="rId163" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
-    <hyperlink ref="B184" r:id="rId164" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
-    <hyperlink ref="C184" r:id="rId165" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
-    <hyperlink ref="B185" r:id="rId166" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
-    <hyperlink ref="C185" r:id="rId167" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
-    <hyperlink ref="B186" r:id="rId168" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
-    <hyperlink ref="C186" r:id="rId169" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
-    <hyperlink ref="B188" r:id="rId170" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
-    <hyperlink ref="C188" r:id="rId171" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
-    <hyperlink ref="B189" r:id="rId172" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
-    <hyperlink ref="C189" r:id="rId173" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
-    <hyperlink ref="B190" r:id="rId174" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
-    <hyperlink ref="C190" r:id="rId175" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
-    <hyperlink ref="B192" r:id="rId176" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
-    <hyperlink ref="C192" r:id="rId177" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
-    <hyperlink ref="B198" r:id="rId178" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
-    <hyperlink ref="C198" r:id="rId179" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
-    <hyperlink ref="B199" r:id="rId180" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
-    <hyperlink ref="C199" r:id="rId181" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
-    <hyperlink ref="B200" r:id="rId182" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
-    <hyperlink ref="C200" r:id="rId183" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
-    <hyperlink ref="B201" r:id="rId184" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
-    <hyperlink ref="C201" r:id="rId185" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
-    <hyperlink ref="B202" r:id="rId186" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
-    <hyperlink ref="C202" r:id="rId187" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
-    <hyperlink ref="B203" r:id="rId188" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
-    <hyperlink ref="C203" r:id="rId189" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
-    <hyperlink ref="B204" r:id="rId190" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
-    <hyperlink ref="C204" r:id="rId191" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
-    <hyperlink ref="B205" r:id="rId192" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
-    <hyperlink ref="C205" r:id="rId193" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
-    <hyperlink ref="B206" r:id="rId194" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
-    <hyperlink ref="C206" r:id="rId195" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
-    <hyperlink ref="B207" r:id="rId196" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
-    <hyperlink ref="C207" r:id="rId197" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
-    <hyperlink ref="B208" r:id="rId198" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
-    <hyperlink ref="C208" r:id="rId199" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
-    <hyperlink ref="C161" r:id="rId200" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
-    <hyperlink ref="B161" r:id="rId201" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
-    <hyperlink ref="C160" r:id="rId202" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
-    <hyperlink ref="B160" r:id="rId203" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
-    <hyperlink ref="C159" r:id="rId204" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
-    <hyperlink ref="B159" r:id="rId205" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
-    <hyperlink ref="C158" r:id="rId206" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
-    <hyperlink ref="B158" r:id="rId207" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
-    <hyperlink ref="C157" r:id="rId208" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
-    <hyperlink ref="B157" r:id="rId209" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
-    <hyperlink ref="C156" r:id="rId210" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
-    <hyperlink ref="B156" r:id="rId211" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
-    <hyperlink ref="C155" r:id="rId212" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
-    <hyperlink ref="B155" r:id="rId213" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
-    <hyperlink ref="C154" r:id="rId214" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
-    <hyperlink ref="B154" r:id="rId215" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
-    <hyperlink ref="C152" r:id="rId216" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
-    <hyperlink ref="B152" r:id="rId217" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
-    <hyperlink ref="C151" r:id="rId218" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
-    <hyperlink ref="B151" r:id="rId219" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
-    <hyperlink ref="C150" r:id="rId220" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
-    <hyperlink ref="B150" r:id="rId221" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
-    <hyperlink ref="C149" r:id="rId222" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
-    <hyperlink ref="B149" r:id="rId223" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
-    <hyperlink ref="B119" r:id="rId224" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
-    <hyperlink ref="C119" r:id="rId225" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
-    <hyperlink ref="B120" r:id="rId226" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
-    <hyperlink ref="C120" r:id="rId227" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
-    <hyperlink ref="B121" r:id="rId228" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
-    <hyperlink ref="C121" r:id="rId229" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
-    <hyperlink ref="B122" r:id="rId230" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
-    <hyperlink ref="C122" r:id="rId231" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
-    <hyperlink ref="B123" r:id="rId232" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
-    <hyperlink ref="C123" r:id="rId233" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
-    <hyperlink ref="B124" r:id="rId234" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
-    <hyperlink ref="C124" r:id="rId235" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
-    <hyperlink ref="B126" r:id="rId236" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
-    <hyperlink ref="C126" r:id="rId237" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
-    <hyperlink ref="B127" r:id="rId238" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
-    <hyperlink ref="C127" r:id="rId239" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
-    <hyperlink ref="B128" r:id="rId240" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
-    <hyperlink ref="C128" r:id="rId241" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
-    <hyperlink ref="B129" r:id="rId242" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
-    <hyperlink ref="C129" r:id="rId243" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
-    <hyperlink ref="B130" r:id="rId244" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
-    <hyperlink ref="C130" r:id="rId245" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
-    <hyperlink ref="B131" r:id="rId246" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
-    <hyperlink ref="C131" r:id="rId247" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
-    <hyperlink ref="B132" r:id="rId248" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
-    <hyperlink ref="C132" r:id="rId249" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
-    <hyperlink ref="B133" r:id="rId250" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
-    <hyperlink ref="C133" r:id="rId251" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
-    <hyperlink ref="B134" r:id="rId252" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
-    <hyperlink ref="C134" r:id="rId253" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
-    <hyperlink ref="B136" r:id="rId254" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
-    <hyperlink ref="C136" r:id="rId255" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
-    <hyperlink ref="B137" r:id="rId256" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
-    <hyperlink ref="C137" r:id="rId257" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
-    <hyperlink ref="B138" r:id="rId258" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
-    <hyperlink ref="C138" r:id="rId259" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
-    <hyperlink ref="B139" r:id="rId260" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
-    <hyperlink ref="C139" r:id="rId261" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
-    <hyperlink ref="B140" r:id="rId262" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
-    <hyperlink ref="C140" r:id="rId263" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
-    <hyperlink ref="B142" r:id="rId264" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
-    <hyperlink ref="C142" r:id="rId265" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
-    <hyperlink ref="B143" r:id="rId266" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
-    <hyperlink ref="C143" r:id="rId267" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
-    <hyperlink ref="B144" r:id="rId268" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
-    <hyperlink ref="C144" r:id="rId269" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B313" r:id="rId270" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C313" r:id="rId271" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B314" r:id="rId272" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C314" r:id="rId273" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B315" r:id="rId274" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C315" r:id="rId275" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
-    <hyperlink ref="B317" r:id="rId276" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
-    <hyperlink ref="C317" r:id="rId277" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
-    <hyperlink ref="B323" r:id="rId278" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
-    <hyperlink ref="C323" r:id="rId279" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
-    <hyperlink ref="B322" r:id="rId280" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
-    <hyperlink ref="C322" r:id="rId281" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
-    <hyperlink ref="B324" r:id="rId282" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
-    <hyperlink ref="C324" r:id="rId283" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
-    <hyperlink ref="B329" r:id="rId284" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
-    <hyperlink ref="C329" r:id="rId285" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
-    <hyperlink ref="B330" r:id="rId286" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
-    <hyperlink ref="C330" r:id="rId287" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
-    <hyperlink ref="B331" r:id="rId288" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
-    <hyperlink ref="C331" r:id="rId289" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
-    <hyperlink ref="B332" r:id="rId290" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
-    <hyperlink ref="C332" r:id="rId291" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
-    <hyperlink ref="B333" r:id="rId292" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
-    <hyperlink ref="C333" r:id="rId293" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
-    <hyperlink ref="B334" r:id="rId294" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
-    <hyperlink ref="C334" r:id="rId295" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
-    <hyperlink ref="B335" r:id="rId296" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
-    <hyperlink ref="C335" r:id="rId297" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
-    <hyperlink ref="B336" r:id="rId298" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
-    <hyperlink ref="C336" r:id="rId299" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
-    <hyperlink ref="B337" r:id="rId300" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
-    <hyperlink ref="C337" r:id="rId301" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
-    <hyperlink ref="B338" r:id="rId302" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
-    <hyperlink ref="C338" r:id="rId303" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
-    <hyperlink ref="B339" r:id="rId304" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
-    <hyperlink ref="C339" r:id="rId305" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
-    <hyperlink ref="B340" r:id="rId306" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
-    <hyperlink ref="C340" r:id="rId307" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
-    <hyperlink ref="B341" r:id="rId308" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
-    <hyperlink ref="C341" r:id="rId309" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
-    <hyperlink ref="B342" r:id="rId310" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
-    <hyperlink ref="C342" r:id="rId311" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
-    <hyperlink ref="B343" r:id="rId312" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
-    <hyperlink ref="C343" r:id="rId313" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
-    <hyperlink ref="B344" r:id="rId314" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
-    <hyperlink ref="C344" r:id="rId315" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
-    <hyperlink ref="B345" r:id="rId316" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
-    <hyperlink ref="B352" r:id="rId317" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
-    <hyperlink ref="C352" r:id="rId318" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
-    <hyperlink ref="B355" r:id="rId319" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
-    <hyperlink ref="C355" r:id="rId320" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
-    <hyperlink ref="B356" r:id="rId321" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
-    <hyperlink ref="C356" r:id="rId322" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
-    <hyperlink ref="B357" r:id="rId323" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
-    <hyperlink ref="C357" r:id="rId324" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
-    <hyperlink ref="B358" r:id="rId325" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
-    <hyperlink ref="C358" r:id="rId326" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
-    <hyperlink ref="B359" r:id="rId327" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
-    <hyperlink ref="C359" r:id="rId328" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
-    <hyperlink ref="B360" r:id="rId329" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
-    <hyperlink ref="C360" r:id="rId330" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
-    <hyperlink ref="B361" r:id="rId331" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
-    <hyperlink ref="C361" r:id="rId332" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
-    <hyperlink ref="B362" r:id="rId333" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
-    <hyperlink ref="C362" r:id="rId334" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
-    <hyperlink ref="B364" r:id="rId335" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
-    <hyperlink ref="C364" r:id="rId336" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
-    <hyperlink ref="B365" r:id="rId337" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
-    <hyperlink ref="C365" r:id="rId338" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
-    <hyperlink ref="B366" r:id="rId339" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
-    <hyperlink ref="C366" r:id="rId340" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
-    <hyperlink ref="B367" r:id="rId341" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
-    <hyperlink ref="C367" r:id="rId342" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
-    <hyperlink ref="B368" r:id="rId343" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
-    <hyperlink ref="B380" r:id="rId344" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
-    <hyperlink ref="C380" r:id="rId345" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
-    <hyperlink ref="B381" r:id="rId346" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
-    <hyperlink ref="C381" r:id="rId347" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
-    <hyperlink ref="B382" r:id="rId348" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
-    <hyperlink ref="B391" r:id="rId349" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
-    <hyperlink ref="C391" r:id="rId350" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
-    <hyperlink ref="B392" r:id="rId351" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
-    <hyperlink ref="C392" r:id="rId352" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
-    <hyperlink ref="B393" r:id="rId353" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
-    <hyperlink ref="B398" r:id="rId354" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
-    <hyperlink ref="C398" r:id="rId355" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
-    <hyperlink ref="B399" r:id="rId356" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
-    <hyperlink ref="C399" r:id="rId357" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
-    <hyperlink ref="B400" r:id="rId358" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
-    <hyperlink ref="C400" r:id="rId359" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
-    <hyperlink ref="B401" r:id="rId360" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
-    <hyperlink ref="C401" r:id="rId361" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
-    <hyperlink ref="B402" r:id="rId362" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
-    <hyperlink ref="C402" r:id="rId363" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
-    <hyperlink ref="B403" r:id="rId364" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
-    <hyperlink ref="B408" r:id="rId365" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
-    <hyperlink ref="C408" r:id="rId366" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
-    <hyperlink ref="B409" r:id="rId367" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
-    <hyperlink ref="C409" r:id="rId368" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
-    <hyperlink ref="B410" r:id="rId369" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
-    <hyperlink ref="C410" r:id="rId370" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
-    <hyperlink ref="B411" r:id="rId371" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
-    <hyperlink ref="C411" r:id="rId372" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
-    <hyperlink ref="B412" r:id="rId373" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
-    <hyperlink ref="C412" r:id="rId374" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
-    <hyperlink ref="B413" r:id="rId375" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
-    <hyperlink ref="C413" r:id="rId376" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
-    <hyperlink ref="B414" r:id="rId377" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
-    <hyperlink ref="C414" r:id="rId378" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
-    <hyperlink ref="B415" r:id="rId379" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
-    <hyperlink ref="C415" r:id="rId380" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
-    <hyperlink ref="B416" r:id="rId381" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
-    <hyperlink ref="C416" r:id="rId382" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
-    <hyperlink ref="B417" r:id="rId383" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
-    <hyperlink ref="C417" r:id="rId384" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
-    <hyperlink ref="B418" r:id="rId385" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
-    <hyperlink ref="C418" r:id="rId386" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
-    <hyperlink ref="B419" r:id="rId387" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
-    <hyperlink ref="C419" r:id="rId388" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
-    <hyperlink ref="B420" r:id="rId389" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
-    <hyperlink ref="C420" r:id="rId390" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
-    <hyperlink ref="B421" r:id="rId391" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
-    <hyperlink ref="C421" r:id="rId392" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
-    <hyperlink ref="B422" r:id="rId393" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
-    <hyperlink ref="C422" r:id="rId394" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
-    <hyperlink ref="B423" r:id="rId395" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
-    <hyperlink ref="C423" r:id="rId396" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
-    <hyperlink ref="B424" r:id="rId397" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
-    <hyperlink ref="C424" r:id="rId398" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
-    <hyperlink ref="B425" r:id="rId399" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
-    <hyperlink ref="B216" r:id="rId400" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
-    <hyperlink ref="B248" r:id="rId401" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
-    <hyperlink ref="B300" r:id="rId402" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
-    <hyperlink ref="B433" r:id="rId403" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{EB4E5B68-F05A-0C4B-9F53-41E4DBCA4F9E}"/>
-    <hyperlink ref="C433" r:id="rId404" display="https://cspiration.com/login" xr:uid="{CA1BBCD7-117A-A64E-8F77-852F33D02DB2}"/>
-    <hyperlink ref="B434" r:id="rId405" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{5B45788F-BB03-4843-BD6A-B976C9FCAEF1}"/>
-    <hyperlink ref="C434" r:id="rId406" display="https://cspiration.com/login" xr:uid="{551CAD20-3D2A-A64A-B23A-A01403C05DE0}"/>
-    <hyperlink ref="B435" r:id="rId407" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{89F11509-794F-0147-A002-99DBFE4011DC}"/>
-    <hyperlink ref="C435" r:id="rId408" display="https://cspiration.com/login" xr:uid="{A8D71102-8F66-8143-AADE-EC0B951315AF}"/>
-    <hyperlink ref="B436" r:id="rId409" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{A4765584-11DB-8C47-A9D8-28BCD3B3DB04}"/>
-    <hyperlink ref="C436" r:id="rId410" display="https://cspiration.com/login" xr:uid="{67A40D64-8C16-AB40-AF02-EC047B85587D}"/>
-    <hyperlink ref="B437" r:id="rId411" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{1C321054-4E86-0A4C-A5A9-D1503A97B9B0}"/>
-    <hyperlink ref="C437" r:id="rId412" display="https://cspiration.com/login" xr:uid="{4230A88F-C71C-F14B-89AA-04DA1B742A89}"/>
-    <hyperlink ref="B438" r:id="rId413" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{736794C5-518A-194B-A096-354260C26D19}"/>
-    <hyperlink ref="C438" r:id="rId414" display="https://cspiration.com/login" xr:uid="{CC616423-7FF6-4546-BE49-14971E421AB1}"/>
-    <hyperlink ref="B439" r:id="rId415" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{AA2881B4-D507-6C4E-B5AC-66556CE2E240}"/>
-    <hyperlink ref="C439" r:id="rId416" display="https://cspiration.com/login" xr:uid="{497BA16C-CBAB-CD4C-B123-9991F3A2E286}"/>
-    <hyperlink ref="B440" r:id="rId417" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{D78ED803-9C52-3C4E-8DAB-2FE615A62AB4}"/>
-    <hyperlink ref="C440" r:id="rId418" display="https://cspiration.com/login" xr:uid="{A8AD4217-A555-BA44-A724-8A04E7730E30}"/>
-    <hyperlink ref="B441" r:id="rId419" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{39F3DFF8-98F3-604E-9124-DD7F0D40F1B0}"/>
-    <hyperlink ref="C441" r:id="rId420" display="https://cspiration.com/login" xr:uid="{3561FB2C-CD0E-A746-8C4B-80613899C341}"/>
-    <hyperlink ref="B442" r:id="rId421" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{E9195674-DC99-4B46-B0EE-98194075832A}"/>
-    <hyperlink ref="C442" r:id="rId422" display="https://cspiration.com/login" xr:uid="{916F2DEE-639E-C943-A663-2517B8604445}"/>
-    <hyperlink ref="B443" r:id="rId423" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{320B423A-BCFA-CE44-9951-2BD15ECD57E2}"/>
-    <hyperlink ref="B253" r:id="rId424" xr:uid="{600A5416-B5C9-BA47-892A-EE12A30AA3C9}"/>
-    <hyperlink ref="B257" r:id="rId425" xr:uid="{EADB0E54-5800-704D-A97B-CDE42026CFF8}"/>
-    <hyperlink ref="B370" r:id="rId426" xr:uid="{49EE6590-FC3C-C54F-A151-AA1FC6EF5061}"/>
-    <hyperlink ref="B353" r:id="rId427" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{E018DFB4-01AC-F645-8B90-8199997E6DD0}"/>
-    <hyperlink ref="C353" r:id="rId428" display="https://cspiration.com/login" xr:uid="{706E0A6D-CD70-2245-A6EA-B10034698AA6}"/>
-    <hyperlink ref="B354" r:id="rId429" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{0DF8CEC5-24F8-E745-8AEF-C177BA8C38D8}"/>
-    <hyperlink ref="B371" r:id="rId430" xr:uid="{6D13D071-F78E-C442-8632-E396881ABD22}"/>
-    <hyperlink ref="B372" r:id="rId431" xr:uid="{B66856FD-8BB7-CF4C-9F54-EF95505D135F}"/>
-    <hyperlink ref="B373" r:id="rId432" xr:uid="{3202C9A2-D22F-454B-BEEC-EC2EF095CF78}"/>
-    <hyperlink ref="B374" r:id="rId433" xr:uid="{0F820F81-AD67-2D4C-B1D6-92E7AE13C361}"/>
-    <hyperlink ref="B237" r:id="rId434" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
-    <hyperlink ref="B383" r:id="rId435" xr:uid="{12FCA401-D49E-F648-925D-5AA92C613FEE}"/>
-    <hyperlink ref="B384" r:id="rId436" xr:uid="{2AC0AA2F-79DF-D044-84B7-A131AC44BC10}"/>
-    <hyperlink ref="B385" r:id="rId437" xr:uid="{7F474B46-9483-0F48-AE6E-83C002C6D472}"/>
-    <hyperlink ref="B444" r:id="rId438" xr:uid="{30FFAA64-911B-8A47-9B10-24A60021362C}"/>
-    <hyperlink ref="B117" r:id="rId439" xr:uid="{328EC544-84F7-C546-82CB-6D867891F222}"/>
-    <hyperlink ref="C116" r:id="rId440" display="https://cspiration.com/login" xr:uid="{B24A14A7-52F4-E249-B609-37F1D91D19AF}"/>
-    <hyperlink ref="B116" r:id="rId441" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{5B3E385E-B11A-C64D-8285-B8177A8BCDA4}"/>
-    <hyperlink ref="C115" r:id="rId442" display="https://cspiration.com/login" xr:uid="{2F20FF9D-1F78-994B-9CE5-4B009BFBECC5}"/>
-    <hyperlink ref="B115" r:id="rId443" display="https://leetcode.com/problems/text-justification/description/" xr:uid="{BFE3B433-B31C-CC4A-B33B-40E03920BB14}"/>
-    <hyperlink ref="C114" r:id="rId444" display="https://cspiration.com/login" xr:uid="{F5ACF2D2-A531-424B-B3CF-993B83A1F7FB}"/>
-    <hyperlink ref="B114" r:id="rId445" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/" xr:uid="{C10019EB-7182-1D47-B84E-E88E23C5D8FA}"/>
-    <hyperlink ref="C113" r:id="rId446" display="https://cspiration.com/login" xr:uid="{D09C3F94-1D2B-AA4B-91A4-5F1C1C29C741}"/>
-    <hyperlink ref="B113" r:id="rId447" display="https://leetcode.com/problems/read-n-characters-given-read4/description/" xr:uid="{D18F3004-120C-9749-96EA-DA48816C8D97}"/>
-    <hyperlink ref="C111" r:id="rId448" display="https://cspiration.com/login" xr:uid="{6E8396B6-84C6-7E48-AA73-CE7E9B901407}"/>
-    <hyperlink ref="B111" r:id="rId449" display="https://leetcode.com/problems/strobogrammatic-number-ii/description/" xr:uid="{17DD45CF-4F79-9A48-A172-DF78FFE2BAFD}"/>
-    <hyperlink ref="C110" r:id="rId450" display="https://cspiration.com/login" xr:uid="{118BB6D1-D892-1D4A-A278-CEBA454174C9}"/>
-    <hyperlink ref="B110" r:id="rId451" display="https://leetcode.com/problems/strobogrammatic-number/description/" xr:uid="{072EA103-1AA4-6D4D-A811-07E7EFC53754}"/>
-    <hyperlink ref="C109" r:id="rId452" display="https://cspiration.com/login" xr:uid="{C8915A28-36A3-8D4D-A5D8-B28C51E8A13B}"/>
-    <hyperlink ref="B109" r:id="rId453" display="https://leetcode.com/problems/integer-to-english-words/description/" xr:uid="{E03F80C1-D861-5147-9CCC-8EBDA45C5F84}"/>
-    <hyperlink ref="C108" r:id="rId454" display="https://cspiration.com/login" xr:uid="{1E917630-0E9A-CA44-B4D0-335D33B3DAD4}"/>
-    <hyperlink ref="B108" r:id="rId455" display="https://leetcode.com/problems/integer-to-roman/description/" xr:uid="{EAE13DA7-A7CC-0045-9D4E-D3845B1D351A}"/>
-    <hyperlink ref="C107" r:id="rId456" display="https://cspiration.com/login" xr:uid="{A78FD53F-C3F7-174F-89F5-6A7F81AD86FB}"/>
-    <hyperlink ref="B107" r:id="rId457" display="https://leetcode.com/problems/roman-to-integer/description/" xr:uid="{3A2D8E6F-706D-5F42-8F12-6FDA83EDF015}"/>
-    <hyperlink ref="C106" r:id="rId458" display="https://cspiration.com/login" xr:uid="{68673230-A15D-DF41-9113-C0EC2A891D82}"/>
-    <hyperlink ref="B106" r:id="rId459" display="https://leetcode.com/problems/excel-sheet-column-number/description/" xr:uid="{EE4C5B10-4ED2-8B46-B331-B687A0FC87CC}"/>
-    <hyperlink ref="C105" r:id="rId460" display="https://cspiration.com/login" xr:uid="{39D15FCE-65DE-5B4E-9BC0-B864C6EAC70B}"/>
-    <hyperlink ref="B105" r:id="rId461" display="https://leetcode.com/problems/excel-sheet-column-title/description/" xr:uid="{7BC754D8-E75A-8B44-AD1B-7A259C99BFC0}"/>
-    <hyperlink ref="C104" r:id="rId462" display="https://cspiration.com/login" xr:uid="{FAFD0B63-78CD-8E4D-A1CA-07E70CC0FFBA}"/>
-    <hyperlink ref="B104" r:id="rId463" display="https://leetcode.com/problems/encode-and-decode-strings/description/" xr:uid="{25875E62-4A7E-D442-92FC-3F95DFABD8D2}"/>
-    <hyperlink ref="C103" r:id="rId464" display="https://cspiration.com/login" xr:uid="{DF13B8AA-9303-BE4C-9CE0-D00E513A3293}"/>
-    <hyperlink ref="B103" r:id="rId465" display="https://leetcode.com/problems/remove-duplicate-letters/description/" xr:uid="{41E9DFCB-F0F7-F142-B5A6-FD4B7DBC4BBA}"/>
-    <hyperlink ref="C102" r:id="rId466" display="https://cspiration.com/login" xr:uid="{6C5848D4-F1A3-5E43-A18B-3EF386A88DB8}"/>
-    <hyperlink ref="B102" r:id="rId467" display="https://leetcode.com/problems/rearrange-string-k-distance-apart/description/" xr:uid="{766E9D85-1888-2C4C-84BF-92C503F606F4}"/>
-    <hyperlink ref="C101" r:id="rId468" display="https://cspiration.com/login" xr:uid="{114602C0-CFEF-E04D-AF79-28A290AD5151}"/>
-    <hyperlink ref="B101" r:id="rId469" display="https://leetcode.com/problems/count-and-say/description/" xr:uid="{039EF842-D3DA-4B46-83A0-B0AE9E3B77E9}"/>
-    <hyperlink ref="C100" r:id="rId470" display="https://cspiration.com/login" xr:uid="{B27AAEDC-0D30-2646-990A-5B2240B5DC3E}"/>
-    <hyperlink ref="B100" r:id="rId471" display="https://leetcode.com/problems/one-edit-distance/" xr:uid="{709E24AB-4569-5E4E-B354-741841D8A3CF}"/>
-    <hyperlink ref="C99" r:id="rId472" display="https://cspiration.com/login" xr:uid="{B897081C-536E-124F-B44D-E65CD2DAE73A}"/>
-    <hyperlink ref="B99" r:id="rId473" display="https://leetcode.com/problems/scramble-string/description/" xr:uid="{8E7AE0F9-60C3-6C44-93A5-7BCE475FE65D}"/>
-    <hyperlink ref="C98" r:id="rId474" display="https://cspiration.com/login" xr:uid="{5AEB76A3-0CB4-724C-B27E-A5D3084DED56}"/>
-    <hyperlink ref="B98" r:id="rId475" display="https://leetcode.com/problems/group-shifted-strings/description/" xr:uid="{F88F7380-745F-2542-891F-D8189D659014}"/>
-    <hyperlink ref="C97" r:id="rId476" display="https://cspiration.com/login" xr:uid="{C8C9E0D7-A9FC-7849-BE2F-7412ACBD95EC}"/>
-    <hyperlink ref="B97" r:id="rId477" display="https://leetcode.com/problems/group-anagrams/description/" xr:uid="{912892C7-059C-B142-AD7B-1AC6617F6F3C}"/>
-    <hyperlink ref="C96" r:id="rId478" display="https://cspiration.com/login" xr:uid="{FBEBF316-2770-0D4C-AD03-785C42541C3B}"/>
-    <hyperlink ref="B96" r:id="rId479" display="https://leetcode.com/problems/valid-anagram/description/" xr:uid="{6A427A47-B738-1B47-B40C-0720744F00EB}"/>
-    <hyperlink ref="C95" r:id="rId480" display="https://cspiration.com/login" xr:uid="{D90BE585-BB70-8F4E-9C42-7DABEA1EE154}"/>
-    <hyperlink ref="B95" r:id="rId481" display="https://leetcode.com/problems/word-pattern/description/" xr:uid="{8A917EDD-4C17-0C4F-8EB3-0D2A69CF7E2D}"/>
-    <hyperlink ref="C94" r:id="rId482" display="https://cspiration.com/login" xr:uid="{60004F03-7CA3-7A49-A7B7-7A595C09CD21}"/>
-    <hyperlink ref="B94" r:id="rId483" display="https://leetcode.com/problems/flip-game-ii/description/" xr:uid="{B57E6DAA-DB1C-9D49-A5F5-9A1DDBE07E8C}"/>
-    <hyperlink ref="C93" r:id="rId484" display="https://cspiration.com/login" xr:uid="{F52B4708-49AD-4244-B763-FD44230220CC}"/>
-    <hyperlink ref="B93" r:id="rId485" display="https://leetcode.com/problems/flip-game/description/" xr:uid="{E38920AC-6E84-564B-B8BA-17E7F9BFDDBD}"/>
-    <hyperlink ref="C92" r:id="rId486" display="https://cspiration.com/login" xr:uid="{F49DA318-AFE5-E94E-B520-D86A38E11102}"/>
-    <hyperlink ref="B92" r:id="rId487" display="https://leetcode.com/problems/isomorphic-strings/description/" xr:uid="{069B1397-F0EF-0645-8828-263251550008}"/>
-    <hyperlink ref="C91" r:id="rId488" display="https://cspiration.com/login" xr:uid="{C8F12AB4-19EE-6143-BDA7-15328C7DA50A}"/>
-    <hyperlink ref="B91" r:id="rId489" display="https://leetcode.com/problems/reverse-vowels-of-a-string/description/" xr:uid="{03F64371-9FC5-6442-9F75-1D34AF197ECA}"/>
-    <hyperlink ref="C90" r:id="rId490" display="https://cspiration.com/login" xr:uid="{25731BF2-9D7D-2F47-8B04-2B971F79A6E7}"/>
-    <hyperlink ref="B90" r:id="rId491" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/description/" xr:uid="{20ACD6E3-C0D3-DC40-A581-E5A1DD349E75}"/>
-    <hyperlink ref="C89" r:id="rId492" display="https://cspiration.com/login" xr:uid="{F3144B11-0907-9247-B034-3BE234EB0031}"/>
-    <hyperlink ref="B89" r:id="rId493" display="https://leetcode.com/problems/reverse-words-in-a-string/description/" xr:uid="{E5D0091E-BD36-1849-86C4-AD6193E4DBF8}"/>
-    <hyperlink ref="C88" r:id="rId494" display="https://cspiration.com/login" xr:uid="{EF9807D4-7B95-6744-A12B-C9E96455C37F}"/>
-    <hyperlink ref="B88" r:id="rId495" display="https://leetcode.com/problems/reverse-string/description/" xr:uid="{968C8B06-BC69-2343-84F4-4279FF45A33D}"/>
-    <hyperlink ref="C87" r:id="rId496" display="https://cspiration.com/login" xr:uid="{295DA0DD-097C-494D-985C-0351F936CFAE}"/>
-    <hyperlink ref="B87" r:id="rId497" display="https://leetcode.com/problems/ransom-note/description/" xr:uid="{3D768C37-76A3-EB41-8CAF-A61CD430D930}"/>
-    <hyperlink ref="C86" r:id="rId498" display="https://cspiration.com/login" xr:uid="{83C1DBA7-7A1A-3942-8BBB-A55279A4114D}"/>
-    <hyperlink ref="B86" r:id="rId499" display="https://leetcode.com/problems/first-unique-character-in-a-string/description/" xr:uid="{C04F5C5C-DEE3-C44F-A74F-52C26D3F2FE9}"/>
-    <hyperlink ref="C85" r:id="rId500" display="https://cspiration.com/login" xr:uid="{D4837917-968A-1A47-A565-F2D02413B704}"/>
-    <hyperlink ref="B85" r:id="rId501" display="https://leetcode.com/problems/length-of-last-word/description/" xr:uid="{D114781F-CCE8-1B4D-B130-1F8DAA81F929}"/>
-    <hyperlink ref="C84" r:id="rId502" display="https://cspiration.com/login" xr:uid="{4EDAA73E-B4E4-4A4D-A1A3-B1BF3B641930}"/>
-    <hyperlink ref="B84" r:id="rId503" display="https://leetcode.com/problems/longest-common-prefix/description/" xr:uid="{4B66E93E-437A-C447-9D2D-14431C4B5C0D}"/>
-    <hyperlink ref="C83" r:id="rId504" display="https://cspiration.com/login" xr:uid="{8D4BEA64-F28F-194D-9BCA-1A1995FE751F}"/>
-    <hyperlink ref="B83" r:id="rId505" display="https://leetcode.com/problems/implement-strstr/description/" xr:uid="{D540EA7C-EB08-D54A-8BA0-D2BF3C8D7159}"/>
-    <hyperlink ref="B4" r:id="rId506" display="https://leetcode.com/problems/remove-element/" xr:uid="{286DDDF7-59E6-7942-AB56-D80FD67EB635}"/>
-    <hyperlink ref="C4" r:id="rId507" display="https://cspiration.com/login" xr:uid="{6289C977-265F-644E-B8D2-5B6CE5EDF2C5}"/>
-    <hyperlink ref="B5" r:id="rId508" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/description/" xr:uid="{54061707-31AA-0145-8670-CC6D36B1BEC0}"/>
-    <hyperlink ref="C5" r:id="rId509" display="https://cspiration.com/login" xr:uid="{500DFA5D-F023-0749-AFA4-C352803F48F7}"/>
-    <hyperlink ref="B6" r:id="rId510" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/description/" xr:uid="{4E4A31C0-310E-014C-9885-C01A90282C95}"/>
-    <hyperlink ref="C6" r:id="rId511" display="https://cspiration.com/login" xr:uid="{377F3F4C-58FD-334C-8DD9-487E1D54C5C7}"/>
-    <hyperlink ref="B7" r:id="rId512" display="https://leetcode.com/problems/find-the-celebrity/description/" xr:uid="{2AE4B2A8-9344-1A4D-884B-35DCE6B1F4B4}"/>
-    <hyperlink ref="C7" r:id="rId513" display="https://cspiration.com/login" xr:uid="{D1CA0B6E-47C3-9547-81ED-557FDEEAD369}"/>
-    <hyperlink ref="B8" r:id="rId514" display="https://leetcode.com/problems/rotate-array/description/" xr:uid="{1C059230-FBF8-E649-884D-CF497169C129}"/>
-    <hyperlink ref="C8" r:id="rId515" display="https://cspiration.com/login" xr:uid="{4028D27D-EBD2-6A49-89CF-D33C798BA103}"/>
-    <hyperlink ref="B9" r:id="rId516" display="https://leetcode.com/problems/first-missing-positive/description/" xr:uid="{AD3A344D-6377-554C-BD60-239E6E3AC0FC}"/>
-    <hyperlink ref="C9" r:id="rId517" display="https://cspiration.com/login" xr:uid="{CD1F4F36-1496-5044-BAF2-3A477B29A4E2}"/>
-    <hyperlink ref="B10" r:id="rId518" display="https://leetcode.com/problems/bulls-and-cows/" xr:uid="{A69D819E-6055-E34D-A728-367E645484E4}"/>
-    <hyperlink ref="C10" r:id="rId519" display="https://cspiration.com/login" xr:uid="{3BEEFEC0-7B97-B44C-B533-826AC3D21775}"/>
-    <hyperlink ref="B11" r:id="rId520" display="https://leetcode.com/problems/gas-station/description/" xr:uid="{7B52AC53-FCC4-DF40-8A5E-89993108D885}"/>
-    <hyperlink ref="C11" r:id="rId521" display="https://cspiration.com/login" xr:uid="{B496F49C-5324-1640-A525-C88E084994D4}"/>
-    <hyperlink ref="B12" r:id="rId522" display="https://leetcode.com/problems/pascals-triangle/description/" xr:uid="{DDABB772-6060-394A-B214-2275773F6D3E}"/>
-    <hyperlink ref="C12" r:id="rId523" display="https://cspiration.com/login" xr:uid="{C519359E-746F-384C-A54C-0C44D88999C9}"/>
-    <hyperlink ref="B13" r:id="rId524" display="https://leetcode.com/problems/pascals-triangle-ii/description/" xr:uid="{C81D50A0-155F-2445-B745-34608237939C}"/>
-    <hyperlink ref="C13" r:id="rId525" display="https://cspiration.com/login" xr:uid="{903804DF-1D79-9A4E-8628-7174BFD24F1C}"/>
-    <hyperlink ref="B14" r:id="rId526" display="https://leetcode.com/problems/majority-element/description/" xr:uid="{69AB1F79-F341-F141-8C95-44B7B1591E6C}"/>
-    <hyperlink ref="C14" r:id="rId527" display="https://cspiration.com/login" xr:uid="{3B18C2FB-ECCF-5442-8E59-E95EA871D982}"/>
-    <hyperlink ref="B15" r:id="rId528" display="https://leetcode.com/problems/majority-element-ii/description/" xr:uid="{26608E8F-1E25-184A-972D-33C857831471}"/>
-    <hyperlink ref="C15" r:id="rId529" display="https://cspiration.com/login" xr:uid="{1935743A-FCD0-DF4E-904A-99CC4AB30A83}"/>
-    <hyperlink ref="B16" r:id="rId530" display="https://leetcode.com/problems/h-index/description/" xr:uid="{4F55F64D-7580-F74A-9621-AD116C9948D6}"/>
-    <hyperlink ref="C16" r:id="rId531" display="https://cspiration.com/login" xr:uid="{06010F5E-8C06-8D4A-8000-34ADAF531876}"/>
-    <hyperlink ref="B17" r:id="rId532" display="https://leetcode.com/problems/h-index-ii/description/" xr:uid="{5DDBFBEC-1ED4-D54C-9244-10CA405CAF3E}"/>
-    <hyperlink ref="C17" r:id="rId533" display="https://cspiration.com/login" xr:uid="{0588393C-E0C4-064E-84C5-E2F39DE66F85}"/>
-    <hyperlink ref="B18" r:id="rId534" display="https://leetcode.com/problems/shortest-word-distance/description/" xr:uid="{ACF7CAFE-347A-5447-902C-8378B2BFF2A2}"/>
-    <hyperlink ref="C18" r:id="rId535" display="https://cspiration.com/login" xr:uid="{578194F7-1C68-BA41-9212-A53A84B0860F}"/>
-    <hyperlink ref="B19" r:id="rId536" display="https://leetcode.com/problems/shortest-word-distance-ii/description/" xr:uid="{2F21C965-8637-8C4E-9DBD-78567F5EF778}"/>
-    <hyperlink ref="C19" r:id="rId537" display="https://cspiration.com/login" xr:uid="{3EDFD659-EB6B-BB45-9BAF-D33A8834C8AE}"/>
-    <hyperlink ref="B20" r:id="rId538" display="https://leetcode.com/problems/shortest-word-distance-iii/description/" xr:uid="{49529AB1-C00C-3A4D-B6CD-5ABC7EEDF9D6}"/>
-    <hyperlink ref="C20" r:id="rId539" display="https://cspiration.com/login" xr:uid="{FFF267F9-900B-654D-BA9F-56A2F8E9BE29}"/>
-    <hyperlink ref="B21" r:id="rId540" display="https://leetcode.com/problems/contains-duplicate/description/" xr:uid="{C199CF97-509E-D84F-BD9B-94763D4C342E}"/>
-    <hyperlink ref="C21" r:id="rId541" display="https://cspiration.com/login" xr:uid="{620C5698-93A6-F446-9F9E-C5493F5ED009}"/>
-    <hyperlink ref="B22" r:id="rId542" display="https://leetcode.com/problems/contains-duplicate-ii/description/" xr:uid="{80651FE1-74A2-F14D-8D95-094BDEA92F1C}"/>
-    <hyperlink ref="C22" r:id="rId543" display="https://cspiration.com/login" xr:uid="{F5BFEEBA-961E-CA44-9714-D25CA68E5A0C}"/>
-    <hyperlink ref="B23" r:id="rId544" display="https://leetcode.com/problems/contains-duplicate-iii/description/" xr:uid="{CB2ADE9A-F80A-1841-964E-CE5C2535F5B4}"/>
-    <hyperlink ref="C23" r:id="rId545" display="https://cspiration.com/login" xr:uid="{EED180F8-8C96-1640-AA16-69E8E1E93742}"/>
-    <hyperlink ref="B24" r:id="rId546" display="https://leetcode.com/problems/jump-game/description/" xr:uid="{8764084C-5EF6-4042-8129-883109481164}"/>
-    <hyperlink ref="C24" r:id="rId547" display="https://cspiration.com/login" xr:uid="{E27ED8CB-2D95-E54F-9B5C-BC9A5C1ED355}"/>
-    <hyperlink ref="B25" r:id="rId548" display="https://leetcode.com/problems/jump-game-ii/description/" xr:uid="{BC1FDE14-4C59-AF4B-9126-C9C43D87FB7C}"/>
-    <hyperlink ref="C25" r:id="rId549" display="https://cspiration.com/login" xr:uid="{13FF1D19-2F45-9C48-B3B5-E7278999D8BD}"/>
-    <hyperlink ref="B26" r:id="rId550" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/" xr:uid="{AB26BBD6-5103-0349-AA58-BC7B302E9970}"/>
-    <hyperlink ref="C26" r:id="rId551" display="https://cspiration.com/login" xr:uid="{33CDC95E-8116-A74A-9089-7B3C19BEF100}"/>
-    <hyperlink ref="B27" r:id="rId552" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/description/" xr:uid="{70418F5B-7C62-B045-8BE1-F4A436E824D8}"/>
-    <hyperlink ref="C27" r:id="rId553" display="https://cspiration.com/login" xr:uid="{64FF64A7-D9C5-C14E-8BF3-147FCD6BA193}"/>
-    <hyperlink ref="B28" r:id="rId554" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/description/" xr:uid="{BE4B9E0A-F8ED-FD4C-B800-99A5F838F838}"/>
-    <hyperlink ref="C28" r:id="rId555" display="https://cspiration.com/login" xr:uid="{9E2965F7-EF40-2546-8BF6-8171A3D7D699}"/>
-    <hyperlink ref="B29" r:id="rId556" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/description/" xr:uid="{B4324FE5-67A8-6743-9FD6-51A3CBE6DB5D}"/>
-    <hyperlink ref="C29" r:id="rId557" display="https://cspiration.com/login" xr:uid="{8B01B975-8F42-C64B-A4CE-7308B2C7288A}"/>
-    <hyperlink ref="B30" r:id="rId558" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/description/" xr:uid="{412B0E17-B4C5-9447-B2E1-343BA598BB90}"/>
-    <hyperlink ref="C30" r:id="rId559" display="https://cspiration.com/login" xr:uid="{B2124E06-5477-024D-943D-489A9E083922}"/>
-    <hyperlink ref="B31" r:id="rId560" display="https://leetcode.com/problems/container-with-most-water/description/" xr:uid="{94B46ECA-1B5A-5F49-A7CD-88EF6CD41396}"/>
-    <hyperlink ref="C31" r:id="rId561" display="https://cspiration.com/login" xr:uid="{F42082C1-5EB1-FB4F-B6FC-3A51D34671CE}"/>
-    <hyperlink ref="B32" r:id="rId562" display="https://leetcode.com/problems/trapping-rain-water/description/" xr:uid="{B965047B-D350-A64B-9A9F-80CF5591D4E7}"/>
-    <hyperlink ref="C32" r:id="rId563" display="https://cspiration.com/login" xr:uid="{53778822-9D04-DB44-BDC7-142FFB8F0544}"/>
-    <hyperlink ref="B33" r:id="rId564" display="https://leetcode.com/problems/increasing-triplet-subsequence/description/" xr:uid="{252FF506-7BDD-1C42-B0E3-236B0C561986}"/>
-    <hyperlink ref="C33" r:id="rId565" display="https://cspiration.com/login" xr:uid="{0AE9C9D8-2B56-F54A-8CA4-0B30903FCBFB}"/>
-    <hyperlink ref="B34" r:id="rId566" display="https://leetcode.com/problems/longest-consecutive-sequence/description/" xr:uid="{49033D2D-FAC4-9B49-A148-7EE18FE323CC}"/>
-    <hyperlink ref="C34" r:id="rId567" display="https://cspiration.com/login" xr:uid="{2E27E6D8-527B-8444-A061-19D919F78DB9}"/>
-    <hyperlink ref="B35" r:id="rId568" display="https://leetcode.com/problems/maximum-gap/description/" xr:uid="{AB343659-F16E-544D-8F05-FE06FA9CE468}"/>
-    <hyperlink ref="C35" r:id="rId569" display="https://cspiration.com/login" xr:uid="{4AF306DE-C238-044D-BF94-9C1EAB28ED35}"/>
-    <hyperlink ref="B36" r:id="rId570" display="https://leetcode.com/problems/find-the-duplicate-number/description/" xr:uid="{EA5B0306-9509-6A43-9DDA-C1A8653CB329}"/>
-    <hyperlink ref="C36" r:id="rId571" display="https://cspiration.com/login" xr:uid="{7E063BD7-130E-5744-BC8B-93A14DD66751}"/>
-    <hyperlink ref="B38" r:id="rId572" display="https://leetcode.com/problems/count-of-range-sum/description/" xr:uid="{80C6C391-73D2-974E-9911-4CCF95A44D83}"/>
-    <hyperlink ref="C38" r:id="rId573" display="https://cspiration.com/login" xr:uid="{E2D8B732-D801-864D-AD99-02EABB8BF434}"/>
-    <hyperlink ref="B39" r:id="rId574" display="https://leetcode.com/problems/game-of-life/description/" xr:uid="{B6D2B16B-38B1-3E44-94AD-E3BC87CA8A22}"/>
-    <hyperlink ref="C39" r:id="rId575" display="https://cspiration.com/login" xr:uid="{3FC338A6-142C-A848-8589-2C9790DDFF9E}"/>
-    <hyperlink ref="B42" r:id="rId576" display="https://leetcode.com/problems/insert-interval/description/" xr:uid="{6C2A8480-E5AC-8A44-9335-F6C639AF2E95}"/>
-    <hyperlink ref="C42" r:id="rId577" display="https://cspiration.com/login" xr:uid="{F8DE944A-A18A-0944-9AC7-EE32C5F72558}"/>
-    <hyperlink ref="B43" r:id="rId578" display="https://leetcode.com/problems/merge-intervals/description/" xr:uid="{23112536-8B98-F54D-B09F-F431EE1B8F93}"/>
-    <hyperlink ref="C43" r:id="rId579" display="https://cspiration.com/login" xr:uid="{A39C7231-07A9-BA48-BF15-A1F75EF9FE87}"/>
-    <hyperlink ref="B44" r:id="rId580" display="https://leetcode.com/problems/meeting-rooms/description/" xr:uid="{5C3D4B76-A904-C741-9C3D-DE2A7C5ED6E8}"/>
-    <hyperlink ref="C44" r:id="rId581" display="https://cspiration.com/login" xr:uid="{67472EA0-7E94-B44C-8E5F-6072F5E17A27}"/>
-    <hyperlink ref="B45" r:id="rId582" display="https://leetcode.com/problems/meeting-rooms-ii/description/" xr:uid="{6D682A9C-B23F-9246-8A8C-40DBE4263FD4}"/>
-    <hyperlink ref="C45" r:id="rId583" display="https://cspiration.com/login" xr:uid="{9658DE32-482B-844D-969F-87DF98D3A6BA}"/>
-    <hyperlink ref="B46" r:id="rId584" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals/description/" xr:uid="{363AD7A4-77B4-AD41-B36D-8A8A28C96C07}"/>
-    <hyperlink ref="C46" r:id="rId585" display="https://cspiration.com/login" xr:uid="{E4937207-F171-D948-B11B-4BD4CFF7C309}"/>
-    <hyperlink ref="B48" r:id="rId586" display="https://leetcode.com/problems/sliding-window-maximum/description/" xr:uid="{6B330C64-33F3-2847-BECD-21578E508703}"/>
-    <hyperlink ref="C48" r:id="rId587" display="https://cspiration.com/login" xr:uid="{8B20010B-E05E-B845-A005-4AB71BA17E10}"/>
-    <hyperlink ref="B49" r:id="rId588" display="https://leetcode.com/problems/find-median-from-data-stream/description/" xr:uid="{88616AB8-1BA7-DA4D-A4BB-C3C4462C1296}"/>
-    <hyperlink ref="C49" r:id="rId589" display="https://cspiration.com/login" xr:uid="{BF3597DB-8B5F-FB40-9939-DC241A28402B}"/>
-    <hyperlink ref="B50" r:id="rId590" display="https://leetcode.com/problems/maximum-subarray/description/" xr:uid="{406FD43F-0798-E642-BB56-BC921A6085F4}"/>
-    <hyperlink ref="C50" r:id="rId591" display="https://cspiration.com/login" xr:uid="{C69856FC-4FB9-9B44-A6AC-9B0A96B4B793}"/>
-    <hyperlink ref="B51" r:id="rId592" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/" xr:uid="{CB0F3741-5345-EF48-8079-A0BBECE4A9AA}"/>
-    <hyperlink ref="C51" r:id="rId593" display="https://cspiration.com/login" xr:uid="{91523018-8F0E-364D-9D14-A5A64D4E39B9}"/>
-    <hyperlink ref="B52" r:id="rId594" display="https://leetcode.com/problems/minimum-size-subarray-sum/description/" xr:uid="{AE6C805C-635A-9542-9BBC-2AE4730E03FC}"/>
-    <hyperlink ref="C52" r:id="rId595" display="https://cspiration.com/login" xr:uid="{64777FEE-DA09-F649-8B12-B77B7BE49760}"/>
-    <hyperlink ref="B53" r:id="rId596" display="https://leetcode.com/problems/product-of-array-except-self/description/" xr:uid="{74E76B45-0875-BB40-9B63-1A9381CF2C36}"/>
-    <hyperlink ref="C53" r:id="rId597" display="https://cspiration.com/login" xr:uid="{C5CBC0E6-9F42-A045-9414-3FBA3B99705D}"/>
-    <hyperlink ref="B54" r:id="rId598" display="https://leetcode.com/problems/maximum-product-subarray/description/" xr:uid="{F23782EB-BCFC-B342-BD96-9C803A1706DC}"/>
-    <hyperlink ref="C54" r:id="rId599" display="https://cspiration.com/login" xr:uid="{9702A18F-6E9C-564E-93A0-EC64595D8A32}"/>
-    <hyperlink ref="B55" r:id="rId600" display="https://leetcode.com/problems/summary-ranges/description/" xr:uid="{E7ECC2F9-41B6-3F49-890A-4899B93DF0B5}"/>
-    <hyperlink ref="C55" r:id="rId601" display="https://cspiration.com/login" xr:uid="{1E46A367-564A-AC48-8595-2D5B847FB5CE}"/>
-    <hyperlink ref="B56" r:id="rId602" display="https://leetcode.com/problems/missing-ranges/description/" xr:uid="{402F93F5-BC4D-1D4E-877F-C63BADFCCA14}"/>
-    <hyperlink ref="C56" r:id="rId603" display="https://cspiration.com/login" xr:uid="{C903A732-2719-B14F-92BC-F7811711584E}"/>
-    <hyperlink ref="B58" r:id="rId604" display="https://leetcode.com/problems/merge-sorted-array/description/" xr:uid="{5A45A469-1312-0D43-A7B8-6D7660CD022C}"/>
-    <hyperlink ref="C58" r:id="rId605" display="https://cspiration.com/login" xr:uid="{B455AA02-DF18-3042-8F64-800E6E06E5E3}"/>
-    <hyperlink ref="B59" r:id="rId606" display="https://leetcode.com/problems/sort-colors/description/" xr:uid="{91FDD159-97A0-AF44-8F28-85BAC60A4D1E}"/>
-    <hyperlink ref="C59" r:id="rId607" display="https://cspiration.com/login" xr:uid="{C7845607-40CC-474A-93C8-D835FBACC80B}"/>
-    <hyperlink ref="B60" r:id="rId608" display="https://leetcode.com/problems/move-zeroes/description/" xr:uid="{CB6A86C6-ADAC-CB48-86EE-5E09E169F93D}"/>
-    <hyperlink ref="C60" r:id="rId609" display="https://cspiration.com/login" xr:uid="{A0B274FE-0040-884F-AC31-2B0B01862510}"/>
-    <hyperlink ref="B61" r:id="rId610" display="https://leetcode.com/problems/wiggle-subsequence/description/" xr:uid="{F6B70BD5-81C4-F64E-BC77-8BA201B2C3C7}"/>
-    <hyperlink ref="C61" r:id="rId611" display="https://cspiration.com/login" xr:uid="{BA261DAF-B317-5A4F-ADD6-F2EBC30A1C76}"/>
-    <hyperlink ref="B62" r:id="rId612" display="https://leetcode.com/problems/wiggle-sort/description/" xr:uid="{32FE7FBE-870D-F648-861E-BCEC23C7A71C}"/>
-    <hyperlink ref="C62" r:id="rId613" display="https://cspiration.com/login" xr:uid="{BA2FAED4-F70B-D045-818E-D8434EB95223}"/>
-    <hyperlink ref="B63" r:id="rId614" display="https://leetcode.com/problems/wiggle-sort-ii/description/" xr:uid="{41D41AB0-C125-224F-8F05-0BCEDC963817}"/>
-    <hyperlink ref="C63" r:id="rId615" display="https://cspiration.com/login" xr:uid="{7497A307-1DCB-9040-801B-BA895D763865}"/>
-    <hyperlink ref="B64" r:id="rId616" display="https://leetcode.com/problems/first-bad-version/description/" xr:uid="{0395954A-934A-2542-AB3F-BF17C4EAC5D7}"/>
-    <hyperlink ref="C64" r:id="rId617" display="https://cspiration.com/login" xr:uid="{0892F58F-5E1B-4249-B3C4-5B48B174DCF3}"/>
-    <hyperlink ref="B65" r:id="rId618" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{A6D47DB2-0CA3-6D45-ACDE-EFC0B3777406}"/>
-    <hyperlink ref="C65" r:id="rId619" display="https://cspiration.com/login" xr:uid="{0DD93632-7C5B-5A4E-8B12-6804C5BA1BF4}"/>
-    <hyperlink ref="B66" r:id="rId620" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{B6D894A2-EBD3-6147-A6CE-6F5F8BE1376C}"/>
-    <hyperlink ref="C66" r:id="rId621" display="https://cspiration.com/login" xr:uid="{3BC5941D-E21E-EA45-A8AD-F2497157B6B5}"/>
-    <hyperlink ref="B67" r:id="rId622" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{8B81B470-4897-B749-9A33-C9D7E0D2D730}"/>
-    <hyperlink ref="C67" r:id="rId623" display="https://cspiration.com/login" xr:uid="{EE5D772A-DF79-BE48-B358-B00BA1B0BE6C}"/>
-    <hyperlink ref="B68" r:id="rId624" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{F6073DDA-CF47-BB4A-9598-FACE06C68413}"/>
-    <hyperlink ref="C68" r:id="rId625" display="https://cspiration.com/login" xr:uid="{78879477-8DE6-174E-9645-0D541FBE7CAA}"/>
-    <hyperlink ref="B69" r:id="rId626" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{32B64CE0-67D9-FF41-B193-721DF07768AC}"/>
-    <hyperlink ref="C69" r:id="rId627" display="https://cspiration.com/login" xr:uid="{9E8A7670-7EC2-C246-B916-2C3F0991FB09}"/>
-    <hyperlink ref="B70" r:id="rId628" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{BA5434E1-2CF1-E14F-B24E-FCB16DDF3E02}"/>
-    <hyperlink ref="C70" r:id="rId629" display="https://cspiration.com/login" xr:uid="{C697BAE8-80FF-574B-8BDC-B9900373CB53}"/>
-    <hyperlink ref="B71" r:id="rId630" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{4D3A394F-2E22-4848-A835-730DCBC89152}"/>
-    <hyperlink ref="C71" r:id="rId631" display="https://cspiration.com/login" xr:uid="{3E6E2D17-0A0A-3641-9AA8-4F59DDFE7788}"/>
-    <hyperlink ref="B72" r:id="rId632" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{5966944C-E0CB-9D47-B0ED-F3FCF17159AF}"/>
-    <hyperlink ref="C72" r:id="rId633" display="https://cspiration.com/login" xr:uid="{DAC402D1-DCBB-E04B-841E-266AACC81C75}"/>
-    <hyperlink ref="B73" r:id="rId634" display="https://leetcode.com/problems/intersection-of-two-arrays/description/" xr:uid="{991C417C-9A6A-AE47-9E6A-67A1CC65F1F3}"/>
-    <hyperlink ref="C73" r:id="rId635" display="https://cspiration.com/login" xr:uid="{747DEC74-51CE-7A40-B4A3-EB5242ADAC62}"/>
-    <hyperlink ref="B74" r:id="rId636" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/description/" xr:uid="{BA730980-27BD-8E4B-AEF3-35673703544F}"/>
-    <hyperlink ref="C74" r:id="rId637" display="https://cspiration.com/login" xr:uid="{455F4731-1D4F-854F-98C8-1D53E34CEB72}"/>
-    <hyperlink ref="B75" r:id="rId638" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{8549D8F0-982C-D643-B487-8C403B8A5E5F}"/>
-    <hyperlink ref="C75" r:id="rId639" display="https://cspiration.com/login" xr:uid="{7DF77CA2-035F-3B46-AC25-6D5D2DB6A3DE}"/>
-    <hyperlink ref="B76" r:id="rId640" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{0016D10A-9E64-5F4B-A2DD-35467B4D6925}"/>
-    <hyperlink ref="C76" r:id="rId641" display="https://cspiration.com/login" xr:uid="{370A9C08-9397-6244-9A7C-D5A7706B5C33}"/>
-    <hyperlink ref="B77" r:id="rId642" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{F3713F37-2092-EE4F-9D0F-DF78CC7E6F5F}"/>
-    <hyperlink ref="B40" r:id="rId643" xr:uid="{A8664FBD-4D0C-9F4E-B3FF-1A3A080A62BA}"/>
-    <hyperlink ref="B445" r:id="rId644" xr:uid="{470B60D0-0690-D646-A3F7-60EFD7D84914}"/>
-    <hyperlink ref="B191" r:id="rId645" xr:uid="{480C3FC1-E1AD-1549-AE5F-DCB9796EBAB6}"/>
+    <hyperlink ref="B206" r:id="rId1" display="https://leetcode.com/problems/permutation-sequence/description/" xr:uid="{7470F00A-0C28-9542-8BB8-840C29E37DA8}"/>
+    <hyperlink ref="C206" r:id="rId2" display="https://cspiration.com/login" xr:uid="{E339835C-3FF5-154D-83A5-D922A203F2B3}"/>
+    <hyperlink ref="B207" r:id="rId3" display="https://leetcode.com/problems/word-pattern-ii/description/" xr:uid="{475D2E19-9E2A-5A40-9967-744727496941}"/>
+    <hyperlink ref="C207" r:id="rId4" display="https://cspiration.com/login" xr:uid="{EE42A40A-13BC-BE4B-A326-E559CD4D7078}"/>
+    <hyperlink ref="B208" r:id="rId5" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/" xr:uid="{8410A8D8-2A96-2545-A707-B152E3483747}"/>
+    <hyperlink ref="C208" r:id="rId6" display="https://cspiration.com/login" xr:uid="{36FD5254-8C9A-0E48-AFDE-6B5494DFC976}"/>
+    <hyperlink ref="B209" r:id="rId7" display="https://leetcode.com/problems/generalized-abbreviation/description/" xr:uid="{A694FCD3-9DE6-C040-AE34-B16162B92776}"/>
+    <hyperlink ref="C209" r:id="rId8" display="https://cspiration.com/login" xr:uid="{C42B1CFF-4402-C94B-A66E-E0E82DDAA67D}"/>
+    <hyperlink ref="B210" r:id="rId9" display="https://leetcode.com/problems/expression-add-operators/description/" xr:uid="{C3D6AF2C-B408-D844-B031-4DA29F73A880}"/>
+    <hyperlink ref="C210" r:id="rId10" display="https://cspiration.com/login" xr:uid="{5902E035-85D4-EF41-889F-43801918206D}"/>
+    <hyperlink ref="B211" r:id="rId11" display="https://leetcode.com/problems/word-break-ii/description/" xr:uid="{C875713A-B2BF-C74B-AF74-39845CD139B9}"/>
+    <hyperlink ref="C211" r:id="rId12" display="https://cspiration.com/login" xr:uid="{05136ABA-F832-6444-9448-22BAD9D990D5}"/>
+    <hyperlink ref="B212" r:id="rId13" display="https://leetcode.com/problems/android-unlock-patterns/description/" xr:uid="{D4D2A625-1C06-594E-9061-782BDAF31A24}"/>
+    <hyperlink ref="B218" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/description/" xr:uid="{EBAE420C-2F6E-2947-9A9A-EC2C6413488B}"/>
+    <hyperlink ref="C218" r:id="rId15" display="https://cspiration.com/login" xr:uid="{1553DB48-9774-2A44-8A95-6A09994C2802}"/>
+    <hyperlink ref="B219" r:id="rId16" display="https://leetcode.com/problems/unique-paths/description/" xr:uid="{95F59D7D-71AD-9C45-8332-BEEF446345DD}"/>
+    <hyperlink ref="C219" r:id="rId17" display="https://cspiration.com/login" xr:uid="{B50BC24B-E5ED-224E-BBD2-FEDB59A4B9C8}"/>
+    <hyperlink ref="B220" r:id="rId18" display="https://leetcode.com/problems/unique-paths-ii/description/" xr:uid="{3C785738-AF2C-7D49-A676-40642165F7E9}"/>
+    <hyperlink ref="C220" r:id="rId19" display="https://cspiration.com/login" xr:uid="{D139F891-E2F5-8A4E-845C-1152D649243B}"/>
+    <hyperlink ref="B221" r:id="rId20" display="https://leetcode.com/problems/perfect-squares/description/" xr:uid="{F1E40C95-00F8-2849-9001-A228CD479539}"/>
+    <hyperlink ref="C221" r:id="rId21" display="https://cspiration.com/login" xr:uid="{3D8A92E9-FB93-4E49-B14B-A18B499D0787}"/>
+    <hyperlink ref="B222" r:id="rId22" display="https://leetcode.com/problems/word-break/" xr:uid="{1C41DBB7-6CCE-FD4D-A267-F78FE233940D}"/>
+    <hyperlink ref="C222" r:id="rId23" display="https://cspiration.com/login" xr:uid="{CDE6F565-251B-2E45-9223-1D578CC89854}"/>
+    <hyperlink ref="B223" r:id="rId24" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/description/" xr:uid="{415C0B92-011D-5446-AA9F-D55206245A9E}"/>
+    <hyperlink ref="C223" r:id="rId25" display="https://cspiration.com/login" xr:uid="{6342F0B5-FAE1-9549-B0EB-BA4B9151C6A6}"/>
+    <hyperlink ref="B224" r:id="rId26" display="https://leetcode.com/problems/burst-balloons/description/" xr:uid="{462BC2C3-5EF9-0B45-B0B5-AD50E1D72B3E}"/>
+    <hyperlink ref="C224" r:id="rId27" display="https://cspiration.com/login" xr:uid="{7CC75275-A0BF-C447-8C55-0AB512699970}"/>
+    <hyperlink ref="B225" r:id="rId28" display="https://leetcode.com/problems/coin-change/description/" xr:uid="{4751D5B9-78E7-1647-A94D-B787C4C6DAC8}"/>
+    <hyperlink ref="C225" r:id="rId29" display="https://cspiration.com/login" xr:uid="{28C04F21-7959-C243-A6A5-4EEA9824A11F}"/>
+    <hyperlink ref="B227" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
+    <hyperlink ref="C227" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
+    <hyperlink ref="B228" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
+    <hyperlink ref="C228" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
+    <hyperlink ref="B229" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
+    <hyperlink ref="C229" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
+    <hyperlink ref="B230" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
+    <hyperlink ref="C230" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
+    <hyperlink ref="B231" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
+    <hyperlink ref="C231" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
+    <hyperlink ref="B232" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
+    <hyperlink ref="C232" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
+    <hyperlink ref="B233" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
+    <hyperlink ref="C233" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
+    <hyperlink ref="B235" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
+    <hyperlink ref="C235" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
+    <hyperlink ref="B236" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
+    <hyperlink ref="C236" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
+    <hyperlink ref="B239" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
+    <hyperlink ref="C239" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
+    <hyperlink ref="B240" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
+    <hyperlink ref="C240" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
+    <hyperlink ref="B241" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
+    <hyperlink ref="C241" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
+    <hyperlink ref="B242" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
+    <hyperlink ref="C242" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
+    <hyperlink ref="B243" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
+    <hyperlink ref="C243" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
+    <hyperlink ref="B244" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
+    <hyperlink ref="B260" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
+    <hyperlink ref="C260" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
+    <hyperlink ref="B261" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
+    <hyperlink ref="C261" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
+    <hyperlink ref="B262" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
+    <hyperlink ref="C262" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
+    <hyperlink ref="B263" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
+    <hyperlink ref="C263" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
+    <hyperlink ref="B264" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
+    <hyperlink ref="C264" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
+    <hyperlink ref="B265" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
+    <hyperlink ref="C265" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
+    <hyperlink ref="B266" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
+    <hyperlink ref="C266" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
+    <hyperlink ref="B267" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
+    <hyperlink ref="C267" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
+    <hyperlink ref="B268" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
+    <hyperlink ref="C268" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
+    <hyperlink ref="B269" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
+    <hyperlink ref="C269" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
+    <hyperlink ref="B270" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
+    <hyperlink ref="C270" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
+    <hyperlink ref="B271" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
+    <hyperlink ref="C271" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
+    <hyperlink ref="B272" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
+    <hyperlink ref="C272" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
+    <hyperlink ref="B273" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
+    <hyperlink ref="C273" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
+    <hyperlink ref="B275" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
+    <hyperlink ref="C275" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
+    <hyperlink ref="B276" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
+    <hyperlink ref="C276" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
+    <hyperlink ref="B277" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
+    <hyperlink ref="C277" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
+    <hyperlink ref="B278" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
+    <hyperlink ref="C278" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
+    <hyperlink ref="B279" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
+    <hyperlink ref="C279" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
+    <hyperlink ref="B280" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
+    <hyperlink ref="C280" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
+    <hyperlink ref="B281" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
+    <hyperlink ref="C281" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
+    <hyperlink ref="B282" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
+    <hyperlink ref="C282" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
+    <hyperlink ref="B283" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
+    <hyperlink ref="B288" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
+    <hyperlink ref="C288" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
+    <hyperlink ref="B289" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
+    <hyperlink ref="C289" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
+    <hyperlink ref="B290" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
+    <hyperlink ref="C290" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
+    <hyperlink ref="B291" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
+    <hyperlink ref="C291" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
+    <hyperlink ref="B292" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
+    <hyperlink ref="C292" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
+    <hyperlink ref="B293" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
+    <hyperlink ref="C293" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
+    <hyperlink ref="B295" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
+    <hyperlink ref="C295" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
+    <hyperlink ref="B296" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
+    <hyperlink ref="C296" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
+    <hyperlink ref="B294" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
+    <hyperlink ref="B302" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
+    <hyperlink ref="C302" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
+    <hyperlink ref="B303" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
+    <hyperlink ref="C303" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
+    <hyperlink ref="B304" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
+    <hyperlink ref="B159" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
+    <hyperlink ref="C159" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
+    <hyperlink ref="B161" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
+    <hyperlink ref="C161" r:id="rId129" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
+    <hyperlink ref="B162" r:id="rId130" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
+    <hyperlink ref="C162" r:id="rId131" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
+    <hyperlink ref="B163" r:id="rId132" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
+    <hyperlink ref="C163" r:id="rId133" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
+    <hyperlink ref="B164" r:id="rId134" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
+    <hyperlink ref="C164" r:id="rId135" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
+    <hyperlink ref="B165" r:id="rId136" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
+    <hyperlink ref="C165" r:id="rId137" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
+    <hyperlink ref="B166" r:id="rId138" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
+    <hyperlink ref="C166" r:id="rId139" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
+    <hyperlink ref="B168" r:id="rId140" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
+    <hyperlink ref="C168" r:id="rId141" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
+    <hyperlink ref="B169" r:id="rId142" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
+    <hyperlink ref="C169" r:id="rId143" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
+    <hyperlink ref="B170" r:id="rId144" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
+    <hyperlink ref="C170" r:id="rId145" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
+    <hyperlink ref="B172" r:id="rId146" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
+    <hyperlink ref="C172" r:id="rId147" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
+    <hyperlink ref="B173" r:id="rId148" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
+    <hyperlink ref="C173" r:id="rId149" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
+    <hyperlink ref="B174" r:id="rId150" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
+    <hyperlink ref="C174" r:id="rId151" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
+    <hyperlink ref="B175" r:id="rId152" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
+    <hyperlink ref="C175" r:id="rId153" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
+    <hyperlink ref="B176" r:id="rId154" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
+    <hyperlink ref="C176" r:id="rId155" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
+    <hyperlink ref="B177" r:id="rId156" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
+    <hyperlink ref="C177" r:id="rId157" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
+    <hyperlink ref="B178" r:id="rId158" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
+    <hyperlink ref="C178" r:id="rId159" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
+    <hyperlink ref="B179" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
+    <hyperlink ref="C179" r:id="rId161" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
+    <hyperlink ref="B180" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
+    <hyperlink ref="C180" r:id="rId163" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
+    <hyperlink ref="B181" r:id="rId164" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
+    <hyperlink ref="C181" r:id="rId165" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
+    <hyperlink ref="B182" r:id="rId166" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
+    <hyperlink ref="C182" r:id="rId167" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
+    <hyperlink ref="B183" r:id="rId168" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
+    <hyperlink ref="C183" r:id="rId169" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
+    <hyperlink ref="B185" r:id="rId170" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
+    <hyperlink ref="C185" r:id="rId171" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
+    <hyperlink ref="B186" r:id="rId172" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
+    <hyperlink ref="C186" r:id="rId173" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
+    <hyperlink ref="B187" r:id="rId174" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
+    <hyperlink ref="C187" r:id="rId175" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
+    <hyperlink ref="B189" r:id="rId176" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
+    <hyperlink ref="C189" r:id="rId177" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
+    <hyperlink ref="B195" r:id="rId178" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
+    <hyperlink ref="C195" r:id="rId179" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
+    <hyperlink ref="B196" r:id="rId180" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
+    <hyperlink ref="C196" r:id="rId181" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
+    <hyperlink ref="B197" r:id="rId182" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
+    <hyperlink ref="C197" r:id="rId183" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
+    <hyperlink ref="B198" r:id="rId184" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
+    <hyperlink ref="C198" r:id="rId185" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
+    <hyperlink ref="B199" r:id="rId186" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
+    <hyperlink ref="C199" r:id="rId187" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
+    <hyperlink ref="B200" r:id="rId188" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
+    <hyperlink ref="C200" r:id="rId189" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
+    <hyperlink ref="B201" r:id="rId190" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
+    <hyperlink ref="C201" r:id="rId191" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
+    <hyperlink ref="B202" r:id="rId192" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
+    <hyperlink ref="C202" r:id="rId193" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
+    <hyperlink ref="B203" r:id="rId194" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
+    <hyperlink ref="C203" r:id="rId195" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
+    <hyperlink ref="B204" r:id="rId196" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
+    <hyperlink ref="C204" r:id="rId197" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
+    <hyperlink ref="B205" r:id="rId198" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
+    <hyperlink ref="C205" r:id="rId199" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
+    <hyperlink ref="C158" r:id="rId200" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
+    <hyperlink ref="B158" r:id="rId201" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
+    <hyperlink ref="C157" r:id="rId202" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
+    <hyperlink ref="B157" r:id="rId203" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
+    <hyperlink ref="C156" r:id="rId204" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
+    <hyperlink ref="B156" r:id="rId205" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
+    <hyperlink ref="C155" r:id="rId206" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
+    <hyperlink ref="B155" r:id="rId207" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
+    <hyperlink ref="C154" r:id="rId208" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
+    <hyperlink ref="B154" r:id="rId209" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
+    <hyperlink ref="C153" r:id="rId210" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
+    <hyperlink ref="B153" r:id="rId211" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
+    <hyperlink ref="C152" r:id="rId212" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
+    <hyperlink ref="B152" r:id="rId213" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
+    <hyperlink ref="C151" r:id="rId214" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
+    <hyperlink ref="B151" r:id="rId215" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
+    <hyperlink ref="C149" r:id="rId216" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
+    <hyperlink ref="B149" r:id="rId217" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
+    <hyperlink ref="C148" r:id="rId218" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
+    <hyperlink ref="B148" r:id="rId219" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
+    <hyperlink ref="C147" r:id="rId220" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
+    <hyperlink ref="B147" r:id="rId221" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
+    <hyperlink ref="C146" r:id="rId222" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
+    <hyperlink ref="B146" r:id="rId223" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
+    <hyperlink ref="B116" r:id="rId224" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
+    <hyperlink ref="C116" r:id="rId225" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
+    <hyperlink ref="B117" r:id="rId226" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
+    <hyperlink ref="C117" r:id="rId227" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
+    <hyperlink ref="B118" r:id="rId228" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
+    <hyperlink ref="C118" r:id="rId229" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
+    <hyperlink ref="B119" r:id="rId230" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
+    <hyperlink ref="C119" r:id="rId231" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
+    <hyperlink ref="B120" r:id="rId232" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
+    <hyperlink ref="C120" r:id="rId233" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
+    <hyperlink ref="B121" r:id="rId234" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
+    <hyperlink ref="C121" r:id="rId235" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
+    <hyperlink ref="B123" r:id="rId236" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
+    <hyperlink ref="C123" r:id="rId237" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
+    <hyperlink ref="B124" r:id="rId238" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
+    <hyperlink ref="C124" r:id="rId239" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
+    <hyperlink ref="B125" r:id="rId240" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
+    <hyperlink ref="C125" r:id="rId241" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
+    <hyperlink ref="B126" r:id="rId242" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
+    <hyperlink ref="C126" r:id="rId243" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
+    <hyperlink ref="B127" r:id="rId244" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
+    <hyperlink ref="C127" r:id="rId245" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
+    <hyperlink ref="B128" r:id="rId246" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
+    <hyperlink ref="C128" r:id="rId247" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
+    <hyperlink ref="B129" r:id="rId248" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
+    <hyperlink ref="C129" r:id="rId249" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
+    <hyperlink ref="B130" r:id="rId250" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
+    <hyperlink ref="C130" r:id="rId251" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
+    <hyperlink ref="B131" r:id="rId252" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
+    <hyperlink ref="C131" r:id="rId253" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
+    <hyperlink ref="B133" r:id="rId254" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
+    <hyperlink ref="C133" r:id="rId255" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
+    <hyperlink ref="B134" r:id="rId256" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
+    <hyperlink ref="C134" r:id="rId257" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
+    <hyperlink ref="B135" r:id="rId258" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
+    <hyperlink ref="C135" r:id="rId259" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
+    <hyperlink ref="B136" r:id="rId260" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
+    <hyperlink ref="C136" r:id="rId261" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
+    <hyperlink ref="B137" r:id="rId262" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
+    <hyperlink ref="C137" r:id="rId263" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
+    <hyperlink ref="B139" r:id="rId264" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
+    <hyperlink ref="C139" r:id="rId265" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
+    <hyperlink ref="B140" r:id="rId266" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
+    <hyperlink ref="C140" r:id="rId267" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
+    <hyperlink ref="B141" r:id="rId268" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
+    <hyperlink ref="C141" r:id="rId269" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
+    <hyperlink ref="B310" r:id="rId270" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
+    <hyperlink ref="C310" r:id="rId271" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
+    <hyperlink ref="B311" r:id="rId272" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
+    <hyperlink ref="C311" r:id="rId273" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
+    <hyperlink ref="B312" r:id="rId274" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
+    <hyperlink ref="C312" r:id="rId275" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B314" r:id="rId276" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
+    <hyperlink ref="C314" r:id="rId277" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
+    <hyperlink ref="B320" r:id="rId278" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
+    <hyperlink ref="C320" r:id="rId279" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
+    <hyperlink ref="B319" r:id="rId280" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
+    <hyperlink ref="C319" r:id="rId281" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
+    <hyperlink ref="B321" r:id="rId282" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
+    <hyperlink ref="C321" r:id="rId283" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B326" r:id="rId284" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
+    <hyperlink ref="C326" r:id="rId285" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
+    <hyperlink ref="B327" r:id="rId286" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
+    <hyperlink ref="C327" r:id="rId287" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
+    <hyperlink ref="B328" r:id="rId288" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
+    <hyperlink ref="C328" r:id="rId289" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
+    <hyperlink ref="B329" r:id="rId290" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
+    <hyperlink ref="C329" r:id="rId291" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
+    <hyperlink ref="B330" r:id="rId292" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
+    <hyperlink ref="C330" r:id="rId293" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
+    <hyperlink ref="B331" r:id="rId294" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
+    <hyperlink ref="C331" r:id="rId295" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
+    <hyperlink ref="B332" r:id="rId296" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
+    <hyperlink ref="C332" r:id="rId297" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
+    <hyperlink ref="B333" r:id="rId298" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
+    <hyperlink ref="C333" r:id="rId299" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
+    <hyperlink ref="B334" r:id="rId300" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
+    <hyperlink ref="C334" r:id="rId301" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
+    <hyperlink ref="B335" r:id="rId302" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
+    <hyperlink ref="C335" r:id="rId303" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
+    <hyperlink ref="B336" r:id="rId304" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
+    <hyperlink ref="C336" r:id="rId305" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
+    <hyperlink ref="B337" r:id="rId306" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
+    <hyperlink ref="C337" r:id="rId307" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
+    <hyperlink ref="B338" r:id="rId308" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
+    <hyperlink ref="C338" r:id="rId309" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
+    <hyperlink ref="B339" r:id="rId310" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
+    <hyperlink ref="C339" r:id="rId311" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
+    <hyperlink ref="B340" r:id="rId312" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
+    <hyperlink ref="C340" r:id="rId313" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
+    <hyperlink ref="B341" r:id="rId314" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
+    <hyperlink ref="C341" r:id="rId315" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
+    <hyperlink ref="B342" r:id="rId316" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
+    <hyperlink ref="B349" r:id="rId317" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
+    <hyperlink ref="C349" r:id="rId318" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
+    <hyperlink ref="B352" r:id="rId319" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
+    <hyperlink ref="C352" r:id="rId320" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
+    <hyperlink ref="B353" r:id="rId321" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
+    <hyperlink ref="C353" r:id="rId322" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
+    <hyperlink ref="B354" r:id="rId323" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
+    <hyperlink ref="C354" r:id="rId324" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
+    <hyperlink ref="B355" r:id="rId325" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
+    <hyperlink ref="C355" r:id="rId326" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
+    <hyperlink ref="B356" r:id="rId327" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
+    <hyperlink ref="C356" r:id="rId328" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
+    <hyperlink ref="B357" r:id="rId329" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
+    <hyperlink ref="C357" r:id="rId330" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
+    <hyperlink ref="B358" r:id="rId331" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
+    <hyperlink ref="C358" r:id="rId332" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
+    <hyperlink ref="B359" r:id="rId333" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
+    <hyperlink ref="C359" r:id="rId334" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
+    <hyperlink ref="B361" r:id="rId335" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
+    <hyperlink ref="C361" r:id="rId336" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
+    <hyperlink ref="B362" r:id="rId337" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
+    <hyperlink ref="C362" r:id="rId338" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
+    <hyperlink ref="B363" r:id="rId339" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
+    <hyperlink ref="C363" r:id="rId340" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
+    <hyperlink ref="B364" r:id="rId341" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
+    <hyperlink ref="C364" r:id="rId342" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
+    <hyperlink ref="B365" r:id="rId343" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
+    <hyperlink ref="B377" r:id="rId344" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
+    <hyperlink ref="C377" r:id="rId345" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
+    <hyperlink ref="B378" r:id="rId346" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
+    <hyperlink ref="C378" r:id="rId347" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
+    <hyperlink ref="B379" r:id="rId348" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
+    <hyperlink ref="B388" r:id="rId349" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
+    <hyperlink ref="C388" r:id="rId350" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
+    <hyperlink ref="B389" r:id="rId351" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
+    <hyperlink ref="C389" r:id="rId352" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
+    <hyperlink ref="B390" r:id="rId353" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
+    <hyperlink ref="B395" r:id="rId354" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
+    <hyperlink ref="C395" r:id="rId355" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
+    <hyperlink ref="B396" r:id="rId356" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
+    <hyperlink ref="C396" r:id="rId357" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
+    <hyperlink ref="B397" r:id="rId358" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
+    <hyperlink ref="C397" r:id="rId359" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
+    <hyperlink ref="B398" r:id="rId360" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
+    <hyperlink ref="C398" r:id="rId361" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
+    <hyperlink ref="B399" r:id="rId362" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
+    <hyperlink ref="C399" r:id="rId363" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
+    <hyperlink ref="B400" r:id="rId364" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
+    <hyperlink ref="B405" r:id="rId365" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
+    <hyperlink ref="C405" r:id="rId366" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
+    <hyperlink ref="B406" r:id="rId367" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
+    <hyperlink ref="C406" r:id="rId368" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
+    <hyperlink ref="B407" r:id="rId369" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
+    <hyperlink ref="C407" r:id="rId370" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
+    <hyperlink ref="B408" r:id="rId371" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
+    <hyperlink ref="C408" r:id="rId372" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
+    <hyperlink ref="B409" r:id="rId373" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
+    <hyperlink ref="C409" r:id="rId374" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
+    <hyperlink ref="B410" r:id="rId375" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
+    <hyperlink ref="C410" r:id="rId376" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
+    <hyperlink ref="B411" r:id="rId377" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
+    <hyperlink ref="C411" r:id="rId378" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
+    <hyperlink ref="B412" r:id="rId379" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
+    <hyperlink ref="C412" r:id="rId380" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
+    <hyperlink ref="B413" r:id="rId381" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
+    <hyperlink ref="C413" r:id="rId382" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
+    <hyperlink ref="B414" r:id="rId383" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
+    <hyperlink ref="C414" r:id="rId384" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
+    <hyperlink ref="B415" r:id="rId385" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
+    <hyperlink ref="C415" r:id="rId386" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
+    <hyperlink ref="B416" r:id="rId387" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
+    <hyperlink ref="C416" r:id="rId388" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
+    <hyperlink ref="B417" r:id="rId389" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
+    <hyperlink ref="C417" r:id="rId390" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
+    <hyperlink ref="B418" r:id="rId391" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
+    <hyperlink ref="C418" r:id="rId392" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
+    <hyperlink ref="B419" r:id="rId393" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
+    <hyperlink ref="C419" r:id="rId394" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
+    <hyperlink ref="B420" r:id="rId395" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
+    <hyperlink ref="C420" r:id="rId396" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
+    <hyperlink ref="B421" r:id="rId397" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
+    <hyperlink ref="C421" r:id="rId398" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
+    <hyperlink ref="B422" r:id="rId399" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
+    <hyperlink ref="B213" r:id="rId400" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
+    <hyperlink ref="B245" r:id="rId401" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
+    <hyperlink ref="B297" r:id="rId402" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
+    <hyperlink ref="B430" r:id="rId403" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{EB4E5B68-F05A-0C4B-9F53-41E4DBCA4F9E}"/>
+    <hyperlink ref="C430" r:id="rId404" display="https://cspiration.com/login" xr:uid="{CA1BBCD7-117A-A64E-8F77-852F33D02DB2}"/>
+    <hyperlink ref="B431" r:id="rId405" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{5B45788F-BB03-4843-BD6A-B976C9FCAEF1}"/>
+    <hyperlink ref="C431" r:id="rId406" display="https://cspiration.com/login" xr:uid="{551CAD20-3D2A-A64A-B23A-A01403C05DE0}"/>
+    <hyperlink ref="B432" r:id="rId407" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{89F11509-794F-0147-A002-99DBFE4011DC}"/>
+    <hyperlink ref="C432" r:id="rId408" display="https://cspiration.com/login" xr:uid="{A8D71102-8F66-8143-AADE-EC0B951315AF}"/>
+    <hyperlink ref="B433" r:id="rId409" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{A4765584-11DB-8C47-A9D8-28BCD3B3DB04}"/>
+    <hyperlink ref="C433" r:id="rId410" display="https://cspiration.com/login" xr:uid="{67A40D64-8C16-AB40-AF02-EC047B85587D}"/>
+    <hyperlink ref="B434" r:id="rId411" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{1C321054-4E86-0A4C-A5A9-D1503A97B9B0}"/>
+    <hyperlink ref="C434" r:id="rId412" display="https://cspiration.com/login" xr:uid="{4230A88F-C71C-F14B-89AA-04DA1B742A89}"/>
+    <hyperlink ref="B435" r:id="rId413" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{736794C5-518A-194B-A096-354260C26D19}"/>
+    <hyperlink ref="C435" r:id="rId414" display="https://cspiration.com/login" xr:uid="{CC616423-7FF6-4546-BE49-14971E421AB1}"/>
+    <hyperlink ref="B436" r:id="rId415" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{AA2881B4-D507-6C4E-B5AC-66556CE2E240}"/>
+    <hyperlink ref="C436" r:id="rId416" display="https://cspiration.com/login" xr:uid="{497BA16C-CBAB-CD4C-B123-9991F3A2E286}"/>
+    <hyperlink ref="B437" r:id="rId417" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{D78ED803-9C52-3C4E-8DAB-2FE615A62AB4}"/>
+    <hyperlink ref="C437" r:id="rId418" display="https://cspiration.com/login" xr:uid="{A8AD4217-A555-BA44-A724-8A04E7730E30}"/>
+    <hyperlink ref="B438" r:id="rId419" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{39F3DFF8-98F3-604E-9124-DD7F0D40F1B0}"/>
+    <hyperlink ref="C438" r:id="rId420" display="https://cspiration.com/login" xr:uid="{3561FB2C-CD0E-A746-8C4B-80613899C341}"/>
+    <hyperlink ref="B439" r:id="rId421" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{E9195674-DC99-4B46-B0EE-98194075832A}"/>
+    <hyperlink ref="C439" r:id="rId422" display="https://cspiration.com/login" xr:uid="{916F2DEE-639E-C943-A663-2517B8604445}"/>
+    <hyperlink ref="B440" r:id="rId423" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{320B423A-BCFA-CE44-9951-2BD15ECD57E2}"/>
+    <hyperlink ref="B250" r:id="rId424" xr:uid="{600A5416-B5C9-BA47-892A-EE12A30AA3C9}"/>
+    <hyperlink ref="B254" r:id="rId425" xr:uid="{EADB0E54-5800-704D-A97B-CDE42026CFF8}"/>
+    <hyperlink ref="B367" r:id="rId426" xr:uid="{49EE6590-FC3C-C54F-A151-AA1FC6EF5061}"/>
+    <hyperlink ref="B350" r:id="rId427" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{E018DFB4-01AC-F645-8B90-8199997E6DD0}"/>
+    <hyperlink ref="C350" r:id="rId428" display="https://cspiration.com/login" xr:uid="{706E0A6D-CD70-2245-A6EA-B10034698AA6}"/>
+    <hyperlink ref="B351" r:id="rId429" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{0DF8CEC5-24F8-E745-8AEF-C177BA8C38D8}"/>
+    <hyperlink ref="B368" r:id="rId430" xr:uid="{6D13D071-F78E-C442-8632-E396881ABD22}"/>
+    <hyperlink ref="B369" r:id="rId431" xr:uid="{B66856FD-8BB7-CF4C-9F54-EF95505D135F}"/>
+    <hyperlink ref="B370" r:id="rId432" xr:uid="{3202C9A2-D22F-454B-BEEC-EC2EF095CF78}"/>
+    <hyperlink ref="B371" r:id="rId433" xr:uid="{0F820F81-AD67-2D4C-B1D6-92E7AE13C361}"/>
+    <hyperlink ref="B234" r:id="rId434" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
+    <hyperlink ref="B380" r:id="rId435" xr:uid="{12FCA401-D49E-F648-925D-5AA92C613FEE}"/>
+    <hyperlink ref="B381" r:id="rId436" xr:uid="{2AC0AA2F-79DF-D044-84B7-A131AC44BC10}"/>
+    <hyperlink ref="B382" r:id="rId437" xr:uid="{7F474B46-9483-0F48-AE6E-83C002C6D472}"/>
+    <hyperlink ref="B441" r:id="rId438" xr:uid="{30FFAA64-911B-8A47-9B10-24A60021362C}"/>
+    <hyperlink ref="B114" r:id="rId439" xr:uid="{328EC544-84F7-C546-82CB-6D867891F222}"/>
+    <hyperlink ref="C113" r:id="rId440" display="https://cspiration.com/login" xr:uid="{B24A14A7-52F4-E249-B609-37F1D91D19AF}"/>
+    <hyperlink ref="B113" r:id="rId441" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{5B3E385E-B11A-C64D-8285-B8177A8BCDA4}"/>
+    <hyperlink ref="C112" r:id="rId442" display="https://cspiration.com/login" xr:uid="{2F20FF9D-1F78-994B-9CE5-4B009BFBECC5}"/>
+    <hyperlink ref="B112" r:id="rId443" display="https://leetcode.com/problems/text-justification/description/" xr:uid="{BFE3B433-B31C-CC4A-B33B-40E03920BB14}"/>
+    <hyperlink ref="C111" r:id="rId444" display="https://cspiration.com/login" xr:uid="{F5ACF2D2-A531-424B-B3CF-993B83A1F7FB}"/>
+    <hyperlink ref="B111" r:id="rId445" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/description/" xr:uid="{C10019EB-7182-1D47-B84E-E88E23C5D8FA}"/>
+    <hyperlink ref="C110" r:id="rId446" display="https://cspiration.com/login" xr:uid="{D09C3F94-1D2B-AA4B-91A4-5F1C1C29C741}"/>
+    <hyperlink ref="B110" r:id="rId447" display="https://leetcode.com/problems/read-n-characters-given-read4/description/" xr:uid="{D18F3004-120C-9749-96EA-DA48816C8D97}"/>
+    <hyperlink ref="C108" r:id="rId448" display="https://cspiration.com/login" xr:uid="{6E8396B6-84C6-7E48-AA73-CE7E9B901407}"/>
+    <hyperlink ref="B108" r:id="rId449" display="https://leetcode.com/problems/strobogrammatic-number-ii/description/" xr:uid="{17DD45CF-4F79-9A48-A172-DF78FFE2BAFD}"/>
+    <hyperlink ref="C107" r:id="rId450" display="https://cspiration.com/login" xr:uid="{118BB6D1-D892-1D4A-A278-CEBA454174C9}"/>
+    <hyperlink ref="B107" r:id="rId451" display="https://leetcode.com/problems/strobogrammatic-number/description/" xr:uid="{072EA103-1AA4-6D4D-A811-07E7EFC53754}"/>
+    <hyperlink ref="C106" r:id="rId452" display="https://cspiration.com/login" xr:uid="{C8915A28-36A3-8D4D-A5D8-B28C51E8A13B}"/>
+    <hyperlink ref="B106" r:id="rId453" display="https://leetcode.com/problems/integer-to-english-words/description/" xr:uid="{E03F80C1-D861-5147-9CCC-8EBDA45C5F84}"/>
+    <hyperlink ref="C105" r:id="rId454" display="https://cspiration.com/login" xr:uid="{1E917630-0E9A-CA44-B4D0-335D33B3DAD4}"/>
+    <hyperlink ref="B105" r:id="rId455" display="https://leetcode.com/problems/integer-to-roman/description/" xr:uid="{EAE13DA7-A7CC-0045-9D4E-D3845B1D351A}"/>
+    <hyperlink ref="C104" r:id="rId456" display="https://cspiration.com/login" xr:uid="{A78FD53F-C3F7-174F-89F5-6A7F81AD86FB}"/>
+    <hyperlink ref="B104" r:id="rId457" display="https://leetcode.com/problems/roman-to-integer/description/" xr:uid="{3A2D8E6F-706D-5F42-8F12-6FDA83EDF015}"/>
+    <hyperlink ref="C103" r:id="rId458" display="https://cspiration.com/login" xr:uid="{68673230-A15D-DF41-9113-C0EC2A891D82}"/>
+    <hyperlink ref="B103" r:id="rId459" display="https://leetcode.com/problems/excel-sheet-column-number/description/" xr:uid="{EE4C5B10-4ED2-8B46-B331-B687A0FC87CC}"/>
+    <hyperlink ref="C102" r:id="rId460" display="https://cspiration.com/login" xr:uid="{39D15FCE-65DE-5B4E-9BC0-B864C6EAC70B}"/>
+    <hyperlink ref="B102" r:id="rId461" display="https://leetcode.com/problems/excel-sheet-column-title/description/" xr:uid="{7BC754D8-E75A-8B44-AD1B-7A259C99BFC0}"/>
+    <hyperlink ref="C101" r:id="rId462" display="https://cspiration.com/login" xr:uid="{FAFD0B63-78CD-8E4D-A1CA-07E70CC0FFBA}"/>
+    <hyperlink ref="B101" r:id="rId463" display="https://leetcode.com/problems/encode-and-decode-strings/description/" xr:uid="{25875E62-4A7E-D442-92FC-3F95DFABD8D2}"/>
+    <hyperlink ref="C100" r:id="rId464" display="https://cspiration.com/login" xr:uid="{DF13B8AA-9303-BE4C-9CE0-D00E513A3293}"/>
+    <hyperlink ref="B100" r:id="rId465" display="https://leetcode.com/problems/remove-duplicate-letters/description/" xr:uid="{41E9DFCB-F0F7-F142-B5A6-FD4B7DBC4BBA}"/>
+    <hyperlink ref="C99" r:id="rId466" display="https://cspiration.com/login" xr:uid="{6C5848D4-F1A3-5E43-A18B-3EF386A88DB8}"/>
+    <hyperlink ref="B99" r:id="rId467" display="https://leetcode.com/problems/rearrange-string-k-distance-apart/description/" xr:uid="{766E9D85-1888-2C4C-84BF-92C503F606F4}"/>
+    <hyperlink ref="C98" r:id="rId468" display="https://cspiration.com/login" xr:uid="{B27AAEDC-0D30-2646-990A-5B2240B5DC3E}"/>
+    <hyperlink ref="B98" r:id="rId469" display="https://leetcode.com/problems/one-edit-distance/" xr:uid="{709E24AB-4569-5E4E-B354-741841D8A3CF}"/>
+    <hyperlink ref="C97" r:id="rId470" display="https://cspiration.com/login" xr:uid="{B897081C-536E-124F-B44D-E65CD2DAE73A}"/>
+    <hyperlink ref="B97" r:id="rId471" display="https://leetcode.com/problems/scramble-string/description/" xr:uid="{8E7AE0F9-60C3-6C44-93A5-7BCE475FE65D}"/>
+    <hyperlink ref="C96" r:id="rId472" display="https://cspiration.com/login" xr:uid="{5AEB76A3-0CB4-724C-B27E-A5D3084DED56}"/>
+    <hyperlink ref="B96" r:id="rId473" display="https://leetcode.com/problems/group-shifted-strings/description/" xr:uid="{F88F7380-745F-2542-891F-D8189D659014}"/>
+    <hyperlink ref="C95" r:id="rId474" display="https://cspiration.com/login" xr:uid="{C8C9E0D7-A9FC-7849-BE2F-7412ACBD95EC}"/>
+    <hyperlink ref="B95" r:id="rId475" display="https://leetcode.com/problems/group-anagrams/description/" xr:uid="{912892C7-059C-B142-AD7B-1AC6617F6F3C}"/>
+    <hyperlink ref="C94" r:id="rId476" display="https://cspiration.com/login" xr:uid="{FBEBF316-2770-0D4C-AD03-785C42541C3B}"/>
+    <hyperlink ref="B94" r:id="rId477" display="https://leetcode.com/problems/valid-anagram/description/" xr:uid="{6A427A47-B738-1B47-B40C-0720744F00EB}"/>
+    <hyperlink ref="C93" r:id="rId478" display="https://cspiration.com/login" xr:uid="{D90BE585-BB70-8F4E-9C42-7DABEA1EE154}"/>
+    <hyperlink ref="B93" r:id="rId479" display="https://leetcode.com/problems/word-pattern/description/" xr:uid="{8A917EDD-4C17-0C4F-8EB3-0D2A69CF7E2D}"/>
+    <hyperlink ref="C92" r:id="rId480" display="https://cspiration.com/login" xr:uid="{60004F03-7CA3-7A49-A7B7-7A595C09CD21}"/>
+    <hyperlink ref="B92" r:id="rId481" display="https://leetcode.com/problems/flip-game-ii/description/" xr:uid="{B57E6DAA-DB1C-9D49-A5F5-9A1DDBE07E8C}"/>
+    <hyperlink ref="C91" r:id="rId482" display="https://cspiration.com/login" xr:uid="{F49DA318-AFE5-E94E-B520-D86A38E11102}"/>
+    <hyperlink ref="B91" r:id="rId483" display="https://leetcode.com/problems/isomorphic-strings/description/" xr:uid="{069B1397-F0EF-0645-8828-263251550008}"/>
+    <hyperlink ref="C90" r:id="rId484" display="https://cspiration.com/login" xr:uid="{25731BF2-9D7D-2F47-8B04-2B971F79A6E7}"/>
+    <hyperlink ref="B90" r:id="rId485" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/description/" xr:uid="{20ACD6E3-C0D3-DC40-A581-E5A1DD349E75}"/>
+    <hyperlink ref="C89" r:id="rId486" display="https://cspiration.com/login" xr:uid="{F3144B11-0907-9247-B034-3BE234EB0031}"/>
+    <hyperlink ref="B89" r:id="rId487" display="https://leetcode.com/problems/reverse-words-in-a-string/description/" xr:uid="{E5D0091E-BD36-1849-86C4-AD6193E4DBF8}"/>
+    <hyperlink ref="C88" r:id="rId488" display="https://cspiration.com/login" xr:uid="{EF9807D4-7B95-6744-A12B-C9E96455C37F}"/>
+    <hyperlink ref="B88" r:id="rId489" display="https://leetcode.com/problems/reverse-string/description/" xr:uid="{968C8B06-BC69-2343-84F4-4279FF45A33D}"/>
+    <hyperlink ref="C87" r:id="rId490" display="https://cspiration.com/login" xr:uid="{295DA0DD-097C-494D-985C-0351F936CFAE}"/>
+    <hyperlink ref="B87" r:id="rId491" display="https://leetcode.com/problems/ransom-note/description/" xr:uid="{3D768C37-76A3-EB41-8CAF-A61CD430D930}"/>
+    <hyperlink ref="C86" r:id="rId492" display="https://cspiration.com/login" xr:uid="{83C1DBA7-7A1A-3942-8BBB-A55279A4114D}"/>
+    <hyperlink ref="B86" r:id="rId493" display="https://leetcode.com/problems/first-unique-character-in-a-string/description/" xr:uid="{C04F5C5C-DEE3-C44F-A74F-52C26D3F2FE9}"/>
+    <hyperlink ref="C85" r:id="rId494" display="https://cspiration.com/login" xr:uid="{D4837917-968A-1A47-A565-F2D02413B704}"/>
+    <hyperlink ref="B85" r:id="rId495" display="https://leetcode.com/problems/length-of-last-word/description/" xr:uid="{D114781F-CCE8-1B4D-B130-1F8DAA81F929}"/>
+    <hyperlink ref="C84" r:id="rId496" display="https://cspiration.com/login" xr:uid="{4EDAA73E-B4E4-4A4D-A1A3-B1BF3B641930}"/>
+    <hyperlink ref="B84" r:id="rId497" display="https://leetcode.com/problems/longest-common-prefix/description/" xr:uid="{4B66E93E-437A-C447-9D2D-14431C4B5C0D}"/>
+    <hyperlink ref="C83" r:id="rId498" display="https://cspiration.com/login" xr:uid="{8D4BEA64-F28F-194D-9BCA-1A1995FE751F}"/>
+    <hyperlink ref="B83" r:id="rId499" display="https://leetcode.com/problems/implement-strstr/description/" xr:uid="{D540EA7C-EB08-D54A-8BA0-D2BF3C8D7159}"/>
+    <hyperlink ref="B4" r:id="rId500" display="https://leetcode.com/problems/remove-element/" xr:uid="{286DDDF7-59E6-7942-AB56-D80FD67EB635}"/>
+    <hyperlink ref="C4" r:id="rId501" display="https://cspiration.com/login" xr:uid="{6289C977-265F-644E-B8D2-5B6CE5EDF2C5}"/>
+    <hyperlink ref="B5" r:id="rId502" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/description/" xr:uid="{54061707-31AA-0145-8670-CC6D36B1BEC0}"/>
+    <hyperlink ref="C5" r:id="rId503" display="https://cspiration.com/login" xr:uid="{500DFA5D-F023-0749-AFA4-C352803F48F7}"/>
+    <hyperlink ref="B6" r:id="rId504" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/description/" xr:uid="{4E4A31C0-310E-014C-9885-C01A90282C95}"/>
+    <hyperlink ref="C6" r:id="rId505" display="https://cspiration.com/login" xr:uid="{377F3F4C-58FD-334C-8DD9-487E1D54C5C7}"/>
+    <hyperlink ref="B7" r:id="rId506" display="https://leetcode.com/problems/find-the-celebrity/description/" xr:uid="{2AE4B2A8-9344-1A4D-884B-35DCE6B1F4B4}"/>
+    <hyperlink ref="C7" r:id="rId507" display="https://cspiration.com/login" xr:uid="{D1CA0B6E-47C3-9547-81ED-557FDEEAD369}"/>
+    <hyperlink ref="B8" r:id="rId508" display="https://leetcode.com/problems/rotate-array/description/" xr:uid="{1C059230-FBF8-E649-884D-CF497169C129}"/>
+    <hyperlink ref="C8" r:id="rId509" display="https://cspiration.com/login" xr:uid="{4028D27D-EBD2-6A49-89CF-D33C798BA103}"/>
+    <hyperlink ref="B9" r:id="rId510" display="https://leetcode.com/problems/first-missing-positive/description/" xr:uid="{AD3A344D-6377-554C-BD60-239E6E3AC0FC}"/>
+    <hyperlink ref="C9" r:id="rId511" display="https://cspiration.com/login" xr:uid="{CD1F4F36-1496-5044-BAF2-3A477B29A4E2}"/>
+    <hyperlink ref="B10" r:id="rId512" display="https://leetcode.com/problems/bulls-and-cows/" xr:uid="{A69D819E-6055-E34D-A728-367E645484E4}"/>
+    <hyperlink ref="C10" r:id="rId513" display="https://cspiration.com/login" xr:uid="{3BEEFEC0-7B97-B44C-B533-826AC3D21775}"/>
+    <hyperlink ref="B11" r:id="rId514" display="https://leetcode.com/problems/gas-station/description/" xr:uid="{7B52AC53-FCC4-DF40-8A5E-89993108D885}"/>
+    <hyperlink ref="C11" r:id="rId515" display="https://cspiration.com/login" xr:uid="{B496F49C-5324-1640-A525-C88E084994D4}"/>
+    <hyperlink ref="B12" r:id="rId516" display="https://leetcode.com/problems/pascals-triangle/description/" xr:uid="{DDABB772-6060-394A-B214-2275773F6D3E}"/>
+    <hyperlink ref="C12" r:id="rId517" display="https://cspiration.com/login" xr:uid="{C519359E-746F-384C-A54C-0C44D88999C9}"/>
+    <hyperlink ref="B13" r:id="rId518" display="https://leetcode.com/problems/pascals-triangle-ii/description/" xr:uid="{C81D50A0-155F-2445-B745-34608237939C}"/>
+    <hyperlink ref="C13" r:id="rId519" display="https://cspiration.com/login" xr:uid="{903804DF-1D79-9A4E-8628-7174BFD24F1C}"/>
+    <hyperlink ref="B14" r:id="rId520" display="https://leetcode.com/problems/majority-element/description/" xr:uid="{69AB1F79-F341-F141-8C95-44B7B1591E6C}"/>
+    <hyperlink ref="C14" r:id="rId521" display="https://cspiration.com/login" xr:uid="{3B18C2FB-ECCF-5442-8E59-E95EA871D982}"/>
+    <hyperlink ref="B15" r:id="rId522" display="https://leetcode.com/problems/majority-element-ii/description/" xr:uid="{26608E8F-1E25-184A-972D-33C857831471}"/>
+    <hyperlink ref="C15" r:id="rId523" display="https://cspiration.com/login" xr:uid="{1935743A-FCD0-DF4E-904A-99CC4AB30A83}"/>
+    <hyperlink ref="B16" r:id="rId524" display="https://leetcode.com/problems/h-index/description/" xr:uid="{4F55F64D-7580-F74A-9621-AD116C9948D6}"/>
+    <hyperlink ref="C16" r:id="rId525" display="https://cspiration.com/login" xr:uid="{06010F5E-8C06-8D4A-8000-34ADAF531876}"/>
+    <hyperlink ref="B17" r:id="rId526" display="https://leetcode.com/problems/h-index-ii/description/" xr:uid="{5DDBFBEC-1ED4-D54C-9244-10CA405CAF3E}"/>
+    <hyperlink ref="C17" r:id="rId527" display="https://cspiration.com/login" xr:uid="{0588393C-E0C4-064E-84C5-E2F39DE66F85}"/>
+    <hyperlink ref="B18" r:id="rId528" display="https://leetcode.com/problems/shortest-word-distance/description/" xr:uid="{ACF7CAFE-347A-5447-902C-8378B2BFF2A2}"/>
+    <hyperlink ref="C18" r:id="rId529" display="https://cspiration.com/login" xr:uid="{578194F7-1C68-BA41-9212-A53A84B0860F}"/>
+    <hyperlink ref="B19" r:id="rId530" display="https://leetcode.com/problems/shortest-word-distance-ii/description/" xr:uid="{2F21C965-8637-8C4E-9DBD-78567F5EF778}"/>
+    <hyperlink ref="C19" r:id="rId531" display="https://cspiration.com/login" xr:uid="{3EDFD659-EB6B-BB45-9BAF-D33A8834C8AE}"/>
+    <hyperlink ref="B20" r:id="rId532" display="https://leetcode.com/problems/shortest-word-distance-iii/description/" xr:uid="{49529AB1-C00C-3A4D-B6CD-5ABC7EEDF9D6}"/>
+    <hyperlink ref="C20" r:id="rId533" display="https://cspiration.com/login" xr:uid="{FFF267F9-900B-654D-BA9F-56A2F8E9BE29}"/>
+    <hyperlink ref="B21" r:id="rId534" display="https://leetcode.com/problems/contains-duplicate/description/" xr:uid="{C199CF97-509E-D84F-BD9B-94763D4C342E}"/>
+    <hyperlink ref="C21" r:id="rId535" display="https://cspiration.com/login" xr:uid="{620C5698-93A6-F446-9F9E-C5493F5ED009}"/>
+    <hyperlink ref="B22" r:id="rId536" display="https://leetcode.com/problems/contains-duplicate-ii/description/" xr:uid="{80651FE1-74A2-F14D-8D95-094BDEA92F1C}"/>
+    <hyperlink ref="C22" r:id="rId537" display="https://cspiration.com/login" xr:uid="{F5BFEEBA-961E-CA44-9714-D25CA68E5A0C}"/>
+    <hyperlink ref="B23" r:id="rId538" display="https://leetcode.com/problems/contains-duplicate-iii/description/" xr:uid="{CB2ADE9A-F80A-1841-964E-CE5C2535F5B4}"/>
+    <hyperlink ref="C23" r:id="rId539" display="https://cspiration.com/login" xr:uid="{EED180F8-8C96-1640-AA16-69E8E1E93742}"/>
+    <hyperlink ref="B24" r:id="rId540" display="https://leetcode.com/problems/jump-game/description/" xr:uid="{8764084C-5EF6-4042-8129-883109481164}"/>
+    <hyperlink ref="C24" r:id="rId541" display="https://cspiration.com/login" xr:uid="{E27ED8CB-2D95-E54F-9B5C-BC9A5C1ED355}"/>
+    <hyperlink ref="B25" r:id="rId542" display="https://leetcode.com/problems/jump-game-ii/description/" xr:uid="{BC1FDE14-4C59-AF4B-9126-C9C43D87FB7C}"/>
+    <hyperlink ref="C25" r:id="rId543" display="https://cspiration.com/login" xr:uid="{13FF1D19-2F45-9C48-B3B5-E7278999D8BD}"/>
+    <hyperlink ref="B26" r:id="rId544" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/" xr:uid="{AB26BBD6-5103-0349-AA58-BC7B302E9970}"/>
+    <hyperlink ref="C26" r:id="rId545" display="https://cspiration.com/login" xr:uid="{33CDC95E-8116-A74A-9089-7B3C19BEF100}"/>
+    <hyperlink ref="B27" r:id="rId546" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/description/" xr:uid="{70418F5B-7C62-B045-8BE1-F4A436E824D8}"/>
+    <hyperlink ref="C27" r:id="rId547" display="https://cspiration.com/login" xr:uid="{64FF64A7-D9C5-C14E-8BF3-147FCD6BA193}"/>
+    <hyperlink ref="B28" r:id="rId548" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/description/" xr:uid="{BE4B9E0A-F8ED-FD4C-B800-99A5F838F838}"/>
+    <hyperlink ref="C28" r:id="rId549" display="https://cspiration.com/login" xr:uid="{9E2965F7-EF40-2546-8BF6-8171A3D7D699}"/>
+    <hyperlink ref="B29" r:id="rId550" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/description/" xr:uid="{B4324FE5-67A8-6743-9FD6-51A3CBE6DB5D}"/>
+    <hyperlink ref="C29" r:id="rId551" display="https://cspiration.com/login" xr:uid="{8B01B975-8F42-C64B-A4CE-7308B2C7288A}"/>
+    <hyperlink ref="B30" r:id="rId552" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/description/" xr:uid="{412B0E17-B4C5-9447-B2E1-343BA598BB90}"/>
+    <hyperlink ref="C30" r:id="rId553" display="https://cspiration.com/login" xr:uid="{B2124E06-5477-024D-943D-489A9E083922}"/>
+    <hyperlink ref="B31" r:id="rId554" display="https://leetcode.com/problems/container-with-most-water/description/" xr:uid="{94B46ECA-1B5A-5F49-A7CD-88EF6CD41396}"/>
+    <hyperlink ref="C31" r:id="rId555" display="https://cspiration.com/login" xr:uid="{F42082C1-5EB1-FB4F-B6FC-3A51D34671CE}"/>
+    <hyperlink ref="B32" r:id="rId556" display="https://leetcode.com/problems/trapping-rain-water/description/" xr:uid="{B965047B-D350-A64B-9A9F-80CF5591D4E7}"/>
+    <hyperlink ref="C32" r:id="rId557" display="https://cspiration.com/login" xr:uid="{53778822-9D04-DB44-BDC7-142FFB8F0544}"/>
+    <hyperlink ref="B33" r:id="rId558" display="https://leetcode.com/problems/increasing-triplet-subsequence/description/" xr:uid="{252FF506-7BDD-1C42-B0E3-236B0C561986}"/>
+    <hyperlink ref="C33" r:id="rId559" display="https://cspiration.com/login" xr:uid="{0AE9C9D8-2B56-F54A-8CA4-0B30903FCBFB}"/>
+    <hyperlink ref="B34" r:id="rId560" display="https://leetcode.com/problems/longest-consecutive-sequence/description/" xr:uid="{49033D2D-FAC4-9B49-A148-7EE18FE323CC}"/>
+    <hyperlink ref="C34" r:id="rId561" display="https://cspiration.com/login" xr:uid="{2E27E6D8-527B-8444-A061-19D919F78DB9}"/>
+    <hyperlink ref="B35" r:id="rId562" display="https://leetcode.com/problems/maximum-gap/description/" xr:uid="{AB343659-F16E-544D-8F05-FE06FA9CE468}"/>
+    <hyperlink ref="C35" r:id="rId563" display="https://cspiration.com/login" xr:uid="{4AF306DE-C238-044D-BF94-9C1EAB28ED35}"/>
+    <hyperlink ref="B36" r:id="rId564" display="https://leetcode.com/problems/find-the-duplicate-number/description/" xr:uid="{EA5B0306-9509-6A43-9DDA-C1A8653CB329}"/>
+    <hyperlink ref="C36" r:id="rId565" display="https://cspiration.com/login" xr:uid="{7E063BD7-130E-5744-BC8B-93A14DD66751}"/>
+    <hyperlink ref="B38" r:id="rId566" display="https://leetcode.com/problems/count-of-range-sum/description/" xr:uid="{80C6C391-73D2-974E-9911-4CCF95A44D83}"/>
+    <hyperlink ref="C38" r:id="rId567" display="https://cspiration.com/login" xr:uid="{E2D8B732-D801-864D-AD99-02EABB8BF434}"/>
+    <hyperlink ref="B39" r:id="rId568" display="https://leetcode.com/problems/game-of-life/description/" xr:uid="{B6D2B16B-38B1-3E44-94AD-E3BC87CA8A22}"/>
+    <hyperlink ref="C39" r:id="rId569" display="https://cspiration.com/login" xr:uid="{3FC338A6-142C-A848-8589-2C9790DDFF9E}"/>
+    <hyperlink ref="B42" r:id="rId570" display="https://leetcode.com/problems/insert-interval/description/" xr:uid="{6C2A8480-E5AC-8A44-9335-F6C639AF2E95}"/>
+    <hyperlink ref="C42" r:id="rId571" display="https://cspiration.com/login" xr:uid="{F8DE944A-A18A-0944-9AC7-EE32C5F72558}"/>
+    <hyperlink ref="B43" r:id="rId572" display="https://leetcode.com/problems/merge-intervals/description/" xr:uid="{23112536-8B98-F54D-B09F-F431EE1B8F93}"/>
+    <hyperlink ref="C43" r:id="rId573" display="https://cspiration.com/login" xr:uid="{A39C7231-07A9-BA48-BF15-A1F75EF9FE87}"/>
+    <hyperlink ref="B44" r:id="rId574" display="https://leetcode.com/problems/meeting-rooms/description/" xr:uid="{5C3D4B76-A904-C741-9C3D-DE2A7C5ED6E8}"/>
+    <hyperlink ref="C44" r:id="rId575" display="https://cspiration.com/login" xr:uid="{67472EA0-7E94-B44C-8E5F-6072F5E17A27}"/>
+    <hyperlink ref="B45" r:id="rId576" display="https://leetcode.com/problems/meeting-rooms-ii/description/" xr:uid="{6D682A9C-B23F-9246-8A8C-40DBE4263FD4}"/>
+    <hyperlink ref="C45" r:id="rId577" display="https://cspiration.com/login" xr:uid="{9658DE32-482B-844D-969F-87DF98D3A6BA}"/>
+    <hyperlink ref="B46" r:id="rId578" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals/description/" xr:uid="{363AD7A4-77B4-AD41-B36D-8A8A28C96C07}"/>
+    <hyperlink ref="C46" r:id="rId579" display="https://cspiration.com/login" xr:uid="{E4937207-F171-D948-B11B-4BD4CFF7C309}"/>
+    <hyperlink ref="B48" r:id="rId580" display="https://leetcode.com/problems/sliding-window-maximum/description/" xr:uid="{6B330C64-33F3-2847-BECD-21578E508703}"/>
+    <hyperlink ref="C48" r:id="rId581" display="https://cspiration.com/login" xr:uid="{8B20010B-E05E-B845-A005-4AB71BA17E10}"/>
+    <hyperlink ref="B49" r:id="rId582" display="https://leetcode.com/problems/find-median-from-data-stream/description/" xr:uid="{88616AB8-1BA7-DA4D-A4BB-C3C4462C1296}"/>
+    <hyperlink ref="C49" r:id="rId583" display="https://cspiration.com/login" xr:uid="{BF3597DB-8B5F-FB40-9939-DC241A28402B}"/>
+    <hyperlink ref="B50" r:id="rId584" display="https://leetcode.com/problems/maximum-subarray/description/" xr:uid="{406FD43F-0798-E642-BB56-BC921A6085F4}"/>
+    <hyperlink ref="C50" r:id="rId585" display="https://cspiration.com/login" xr:uid="{C69856FC-4FB9-9B44-A6AC-9B0A96B4B793}"/>
+    <hyperlink ref="B51" r:id="rId586" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/" xr:uid="{CB0F3741-5345-EF48-8079-A0BBECE4A9AA}"/>
+    <hyperlink ref="C51" r:id="rId587" display="https://cspiration.com/login" xr:uid="{91523018-8F0E-364D-9D14-A5A64D4E39B9}"/>
+    <hyperlink ref="B52" r:id="rId588" display="https://leetcode.com/problems/minimum-size-subarray-sum/description/" xr:uid="{AE6C805C-635A-9542-9BBC-2AE4730E03FC}"/>
+    <hyperlink ref="C52" r:id="rId589" display="https://cspiration.com/login" xr:uid="{64777FEE-DA09-F649-8B12-B77B7BE49760}"/>
+    <hyperlink ref="B53" r:id="rId590" display="https://leetcode.com/problems/product-of-array-except-self/description/" xr:uid="{74E76B45-0875-BB40-9B63-1A9381CF2C36}"/>
+    <hyperlink ref="C53" r:id="rId591" display="https://cspiration.com/login" xr:uid="{C5CBC0E6-9F42-A045-9414-3FBA3B99705D}"/>
+    <hyperlink ref="B54" r:id="rId592" display="https://leetcode.com/problems/maximum-product-subarray/description/" xr:uid="{F23782EB-BCFC-B342-BD96-9C803A1706DC}"/>
+    <hyperlink ref="C54" r:id="rId593" display="https://cspiration.com/login" xr:uid="{9702A18F-6E9C-564E-93A0-EC64595D8A32}"/>
+    <hyperlink ref="B55" r:id="rId594" display="https://leetcode.com/problems/summary-ranges/description/" xr:uid="{E7ECC2F9-41B6-3F49-890A-4899B93DF0B5}"/>
+    <hyperlink ref="C55" r:id="rId595" display="https://cspiration.com/login" xr:uid="{1E46A367-564A-AC48-8595-2D5B847FB5CE}"/>
+    <hyperlink ref="B56" r:id="rId596" display="https://leetcode.com/problems/missing-ranges/description/" xr:uid="{402F93F5-BC4D-1D4E-877F-C63BADFCCA14}"/>
+    <hyperlink ref="C56" r:id="rId597" display="https://cspiration.com/login" xr:uid="{C903A732-2719-B14F-92BC-F7811711584E}"/>
+    <hyperlink ref="B58" r:id="rId598" display="https://leetcode.com/problems/merge-sorted-array/description/" xr:uid="{5A45A469-1312-0D43-A7B8-6D7660CD022C}"/>
+    <hyperlink ref="C58" r:id="rId599" display="https://cspiration.com/login" xr:uid="{B455AA02-DF18-3042-8F64-800E6E06E5E3}"/>
+    <hyperlink ref="B59" r:id="rId600" display="https://leetcode.com/problems/sort-colors/description/" xr:uid="{91FDD159-97A0-AF44-8F28-85BAC60A4D1E}"/>
+    <hyperlink ref="C59" r:id="rId601" display="https://cspiration.com/login" xr:uid="{C7845607-40CC-474A-93C8-D835FBACC80B}"/>
+    <hyperlink ref="B60" r:id="rId602" display="https://leetcode.com/problems/move-zeroes/description/" xr:uid="{CB6A86C6-ADAC-CB48-86EE-5E09E169F93D}"/>
+    <hyperlink ref="C60" r:id="rId603" display="https://cspiration.com/login" xr:uid="{A0B274FE-0040-884F-AC31-2B0B01862510}"/>
+    <hyperlink ref="B61" r:id="rId604" display="https://leetcode.com/problems/wiggle-subsequence/description/" xr:uid="{F6B70BD5-81C4-F64E-BC77-8BA201B2C3C7}"/>
+    <hyperlink ref="C61" r:id="rId605" display="https://cspiration.com/login" xr:uid="{BA261DAF-B317-5A4F-ADD6-F2EBC30A1C76}"/>
+    <hyperlink ref="B62" r:id="rId606" display="https://leetcode.com/problems/wiggle-sort/description/" xr:uid="{32FE7FBE-870D-F648-861E-BCEC23C7A71C}"/>
+    <hyperlink ref="C62" r:id="rId607" display="https://cspiration.com/login" xr:uid="{BA2FAED4-F70B-D045-818E-D8434EB95223}"/>
+    <hyperlink ref="B63" r:id="rId608" display="https://leetcode.com/problems/wiggle-sort-ii/description/" xr:uid="{41D41AB0-C125-224F-8F05-0BCEDC963817}"/>
+    <hyperlink ref="C63" r:id="rId609" display="https://cspiration.com/login" xr:uid="{7497A307-1DCB-9040-801B-BA895D763865}"/>
+    <hyperlink ref="B64" r:id="rId610" display="https://leetcode.com/problems/first-bad-version/description/" xr:uid="{0395954A-934A-2542-AB3F-BF17C4EAC5D7}"/>
+    <hyperlink ref="C64" r:id="rId611" display="https://cspiration.com/login" xr:uid="{0892F58F-5E1B-4249-B3C4-5B48B174DCF3}"/>
+    <hyperlink ref="B65" r:id="rId612" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{A6D47DB2-0CA3-6D45-ACDE-EFC0B3777406}"/>
+    <hyperlink ref="C65" r:id="rId613" display="https://cspiration.com/login" xr:uid="{0DD93632-7C5B-5A4E-8B12-6804C5BA1BF4}"/>
+    <hyperlink ref="B66" r:id="rId614" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{B6D894A2-EBD3-6147-A6CE-6F5F8BE1376C}"/>
+    <hyperlink ref="C66" r:id="rId615" display="https://cspiration.com/login" xr:uid="{3BC5941D-E21E-EA45-A8AD-F2497157B6B5}"/>
+    <hyperlink ref="B67" r:id="rId616" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{8B81B470-4897-B749-9A33-C9D7E0D2D730}"/>
+    <hyperlink ref="C67" r:id="rId617" display="https://cspiration.com/login" xr:uid="{EE5D772A-DF79-BE48-B358-B00BA1B0BE6C}"/>
+    <hyperlink ref="B68" r:id="rId618" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{F6073DDA-CF47-BB4A-9598-FACE06C68413}"/>
+    <hyperlink ref="C68" r:id="rId619" display="https://cspiration.com/login" xr:uid="{78879477-8DE6-174E-9645-0D541FBE7CAA}"/>
+    <hyperlink ref="B69" r:id="rId620" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{32B64CE0-67D9-FF41-B193-721DF07768AC}"/>
+    <hyperlink ref="C69" r:id="rId621" display="https://cspiration.com/login" xr:uid="{9E8A7670-7EC2-C246-B916-2C3F0991FB09}"/>
+    <hyperlink ref="B70" r:id="rId622" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{BA5434E1-2CF1-E14F-B24E-FCB16DDF3E02}"/>
+    <hyperlink ref="C70" r:id="rId623" display="https://cspiration.com/login" xr:uid="{C697BAE8-80FF-574B-8BDC-B9900373CB53}"/>
+    <hyperlink ref="B71" r:id="rId624" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{4D3A394F-2E22-4848-A835-730DCBC89152}"/>
+    <hyperlink ref="C71" r:id="rId625" display="https://cspiration.com/login" xr:uid="{3E6E2D17-0A0A-3641-9AA8-4F59DDFE7788}"/>
+    <hyperlink ref="B72" r:id="rId626" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{5966944C-E0CB-9D47-B0ED-F3FCF17159AF}"/>
+    <hyperlink ref="C72" r:id="rId627" display="https://cspiration.com/login" xr:uid="{DAC402D1-DCBB-E04B-841E-266AACC81C75}"/>
+    <hyperlink ref="B73" r:id="rId628" display="https://leetcode.com/problems/intersection-of-two-arrays/description/" xr:uid="{991C417C-9A6A-AE47-9E6A-67A1CC65F1F3}"/>
+    <hyperlink ref="C73" r:id="rId629" display="https://cspiration.com/login" xr:uid="{747DEC74-51CE-7A40-B4A3-EB5242ADAC62}"/>
+    <hyperlink ref="B74" r:id="rId630" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/description/" xr:uid="{BA730980-27BD-8E4B-AEF3-35673703544F}"/>
+    <hyperlink ref="C74" r:id="rId631" display="https://cspiration.com/login" xr:uid="{455F4731-1D4F-854F-98C8-1D53E34CEB72}"/>
+    <hyperlink ref="B75" r:id="rId632" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{8549D8F0-982C-D643-B487-8C403B8A5E5F}"/>
+    <hyperlink ref="C75" r:id="rId633" display="https://cspiration.com/login" xr:uid="{7DF77CA2-035F-3B46-AC25-6D5D2DB6A3DE}"/>
+    <hyperlink ref="B76" r:id="rId634" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{0016D10A-9E64-5F4B-A2DD-35467B4D6925}"/>
+    <hyperlink ref="C76" r:id="rId635" display="https://cspiration.com/login" xr:uid="{370A9C08-9397-6244-9A7C-D5A7706B5C33}"/>
+    <hyperlink ref="B77" r:id="rId636" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{F3713F37-2092-EE4F-9D0F-DF78CC7E6F5F}"/>
+    <hyperlink ref="B40" r:id="rId637" xr:uid="{A8664FBD-4D0C-9F4E-B3FF-1A3A080A62BA}"/>
+    <hyperlink ref="B442" r:id="rId638" xr:uid="{470B60D0-0690-D646-A3F7-60EFD7D84914}"/>
+    <hyperlink ref="B188" r:id="rId639" xr:uid="{480C3FC1-E1AD-1549-AE5F-DCB9796EBAB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB2AE0-9867-E347-8BD0-25400CBC28AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924297E4-8276-8842-96DA-312CB9ED7C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
   <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1634,7 +1634,7 @@
       <c r="A4" s="6">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1646,7 +1646,7 @@
       <c r="A5" s="6">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1658,7 +1658,7 @@
       <c r="A6" s="6">
         <v>80</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1670,7 +1670,7 @@
       <c r="A7" s="6">
         <v>277</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1682,7 +1682,7 @@
       <c r="A8" s="6">
         <v>189</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1694,7 +1694,7 @@
       <c r="A9" s="6">
         <v>41</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1706,7 +1706,7 @@
       <c r="A10" s="6">
         <v>299</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1718,7 +1718,7 @@
       <c r="A11" s="6">
         <v>134</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1730,7 +1730,7 @@
       <c r="A12" s="6">
         <v>118</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1744,7 +1744,7 @@
       <c r="A13" s="6">
         <v>119</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C13" s="2" t="s">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924297E4-8276-8842-96DA-312CB9ED7C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E94B2-234C-D748-ABDA-77960634683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
   <dimension ref="A1:H445"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E94B2-234C-D748-ABDA-77960634683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AFD23F-73CF-514A-BE91-0FC6B85C7B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
+    <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bycat" sheetId="1" r:id="rId1"/>
+    <sheet name="vmware" sheetId="2" r:id="rId2"/>
+    <sheet name="amazon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="419">
   <si>
     <t>144</t>
   </si>
@@ -1185,6 +1187,111 @@
   </si>
   <si>
     <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>Count Good Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/company/vmware/</t>
+  </si>
+  <si>
+    <t>146. LRU Cache</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>1347. Minimum Number of Steps to Make Two Strings Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram/</t>
+  </si>
+  <si>
+    <t>careful!</t>
+  </si>
+  <si>
+    <t>460. LFU Cache</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>1669. Merge In Between Linked Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-in-between-linked-lists/</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/forum.php?mod=viewthread&amp;tid=776168&amp;ctid=232535</t>
+  </si>
+  <si>
+    <t>https://wdxtub.com/interview/14520850399861.html</t>
+  </si>
+  <si>
+    <t>127. Word Ladder</t>
+  </si>
+  <si>
+    <t>56. Merge Intervals</t>
+  </si>
+  <si>
+    <t>863. All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>328. Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>204. Count Primes</t>
+  </si>
+  <si>
+    <t>349. Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>76. Minimum Window Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Least Number of Unique Integers after K Removals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals/</t>
+  </si>
+  <si>
+    <t>Least Number of Unique Integers after K Removals</t>
+  </si>
+  <si>
+    <t>testid</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/robot-bounded-in-circle/</t>
+  </si>
+  <si>
+    <t>Robot Bounded In Circle</t>
+  </si>
+  <si>
+    <t>Maximum Average Subtree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-average-subtree/</t>
+  </si>
+  <si>
+    <t>Maximum Area of a Piece of Cake After Horizontal and Vertical Cuts</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts/</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-closest-points-to-origin/</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:H445"/>
+  <dimension ref="A1:H446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView topLeftCell="A61" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2514,6 +2621,14 @@
         <v>298</v>
       </c>
     </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>1481</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
     <row r="82" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>68</v>
@@ -3782,8 +3897,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B190" s="8"/>
+    <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>863</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B191" s="8"/>
@@ -4157,31 +4277,29 @@
       <c r="D225" s="6"/>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="6">
+        <v>300</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="6"/>
+    </row>
+    <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B226" s="7"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="6">
-        <v>256</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B227" s="7"/>
+      <c r="C227" s="6"/>
       <c r="D227" s="6"/>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
@@ -4190,10 +4308,10 @@
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
@@ -4202,10 +4320,10 @@
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2</v>
@@ -4214,10 +4332,10 @@
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
@@ -4226,10 +4344,10 @@
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>2</v>
@@ -4238,10 +4356,10 @@
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
@@ -4250,69 +4368,69 @@
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C234" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D234" s="6"/>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C235" s="2"/>
       <c r="D235" s="6"/>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
+        <v>85</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="6"/>
+    </row>
+    <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A237" s="6">
         <v>363</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B237" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D236" s="6" t="s">
+      <c r="C237" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D237" s="6"/>
-    </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A238" s="6" t="s">
+      <c r="D238" s="6"/>
+    </row>
+    <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B238" s="7"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-    </row>
-    <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="6">
-        <v>198</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B239" s="7"/>
+      <c r="C239" s="6"/>
       <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -4321,10 +4439,10 @@
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
@@ -4333,10 +4451,10 @@
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -4345,10 +4463,10 @@
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -4357,43 +4475,48 @@
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="6"/>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
+        <v>44</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="6">
         <v>1048</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="6" t="s">
+    <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A247" s="6">
-        <v>746</v>
-      </c>
-      <c r="B247" s="3"/>
-      <c r="C247" s="2"/>
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
-        <v>1025</v>
+        <v>746</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
-        <v>1139</v>
+        <v>1025</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="2"/>
@@ -4402,92 +4525,87 @@
       <c r="A250" s="6">
         <v>1139</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>301</v>
-      </c>
+      <c r="B250" s="3"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
-        <v>740</v>
+        <v>1139</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="C251" s="2"/>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
-        <v>464</v>
-      </c>
-      <c r="B252" s="3"/>
+        <v>740</v>
+      </c>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
-        <v>523</v>
+        <v>464</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="2"/>
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
-        <v>956</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>303</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B254" s="3"/>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
+        <v>956</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A256" s="6">
         <v>1320</v>
       </c>
-      <c r="B255" s="3"/>
-      <c r="C255" s="2"/>
-    </row>
-    <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A257" s="5" t="s">
+    <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A257" s="6"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A258" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B258" s="6"/>
-      <c r="C258" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A260" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-    </row>
-    <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A260" s="6">
-        <v>206</v>
-      </c>
-      <c r="B260" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
       <c r="D260" s="6"/>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
-        <v>141</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>106</v>
+        <v>206</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>2</v>
@@ -4496,10 +4614,10 @@
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
-        <v>24</v>
-      </c>
-      <c r="B262" s="10" t="s">
-        <v>107</v>
+        <v>141</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>2</v>
@@ -4508,10 +4626,10 @@
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
-        <v>328</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>108</v>
+        <v>24</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>2</v>
@@ -4520,10 +4638,10 @@
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>2</v>
@@ -4532,10 +4650,10 @@
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>2</v>
@@ -4544,10 +4662,10 @@
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -4556,10 +4674,10 @@
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
@@ -4568,10 +4686,10 @@
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>2</v>
@@ -4580,10 +4698,10 @@
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
-        <v>82</v>
-      </c>
-      <c r="B269" s="10" t="s">
-        <v>114</v>
+        <v>203</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
@@ -4592,10 +4710,10 @@
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
-        <v>369</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>115</v>
+        <v>82</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -4604,10 +4722,10 @@
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
-        <v>2</v>
+        <v>369</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
@@ -4616,10 +4734,10 @@
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
@@ -4628,42 +4746,42 @@
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
+        <v>160</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="6"/>
+    </row>
+    <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A274" s="6">
         <v>21</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B274" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D273" s="6"/>
-    </row>
-    <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A274" s="6" t="s">
+      <c r="C274" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="6"/>
+    </row>
+    <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A275" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B274" s="7"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6"/>
-    </row>
-    <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A275" s="6">
-        <v>234</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B275" s="7"/>
+      <c r="C275" s="6"/>
       <c r="D275" s="6"/>
     </row>
     <row r="276" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>2</v>
@@ -4672,10 +4790,10 @@
     </row>
     <row r="277" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>2</v>
@@ -4684,10 +4802,10 @@
     </row>
     <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>2</v>
@@ -4696,10 +4814,10 @@
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>2</v>
@@ -4708,10 +4826,10 @@
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>2</v>
@@ -4720,10 +4838,10 @@
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
@@ -4732,10 +4850,10 @@
     </row>
     <row r="282" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>2</v>
@@ -4744,44 +4862,44 @@
     </row>
     <row r="283" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
+        <v>23</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A284" s="6">
         <v>147</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B284" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A286" s="5" t="s">
+    <row r="287" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="s">
+    <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B287" s="6"/>
-      <c r="C287" s="6" t="s">
+      <c r="B288" s="6"/>
+      <c r="C288" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A288" s="6">
-        <v>200</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D288" s="6"/>
     </row>
     <row r="289" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>2</v>
@@ -4790,10 +4908,10 @@
     </row>
     <row r="290" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>2</v>
@@ -4802,10 +4920,10 @@
     </row>
     <row r="291" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>2</v>
@@ -4814,10 +4932,10 @@
     </row>
     <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>2</v>
@@ -4826,10 +4944,10 @@
     </row>
     <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>2</v>
@@ -4838,30 +4956,30 @@
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" s="6"/>
     </row>
     <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D295" s="6"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>2</v>
@@ -4870,51 +4988,51 @@
     </row>
     <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
+        <v>52</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297" s="6"/>
+    </row>
+    <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A298" s="6">
         <v>1192</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B298" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A299" s="6"/>
-      <c r="B299" s="3"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="6"/>
-    </row>
-    <row r="300" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A300" s="5" t="s">
+    <row r="300" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A300" s="6"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="6"/>
+    </row>
+    <row r="301" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B300" s="8"/>
-    </row>
-    <row r="301" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A301" s="6" t="s">
+      <c r="B301" s="8"/>
+    </row>
+    <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B301" s="7"/>
-      <c r="C301" s="6" t="s">
+      <c r="B302" s="7"/>
+      <c r="C302" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A302" s="6">
-        <v>261</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D302" s="6"/>
     </row>
     <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>2</v>
@@ -4923,62 +5041,62 @@
     </row>
     <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
+        <v>323</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D304" s="6"/>
+    </row>
+    <row r="305" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A305" s="6">
         <v>305</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B305" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B305" s="8"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B306" s="8"/>
     </row>
-    <row r="307" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B307" s="8"/>
+    </row>
+    <row r="308" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B307" s="8"/>
-    </row>
-    <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A308" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B308" s="7"/>
-      <c r="C308" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B308" s="8"/>
     </row>
     <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B309" s="7"/>
+      <c r="C309" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B309" s="7"/>
-      <c r="C309" s="6"/>
-      <c r="D309" s="6"/>
-    </row>
-    <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A310" s="6">
-        <v>133</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B310" s="7"/>
+      <c r="C310" s="6"/>
       <c r="D310" s="6"/>
     </row>
     <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>2</v>
@@ -4987,75 +5105,75 @@
     </row>
     <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
+        <v>399</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D312" s="6"/>
+    </row>
+    <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A313" s="6">
         <v>310</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B313" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D312" s="6"/>
-    </row>
-    <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A313" s="6" t="s">
+      <c r="C313" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313" s="6"/>
+    </row>
+    <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A314" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B313" s="7"/>
-      <c r="C313" s="6"/>
-      <c r="D313" s="6"/>
-    </row>
-    <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A314" s="6">
+      <c r="B314" s="7"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="6"/>
+    </row>
+    <row r="315" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A315" s="6">
         <v>149</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B315" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D314" s="6"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B315" s="8"/>
+      <c r="C315" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" s="6"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B316" s="8"/>
     </row>
-    <row r="317" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A317" s="5" t="s">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B317" s="8"/>
+    </row>
+    <row r="318" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B317" s="8"/>
-    </row>
-    <row r="318" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A318" s="6" t="s">
+      <c r="B318" s="8"/>
+    </row>
+    <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A319" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B318" s="7"/>
-      <c r="C318" s="6" t="s">
+      <c r="B319" s="7"/>
+      <c r="C319" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A319" s="6">
-        <v>208</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D319" s="6"/>
     </row>
     <row r="320" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>2</v>
@@ -5064,48 +5182,48 @@
     </row>
     <row r="321" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
+        <v>211</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D321" s="6"/>
+    </row>
+    <row r="322" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A322" s="6">
         <v>212</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B322" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D321" s="6"/>
-    </row>
-    <row r="324" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A324" s="5" t="s">
+      <c r="C322" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322" s="6"/>
+    </row>
+    <row r="325" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A325" s="6" t="s">
+    <row r="326" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A326" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B325" s="6"/>
-      <c r="C325" s="6" t="s">
+      <c r="B326" s="6"/>
+      <c r="C326" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A326" s="6">
-        <v>48</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D326" s="6"/>
     </row>
     <row r="327" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="6">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>2</v>
@@ -5114,10 +5232,10 @@
     </row>
     <row r="328" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>2</v>
@@ -5126,10 +5244,10 @@
     </row>
     <row r="329" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="6">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>2</v>
@@ -5138,10 +5256,10 @@
     </row>
     <row r="330" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="6">
-        <v>311</v>
+        <v>73</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>2</v>
@@ -5150,10 +5268,10 @@
     </row>
     <row r="331" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="6">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>2</v>
@@ -5162,10 +5280,10 @@
     </row>
     <row r="332" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="6">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>2</v>
@@ -5174,10 +5292,10 @@
     </row>
     <row r="333" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="6">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>2</v>
@@ -5186,10 +5304,10 @@
     </row>
     <row r="334" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="6">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>2</v>
@@ -5198,10 +5316,10 @@
     </row>
     <row r="335" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="6">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>2</v>
@@ -5210,10 +5328,10 @@
     </row>
     <row r="336" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="6">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>2</v>
@@ -5222,10 +5340,10 @@
     </row>
     <row r="337" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="6">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>2</v>
@@ -5234,10 +5352,10 @@
     </row>
     <row r="338" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="6">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>2</v>
@@ -5246,10 +5364,10 @@
     </row>
     <row r="339" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="6">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>2</v>
@@ -5258,10 +5376,10 @@
     </row>
     <row r="340" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="6">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>2</v>
@@ -5270,10 +5388,10 @@
     </row>
     <row r="341" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="6">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>2</v>
@@ -5282,83 +5400,83 @@
     </row>
     <row r="342" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="6">
+        <v>36</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D342" s="6"/>
+    </row>
+    <row r="343" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A343" s="6">
         <v>37</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B343" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
+    <row r="347" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A347" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
     </row>
     <row r="348" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
     </row>
     <row r="349" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A349" s="6">
+      <c r="A349" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B349" s="6"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="6"/>
+    </row>
+    <row r="350" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A350" s="6">
         <v>155</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B350" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D349" s="6"/>
-    </row>
-    <row r="350" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
-        <v>232</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C350" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D350" s="1"/>
+      <c r="D350" s="6"/>
     </row>
     <row r="351" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
+        <v>232</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
         <v>225</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B352" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A352" s="6">
-        <v>150</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D352" s="6"/>
     </row>
     <row r="353" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>2</v>
@@ -5367,10 +5485,10 @@
     </row>
     <row r="354" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>2</v>
@@ -5379,10 +5497,10 @@
     </row>
     <row r="355" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="6">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>2</v>
@@ -5391,10 +5509,10 @@
     </row>
     <row r="356" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="6">
-        <v>224</v>
+        <v>394</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>2</v>
@@ -5403,10 +5521,10 @@
     </row>
     <row r="357" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="6">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>2</v>
@@ -5415,10 +5533,10 @@
     </row>
     <row r="358" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="6">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>2</v>
@@ -5427,42 +5545,42 @@
     </row>
     <row r="359" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="6">
+        <v>385</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D359" s="6"/>
+    </row>
+    <row r="360" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A360" s="6">
         <v>84</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B360" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D359" s="6"/>
-    </row>
-    <row r="360" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A360" s="6" t="s">
+      <c r="C360" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D360" s="6"/>
+    </row>
+    <row r="361" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A361" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B360" s="7"/>
-      <c r="C360" s="6"/>
-      <c r="D360" s="6"/>
-    </row>
-    <row r="361" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A361" s="6">
-        <v>215</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B361" s="7"/>
+      <c r="C361" s="6"/>
       <c r="D361" s="6"/>
     </row>
     <row r="362" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="6">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>2</v>
@@ -5471,10 +5589,10 @@
     </row>
     <row r="363" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>2</v>
@@ -5483,10 +5601,10 @@
     </row>
     <row r="364" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>2</v>
@@ -5495,94 +5613,94 @@
     </row>
     <row r="365" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
+        <v>332</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D365" s="6"/>
+    </row>
+    <row r="366" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A366" s="6">
         <v>341</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B366" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>302</v>
       </c>
-      <c r="B366" s="8"/>
-    </row>
-    <row r="367" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A367" s="6">
-        <v>1021</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="B367" s="8"/>
     </row>
     <row r="368" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="6">
-        <v>456</v>
+        <v>1021</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
-        <v>735</v>
+        <v>636</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
+        <v>735</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A372" s="6">
         <v>880</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B372" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A372" s="6"/>
-      <c r="B372" s="3"/>
-    </row>
-    <row r="375" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A375" s="5" t="s">
+    <row r="373" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A373" s="6"/>
+      <c r="B373" s="3"/>
+    </row>
+    <row r="376" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A376" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A376" s="6" t="s">
+    <row r="377" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A377" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B376" s="6"/>
-      <c r="C376" s="6" t="s">
+      <c r="B377" s="6"/>
+      <c r="C377" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A377" s="6">
-        <v>389</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D377" s="6"/>
     </row>
     <row r="378" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="6">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>2</v>
@@ -5591,70 +5709,70 @@
     </row>
     <row r="379" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>250</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D379" s="6"/>
     </row>
     <row r="380" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
+        <v>318</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A381" s="6">
         <v>169</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B381" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A381" s="6"/>
-      <c r="B381" s="3" t="s">
+    <row r="382" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A382" s="6"/>
+      <c r="B382" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A382" s="6">
+    <row r="383" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A383" s="6">
         <v>268</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B383" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A383" s="6"/>
-      <c r="B383" s="3"/>
-    </row>
-    <row r="386" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A386" s="5" t="s">
+    <row r="384" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A384" s="6"/>
+      <c r="B384" s="3"/>
+    </row>
+    <row r="387" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A387" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A387" s="6" t="s">
+    <row r="388" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A388" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B387" s="6"/>
-      <c r="C387" s="6" t="s">
+      <c r="B388" s="6"/>
+      <c r="C388" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A388" s="6">
-        <v>207</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D388" s="6"/>
     </row>
     <row r="389" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="6">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>2</v>
@@ -5663,44 +5781,44 @@
     </row>
     <row r="390" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
+        <v>210</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D390" s="6"/>
+    </row>
+    <row r="391" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A391" s="6">
         <v>269</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B391" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A393" s="5" t="s">
+    <row r="394" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A394" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A394" s="6" t="s">
+    <row r="395" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A395" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="6" t="s">
+      <c r="B395" s="6"/>
+      <c r="C395" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A395" s="6">
-        <v>384</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D395" s="6"/>
     </row>
     <row r="396" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A396" s="6">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>2</v>
@@ -5709,10 +5827,10 @@
     </row>
     <row r="397" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>2</v>
@@ -5721,10 +5839,10 @@
     </row>
     <row r="398" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>2</v>
@@ -5733,10 +5851,10 @@
     </row>
     <row r="399" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>2</v>
@@ -5745,69 +5863,69 @@
     </row>
     <row r="400" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
+        <v>381</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D400" s="6"/>
+    </row>
+    <row r="401" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A401" s="6">
         <v>138</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B401" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A403" s="5" t="s">
+    <row r="404" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A404" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A404" s="6" t="s">
+    <row r="405" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A405" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B404" s="6"/>
-      <c r="C404" s="6"/>
-      <c r="D404" s="6"/>
-    </row>
-    <row r="405" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A405" s="6">
-        <v>359</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B405" s="6"/>
+      <c r="C405" s="6"/>
       <c r="D405" s="6"/>
     </row>
     <row r="406" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="6">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D406" s="6" t="s">
-        <v>176</v>
-      </c>
+      <c r="D406" s="6"/>
     </row>
     <row r="407" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D407" s="6"/>
+      <c r="D407" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="408" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>2</v>
@@ -5816,10 +5934,10 @@
     </row>
     <row r="409" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>2</v>
@@ -5828,10 +5946,10 @@
     </row>
     <row r="410" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>2</v>
@@ -5840,10 +5958,10 @@
     </row>
     <row r="411" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>2</v>
@@ -5852,10 +5970,10 @@
     </row>
     <row r="412" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
-        <v>170</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>2</v>
@@ -5864,10 +5982,10 @@
     </row>
     <row r="413" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>2</v>
@@ -5876,10 +5994,10 @@
     </row>
     <row r="414" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>2</v>
@@ -5888,10 +6006,10 @@
     </row>
     <row r="415" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>2</v>
@@ -5900,10 +6018,10 @@
     </row>
     <row r="416" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>2</v>
@@ -5912,10 +6030,10 @@
     </row>
     <row r="417" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
-        <v>355</v>
+        <v>146</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>2</v>
@@ -5924,10 +6042,10 @@
     </row>
     <row r="418" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>2</v>
@@ -5936,10 +6054,10 @@
     </row>
     <row r="419" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>2</v>
@@ -5948,24 +6066,22 @@
     </row>
     <row r="420" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D420" s="6" t="s">
-        <v>279</v>
-      </c>
+      <c r="D420" s="6"/>
     </row>
     <row r="421" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>2</v>
@@ -5976,55 +6092,65 @@
     </row>
     <row r="422" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
+        <v>308</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A423" s="6">
         <v>705</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B423" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
+        <v>460</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A425" s="6">
         <v>3.31</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426">
         <v>697</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B426" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A428" s="9" t="s">
+    <row r="429" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A429" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A429" s="1" t="s">
+    <row r="430" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
-    </row>
-    <row r="430" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
-        <v>35</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
     </row>
     <row r="431" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>33</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>289</v>
+        <v>35</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>2</v>
@@ -6033,10 +6159,10 @@
     </row>
     <row r="432" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>2</v>
@@ -6045,10 +6171,10 @@
     </row>
     <row r="433" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>2</v>
@@ -6057,10 +6183,10 @@
     </row>
     <row r="434" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>2</v>
@@ -6069,10 +6195,10 @@
     </row>
     <row r="435" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>2</v>
@@ -6081,10 +6207,10 @@
     </row>
     <row r="436" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>374</v>
+        <v>162</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>2</v>
@@ -6093,10 +6219,10 @@
     </row>
     <row r="437" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>34</v>
+        <v>374</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>2</v>
@@ -6105,10 +6231,10 @@
     </row>
     <row r="438" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>2</v>
@@ -6117,10 +6243,10 @@
     </row>
     <row r="439" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>2</v>
@@ -6129,38 +6255,58 @@
     </row>
     <row r="440" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>298</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D440" s="1"/>
     </row>
     <row r="441" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>4</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>314</v>
+        <v>354</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
+        <v>4</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
         <v>50</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B443" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A444" s="9" t="s">
+    <row r="444" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>1922</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A445" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446">
         <v>500</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B446" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6195,102 +6341,102 @@
     <hyperlink ref="C224" r:id="rId27" display="https://cspiration.com/login" xr:uid="{7CC75275-A0BF-C447-8C55-0AB512699970}"/>
     <hyperlink ref="B225" r:id="rId28" display="https://leetcode.com/problems/coin-change/description/" xr:uid="{4751D5B9-78E7-1647-A94D-B787C4C6DAC8}"/>
     <hyperlink ref="C225" r:id="rId29" display="https://cspiration.com/login" xr:uid="{28C04F21-7959-C243-A6A5-4EEA9824A11F}"/>
-    <hyperlink ref="B227" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
-    <hyperlink ref="C227" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
-    <hyperlink ref="B228" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
-    <hyperlink ref="C228" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
-    <hyperlink ref="B229" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
-    <hyperlink ref="C229" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
-    <hyperlink ref="B230" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
-    <hyperlink ref="C230" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
-    <hyperlink ref="B231" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
-    <hyperlink ref="C231" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
-    <hyperlink ref="B232" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
-    <hyperlink ref="C232" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
-    <hyperlink ref="B233" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
-    <hyperlink ref="C233" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
-    <hyperlink ref="B235" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
-    <hyperlink ref="C235" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
-    <hyperlink ref="B236" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
-    <hyperlink ref="C236" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
-    <hyperlink ref="B239" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
-    <hyperlink ref="C239" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
-    <hyperlink ref="B240" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
-    <hyperlink ref="C240" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
-    <hyperlink ref="B241" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
-    <hyperlink ref="C241" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
-    <hyperlink ref="B242" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
-    <hyperlink ref="C242" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
-    <hyperlink ref="B243" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
-    <hyperlink ref="C243" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
-    <hyperlink ref="B244" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
-    <hyperlink ref="B260" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
-    <hyperlink ref="C260" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
-    <hyperlink ref="B261" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
-    <hyperlink ref="C261" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
-    <hyperlink ref="B262" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
-    <hyperlink ref="C262" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
-    <hyperlink ref="B263" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
-    <hyperlink ref="C263" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
-    <hyperlink ref="B264" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
-    <hyperlink ref="C264" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
-    <hyperlink ref="B265" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
-    <hyperlink ref="C265" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
-    <hyperlink ref="B266" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
-    <hyperlink ref="C266" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
-    <hyperlink ref="B267" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
-    <hyperlink ref="C267" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
-    <hyperlink ref="B268" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
-    <hyperlink ref="C268" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
-    <hyperlink ref="B269" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
-    <hyperlink ref="C269" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
-    <hyperlink ref="B270" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
-    <hyperlink ref="C270" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
-    <hyperlink ref="B271" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
-    <hyperlink ref="C271" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
-    <hyperlink ref="B272" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
-    <hyperlink ref="C272" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
-    <hyperlink ref="B273" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
-    <hyperlink ref="C273" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
-    <hyperlink ref="B275" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
-    <hyperlink ref="C275" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
-    <hyperlink ref="B276" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
-    <hyperlink ref="C276" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
-    <hyperlink ref="B277" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
-    <hyperlink ref="C277" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
-    <hyperlink ref="B278" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
-    <hyperlink ref="C278" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
-    <hyperlink ref="B279" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
-    <hyperlink ref="C279" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
-    <hyperlink ref="B280" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
-    <hyperlink ref="C280" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
-    <hyperlink ref="B281" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
-    <hyperlink ref="C281" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
-    <hyperlink ref="B282" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
-    <hyperlink ref="C282" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
-    <hyperlink ref="B283" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
-    <hyperlink ref="B288" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
-    <hyperlink ref="C288" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
-    <hyperlink ref="B289" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
-    <hyperlink ref="C289" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
-    <hyperlink ref="B290" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
-    <hyperlink ref="C290" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
-    <hyperlink ref="B291" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
-    <hyperlink ref="C291" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
-    <hyperlink ref="B292" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
-    <hyperlink ref="C292" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
-    <hyperlink ref="B293" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
-    <hyperlink ref="C293" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B295" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C295" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B296" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C296" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B294" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B302" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C302" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B303" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C303" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B304" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
+    <hyperlink ref="B228" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
+    <hyperlink ref="C228" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
+    <hyperlink ref="B229" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
+    <hyperlink ref="C229" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
+    <hyperlink ref="B230" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
+    <hyperlink ref="C230" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
+    <hyperlink ref="B231" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
+    <hyperlink ref="C231" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
+    <hyperlink ref="B232" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
+    <hyperlink ref="C232" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
+    <hyperlink ref="B233" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
+    <hyperlink ref="C233" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
+    <hyperlink ref="B234" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
+    <hyperlink ref="C234" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
+    <hyperlink ref="B236" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
+    <hyperlink ref="C236" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
+    <hyperlink ref="B237" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
+    <hyperlink ref="C237" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
+    <hyperlink ref="B240" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
+    <hyperlink ref="C240" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
+    <hyperlink ref="B241" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
+    <hyperlink ref="C241" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
+    <hyperlink ref="B242" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
+    <hyperlink ref="C242" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
+    <hyperlink ref="B243" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
+    <hyperlink ref="C243" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
+    <hyperlink ref="B244" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
+    <hyperlink ref="C244" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
+    <hyperlink ref="B245" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
+    <hyperlink ref="B261" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
+    <hyperlink ref="C261" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
+    <hyperlink ref="B262" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
+    <hyperlink ref="C262" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
+    <hyperlink ref="B263" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
+    <hyperlink ref="C263" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
+    <hyperlink ref="B264" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
+    <hyperlink ref="C264" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
+    <hyperlink ref="B265" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
+    <hyperlink ref="C265" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
+    <hyperlink ref="B266" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
+    <hyperlink ref="C266" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
+    <hyperlink ref="B267" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
+    <hyperlink ref="C267" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
+    <hyperlink ref="B268" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
+    <hyperlink ref="C268" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
+    <hyperlink ref="B269" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
+    <hyperlink ref="C269" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
+    <hyperlink ref="B270" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
+    <hyperlink ref="C270" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
+    <hyperlink ref="B271" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
+    <hyperlink ref="C271" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
+    <hyperlink ref="B272" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
+    <hyperlink ref="C272" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
+    <hyperlink ref="B273" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
+    <hyperlink ref="C273" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
+    <hyperlink ref="B274" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
+    <hyperlink ref="C274" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
+    <hyperlink ref="B276" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
+    <hyperlink ref="C276" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
+    <hyperlink ref="B277" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
+    <hyperlink ref="C277" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
+    <hyperlink ref="B278" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
+    <hyperlink ref="C278" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
+    <hyperlink ref="B279" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
+    <hyperlink ref="C279" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
+    <hyperlink ref="B280" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
+    <hyperlink ref="C280" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
+    <hyperlink ref="B281" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
+    <hyperlink ref="C281" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
+    <hyperlink ref="B282" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
+    <hyperlink ref="C282" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
+    <hyperlink ref="B283" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
+    <hyperlink ref="C283" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
+    <hyperlink ref="B284" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
+    <hyperlink ref="B289" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
+    <hyperlink ref="C289" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
+    <hyperlink ref="B290" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
+    <hyperlink ref="C290" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
+    <hyperlink ref="B291" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
+    <hyperlink ref="C291" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
+    <hyperlink ref="B292" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
+    <hyperlink ref="C292" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
+    <hyperlink ref="B293" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
+    <hyperlink ref="C293" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
+    <hyperlink ref="B294" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
+    <hyperlink ref="C294" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
+    <hyperlink ref="B296" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
+    <hyperlink ref="C296" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
+    <hyperlink ref="B297" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
+    <hyperlink ref="C297" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
+    <hyperlink ref="B295" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
+    <hyperlink ref="B303" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
+    <hyperlink ref="C303" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
+    <hyperlink ref="B304" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
+    <hyperlink ref="C304" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
+    <hyperlink ref="B305" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
     <hyperlink ref="B159" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
     <hyperlink ref="C159" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
     <hyperlink ref="B161" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
@@ -6435,175 +6581,175 @@
     <hyperlink ref="C140" r:id="rId267" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
     <hyperlink ref="B141" r:id="rId268" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
     <hyperlink ref="C141" r:id="rId269" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B310" r:id="rId270" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C310" r:id="rId271" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B311" r:id="rId272" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C311" r:id="rId273" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B312" r:id="rId274" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C312" r:id="rId275" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
-    <hyperlink ref="B314" r:id="rId276" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
-    <hyperlink ref="C314" r:id="rId277" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
-    <hyperlink ref="B320" r:id="rId278" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
-    <hyperlink ref="C320" r:id="rId279" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
-    <hyperlink ref="B319" r:id="rId280" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
-    <hyperlink ref="C319" r:id="rId281" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
-    <hyperlink ref="B321" r:id="rId282" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
-    <hyperlink ref="C321" r:id="rId283" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
-    <hyperlink ref="B326" r:id="rId284" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
-    <hyperlink ref="C326" r:id="rId285" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
-    <hyperlink ref="B327" r:id="rId286" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
-    <hyperlink ref="C327" r:id="rId287" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
-    <hyperlink ref="B328" r:id="rId288" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
-    <hyperlink ref="C328" r:id="rId289" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
-    <hyperlink ref="B329" r:id="rId290" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
-    <hyperlink ref="C329" r:id="rId291" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
-    <hyperlink ref="B330" r:id="rId292" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
-    <hyperlink ref="C330" r:id="rId293" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
-    <hyperlink ref="B331" r:id="rId294" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
-    <hyperlink ref="C331" r:id="rId295" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
-    <hyperlink ref="B332" r:id="rId296" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
-    <hyperlink ref="C332" r:id="rId297" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
-    <hyperlink ref="B333" r:id="rId298" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
-    <hyperlink ref="C333" r:id="rId299" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
-    <hyperlink ref="B334" r:id="rId300" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
-    <hyperlink ref="C334" r:id="rId301" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
-    <hyperlink ref="B335" r:id="rId302" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
-    <hyperlink ref="C335" r:id="rId303" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
-    <hyperlink ref="B336" r:id="rId304" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
-    <hyperlink ref="C336" r:id="rId305" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
-    <hyperlink ref="B337" r:id="rId306" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
-    <hyperlink ref="C337" r:id="rId307" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
-    <hyperlink ref="B338" r:id="rId308" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
-    <hyperlink ref="C338" r:id="rId309" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
-    <hyperlink ref="B339" r:id="rId310" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
-    <hyperlink ref="C339" r:id="rId311" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
-    <hyperlink ref="B340" r:id="rId312" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
-    <hyperlink ref="C340" r:id="rId313" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
-    <hyperlink ref="B341" r:id="rId314" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
-    <hyperlink ref="C341" r:id="rId315" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
-    <hyperlink ref="B342" r:id="rId316" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
-    <hyperlink ref="B349" r:id="rId317" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
-    <hyperlink ref="C349" r:id="rId318" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
-    <hyperlink ref="B352" r:id="rId319" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
-    <hyperlink ref="C352" r:id="rId320" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
-    <hyperlink ref="B353" r:id="rId321" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
-    <hyperlink ref="C353" r:id="rId322" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
-    <hyperlink ref="B354" r:id="rId323" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
-    <hyperlink ref="C354" r:id="rId324" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
-    <hyperlink ref="B355" r:id="rId325" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
-    <hyperlink ref="C355" r:id="rId326" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
-    <hyperlink ref="B356" r:id="rId327" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
-    <hyperlink ref="C356" r:id="rId328" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
-    <hyperlink ref="B357" r:id="rId329" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
-    <hyperlink ref="C357" r:id="rId330" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
-    <hyperlink ref="B358" r:id="rId331" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
-    <hyperlink ref="C358" r:id="rId332" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
-    <hyperlink ref="B359" r:id="rId333" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
-    <hyperlink ref="C359" r:id="rId334" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
-    <hyperlink ref="B361" r:id="rId335" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
-    <hyperlink ref="C361" r:id="rId336" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
-    <hyperlink ref="B362" r:id="rId337" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
-    <hyperlink ref="C362" r:id="rId338" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
-    <hyperlink ref="B363" r:id="rId339" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
-    <hyperlink ref="C363" r:id="rId340" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
-    <hyperlink ref="B364" r:id="rId341" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
-    <hyperlink ref="C364" r:id="rId342" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
-    <hyperlink ref="B365" r:id="rId343" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
-    <hyperlink ref="B377" r:id="rId344" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
-    <hyperlink ref="C377" r:id="rId345" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
-    <hyperlink ref="B378" r:id="rId346" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
-    <hyperlink ref="C378" r:id="rId347" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
-    <hyperlink ref="B379" r:id="rId348" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
-    <hyperlink ref="B388" r:id="rId349" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
-    <hyperlink ref="C388" r:id="rId350" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
-    <hyperlink ref="B389" r:id="rId351" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
-    <hyperlink ref="C389" r:id="rId352" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
-    <hyperlink ref="B390" r:id="rId353" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
-    <hyperlink ref="B395" r:id="rId354" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
-    <hyperlink ref="C395" r:id="rId355" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
-    <hyperlink ref="B396" r:id="rId356" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
-    <hyperlink ref="C396" r:id="rId357" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
-    <hyperlink ref="B397" r:id="rId358" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
-    <hyperlink ref="C397" r:id="rId359" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
-    <hyperlink ref="B398" r:id="rId360" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
-    <hyperlink ref="C398" r:id="rId361" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
-    <hyperlink ref="B399" r:id="rId362" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
-    <hyperlink ref="C399" r:id="rId363" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
-    <hyperlink ref="B400" r:id="rId364" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
-    <hyperlink ref="B405" r:id="rId365" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
-    <hyperlink ref="C405" r:id="rId366" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
-    <hyperlink ref="B406" r:id="rId367" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
-    <hyperlink ref="C406" r:id="rId368" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
-    <hyperlink ref="B407" r:id="rId369" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
-    <hyperlink ref="C407" r:id="rId370" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
-    <hyperlink ref="B408" r:id="rId371" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
-    <hyperlink ref="C408" r:id="rId372" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
-    <hyperlink ref="B409" r:id="rId373" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
-    <hyperlink ref="C409" r:id="rId374" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
-    <hyperlink ref="B410" r:id="rId375" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
-    <hyperlink ref="C410" r:id="rId376" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
-    <hyperlink ref="B411" r:id="rId377" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
-    <hyperlink ref="C411" r:id="rId378" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
-    <hyperlink ref="B412" r:id="rId379" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
-    <hyperlink ref="C412" r:id="rId380" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
-    <hyperlink ref="B413" r:id="rId381" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
-    <hyperlink ref="C413" r:id="rId382" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
-    <hyperlink ref="B414" r:id="rId383" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
-    <hyperlink ref="C414" r:id="rId384" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
-    <hyperlink ref="B415" r:id="rId385" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
-    <hyperlink ref="C415" r:id="rId386" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
-    <hyperlink ref="B416" r:id="rId387" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
-    <hyperlink ref="C416" r:id="rId388" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
-    <hyperlink ref="B417" r:id="rId389" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
-    <hyperlink ref="C417" r:id="rId390" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
-    <hyperlink ref="B418" r:id="rId391" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
-    <hyperlink ref="C418" r:id="rId392" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
-    <hyperlink ref="B419" r:id="rId393" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
-    <hyperlink ref="C419" r:id="rId394" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
-    <hyperlink ref="B420" r:id="rId395" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
-    <hyperlink ref="C420" r:id="rId396" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
-    <hyperlink ref="B421" r:id="rId397" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
-    <hyperlink ref="C421" r:id="rId398" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
-    <hyperlink ref="B422" r:id="rId399" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
+    <hyperlink ref="B311" r:id="rId270" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
+    <hyperlink ref="C311" r:id="rId271" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
+    <hyperlink ref="B312" r:id="rId272" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
+    <hyperlink ref="C312" r:id="rId273" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
+    <hyperlink ref="B313" r:id="rId274" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
+    <hyperlink ref="C313" r:id="rId275" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B315" r:id="rId276" display="https://leetcode.com/problems/max-points-on-a-line/description/" xr:uid="{3BA8787D-2860-5E4A-8156-7D9782B9ED8F}"/>
+    <hyperlink ref="C315" r:id="rId277" display="https://cspiration.com/login" xr:uid="{ED9C0BF3-78B4-9649-A40D-55F4832D2163}"/>
+    <hyperlink ref="B321" r:id="rId278" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/description/" xr:uid="{9F5DD535-DEA6-A04A-BD8E-32AE2D311EA5}"/>
+    <hyperlink ref="C321" r:id="rId279" display="https://cspiration.com/login" xr:uid="{BB38E67E-4F97-7F42-8375-F71E32497AF2}"/>
+    <hyperlink ref="B320" r:id="rId280" display="https://leetcode.com/problems/implement-trie-prefix-tree/description/" xr:uid="{602E4DDD-36D7-4141-8092-E9C88B509111}"/>
+    <hyperlink ref="C320" r:id="rId281" display="https://cspiration.com/login" xr:uid="{0DED54BA-B698-6C41-BA3A-0C0A90A57FE9}"/>
+    <hyperlink ref="B322" r:id="rId282" display="https://leetcode.com/problems/word-search-ii/description/" xr:uid="{BBAAA406-4143-2547-84E9-7A53C0AEF74D}"/>
+    <hyperlink ref="C322" r:id="rId283" display="https://cspiration.com/login" xr:uid="{4609B9D0-3CC9-F44F-AA60-3C9F575CE95D}"/>
+    <hyperlink ref="B327" r:id="rId284" display="https://leetcode.com/problems/rotate-image/description/" xr:uid="{7307FDFA-5175-714A-8C7E-899B03D3C7AF}"/>
+    <hyperlink ref="C327" r:id="rId285" display="https://cspiration.com/login" xr:uid="{3A588833-5167-014E-808A-F94B9CB85E0A}"/>
+    <hyperlink ref="B328" r:id="rId286" display="https://leetcode.com/problems/spiral-matrix/description/" xr:uid="{9AE93216-8DD7-A24B-B766-81F3061DA63F}"/>
+    <hyperlink ref="C328" r:id="rId287" display="https://cspiration.com/login" xr:uid="{9898ACCE-1ADF-DD46-8923-6FE2C62EEE1F}"/>
+    <hyperlink ref="B329" r:id="rId288" display="https://leetcode.com/problems/spiral-matrix-ii/description/" xr:uid="{5DA83711-B1C4-814A-B350-A1F809CFAF76}"/>
+    <hyperlink ref="C329" r:id="rId289" display="https://cspiration.com/login" xr:uid="{E4979D8E-F2E5-6244-ADDA-D0D154ADB9BF}"/>
+    <hyperlink ref="B330" r:id="rId290" display="https://leetcode.com/problems/set-matrix-zeroes/description/" xr:uid="{04EF3395-468F-B845-AC19-8228316BEBA2}"/>
+    <hyperlink ref="C330" r:id="rId291" display="https://cspiration.com/login" xr:uid="{E66FAA44-D058-8043-A7DE-1D91910F82DD}"/>
+    <hyperlink ref="B331" r:id="rId292" display="https://leetcode.com/problems/sparse-matrix-multiplication/description/" xr:uid="{85DA3A1B-C4F7-6541-A436-ED62CA4A3E3D}"/>
+    <hyperlink ref="C331" r:id="rId293" display="https://cspiration.com/login" xr:uid="{37B10385-D55D-144C-864E-C79F6E6C70B7}"/>
+    <hyperlink ref="B332" r:id="rId294" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/" xr:uid="{4612E730-D4A1-F24A-91F9-6B84D724A9AA}"/>
+    <hyperlink ref="C332" r:id="rId295" display="https://cspiration.com/login" xr:uid="{48020AFF-15AF-8447-AEB1-CFA1A841DBDC}"/>
+    <hyperlink ref="B333" r:id="rId296" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/" xr:uid="{1DB2B93E-91F8-BD41-A00C-9AE687F699C3}"/>
+    <hyperlink ref="C333" r:id="rId297" display="https://cspiration.com/login" xr:uid="{30C034AB-1F54-2A4B-90FB-7B7ACB3052BE}"/>
+    <hyperlink ref="B334" r:id="rId298" display="https://leetcode.com/problems/search-a-2d-matrix/description/" xr:uid="{84EC2CF6-27EF-0347-9EF7-9D72E688DACF}"/>
+    <hyperlink ref="C334" r:id="rId299" display="https://cspiration.com/login" xr:uid="{D768F166-2FDB-CB46-AFC4-3D9EF7E6996A}"/>
+    <hyperlink ref="B335" r:id="rId300" display="https://leetcode.com/problems/search-a-2d-matrix-ii/description/" xr:uid="{E4FC6BE3-8670-9F4C-A5E3-020B79037385}"/>
+    <hyperlink ref="C335" r:id="rId301" display="https://cspiration.com/login" xr:uid="{F0BAE054-2E32-B346-A580-CDC57F21DC7D}"/>
+    <hyperlink ref="B336" r:id="rId302" display="https://leetcode.com/problems/range-addition/description/" xr:uid="{9A9D88D0-4B57-FC4D-AE66-B99ADD36B56B}"/>
+    <hyperlink ref="C336" r:id="rId303" display="https://cspiration.com/login" xr:uid="{7578592E-C29A-274C-8D6A-7E66CEEE99DB}"/>
+    <hyperlink ref="B337" r:id="rId304" display="https://leetcode.com/problems/word-search/description/" xr:uid="{5C361A98-5D4B-8342-AA9F-ECD72819FF3A}"/>
+    <hyperlink ref="C337" r:id="rId305" display="https://cspiration.com/login" xr:uid="{C4E85BE7-30E0-3049-8A7D-65EAAD242F6D}"/>
+    <hyperlink ref="B338" r:id="rId306" display="https://leetcode.com/problems/best-meeting-point/description/" xr:uid="{5731611E-A5BD-8948-955E-76F1D35419C6}"/>
+    <hyperlink ref="C338" r:id="rId307" display="https://cspiration.com/login" xr:uid="{6283B299-8B71-054E-A520-475134B7EC3C}"/>
+    <hyperlink ref="B339" r:id="rId308" display="https://leetcode.com/problems/bomb-enemy/description/" xr:uid="{5D2AE67B-AEB6-B648-A655-14C4CEAF0EC9}"/>
+    <hyperlink ref="C339" r:id="rId309" display="https://cspiration.com/login" xr:uid="{51C365CC-F3F9-8A41-8572-030B0F235286}"/>
+    <hyperlink ref="B340" r:id="rId310" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/description/" xr:uid="{01FA28DB-CD25-1847-988D-8850AE25D782}"/>
+    <hyperlink ref="C340" r:id="rId311" display="https://cspiration.com/login" xr:uid="{2E8877A5-12D6-D84C-8F71-A9EFAD59E8A6}"/>
+    <hyperlink ref="B341" r:id="rId312" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/description/" xr:uid="{9C9CED59-C64E-824B-BD25-F452F7D75C28}"/>
+    <hyperlink ref="C341" r:id="rId313" display="https://cspiration.com/login" xr:uid="{985B1C72-6710-5746-AB0A-2023D14851EA}"/>
+    <hyperlink ref="B342" r:id="rId314" display="https://leetcode.com/problems/valid-sudoku/description/" xr:uid="{F75E3219-E661-E84F-9E59-BFCEFF119471}"/>
+    <hyperlink ref="C342" r:id="rId315" display="https://cspiration.com/login" xr:uid="{2566F254-8F41-624D-8AF9-0CC515DC93AF}"/>
+    <hyperlink ref="B343" r:id="rId316" display="https://leetcode.com/problems/sudoku-solver/description/" xr:uid="{C4EC3782-1D22-4540-A1B1-496634458106}"/>
+    <hyperlink ref="B350" r:id="rId317" display="https://leetcode.com/problems/min-stack/description/" xr:uid="{F440DA6C-20D8-1E49-A81C-C8A49CB93BC9}"/>
+    <hyperlink ref="C350" r:id="rId318" display="https://cspiration.com/login" xr:uid="{E963DECD-3A68-1B43-A3C0-F2AFDF74F576}"/>
+    <hyperlink ref="B353" r:id="rId319" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/description/" xr:uid="{323CD140-1D2C-5641-B079-A0D3C11AF8B8}"/>
+    <hyperlink ref="C353" r:id="rId320" display="https://cspiration.com/login" xr:uid="{30B01ACF-66E3-6146-9688-46129789566A}"/>
+    <hyperlink ref="B354" r:id="rId321" display="https://leetcode.com/problems/simplify-path/description/" xr:uid="{75FBD68A-59CA-EE45-8E8C-28F03E9CBA5F}"/>
+    <hyperlink ref="C354" r:id="rId322" display="https://cspiration.com/login" xr:uid="{CE624768-19D2-C341-B07D-7BCB355BF810}"/>
+    <hyperlink ref="B355" r:id="rId323" display="https://leetcode.com/problems/longest-absolute-file-path/description/" xr:uid="{8EF19021-99C1-524C-898F-49588978F57A}"/>
+    <hyperlink ref="C355" r:id="rId324" display="https://cspiration.com/login" xr:uid="{04F37A49-5801-3147-8087-B39F80A727ED}"/>
+    <hyperlink ref="B356" r:id="rId325" display="https://leetcode.com/problems/decode-string/" xr:uid="{9016FCAA-2C5D-224A-A605-4250504D9E21}"/>
+    <hyperlink ref="C356" r:id="rId326" display="https://cspiration.com/login" xr:uid="{6E747762-EF48-BB40-A8FA-EF6BA9E17E47}"/>
+    <hyperlink ref="B357" r:id="rId327" display="https://leetcode.com/problems/basic-calculator/description/" xr:uid="{B249DA9B-A579-BB4F-935B-AD5D98893E39}"/>
+    <hyperlink ref="C357" r:id="rId328" display="https://cspiration.com/login" xr:uid="{C7575803-DF49-9541-AF76-6ED16908948B}"/>
+    <hyperlink ref="B358" r:id="rId329" display="https://leetcode.com/problems/basic-calculator-ii/description/" xr:uid="{ADAF461A-BF26-9942-A27D-92552BCE4985}"/>
+    <hyperlink ref="C358" r:id="rId330" display="https://cspiration.com/login" xr:uid="{AADCBF4E-E957-3545-9A9A-69BE463704B1}"/>
+    <hyperlink ref="B359" r:id="rId331" display="https://leetcode.com/problems/mini-parser/description/" xr:uid="{B560B158-C783-BC47-AF92-D3A950618B33}"/>
+    <hyperlink ref="C359" r:id="rId332" display="https://cspiration.com/login" xr:uid="{8BF22178-5CF9-0F4C-AF15-B49AB5678228}"/>
+    <hyperlink ref="B360" r:id="rId333" display="https://leetcode.com/problems/largest-rectangle-in-histogram/description/" xr:uid="{D16F87E5-024B-3A4E-88C4-9C9461BA5AF3}"/>
+    <hyperlink ref="C360" r:id="rId334" display="https://cspiration.com/login" xr:uid="{545E374B-11A8-044A-BBB8-9BCB32D98233}"/>
+    <hyperlink ref="B362" r:id="rId335" display="https://leetcode.com/problems/kth-largest-element-in-an-array/description/" xr:uid="{535F78CD-9788-9241-9324-FDE6E95A7471}"/>
+    <hyperlink ref="C362" r:id="rId336" display="https://cspiration.com/login" xr:uid="{5B3A0335-582B-E246-9766-A2C8D6A13712}"/>
+    <hyperlink ref="B363" r:id="rId337" display="https://leetcode.com/problems/top-k-frequent-elements/description/" xr:uid="{20529FD4-8DCF-1E46-B3A3-B56C38D09A62}"/>
+    <hyperlink ref="C363" r:id="rId338" display="https://cspiration.com/login" xr:uid="{2AE2DFEB-B48D-C84A-8C29-5028A8335313}"/>
+    <hyperlink ref="B364" r:id="rId339" display="https://leetcode.com/problems/the-skyline-problem/description/" xr:uid="{555ECA51-8403-0043-AB25-AE755F19D292}"/>
+    <hyperlink ref="C364" r:id="rId340" display="https://cspiration.com/login" xr:uid="{0EF78CCD-4794-5244-8022-DB100F29DA4B}"/>
+    <hyperlink ref="B365" r:id="rId341" display="https://leetcode.com/problems/reconstruct-itinerary/description/" xr:uid="{69F40E17-AD13-0A49-8754-0A3ABC9987A0}"/>
+    <hyperlink ref="C365" r:id="rId342" display="https://cspiration.com/login" xr:uid="{79513BEC-4210-DC47-93D5-503548661168}"/>
+    <hyperlink ref="B366" r:id="rId343" display="https://leetcode.com/problems/flatten-nested-list-iterator/" xr:uid="{DD35E978-B21B-134C-9EF0-5A3AE318503F}"/>
+    <hyperlink ref="B378" r:id="rId344" display="https://leetcode.com/problems/find-the-difference/description/" xr:uid="{66F0F98C-0493-9A4D-A44F-5BE4CC51AAE5}"/>
+    <hyperlink ref="C378" r:id="rId345" display="https://cspiration.com/login" xr:uid="{E3DD03DD-A45E-0D4C-AD1B-2D52F25A37F3}"/>
+    <hyperlink ref="B379" r:id="rId346" display="https://leetcode.com/problems/single-number/description/" xr:uid="{BED5E2B6-90CA-7B4E-90C7-C301DCFF560C}"/>
+    <hyperlink ref="C379" r:id="rId347" display="https://cspiration.com/login" xr:uid="{C82A5A87-6BE1-CC46-98A2-231459011793}"/>
+    <hyperlink ref="B380" r:id="rId348" display="https://leetcode.com/problems/maximum-product-of-word-lengths/description/" xr:uid="{E4C7AD05-DE05-D24D-BE33-6638EC5D9637}"/>
+    <hyperlink ref="B389" r:id="rId349" display="https://leetcode.com/problems/course-schedule/description/" xr:uid="{E656E48A-EA12-5849-9A80-C2BF41442E59}"/>
+    <hyperlink ref="C389" r:id="rId350" display="https://cspiration.com/login" xr:uid="{3EB935A0-4F51-E243-880C-8E53A49B7BDE}"/>
+    <hyperlink ref="B390" r:id="rId351" display="https://leetcode.com/problems/course-schedule-ii/description/" xr:uid="{82EC9748-3D96-FB40-9C82-D9EC67A70D5C}"/>
+    <hyperlink ref="C390" r:id="rId352" display="https://cspiration.com/login" xr:uid="{B87FC0EF-5581-1C4B-BA95-9A8EC85017C3}"/>
+    <hyperlink ref="B391" r:id="rId353" display="https://leetcode.com/problems/alien-dictionary/description/" xr:uid="{78548044-2481-0344-AFBC-83875B145CA1}"/>
+    <hyperlink ref="B396" r:id="rId354" display="https://leetcode.com/problems/shuffle-an-array/" xr:uid="{6453089E-CA54-134A-9FC0-3C8014FD77C2}"/>
+    <hyperlink ref="C396" r:id="rId355" display="https://cspiration.com/login" xr:uid="{D7CA8D38-E652-1148-ABB9-81EC04662763}"/>
+    <hyperlink ref="B397" r:id="rId356" display="https://leetcode.com/problems/random-pick-index/" xr:uid="{F131635D-4FB5-924E-B5CD-862EB3652B2B}"/>
+    <hyperlink ref="C397" r:id="rId357" display="https://cspiration.com/login" xr:uid="{A86BA5CD-BAC4-8C47-8EE4-B8955CCEA183}"/>
+    <hyperlink ref="B398" r:id="rId358" display="https://leetcode.com/problems/linked-list-random-node/" xr:uid="{A1888F03-0EB5-2748-A259-0B4A9CD4EF43}"/>
+    <hyperlink ref="C398" r:id="rId359" display="https://cspiration.com/login" xr:uid="{65FD45C5-DD3B-DE47-9E83-54C91C87729B}"/>
+    <hyperlink ref="B399" r:id="rId360" display="https://leetcode.com/problems/insert-delete-getrandom-o1/" xr:uid="{53D6868D-E06B-9E41-893E-10270AC574B1}"/>
+    <hyperlink ref="C399" r:id="rId361" display="https://cspiration.com/login" xr:uid="{365D07BD-17D4-C441-9A5F-1BB59E6D56A2}"/>
+    <hyperlink ref="B400" r:id="rId362" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/" xr:uid="{9389641E-41E0-F942-8216-EAEBA38C85B4}"/>
+    <hyperlink ref="C400" r:id="rId363" display="https://cspiration.com/login" xr:uid="{904C4BB6-1E13-7645-B333-3A00537028EA}"/>
+    <hyperlink ref="B401" r:id="rId364" display="https://leetcode.com/problems/copy-list-with-random-pointer/" xr:uid="{502294E5-9F27-F348-972C-1CC0B327251B}"/>
+    <hyperlink ref="B406" r:id="rId365" display="https://leetcode.com/problems/logger-rate-limiter/description/" xr:uid="{C61A4B52-AD3D-BA46-87E4-308B4991A1BE}"/>
+    <hyperlink ref="C406" r:id="rId366" display="https://cspiration.com/login" xr:uid="{C8FA91CA-1A1C-A343-B72B-B268EFB0471E}"/>
+    <hyperlink ref="B407" r:id="rId367" display="https://leetcode.com/problems/moving-average-from-data-stream/description/" xr:uid="{955896A7-B8EF-CF43-8F66-08000C728103}"/>
+    <hyperlink ref="C407" r:id="rId368" display="https://cspiration.com/login" xr:uid="{06FDBA83-7621-E44B-9658-16FFE47879DC}"/>
+    <hyperlink ref="B408" r:id="rId369" display="https://leetcode.com/problems/design-hit-counter/description/" xr:uid="{DE173B81-DAF1-0340-8314-DDBF79277E83}"/>
+    <hyperlink ref="C408" r:id="rId370" display="https://cspiration.com/login" xr:uid="{182B161B-7264-FF46-8F20-8596394F1A3F}"/>
+    <hyperlink ref="B409" r:id="rId371" display="https://leetcode.com/problems/zigzag-iterator/description/" xr:uid="{11767196-3C22-2447-B8EC-1F07890F8388}"/>
+    <hyperlink ref="C409" r:id="rId372" display="https://cspiration.com/login" xr:uid="{A30AB03D-0BDD-5E44-9B2D-8E674E5C7E3D}"/>
+    <hyperlink ref="B410" r:id="rId373" display="https://leetcode.com/problems/peeking-iterator/description/" xr:uid="{C2F26E0B-1B42-6E4E-A18E-7C08BA7C1B42}"/>
+    <hyperlink ref="C410" r:id="rId374" display="https://cspiration.com/login" xr:uid="{44206301-520A-0A45-BA7F-A11BC827C366}"/>
+    <hyperlink ref="B411" r:id="rId375" display="https://leetcode.com/problems/flatten-2d-vector/description/s" xr:uid="{57450831-6D8B-FB48-A279-CE0A3323317E}"/>
+    <hyperlink ref="C411" r:id="rId376" display="https://cspiration.com/login" xr:uid="{96A57980-751B-8144-92C2-BABEE8F96631}"/>
+    <hyperlink ref="B412" r:id="rId377" display="https://leetcode.com/problems/unique-word-abbreviation/description/" xr:uid="{019A71BE-0695-A847-AF69-5D34ACD31E89}"/>
+    <hyperlink ref="C412" r:id="rId378" display="https://cspiration.com/login" xr:uid="{46A711DD-8C66-AA46-A32F-F202A28B9507}"/>
+    <hyperlink ref="B413" r:id="rId379" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/description/" xr:uid="{AD3BBDDB-8328-6E4F-A75F-356936A16C4C}"/>
+    <hyperlink ref="C413" r:id="rId380" display="https://cspiration.com/login" xr:uid="{10FC6473-5D12-5149-AA22-84C76CFC6688}"/>
+    <hyperlink ref="B414" r:id="rId381" display="https://leetcode.com/problems/design-tic-tac-toe/description/" xr:uid="{AD8E2DF9-7942-4D46-BFD1-57F3D2AD44DB}"/>
+    <hyperlink ref="C414" r:id="rId382" display="https://cspiration.com/login" xr:uid="{37D69D5A-712E-184E-A378-56C63574860D}"/>
+    <hyperlink ref="B415" r:id="rId383" display="https://leetcode.com/problems/design-phone-directory/description/" xr:uid="{44CB5AA8-40CB-1548-A13A-8BDA618DEEEA}"/>
+    <hyperlink ref="C415" r:id="rId384" display="https://cspiration.com/login" xr:uid="{B574C4D4-D8CB-F149-A1B4-056134B8F32C}"/>
+    <hyperlink ref="B416" r:id="rId385" display="https://leetcode.com/problems/design-snake-game/description/" xr:uid="{324F0A0D-4EA3-714D-A979-76944830B25B}"/>
+    <hyperlink ref="C416" r:id="rId386" display="https://cspiration.com/login" xr:uid="{5493DA6E-560F-1F42-8BD3-30E74B52A9EE}"/>
+    <hyperlink ref="B417" r:id="rId387" display="https://leetcode.com/problems/lru-cache/description/" xr:uid="{F88E3B9C-4B90-E64B-8AD5-9CD4C40493C1}"/>
+    <hyperlink ref="C417" r:id="rId388" display="https://cspiration.com/login" xr:uid="{A9C08738-1151-DA4A-8104-F1370B908852}"/>
+    <hyperlink ref="B418" r:id="rId389" display="https://leetcode.com/problems/design-twitter/description/s" xr:uid="{7965E5BC-C0D4-4D4B-9EF8-5078FEF7C8CB}"/>
+    <hyperlink ref="C418" r:id="rId390" display="https://cspiration.com/login" xr:uid="{766F5950-D9AE-114C-B6FD-41A5E9E6488D}"/>
+    <hyperlink ref="B419" r:id="rId391" display="https://leetcode.com/problems/range-sum-query-immutable/description/" xr:uid="{DAE9AE27-DEB1-264D-983B-6882A6368AE9}"/>
+    <hyperlink ref="C419" r:id="rId392" display="https://cspiration.com/login" xr:uid="{9273492A-44F6-5A49-8A13-5F376FCD62E9}"/>
+    <hyperlink ref="B420" r:id="rId393" display="https://leetcode.com/problems/range-sum-query-2d-immutable/description/" xr:uid="{AAD316F4-6941-704B-BCAD-4CC426E56FB4}"/>
+    <hyperlink ref="C420" r:id="rId394" display="https://cspiration.com/login" xr:uid="{D97D8BB0-1CA8-2645-9A6B-2DA077BF821E}"/>
+    <hyperlink ref="B421" r:id="rId395" display="https://leetcode.com/problems/range-sum-query-mutable/description/" xr:uid="{0F4D6567-EC93-264D-BF9D-423DB12163FF}"/>
+    <hyperlink ref="C421" r:id="rId396" display="https://cspiration.com/login" xr:uid="{47C40B78-FDBF-4A44-8C69-EB0D78FC59E3}"/>
+    <hyperlink ref="B422" r:id="rId397" display="https://leetcode.com/problems/range-sum-query-2d-mutable/description/" xr:uid="{F43E9B26-EA0F-C24C-A60F-095FE73C872B}"/>
+    <hyperlink ref="C422" r:id="rId398" display="https://cspiration.com/login" xr:uid="{3D32B22A-9D2F-D04B-8B77-0953B2EA5193}"/>
+    <hyperlink ref="B423" r:id="rId399" xr:uid="{FE9627AB-7397-CB48-AB91-E04DF9F829E5}"/>
     <hyperlink ref="B213" r:id="rId400" xr:uid="{6E505C5D-7486-774A-8436-0B2D9A806CE7}"/>
-    <hyperlink ref="B245" r:id="rId401" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
-    <hyperlink ref="B297" r:id="rId402" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
-    <hyperlink ref="B430" r:id="rId403" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{EB4E5B68-F05A-0C4B-9F53-41E4DBCA4F9E}"/>
-    <hyperlink ref="C430" r:id="rId404" display="https://cspiration.com/login" xr:uid="{CA1BBCD7-117A-A64E-8F77-852F33D02DB2}"/>
-    <hyperlink ref="B431" r:id="rId405" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{5B45788F-BB03-4843-BD6A-B976C9FCAEF1}"/>
-    <hyperlink ref="C431" r:id="rId406" display="https://cspiration.com/login" xr:uid="{551CAD20-3D2A-A64A-B23A-A01403C05DE0}"/>
-    <hyperlink ref="B432" r:id="rId407" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{89F11509-794F-0147-A002-99DBFE4011DC}"/>
-    <hyperlink ref="C432" r:id="rId408" display="https://cspiration.com/login" xr:uid="{A8D71102-8F66-8143-AADE-EC0B951315AF}"/>
-    <hyperlink ref="B433" r:id="rId409" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{A4765584-11DB-8C47-A9D8-28BCD3B3DB04}"/>
-    <hyperlink ref="C433" r:id="rId410" display="https://cspiration.com/login" xr:uid="{67A40D64-8C16-AB40-AF02-EC047B85587D}"/>
-    <hyperlink ref="B434" r:id="rId411" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{1C321054-4E86-0A4C-A5A9-D1503A97B9B0}"/>
-    <hyperlink ref="C434" r:id="rId412" display="https://cspiration.com/login" xr:uid="{4230A88F-C71C-F14B-89AA-04DA1B742A89}"/>
-    <hyperlink ref="B435" r:id="rId413" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{736794C5-518A-194B-A096-354260C26D19}"/>
-    <hyperlink ref="C435" r:id="rId414" display="https://cspiration.com/login" xr:uid="{CC616423-7FF6-4546-BE49-14971E421AB1}"/>
-    <hyperlink ref="B436" r:id="rId415" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{AA2881B4-D507-6C4E-B5AC-66556CE2E240}"/>
-    <hyperlink ref="C436" r:id="rId416" display="https://cspiration.com/login" xr:uid="{497BA16C-CBAB-CD4C-B123-9991F3A2E286}"/>
-    <hyperlink ref="B437" r:id="rId417" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{D78ED803-9C52-3C4E-8DAB-2FE615A62AB4}"/>
-    <hyperlink ref="C437" r:id="rId418" display="https://cspiration.com/login" xr:uid="{A8AD4217-A555-BA44-A724-8A04E7730E30}"/>
-    <hyperlink ref="B438" r:id="rId419" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{39F3DFF8-98F3-604E-9124-DD7F0D40F1B0}"/>
-    <hyperlink ref="C438" r:id="rId420" display="https://cspiration.com/login" xr:uid="{3561FB2C-CD0E-A746-8C4B-80613899C341}"/>
-    <hyperlink ref="B439" r:id="rId421" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{E9195674-DC99-4B46-B0EE-98194075832A}"/>
-    <hyperlink ref="C439" r:id="rId422" display="https://cspiration.com/login" xr:uid="{916F2DEE-639E-C943-A663-2517B8604445}"/>
-    <hyperlink ref="B440" r:id="rId423" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{320B423A-BCFA-CE44-9951-2BD15ECD57E2}"/>
-    <hyperlink ref="B250" r:id="rId424" xr:uid="{600A5416-B5C9-BA47-892A-EE12A30AA3C9}"/>
-    <hyperlink ref="B254" r:id="rId425" xr:uid="{EADB0E54-5800-704D-A97B-CDE42026CFF8}"/>
-    <hyperlink ref="B367" r:id="rId426" xr:uid="{49EE6590-FC3C-C54F-A151-AA1FC6EF5061}"/>
-    <hyperlink ref="B350" r:id="rId427" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{E018DFB4-01AC-F645-8B90-8199997E6DD0}"/>
-    <hyperlink ref="C350" r:id="rId428" display="https://cspiration.com/login" xr:uid="{706E0A6D-CD70-2245-A6EA-B10034698AA6}"/>
-    <hyperlink ref="B351" r:id="rId429" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{0DF8CEC5-24F8-E745-8AEF-C177BA8C38D8}"/>
-    <hyperlink ref="B368" r:id="rId430" xr:uid="{6D13D071-F78E-C442-8632-E396881ABD22}"/>
-    <hyperlink ref="B369" r:id="rId431" xr:uid="{B66856FD-8BB7-CF4C-9F54-EF95505D135F}"/>
-    <hyperlink ref="B370" r:id="rId432" xr:uid="{3202C9A2-D22F-454B-BEEC-EC2EF095CF78}"/>
-    <hyperlink ref="B371" r:id="rId433" xr:uid="{0F820F81-AD67-2D4C-B1D6-92E7AE13C361}"/>
-    <hyperlink ref="B234" r:id="rId434" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
-    <hyperlink ref="B380" r:id="rId435" xr:uid="{12FCA401-D49E-F648-925D-5AA92C613FEE}"/>
-    <hyperlink ref="B381" r:id="rId436" xr:uid="{2AC0AA2F-79DF-D044-84B7-A131AC44BC10}"/>
-    <hyperlink ref="B382" r:id="rId437" xr:uid="{7F474B46-9483-0F48-AE6E-83C002C6D472}"/>
-    <hyperlink ref="B441" r:id="rId438" xr:uid="{30FFAA64-911B-8A47-9B10-24A60021362C}"/>
+    <hyperlink ref="B246" r:id="rId401" xr:uid="{13747061-B8D2-6041-B323-BA395125DCAA}"/>
+    <hyperlink ref="B298" r:id="rId402" xr:uid="{2D2F7CE9-7323-F34F-AA6B-4FECD6A6C804}"/>
+    <hyperlink ref="B431" r:id="rId403" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{EB4E5B68-F05A-0C4B-9F53-41E4DBCA4F9E}"/>
+    <hyperlink ref="C431" r:id="rId404" display="https://cspiration.com/login" xr:uid="{CA1BBCD7-117A-A64E-8F77-852F33D02DB2}"/>
+    <hyperlink ref="B432" r:id="rId405" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{5B45788F-BB03-4843-BD6A-B976C9FCAEF1}"/>
+    <hyperlink ref="C432" r:id="rId406" display="https://cspiration.com/login" xr:uid="{551CAD20-3D2A-A64A-B23A-A01403C05DE0}"/>
+    <hyperlink ref="B433" r:id="rId407" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{89F11509-794F-0147-A002-99DBFE4011DC}"/>
+    <hyperlink ref="C433" r:id="rId408" display="https://cspiration.com/login" xr:uid="{A8D71102-8F66-8143-AADE-EC0B951315AF}"/>
+    <hyperlink ref="B434" r:id="rId409" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{A4765584-11DB-8C47-A9D8-28BCD3B3DB04}"/>
+    <hyperlink ref="C434" r:id="rId410" display="https://cspiration.com/login" xr:uid="{67A40D64-8C16-AB40-AF02-EC047B85587D}"/>
+    <hyperlink ref="B435" r:id="rId411" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{1C321054-4E86-0A4C-A5A9-D1503A97B9B0}"/>
+    <hyperlink ref="C435" r:id="rId412" display="https://cspiration.com/login" xr:uid="{4230A88F-C71C-F14B-89AA-04DA1B742A89}"/>
+    <hyperlink ref="B436" r:id="rId413" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{736794C5-518A-194B-A096-354260C26D19}"/>
+    <hyperlink ref="C436" r:id="rId414" display="https://cspiration.com/login" xr:uid="{CC616423-7FF6-4546-BE49-14971E421AB1}"/>
+    <hyperlink ref="B437" r:id="rId415" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{AA2881B4-D507-6C4E-B5AC-66556CE2E240}"/>
+    <hyperlink ref="C437" r:id="rId416" display="https://cspiration.com/login" xr:uid="{497BA16C-CBAB-CD4C-B123-9991F3A2E286}"/>
+    <hyperlink ref="B438" r:id="rId417" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{D78ED803-9C52-3C4E-8DAB-2FE615A62AB4}"/>
+    <hyperlink ref="C438" r:id="rId418" display="https://cspiration.com/login" xr:uid="{A8AD4217-A555-BA44-A724-8A04E7730E30}"/>
+    <hyperlink ref="B439" r:id="rId419" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{39F3DFF8-98F3-604E-9124-DD7F0D40F1B0}"/>
+    <hyperlink ref="C439" r:id="rId420" display="https://cspiration.com/login" xr:uid="{3561FB2C-CD0E-A746-8C4B-80613899C341}"/>
+    <hyperlink ref="B440" r:id="rId421" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{E9195674-DC99-4B46-B0EE-98194075832A}"/>
+    <hyperlink ref="C440" r:id="rId422" display="https://cspiration.com/login" xr:uid="{916F2DEE-639E-C943-A663-2517B8604445}"/>
+    <hyperlink ref="B441" r:id="rId423" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{320B423A-BCFA-CE44-9951-2BD15ECD57E2}"/>
+    <hyperlink ref="B251" r:id="rId424" xr:uid="{600A5416-B5C9-BA47-892A-EE12A30AA3C9}"/>
+    <hyperlink ref="B255" r:id="rId425" xr:uid="{EADB0E54-5800-704D-A97B-CDE42026CFF8}"/>
+    <hyperlink ref="B368" r:id="rId426" xr:uid="{49EE6590-FC3C-C54F-A151-AA1FC6EF5061}"/>
+    <hyperlink ref="B351" r:id="rId427" display="https://leetcode.com/problems/implement-queue-using-stacks/description/" xr:uid="{E018DFB4-01AC-F645-8B90-8199997E6DD0}"/>
+    <hyperlink ref="C351" r:id="rId428" display="https://cspiration.com/login" xr:uid="{706E0A6D-CD70-2245-A6EA-B10034698AA6}"/>
+    <hyperlink ref="B352" r:id="rId429" display="https://leetcode.com/problems/implement-stack-using-queues/description/" xr:uid="{0DF8CEC5-24F8-E745-8AEF-C177BA8C38D8}"/>
+    <hyperlink ref="B369" r:id="rId430" xr:uid="{6D13D071-F78E-C442-8632-E396881ABD22}"/>
+    <hyperlink ref="B370" r:id="rId431" xr:uid="{B66856FD-8BB7-CF4C-9F54-EF95505D135F}"/>
+    <hyperlink ref="B371" r:id="rId432" xr:uid="{3202C9A2-D22F-454B-BEEC-EC2EF095CF78}"/>
+    <hyperlink ref="B372" r:id="rId433" xr:uid="{0F820F81-AD67-2D4C-B1D6-92E7AE13C361}"/>
+    <hyperlink ref="B235" r:id="rId434" xr:uid="{8066B6F4-349C-104A-B6B1-4C5FDFBC5FE9}"/>
+    <hyperlink ref="B381" r:id="rId435" xr:uid="{12FCA401-D49E-F648-925D-5AA92C613FEE}"/>
+    <hyperlink ref="B382" r:id="rId436" xr:uid="{2AC0AA2F-79DF-D044-84B7-A131AC44BC10}"/>
+    <hyperlink ref="B383" r:id="rId437" xr:uid="{7F474B46-9483-0F48-AE6E-83C002C6D472}"/>
+    <hyperlink ref="B442" r:id="rId438" xr:uid="{30FFAA64-911B-8A47-9B10-24A60021362C}"/>
     <hyperlink ref="B114" r:id="rId439" xr:uid="{328EC544-84F7-C546-82CB-6D867891F222}"/>
     <hyperlink ref="C113" r:id="rId440" display="https://cspiration.com/login" xr:uid="{B24A14A7-52F4-E249-B609-37F1D91D19AF}"/>
     <hyperlink ref="B113" r:id="rId441" display="https://leetcode.com/problems/valid-number/description/" xr:uid="{5B3E385E-B11A-C64D-8285-B8177A8BCDA4}"/>
@@ -6803,8 +6949,218 @@
     <hyperlink ref="C76" r:id="rId635" display="https://cspiration.com/login" xr:uid="{370A9C08-9397-6244-9A7C-D5A7706B5C33}"/>
     <hyperlink ref="B77" r:id="rId636" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{F3713F37-2092-EE4F-9D0F-DF78CC7E6F5F}"/>
     <hyperlink ref="B40" r:id="rId637" xr:uid="{A8664FBD-4D0C-9F4E-B3FF-1A3A080A62BA}"/>
-    <hyperlink ref="B442" r:id="rId638" xr:uid="{470B60D0-0690-D646-A3F7-60EFD7D84914}"/>
+    <hyperlink ref="B443" r:id="rId638" xr:uid="{470B60D0-0690-D646-A3F7-60EFD7D84914}"/>
     <hyperlink ref="B188" r:id="rId639" xr:uid="{480C3FC1-E1AD-1549-AE5F-DCB9796EBAB6}"/>
+    <hyperlink ref="B444" r:id="rId640" xr:uid="{479C33DE-F0FB-4D48-8E33-1B3B609B8C06}"/>
+    <hyperlink ref="B226" r:id="rId641" xr:uid="{0E084F61-5CC3-634B-86CA-32EE4D7A8159}"/>
+    <hyperlink ref="B424" r:id="rId642" xr:uid="{3B627479-B599-9A4B-84E9-0B08FE576256}"/>
+    <hyperlink ref="B190" r:id="rId643" xr:uid="{8885AE70-00E5-254B-BA1C-AC2F4AAFC2EE}"/>
+    <hyperlink ref="B78" r:id="rId644" xr:uid="{866844FC-D136-D24D-A714-D9F7287029B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F2D10D-1C28-0C44-9A30-1F016C7DDC26}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{2E7E144F-6FFE-5B49-AC01-8230ED6A4C57}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{D432FD45-55B8-184F-AFDC-6C0276A6443A}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{F300A87B-033E-3741-8569-8467875A5DB6}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{64E7D2ED-C313-2349-A1A0-41A9DFFA6169}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{6DC7976D-BC10-3A46-A70F-0DF63CEAB1E7}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{B2D22442-96A3-CB49-AA7B-0EEBC51B8B05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A5F11-ABDA-6C4E-B320-90D5F53E6BB6}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1481</v>
+      </c>
+      <c r="B3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1041</v>
+      </c>
+      <c r="B5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>973</v>
+      </c>
+      <c r="B7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{DF5DB716-9032-F94A-B534-C14A60EF7A5D}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{86A494AE-B681-4F4C-9FB2-2183043B4CB5}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{799FFBB6-6DEB-364C-A1B4-799FDE7F453D}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{3EA58E5D-363F-684C-B96D-8835A3BCDEF8}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{B505B52F-3BC7-4F41-9B30-F3ED7D1FD64F}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{E24F2577-00C5-4A4E-AF28-DBC03C13D8BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leslieren/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AFD23F-73CF-514A-BE91-0FC6B85C7B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AE56CA-1DD6-CE4C-A508-2870072BB318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="660" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{8E59BB28-1D73-BC40-82B7-CA1810B7C545}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="432">
   <si>
     <t>144</t>
   </si>
@@ -1292,6 +1292,45 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/k-closest-points-to-origin/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problemset/all/?listId=7p5x763</t>
+  </si>
+  <si>
+    <t>current implementation is a bit slow</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-ii/</t>
+  </si>
+  <si>
+    <t>Reorder Data in Log Files</t>
+  </si>
+  <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>question17 in pdf</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Pairs of Songs With Total Durations Divisible by 60</t>
+  </si>
+  <si>
+    <t>Minimum Degree of a Connected Trio in a Graph</t>
+  </si>
+  <si>
+    <t>tricky</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>detail</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0A4AFC-62FA-E94E-BE80-E68967C2241E}">
-  <dimension ref="A1:H446"/>
+  <dimension ref="A1:H464"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A302" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2089,10 +2128,10 @@
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -2101,10 +2140,10 @@
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>334</v>
+        <v>128</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -2113,10 +2152,10 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -2125,10 +2164,10 @@
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -2138,31 +2177,31 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>287</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="6">
+        <v>327</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -2171,40 +2210,40 @@
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>16</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="A40" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="6">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -2213,10 +2252,10 @@
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -2225,10 +2264,10 @@
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -2237,10 +2276,10 @@
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -2248,33 +2287,33 @@
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>352</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A46" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="6">
+        <v>239</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -2283,10 +2322,10 @@
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>295</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -2295,10 +2334,10 @@
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -2307,10 +2346,10 @@
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -2319,10 +2358,10 @@
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -2331,10 +2370,10 @@
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
@@ -2343,10 +2382,10 @@
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2</v>
@@ -2355,10 +2394,10 @@
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -2366,31 +2405,31 @@
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>163</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A56" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="A57" s="6">
+        <v>88</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
@@ -2399,10 +2438,10 @@
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
@@ -2411,10 +2450,10 @@
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
@@ -2423,10 +2462,10 @@
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>376</v>
+        <v>280</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>2</v>
@@ -2435,10 +2474,10 @@
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
@@ -2447,10 +2486,10 @@
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
@@ -2459,10 +2498,10 @@
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -2471,10 +2510,10 @@
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
@@ -2483,10 +2522,10 @@
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
@@ -2495,10 +2534,10 @@
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>2</v>
@@ -2507,10 +2546,10 @@
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>2</v>
@@ -2519,10 +2558,10 @@
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2</v>
@@ -2531,10 +2570,10 @@
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>162</v>
+        <v>374</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
@@ -2543,10 +2582,10 @@
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
@@ -2555,10 +2594,10 @@
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -2567,10 +2606,10 @@
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
@@ -2579,10 +2618,10 @@
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
@@ -2591,10 +2630,10 @@
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>2</v>
@@ -2603,43 +2642,51 @@
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
-        <v>354</v>
+        <v>1481</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>298</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>1481</v>
+        <v>937</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>28</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
@@ -2648,10 +2695,10 @@
     </row>
     <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
@@ -2660,10 +2707,10 @@
     </row>
     <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -2672,10 +2719,10 @@
     </row>
     <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
@@ -2684,10 +2731,10 @@
     </row>
     <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>2</v>
@@ -2696,10 +2743,10 @@
     </row>
     <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>344</v>
+        <v>151</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
@@ -2708,10 +2755,10 @@
     </row>
     <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
+        <v>186</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2</v>
@@ -2720,10 +2767,10 @@
     </row>
     <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -2732,10 +2779,10 @@
     </row>
     <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>2</v>
@@ -2747,10 +2794,10 @@
     </row>
     <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>2</v>
@@ -2759,10 +2806,10 @@
     </row>
     <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
@@ -2771,10 +2818,10 @@
     </row>
     <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>2</v>
@@ -2783,10 +2830,10 @@
     </row>
     <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>2</v>
@@ -2795,10 +2842,10 @@
     </row>
     <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>2</v>
@@ -2807,10 +2854,10 @@
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
@@ -2819,10 +2866,10 @@
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>2</v>
@@ -2831,10 +2878,10 @@
     </row>
     <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>2</v>
@@ -2843,10 +2890,10 @@
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>2</v>
@@ -2855,10 +2902,10 @@
     </row>
     <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>2</v>
@@ -2867,10 +2914,10 @@
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>2</v>
@@ -2879,10 +2926,10 @@
     </row>
     <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>2</v>
@@ -2891,10 +2938,10 @@
     </row>
     <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
@@ -2903,10 +2950,10 @@
     </row>
     <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>2</v>
@@ -2915,10 +2962,10 @@
     </row>
     <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>2</v>
@@ -2927,10 +2974,10 @@
     </row>
     <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>2</v>
@@ -2938,31 +2985,31 @@
       <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
-        <v>247</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A108" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
+      <c r="A109" s="6">
+        <v>157</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>2</v>
@@ -2971,10 +3018,10 @@
     </row>
     <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>2</v>
@@ -2983,10 +3030,10 @@
     </row>
     <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>2</v>
@@ -2995,40 +3042,40 @@
     </row>
     <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
-        <v>6</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C114" s="2"/>
+      <c r="A114" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
+      <c r="A115" s="6">
+        <v>76</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
@@ -3039,10 +3086,10 @@
     </row>
     <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>2</v>
@@ -3053,10 +3100,10 @@
     </row>
     <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
-        <v>3</v>
+        <v>340</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>2</v>
@@ -3067,10 +3114,10 @@
     </row>
     <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>2</v>
@@ -3081,10 +3128,10 @@
     </row>
     <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>395</v>
+        <v>159</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
@@ -3094,33 +3141,33 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
-        <v>159</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A121" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="6"/>
+      <c r="A122" s="6">
+        <v>125</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
-        <v>125</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>183</v>
+        <v>266</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>2</v>
@@ -3129,10 +3176,10 @@
     </row>
     <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>266</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>2</v>
@@ -3141,10 +3188,10 @@
     </row>
     <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>2</v>
@@ -3153,10 +3200,10 @@
     </row>
     <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>2</v>
@@ -3165,10 +3212,10 @@
     </row>
     <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <v>214</v>
+        <v>336</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
@@ -3177,10 +3224,10 @@
     </row>
     <row r="128" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>336</v>
+        <v>131</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>2</v>
@@ -3189,10 +3236,10 @@
     </row>
     <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
@@ -3201,10 +3248,10 @@
     </row>
     <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>2</v>
@@ -3212,31 +3259,31 @@
       <c r="D130" s="6"/>
     </row>
     <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
-        <v>267</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A131" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
       <c r="D131" s="6"/>
     </row>
     <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
+      <c r="A132" s="6">
+        <v>20</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D132" s="6"/>
     </row>
     <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>2</v>
@@ -3245,10 +3292,10 @@
     </row>
     <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
-        <v>22</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>194</v>
+        <v>32</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>2</v>
@@ -3257,10 +3304,10 @@
     </row>
     <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>2</v>
@@ -3269,10 +3316,10 @@
     </row>
     <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>2</v>
@@ -3280,31 +3327,31 @@
       <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
-        <v>301</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A137" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
       <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B138" s="7"/>
-      <c r="C138" s="6"/>
+      <c r="A138" s="6">
+        <v>392</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
-        <v>392</v>
+        <v>115</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>2</v>
@@ -3313,50 +3360,50 @@
     </row>
     <row r="140" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
-        <v>187</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+    <row r="143" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>143</v>
       </c>
     </row>
+    <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6" t="s">
-        <v>54</v>
+      <c r="A145" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="11" t="s">
-        <v>0</v>
+      <c r="A146" s="1">
+        <v>94</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>2</v>
@@ -3365,10 +3412,10 @@
     </row>
     <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
@@ -3377,10 +3424,10 @@
     </row>
     <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>2</v>
@@ -3388,31 +3435,31 @@
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>102</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="1"/>
+      <c r="A150" s="1">
+        <v>100</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>2</v>
@@ -3423,10 +3470,10 @@
     </row>
     <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>2</v>
@@ -3435,10 +3482,10 @@
     </row>
     <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>2</v>
@@ -3449,10 +3496,10 @@
     </row>
     <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -3461,10 +3508,10 @@
     </row>
     <row r="155" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>2</v>
@@ -3473,10 +3520,10 @@
     </row>
     <row r="156" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>2</v>
@@ -3485,10 +3532,10 @@
     </row>
     <row r="157" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2</v>
@@ -3497,10 +3544,10 @@
     </row>
     <row r="158" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>2</v>
@@ -3508,31 +3555,31 @@
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>111</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="4"/>
-      <c r="C160" s="1"/>
+      <c r="A160" s="1">
+        <v>104</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>2</v>
@@ -3541,10 +3588,10 @@
     </row>
     <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>2</v>
@@ -3553,10 +3600,10 @@
     </row>
     <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>2</v>
@@ -3565,10 +3612,10 @@
     </row>
     <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>2</v>
@@ -3577,10 +3624,10 @@
     </row>
     <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>2</v>
@@ -3588,33 +3635,33 @@
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>337</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A166" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" s="4"/>
+      <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="1">
+        <v>107</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2</v>
@@ -3623,10 +3670,10 @@
     </row>
     <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
@@ -3634,33 +3681,33 @@
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>199</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B170" s="4"/>
+      <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="1"/>
+      <c r="A171" s="1">
+        <v>98</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
@@ -3671,10 +3718,10 @@
     </row>
     <row r="173" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>2</v>
@@ -3685,10 +3732,10 @@
     </row>
     <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>2</v>
@@ -3699,10 +3746,10 @@
     </row>
     <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
@@ -3713,10 +3760,10 @@
     </row>
     <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>2</v>
@@ -3727,10 +3774,10 @@
     </row>
     <row r="177" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
@@ -3741,10 +3788,10 @@
     </row>
     <row r="178" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
@@ -3755,10 +3802,10 @@
     </row>
     <row r="179" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
@@ -3769,10 +3816,10 @@
     </row>
     <row r="180" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -3783,10 +3830,10 @@
     </row>
     <row r="181" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
@@ -3797,10 +3844,10 @@
     </row>
     <row r="182" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>2</v>
@@ -3810,33 +3857,33 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>99</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A183" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B183" s="4"/>
+      <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B184" s="4"/>
-      <c r="C184" s="1"/>
+      <c r="A184" s="1">
+        <v>116</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>2</v>
@@ -3847,10 +3894,10 @@
     </row>
     <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>117</v>
+        <v>314</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>2</v>
@@ -3861,69 +3908,69 @@
     </row>
     <row r="187" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C187" s="2"/>
       <c r="D187" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C188" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>96</v>
+        <v>863</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>2</v>
+        <v>396</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>863</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>396</v>
-      </c>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B190" s="8"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B191" s="8"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B192" s="8"/>
     </row>
-    <row r="193" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B193" s="8"/>
+    <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="194" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B194" s="7"/>
-      <c r="C194" s="6" t="s">
-        <v>54</v>
+      <c r="A194" s="6">
+        <v>78</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>55</v>
@@ -3931,10 +3978,10 @@
     </row>
     <row r="195" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>2</v>
@@ -3943,10 +3990,10 @@
     </row>
     <row r="196" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>2</v>
@@ -3955,10 +4002,10 @@
     </row>
     <row r="197" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>2</v>
@@ -3967,10 +4014,10 @@
     </row>
     <row r="198" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
@@ -3979,10 +4026,10 @@
     </row>
     <row r="199" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>2</v>
@@ -3991,10 +4038,10 @@
     </row>
     <row r="200" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
-        <v>216</v>
+        <v>377</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>2</v>
@@ -4003,10 +4050,10 @@
     </row>
     <row r="201" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
-        <v>377</v>
+        <v>254</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
@@ -4017,10 +4064,10 @@
     </row>
     <row r="202" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>2</v>
@@ -4029,10 +4076,10 @@
     </row>
     <row r="203" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
@@ -4041,10 +4088,10 @@
     </row>
     <row r="204" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="6">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>2</v>
@@ -4053,10 +4100,10 @@
     </row>
     <row r="205" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2</v>
@@ -4067,10 +4114,10 @@
     </row>
     <row r="206" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="6">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>2</v>
@@ -4081,10 +4128,10 @@
     </row>
     <row r="207" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="6">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>2</v>
@@ -4093,10 +4140,10 @@
     </row>
     <row r="208" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>2</v>
@@ -4105,10 +4152,10 @@
     </row>
     <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>2</v>
@@ -4117,10 +4164,10 @@
     </row>
     <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>2</v>
@@ -4129,63 +4176,63 @@
     </row>
     <row r="211" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
-        <v>140</v>
+        <v>351</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D211" s="6"/>
     </row>
     <row r="212" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="6">
-        <v>351</v>
+        <v>93</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A213" s="6">
-        <v>93</v>
-      </c>
-      <c r="B213" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+    <row r="214" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B216" s="6"/>
-      <c r="C216" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C216" s="6"/>
       <c r="D216" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
+      <c r="A217" s="6">
+        <v>70</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D217" s="6"/>
     </row>
     <row r="218" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="6">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>2</v>
@@ -4194,10 +4241,10 @@
     </row>
     <row r="219" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>2</v>
@@ -4206,10 +4253,10 @@
     </row>
     <row r="220" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>2</v>
@@ -4218,10 +4265,10 @@
     </row>
     <row r="221" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>2</v>
@@ -4230,10 +4277,10 @@
     </row>
     <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="6">
-        <v>139</v>
+        <v>375</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>2</v>
@@ -4242,10 +4289,10 @@
     </row>
     <row r="223" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="6">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
@@ -4254,10 +4301,10 @@
     </row>
     <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="6">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>2</v>
@@ -4266,40 +4313,40 @@
     </row>
     <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C225" s="2"/>
       <c r="D225" s="6"/>
     </row>
     <row r="226" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226" s="6">
-        <v>300</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C226" s="2"/>
+      <c r="A226" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B226" s="7"/>
+      <c r="C226" s="6"/>
       <c r="D226" s="6"/>
     </row>
     <row r="227" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B227" s="7"/>
-      <c r="C227" s="6"/>
+      <c r="A227" s="6">
+        <v>256</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D227" s="6"/>
     </row>
     <row r="228" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="6">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
@@ -4308,10 +4355,10 @@
     </row>
     <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="6">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
@@ -4320,10 +4367,10 @@
     </row>
     <row r="230" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="6">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>2</v>
@@ -4332,10 +4379,10 @@
     </row>
     <row r="231" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
@@ -4344,10 +4391,10 @@
     </row>
     <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="6">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>2</v>
@@ -4356,10 +4403,10 @@
     </row>
     <row r="233" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>2</v>
@@ -4368,32 +4415,32 @@
     </row>
     <row r="234" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="6">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C234" s="2"/>
       <c r="D234" s="6"/>
     </row>
     <row r="235" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C235" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D235" s="6"/>
     </row>
     <row r="236" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="6">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>2</v>
@@ -4401,36 +4448,36 @@
       <c r="D236" s="6"/>
     </row>
     <row r="237" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="6">
-        <v>363</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D237" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="6"/>
       <c r="D238" s="6"/>
     </row>
     <row r="239" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B239" s="7"/>
-      <c r="C239" s="6"/>
+      <c r="A239" s="6">
+        <v>198</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D239" s="6"/>
     </row>
     <row r="240" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -4439,10 +4486,10 @@
     </row>
     <row r="241" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
@@ -4451,10 +4498,10 @@
     </row>
     <row r="242" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -4463,10 +4510,10 @@
     </row>
     <row r="243" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
@@ -4475,48 +4522,44 @@
     </row>
     <row r="244" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="6">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="D244" s="6"/>
     </row>
     <row r="245" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="6">
-        <v>44</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>102</v>
+        <v>1048</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
-        <v>1048</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="A246" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A247" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B247" s="2"/>
+      <c r="A247" s="6">
+        <v>746</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
-        <v>746</v>
+        <v>1025</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
-        <v>1025</v>
+        <v>1139</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="2"/>
@@ -4525,87 +4568,91 @@
       <c r="A250" s="6">
         <v>1139</v>
       </c>
-      <c r="B250" s="3"/>
+      <c r="B250" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
-        <v>1139</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>301</v>
+        <v>740</v>
       </c>
       <c r="C251" s="2"/>
     </row>
     <row r="252" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
-        <v>740</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B252" s="3"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="6">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="2"/>
     </row>
     <row r="254" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
-        <v>523</v>
-      </c>
-      <c r="B254" s="3"/>
+        <v>956</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
-        <v>956</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>303</v>
-      </c>
+        <v>1320</v>
+      </c>
+      <c r="B255" s="3"/>
       <c r="C255" s="2"/>
     </row>
     <row r="256" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A256" s="6">
-        <v>1320</v>
-      </c>
+      <c r="A256" s="6"/>
       <c r="B256" s="3"/>
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A257" s="6"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A258" s="5" t="s">
+    <row r="257" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B258" s="6"/>
+      <c r="C258" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B259" s="6"/>
-      <c r="C259" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C259" s="6"/>
     </row>
     <row r="260" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A260" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
+      <c r="A260" s="6">
+        <v>206</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D260" s="6"/>
     </row>
     <row r="261" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
-        <v>206</v>
-      </c>
-      <c r="B261" s="10" t="s">
-        <v>105</v>
+        <v>141</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>2</v>
@@ -4614,10 +4661,10 @@
     </row>
     <row r="262" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
-        <v>141</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>106</v>
+        <v>24</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>2</v>
@@ -4626,10 +4673,10 @@
     </row>
     <row r="263" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
-        <v>24</v>
-      </c>
-      <c r="B263" s="10" t="s">
-        <v>107</v>
+        <v>328</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>2</v>
@@ -4638,10 +4685,10 @@
     </row>
     <row r="264" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
-        <v>328</v>
+        <v>92</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>2</v>
@@ -4650,10 +4697,10 @@
     </row>
     <row r="265" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>2</v>
@@ -4662,10 +4709,10 @@
     </row>
     <row r="266" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -4674,10 +4721,10 @@
     </row>
     <row r="267" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
@@ -4686,10 +4733,10 @@
     </row>
     <row r="268" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>2</v>
@@ -4698,10 +4745,10 @@
     </row>
     <row r="269" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
-        <v>203</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>113</v>
+        <v>82</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>2</v>
@@ -4710,10 +4757,10 @@
     </row>
     <row r="270" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
-        <v>82</v>
-      </c>
-      <c r="B270" s="10" t="s">
-        <v>114</v>
+        <v>369</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>2</v>
@@ -4722,10 +4769,10 @@
     </row>
     <row r="271" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="6">
-        <v>369</v>
+        <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>2</v>
@@ -4734,10 +4781,10 @@
     </row>
     <row r="272" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="6">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>2</v>
@@ -4746,10 +4793,10 @@
     </row>
     <row r="273" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="6">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>2</v>
@@ -4757,31 +4804,31 @@
       <c r="D273" s="6"/>
     </row>
     <row r="274" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A274" s="6">
-        <v>21</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A274" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B274" s="7"/>
+      <c r="C274" s="6"/>
       <c r="D274" s="6"/>
     </row>
     <row r="275" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A275" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B275" s="7"/>
-      <c r="C275" s="6"/>
+      <c r="A275" s="6">
+        <v>234</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D275" s="6"/>
     </row>
     <row r="276" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="6">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>2</v>
@@ -4790,10 +4837,10 @@
     </row>
     <row r="277" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>2</v>
@@ -4802,10 +4849,10 @@
     </row>
     <row r="278" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="6">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>2</v>
@@ -4814,10 +4861,10 @@
     </row>
     <row r="279" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>2</v>
@@ -4826,10 +4873,10 @@
     </row>
     <row r="280" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="6">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>2</v>
@@ -4838,10 +4885,10 @@
     </row>
     <row r="281" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="6">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>2</v>
@@ -4850,10 +4897,10 @@
     </row>
     <row r="282" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>2</v>
@@ -4862,44 +4909,44 @@
     </row>
     <row r="283" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="D283" s="6"/>
     </row>
-    <row r="284" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A284" s="6">
-        <v>147</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A287" s="5" t="s">
+    <row r="286" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="287" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B287" s="6"/>
+      <c r="C287" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="288" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B288" s="6"/>
-      <c r="C288" s="6" t="s">
-        <v>54</v>
+      <c r="A288" s="6">
+        <v>200</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>2</v>
@@ -4908,10 +4955,10 @@
     </row>
     <row r="290" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="6">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>2</v>
@@ -4920,10 +4967,10 @@
     </row>
     <row r="291" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>2</v>
@@ -4932,10 +4979,10 @@
     </row>
     <row r="292" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="6">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>2</v>
@@ -4944,10 +4991,10 @@
     </row>
     <row r="293" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="6">
-        <v>364</v>
+        <v>127</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>2</v>
@@ -4956,30 +5003,30 @@
     </row>
     <row r="294" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="D294" s="6"/>
     </row>
     <row r="295" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="6">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>2</v>
@@ -4988,51 +5035,51 @@
     </row>
     <row r="297" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="6">
-        <v>52</v>
+        <v>1192</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="D297" s="6"/>
     </row>
-    <row r="298" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A298" s="6">
-        <v>1192</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A300" s="6"/>
-      <c r="B300" s="3"/>
-      <c r="C300" s="2"/>
+    <row r="299" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A299" s="6"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B300" s="8"/>
       <c r="D300" s="6"/>
     </row>
-    <row r="301" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B301" s="8"/>
+    <row r="301" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B301" s="7"/>
+      <c r="C301" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="302" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B302" s="7"/>
-      <c r="C302" s="6" t="s">
-        <v>54</v>
+      <c r="A302" s="6">
+        <v>261</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="6">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>2</v>
@@ -5041,62 +5088,62 @@
     </row>
     <row r="304" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="6">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="D304" s="6"/>
     </row>
-    <row r="305" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A305" s="6">
-        <v>305</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>142</v>
-      </c>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B305" s="8"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B306" s="8"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="B307" s="8"/>
     </row>
-    <row r="308" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B308" s="8"/>
+    <row r="308" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B308" s="7"/>
+      <c r="C308" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="309" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B309" s="7"/>
-      <c r="C309" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C309" s="6"/>
       <c r="D309" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A310" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B310" s="7"/>
-      <c r="C310" s="6"/>
+      <c r="A310" s="6">
+        <v>133</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D310" s="6"/>
     </row>
     <row r="311" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="6">
-        <v>133</v>
+        <v>399</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>2</v>
@@ -5105,10 +5152,10 @@
     </row>
     <row r="312" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="6">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>2</v>
@@ -5117,14 +5164,12 @@
     </row>
     <row r="313" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="6">
-        <v>310</v>
+        <v>1761</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C313" s="2"/>
       <c r="D313" s="6"/>
     </row>
     <row r="314" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5147,8 +5192,9 @@
       </c>
       <c r="D315" s="6"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B316" s="8"/>
+      <c r="D316" s="6"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B317" s="8"/>
@@ -5178,7 +5224,6 @@
       <c r="C320" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D320" s="6"/>
     </row>
     <row r="321" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="6">
@@ -5204,6 +5249,9 @@
       </c>
       <c r="D322" s="6"/>
     </row>
+    <row r="323" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D323" s="6"/>
+    </row>
     <row r="325" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>212</v>
@@ -5228,7 +5276,6 @@
       <c r="C327" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D327" s="6"/>
     </row>
     <row r="328" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="6">
@@ -5417,6 +5464,7 @@
       <c r="B343" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="D343" s="6"/>
     </row>
     <row r="347" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
@@ -5429,7 +5477,6 @@
       </c>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
     </row>
     <row r="349" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
@@ -5461,7 +5508,7 @@
       <c r="C351" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D351" s="1"/>
+      <c r="D351" s="6"/>
     </row>
     <row r="352" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
@@ -5470,6 +5517,7 @@
       <c r="B352" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="D352" s="1"/>
     </row>
     <row r="353" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="6">
@@ -5481,7 +5529,6 @@
       <c r="C353" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D353" s="6"/>
     </row>
     <row r="354" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="6">
@@ -5568,31 +5615,31 @@
       <c r="D360" s="6"/>
     </row>
     <row r="361" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A361" s="6" t="s">
+      <c r="A361" s="6">
+        <v>42</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D361" s="6"/>
+    </row>
+    <row r="362" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A362" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B361" s="7"/>
-      <c r="C361" s="6"/>
-      <c r="D361" s="6"/>
-    </row>
-    <row r="362" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A362" s="6">
-        <v>215</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B362" s="7"/>
+      <c r="C362" s="6"/>
       <c r="D362" s="6"/>
     </row>
     <row r="363" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="6">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>2</v>
@@ -5601,10 +5648,10 @@
     </row>
     <row r="364" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="6">
-        <v>218</v>
+        <v>347</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>2</v>
@@ -5613,10 +5660,10 @@
     </row>
     <row r="365" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="6">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>2</v>
@@ -5625,94 +5672,94 @@
     </row>
     <row r="366" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="6">
+        <v>332</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D366" s="6"/>
+    </row>
+    <row r="367" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A367" s="6">
         <v>341</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B367" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
         <v>302</v>
       </c>
-      <c r="B367" s="8"/>
-    </row>
-    <row r="368" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A368" s="6">
-        <v>1021</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="B368" s="8"/>
     </row>
     <row r="369" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="6">
-        <v>456</v>
+        <v>1021</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="6">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="6">
-        <v>735</v>
+        <v>636</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="6">
+        <v>735</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A373" s="6">
         <v>880</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B373" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A373" s="6"/>
-      <c r="B373" s="3"/>
-    </row>
-    <row r="376" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A376" s="5" t="s">
+    <row r="374" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A374" s="6"/>
+      <c r="B374" s="3"/>
+    </row>
+    <row r="377" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A377" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A377" s="6" t="s">
+    <row r="378" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A378" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B377" s="6"/>
-      <c r="C377" s="6" t="s">
+      <c r="B378" s="6"/>
+      <c r="C378" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A378" s="6">
-        <v>389</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D378" s="6"/>
     </row>
     <row r="379" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="6">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>2</v>
@@ -5721,70 +5768,70 @@
     </row>
     <row r="380" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="6">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>250</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D380" s="6"/>
     </row>
     <row r="381" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="6">
+        <v>318</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A382" s="6">
         <v>169</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B382" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A382" s="6"/>
-      <c r="B382" s="3" t="s">
+    <row r="383" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A383" s="6"/>
+      <c r="B383" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A383" s="6">
+    <row r="384" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A384" s="6">
         <v>268</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B384" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A384" s="6"/>
-      <c r="B384" s="3"/>
-    </row>
-    <row r="387" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A387" s="5" t="s">
+    <row r="385" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A385" s="6"/>
+      <c r="B385" s="3"/>
+    </row>
+    <row r="388" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A388" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A388" s="6" t="s">
+    <row r="389" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A389" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6" t="s">
+      <c r="B389" s="6"/>
+      <c r="C389" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A389" s="6">
-        <v>207</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D389" s="6"/>
     </row>
     <row r="390" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="6">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>2</v>
@@ -5793,44 +5840,44 @@
     </row>
     <row r="391" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="6">
+        <v>210</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D391" s="6"/>
+    </row>
+    <row r="392" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A392" s="6">
         <v>269</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B392" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A394" s="5" t="s">
+    <row r="395" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A395" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A395" s="6" t="s">
+    <row r="396" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A396" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B395" s="6"/>
-      <c r="C395" s="6" t="s">
+      <c r="B396" s="6"/>
+      <c r="C396" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A396" s="6">
-        <v>384</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D396" s="6"/>
     </row>
     <row r="397" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="6">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>2</v>
@@ -5839,10 +5886,10 @@
     </row>
     <row r="398" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="6">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>2</v>
@@ -5851,10 +5898,10 @@
     </row>
     <row r="399" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="6">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>2</v>
@@ -5863,10 +5910,10 @@
     </row>
     <row r="400" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="6">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>2</v>
@@ -5875,69 +5922,69 @@
     </row>
     <row r="401" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A401" s="6">
+        <v>381</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D401" s="6"/>
+    </row>
+    <row r="402" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A402" s="6">
         <v>138</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B402" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="25" x14ac:dyDescent="0.25">
-      <c r="A404" s="5" t="s">
+    <row r="405" spans="1:4" ht="25" x14ac:dyDescent="0.25">
+      <c r="A405" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A405" s="6" t="s">
+    <row r="406" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A406" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B405" s="6"/>
-      <c r="C405" s="6"/>
-      <c r="D405" s="6"/>
-    </row>
-    <row r="406" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A406" s="6">
-        <v>359</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B406" s="6"/>
+      <c r="C406" s="6"/>
       <c r="D406" s="6"/>
     </row>
     <row r="407" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="6">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D407" s="6" t="s">
-        <v>176</v>
-      </c>
+      <c r="D407" s="6"/>
     </row>
     <row r="408" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="6">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D408" s="6"/>
+      <c r="D408" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="409" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A409" s="6">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>2</v>
@@ -5946,10 +5993,10 @@
     </row>
     <row r="410" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="6">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>2</v>
@@ -5958,10 +6005,10 @@
     </row>
     <row r="411" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="6">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>2</v>
@@ -5970,10 +6017,10 @@
     </row>
     <row r="412" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="6">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>2</v>
@@ -5982,10 +6029,10 @@
     </row>
     <row r="413" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="6">
-        <v>170</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>2</v>
@@ -5994,10 +6041,10 @@
     </row>
     <row r="414" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="6">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>2</v>
@@ -6006,10 +6053,10 @@
     </row>
     <row r="415" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>2</v>
@@ -6018,10 +6065,10 @@
     </row>
     <row r="416" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>2</v>
@@ -6030,10 +6077,10 @@
     </row>
     <row r="417" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="6">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>2</v>
@@ -6042,10 +6089,10 @@
     </row>
     <row r="418" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="6">
-        <v>355</v>
+        <v>146</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>2</v>
@@ -6054,10 +6101,10 @@
     </row>
     <row r="419" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>2</v>
@@ -6066,10 +6113,10 @@
     </row>
     <row r="420" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>2</v>
@@ -6078,24 +6125,22 @@
     </row>
     <row r="421" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="6">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D421" s="6" t="s">
-        <v>279</v>
-      </c>
+      <c r="D421" s="6"/>
     </row>
     <row r="422" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="6">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>2</v>
@@ -6106,63 +6151,65 @@
     </row>
     <row r="423" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
-        <v>705</v>
+        <v>308</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="6">
-        <v>460</v>
+        <v>705</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>393</v>
+        <v>284</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
+        <v>460</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A426" s="6">
         <v>3.31</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427">
         <v>697</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B427" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A429" s="9" t="s">
+    <row r="430" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A430" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A430" s="1" t="s">
+    <row r="431" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
-    </row>
-    <row r="431" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A431" s="1">
-        <v>35</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D431" s="1"/>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
     </row>
     <row r="432" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>33</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>289</v>
+        <v>35</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>2</v>
@@ -6171,10 +6218,10 @@
     </row>
     <row r="433" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>2</v>
@@ -6183,10 +6230,10 @@
     </row>
     <row r="434" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>2</v>
@@ -6195,10 +6242,10 @@
     </row>
     <row r="435" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>2</v>
@@ -6207,10 +6254,10 @@
     </row>
     <row r="436" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>2</v>
@@ -6219,10 +6266,10 @@
     </row>
     <row r="437" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>374</v>
+        <v>162</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>2</v>
@@ -6231,10 +6278,10 @@
     </row>
     <row r="438" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>34</v>
+        <v>374</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>2</v>
@@ -6243,10 +6290,10 @@
     </row>
     <row r="439" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>2</v>
@@ -6255,10 +6302,10 @@
     </row>
     <row r="440" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>2</v>
@@ -6267,326 +6314,413 @@
     </row>
     <row r="441" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>298</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D441" s="1"/>
     </row>
     <row r="442" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>4</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>314</v>
+        <v>354</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
+        <v>50</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
         <v>1922</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B445" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A445" s="9" t="s">
+    <row r="446" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A446" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447">
         <v>500</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B447" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A450" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B206" r:id="rId1" display="https://leetcode.com/problems/permutation-sequence/description/" xr:uid="{7470F00A-0C28-9542-8BB8-840C29E37DA8}"/>
-    <hyperlink ref="C206" r:id="rId2" display="https://cspiration.com/login" xr:uid="{E339835C-3FF5-154D-83A5-D922A203F2B3}"/>
-    <hyperlink ref="B207" r:id="rId3" display="https://leetcode.com/problems/word-pattern-ii/description/" xr:uid="{475D2E19-9E2A-5A40-9967-744727496941}"/>
-    <hyperlink ref="C207" r:id="rId4" display="https://cspiration.com/login" xr:uid="{EE42A40A-13BC-BE4B-A326-E559CD4D7078}"/>
-    <hyperlink ref="B208" r:id="rId5" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/" xr:uid="{8410A8D8-2A96-2545-A707-B152E3483747}"/>
-    <hyperlink ref="C208" r:id="rId6" display="https://cspiration.com/login" xr:uid="{36FD5254-8C9A-0E48-AFDE-6B5494DFC976}"/>
-    <hyperlink ref="B209" r:id="rId7" display="https://leetcode.com/problems/generalized-abbreviation/description/" xr:uid="{A694FCD3-9DE6-C040-AE34-B16162B92776}"/>
-    <hyperlink ref="C209" r:id="rId8" display="https://cspiration.com/login" xr:uid="{C42B1CFF-4402-C94B-A66E-E0E82DDAA67D}"/>
-    <hyperlink ref="B210" r:id="rId9" display="https://leetcode.com/problems/expression-add-operators/description/" xr:uid="{C3D6AF2C-B408-D844-B031-4DA29F73A880}"/>
-    <hyperlink ref="C210" r:id="rId10" display="https://cspiration.com/login" xr:uid="{5902E035-85D4-EF41-889F-43801918206D}"/>
-    <hyperlink ref="B211" r:id="rId11" display="https://leetcode.com/problems/word-break-ii/description/" xr:uid="{C875713A-B2BF-C74B-AF74-39845CD139B9}"/>
-    <hyperlink ref="C211" r:id="rId12" display="https://cspiration.com/login" xr:uid="{05136ABA-F832-6444-9448-22BAD9D990D5}"/>
-    <hyperlink ref="B212" r:id="rId13" display="https://leetcode.com/problems/android-unlock-patterns/description/" xr:uid="{D4D2A625-1C06-594E-9061-782BDAF31A24}"/>
-    <hyperlink ref="B218" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/description/" xr:uid="{EBAE420C-2F6E-2947-9A9A-EC2C6413488B}"/>
-    <hyperlink ref="C218" r:id="rId15" display="https://cspiration.com/login" xr:uid="{1553DB48-9774-2A44-8A95-6A09994C2802}"/>
-    <hyperlink ref="B219" r:id="rId16" display="https://leetcode.com/problems/unique-paths/description/" xr:uid="{95F59D7D-71AD-9C45-8332-BEEF446345DD}"/>
-    <hyperlink ref="C219" r:id="rId17" display="https://cspiration.com/login" xr:uid="{B50BC24B-E5ED-224E-BBD2-FEDB59A4B9C8}"/>
-    <hyperlink ref="B220" r:id="rId18" display="https://leetcode.com/problems/unique-paths-ii/description/" xr:uid="{3C785738-AF2C-7D49-A676-40642165F7E9}"/>
-    <hyperlink ref="C220" r:id="rId19" display="https://cspiration.com/login" xr:uid="{D139F891-E2F5-8A4E-845C-1152D649243B}"/>
-    <hyperlink ref="B221" r:id="rId20" display="https://leetcode.com/problems/perfect-squares/description/" xr:uid="{F1E40C95-00F8-2849-9001-A228CD479539}"/>
-    <hyperlink ref="C221" r:id="rId21" display="https://cspiration.com/login" xr:uid="{3D8A92E9-FB93-4E49-B14B-A18B499D0787}"/>
-    <hyperlink ref="B222" r:id="rId22" display="https://leetcode.com/problems/word-break/" xr:uid="{1C41DBB7-6CCE-FD4D-A267-F78FE233940D}"/>
-    <hyperlink ref="C222" r:id="rId23" display="https://cspiration.com/login" xr:uid="{CDE6F565-251B-2E45-9223-1D578CC89854}"/>
-    <hyperlink ref="B223" r:id="rId24" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/description/" xr:uid="{415C0B92-011D-5446-AA9F-D55206245A9E}"/>
-    <hyperlink ref="C223" r:id="rId25" display="https://cspiration.com/login" xr:uid="{6342F0B5-FAE1-9549-B0EB-BA4B9151C6A6}"/>
-    <hyperlink ref="B224" r:id="rId26" display="https://leetcode.com/problems/burst-balloons/description/" xr:uid="{462BC2C3-5EF9-0B45-B0B5-AD50E1D72B3E}"/>
-    <hyperlink ref="C224" r:id="rId27" display="https://cspiration.com/login" xr:uid="{7CC75275-A0BF-C447-8C55-0AB512699970}"/>
-    <hyperlink ref="B225" r:id="rId28" display="https://leetcode.com/problems/coin-change/description/" xr:uid="{4751D5B9-78E7-1647-A94D-B787C4C6DAC8}"/>
-    <hyperlink ref="C225" r:id="rId29" display="https://cspiration.com/login" xr:uid="{28C04F21-7959-C243-A6A5-4EEA9824A11F}"/>
-    <hyperlink ref="B228" r:id="rId30" display="https://leetcode.com/problems/paint-house/description/" xr:uid="{214172F9-8AF6-3E47-B357-DF0ECA938323}"/>
-    <hyperlink ref="C228" r:id="rId31" display="https://cspiration.com/login" xr:uid="{E1DF89A1-C035-F641-8768-CBBCF01F840F}"/>
-    <hyperlink ref="B229" r:id="rId32" display="https://leetcode.com/problems/paint-house-ii/description/" xr:uid="{9A4DE787-F88D-2F4A-9F27-C1B70F6CD59D}"/>
-    <hyperlink ref="C229" r:id="rId33" display="https://cspiration.com/login" xr:uid="{97F2541A-D555-D84A-865E-1D86921D157B}"/>
-    <hyperlink ref="B230" r:id="rId34" display="https://leetcode.com/problems/minimum-path-sum/description/" xr:uid="{69C8688F-4E28-BA40-B91B-34FDFE61D22A}"/>
-    <hyperlink ref="C230" r:id="rId35" display="https://cspiration.com/login" xr:uid="{92947D08-E356-434A-AEBF-317ED0F505A2}"/>
-    <hyperlink ref="B231" r:id="rId36" display="https://leetcode.com/problems/edit-distance/description/" xr:uid="{8F920DC0-1839-3048-83E2-C217B9F055B4}"/>
-    <hyperlink ref="C231" r:id="rId37" display="https://cspiration.com/login" xr:uid="{114A9E34-5844-E643-8A42-B88E7BEE5AE8}"/>
-    <hyperlink ref="B232" r:id="rId38" display="https://leetcode.com/problems/interleaving-string/description/" xr:uid="{FB04174A-9C48-A348-94FC-5E90C130B28F}"/>
-    <hyperlink ref="C232" r:id="rId39" display="https://cspiration.com/login" xr:uid="{55EDDBB2-B431-BD49-A244-D1CDABCE4E26}"/>
-    <hyperlink ref="B233" r:id="rId40" display="https://leetcode.com/problems/dungeon-game/description/" xr:uid="{155A6047-D8EB-8547-834B-33CBBC47B8EA}"/>
-    <hyperlink ref="C233" r:id="rId41" display="https://cspiration.com/login" xr:uid="{6C5529D1-8C55-094E-A7F6-EE2EE2045AA3}"/>
-    <hyperlink ref="B234" r:id="rId42" display="https://leetcode.com/problems/maximal-square/description/" xr:uid="{4A8B0E3C-5E97-5C47-9A6E-2C2EDA6A9395}"/>
-    <hyperlink ref="C234" r:id="rId43" display="https://cspiration.com/login" xr:uid="{74A87B70-E6B2-4E4F-922E-9B55F53872E6}"/>
-    <hyperlink ref="B236" r:id="rId44" display="https://leetcode.com/problems/maximal-rectangle/description/" xr:uid="{3ADA6959-F24D-6146-B3F0-E982EB0C68F5}"/>
-    <hyperlink ref="C236" r:id="rId45" display="https://cspiration.com/login" xr:uid="{8B14C05B-DD8F-D443-8EAA-F17CA50D7366}"/>
-    <hyperlink ref="B237" r:id="rId46" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/description/" xr:uid="{4AA58D7A-2220-7E48-94A8-240A6AFC7EB7}"/>
-    <hyperlink ref="C237" r:id="rId47" display="https://cspiration.com/login" xr:uid="{38081C3C-1B84-3A42-8B82-08867C75BE08}"/>
-    <hyperlink ref="B240" r:id="rId48" display="https://leetcode.com/problems/house-robber/" xr:uid="{B5F79A46-6E6F-8D4D-889A-60A17000B0ED}"/>
-    <hyperlink ref="C240" r:id="rId49" display="https://cspiration.com/login" xr:uid="{40EE7912-E2ED-8F48-927A-5A0F117CEC11}"/>
-    <hyperlink ref="B241" r:id="rId50" xr:uid="{DA479ECE-2810-4D46-9167-CD93688286E5}"/>
-    <hyperlink ref="C241" r:id="rId51" display="https://cspiration.com/login" xr:uid="{0B397A8A-6F6D-074D-B34F-CBCC7962B019}"/>
-    <hyperlink ref="B242" r:id="rId52" display="https://leetcode.com/problems/paint-fence/description/" xr:uid="{8DF87316-E5E3-A64B-A7C7-B412886C0D62}"/>
-    <hyperlink ref="C242" r:id="rId53" display="https://cspiration.com/login" xr:uid="{6E65F3C4-E1DF-704A-B81E-19F926EFE944}"/>
-    <hyperlink ref="B243" r:id="rId54" display="https://leetcode.com/problems/decode-ways/description/" xr:uid="{2DC138A9-B627-AB47-870B-14C94AB6B5A4}"/>
-    <hyperlink ref="C243" r:id="rId55" display="https://cspiration.com/login" xr:uid="{5A7C9135-5860-E948-BD21-C28BD1B3E946}"/>
-    <hyperlink ref="B244" r:id="rId56" display="https://leetcode.com/problems/regular-expression-matching/description/" xr:uid="{7D23B339-6C91-614E-AA49-72CB80D8755F}"/>
-    <hyperlink ref="C244" r:id="rId57" display="https://cspiration.com/login" xr:uid="{11D5A1C5-180C-5441-9789-596C0046C716}"/>
-    <hyperlink ref="B245" r:id="rId58" display="https://leetcode.com/problems/wildcard-matching/description/" xr:uid="{30C25CED-6E0E-1744-B664-F8C8620F6075}"/>
-    <hyperlink ref="B261" r:id="rId59" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{CAD13304-EA56-2F44-88DC-9847AB46A009}"/>
-    <hyperlink ref="C261" r:id="rId60" display="https://cspiration.com/login" xr:uid="{EEC2B0F6-4485-EF40-9194-9F4EEA02F22A}"/>
-    <hyperlink ref="B262" r:id="rId61" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{4FF87EA4-A503-4B49-87BA-62460FACC174}"/>
-    <hyperlink ref="C262" r:id="rId62" display="https://cspiration.com/login" xr:uid="{2DB2DFAD-3FB0-6D4E-9313-5085428A8CFC}"/>
-    <hyperlink ref="B263" r:id="rId63" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{6D7DEEF5-7FBB-E84E-914B-265CD96477D2}"/>
-    <hyperlink ref="C263" r:id="rId64" display="https://cspiration.com/login" xr:uid="{514CAD90-796B-F448-A3DC-33D8613DF5B1}"/>
-    <hyperlink ref="B264" r:id="rId65" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{69C095DA-C246-B14D-853C-13F1A137AECA}"/>
-    <hyperlink ref="C264" r:id="rId66" display="https://cspiration.com/login" xr:uid="{684EE302-5E2B-8F42-9B02-16D97EC48A9E}"/>
-    <hyperlink ref="B265" r:id="rId67" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C591448F-1446-604A-BF63-B4B8E771CAE4}"/>
-    <hyperlink ref="C265" r:id="rId68" display="https://cspiration.com/login" xr:uid="{AD139FD1-62E2-DE44-9EAD-FB7CE24CFEC6}"/>
-    <hyperlink ref="B266" r:id="rId69" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{A3C665A2-4693-4E48-9309-83A49B99EB9E}"/>
-    <hyperlink ref="C266" r:id="rId70" display="https://cspiration.com/login" xr:uid="{FB2A27A5-F4E1-4348-ABC3-DFB3C11A3805}"/>
-    <hyperlink ref="B267" r:id="rId71" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{936FBC23-FBA0-8041-B01E-927C44DBFBD0}"/>
-    <hyperlink ref="C267" r:id="rId72" display="https://cspiration.com/login" xr:uid="{3A577495-48A7-3E4B-B2EF-CA1F5B535933}"/>
-    <hyperlink ref="B268" r:id="rId73" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{CC7DDE3B-80A1-C949-9A7B-0BAD12D0B738}"/>
-    <hyperlink ref="C268" r:id="rId74" display="https://cspiration.com/login" xr:uid="{7EA05564-C028-584C-A89F-4B344D5446DC}"/>
-    <hyperlink ref="B269" r:id="rId75" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{C103719A-34B5-4648-B53B-B44C590DF483}"/>
-    <hyperlink ref="C269" r:id="rId76" display="https://cspiration.com/login" xr:uid="{911D9C1F-B252-0C44-B709-A88E12866DB8}"/>
-    <hyperlink ref="B270" r:id="rId77" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{659D5183-DD4E-8D47-B021-9AA1D4C417EC}"/>
-    <hyperlink ref="C270" r:id="rId78" display="https://cspiration.com/login" xr:uid="{5605BF37-B4B3-D347-B524-042D61B8AB56}"/>
-    <hyperlink ref="B271" r:id="rId79" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{B0513CEC-73FA-E446-9EDB-D84142ACA483}"/>
-    <hyperlink ref="C271" r:id="rId80" display="https://cspiration.com/login" xr:uid="{10119304-066A-6247-80D0-401AA1203D0D}"/>
-    <hyperlink ref="B272" r:id="rId81" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{93006D26-E920-6C49-B26A-FCB8CAB1ACA3}"/>
-    <hyperlink ref="C272" r:id="rId82" display="https://cspiration.com/login" xr:uid="{9291616C-0B43-C94B-8A1E-8F898F4BF56B}"/>
-    <hyperlink ref="B273" r:id="rId83" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{1FA22F67-4FD1-9042-A730-D5586D418640}"/>
-    <hyperlink ref="C273" r:id="rId84" display="https://cspiration.com/login" xr:uid="{35A8D267-2907-7841-858E-4D9067911073}"/>
-    <hyperlink ref="B274" r:id="rId85" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{B4017010-0B98-A146-993E-1784ADCBA2ED}"/>
-    <hyperlink ref="C274" r:id="rId86" display="https://cspiration.com/login" xr:uid="{621DD98A-3C93-3645-B68C-CA4ED618EE02}"/>
-    <hyperlink ref="B276" r:id="rId87" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{8246AC1C-1D21-4040-87D8-0C088584A020}"/>
-    <hyperlink ref="C276" r:id="rId88" display="https://cspiration.com/login" xr:uid="{967A4BA0-C65A-AB47-97BE-157F10FE4DB7}"/>
-    <hyperlink ref="B277" r:id="rId89" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{78F44725-1FA2-D241-8683-EE8B2ED5FA0B}"/>
-    <hyperlink ref="C277" r:id="rId90" display="https://cspiration.com/login" xr:uid="{6C7AF4CB-7495-7148-A674-7878A9F00B7A}"/>
-    <hyperlink ref="B278" r:id="rId91" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{7614D580-270B-BA4B-95E7-882D4141A0E9}"/>
-    <hyperlink ref="C278" r:id="rId92" display="https://cspiration.com/login" xr:uid="{910601B3-BDE1-E54F-B6A7-F89C17F9424F}"/>
-    <hyperlink ref="B279" r:id="rId93" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{E32778EB-01D7-9545-8442-3B4CFBC2B3BC}"/>
-    <hyperlink ref="C279" r:id="rId94" display="https://cspiration.com/login" xr:uid="{62472AF2-4F6F-3643-960E-F5889C4A4F00}"/>
-    <hyperlink ref="B280" r:id="rId95" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{01D9B3AE-536F-8A4C-90F2-F9960A62121F}"/>
-    <hyperlink ref="C280" r:id="rId96" display="https://cspiration.com/login" xr:uid="{499891E2-9FA3-6D4F-B1BF-FF821B50DC7F}"/>
-    <hyperlink ref="B281" r:id="rId97" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{676DED51-3A3A-7A44-9090-B3319F92D1F5}"/>
-    <hyperlink ref="C281" r:id="rId98" display="https://cspiration.com/login" xr:uid="{62C8D600-08B2-B049-8ED4-3989C28788DB}"/>
-    <hyperlink ref="B282" r:id="rId99" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{1A0016B2-865D-8648-B9C1-009775D448B9}"/>
-    <hyperlink ref="C282" r:id="rId100" display="https://cspiration.com/login" xr:uid="{F67C87BE-0A6D-4E43-8B60-EE98D2553167}"/>
-    <hyperlink ref="B283" r:id="rId101" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{AB470A71-9B7C-DD4D-A53C-D986109A764A}"/>
-    <hyperlink ref="C283" r:id="rId102" display="https://cspiration.com/login" xr:uid="{389A6086-F8A2-1A4C-90D7-865417B49C2E}"/>
-    <hyperlink ref="B284" r:id="rId103" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{435F18B5-F857-FE40-AEB8-BC637F8007F6}"/>
-    <hyperlink ref="B289" r:id="rId104" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{17D6F74D-E884-8346-80CA-C43FAFD204E0}"/>
-    <hyperlink ref="C289" r:id="rId105" display="https://cspiration.com/login" xr:uid="{5B75D74F-E84F-1749-89B8-F2F96B20B5DF}"/>
-    <hyperlink ref="B290" r:id="rId106" display="https://leetcode.com/problems/walls-and-gates/description/" xr:uid="{F15086C1-E83C-6749-9F98-C2FE6061D983}"/>
-    <hyperlink ref="C290" r:id="rId107" display="https://cspiration.com/login" xr:uid="{C11E20A3-768E-204B-A6A7-87721BBD91F2}"/>
-    <hyperlink ref="B291" r:id="rId108" display="https://leetcode.com/problems/surrounded-regions/description/" xr:uid="{13C0DF7E-F852-7048-8D5A-1494162FBD03}"/>
-    <hyperlink ref="C291" r:id="rId109" display="https://cspiration.com/login" xr:uid="{91126A94-99DE-7142-9CB0-1A5A4AC524B2}"/>
-    <hyperlink ref="B292" r:id="rId110" display="https://leetcode.com/problems/nested-list-weight-sum/description/" xr:uid="{E7980BDA-D944-614B-BB28-B03847BEF845}"/>
-    <hyperlink ref="C292" r:id="rId111" display="https://cspiration.com/login" xr:uid="{412FD8CC-DFA9-C242-838C-0B0C00423954}"/>
-    <hyperlink ref="B293" r:id="rId112" display="https://leetcode.com/problems/nested-list-weight-sum-ii/description/" xr:uid="{5F518178-7D34-894B-AFB1-4359E09F5303}"/>
-    <hyperlink ref="C293" r:id="rId113" display="https://cspiration.com/login" xr:uid="{A316D189-16C5-264D-B0B9-3ECE99D2BCAE}"/>
-    <hyperlink ref="B294" r:id="rId114" display="https://leetcode.com/problems/word-ladder/description/" xr:uid="{1546D9A2-6405-E445-A9E8-0FEB5B7A6A92}"/>
-    <hyperlink ref="C294" r:id="rId115" display="https://cspiration.com/login" xr:uid="{66335B9A-3643-EA44-A95E-77568BECFBFC}"/>
-    <hyperlink ref="B296" r:id="rId116" display="https://leetcode.com/problems/n-queens/" xr:uid="{989C02AD-8353-FA40-B6B2-7B3417C6D65A}"/>
-    <hyperlink ref="C296" r:id="rId117" display="https://cspiration.com/login" xr:uid="{74CDF51A-C100-4B4B-95BA-A7BFDFBB247F}"/>
-    <hyperlink ref="B297" r:id="rId118" display="https://leetcode.com/problems/n-queens-ii/description/" xr:uid="{CC4D02DA-3B9F-1B4D-A5AE-32B6014A8377}"/>
-    <hyperlink ref="C297" r:id="rId119" display="https://cspiration.com/login" xr:uid="{386CCEE6-EB73-DC46-9B1D-1D2761A09916}"/>
-    <hyperlink ref="B295" r:id="rId120" display="https://leetcode.com/problems/word-ladder-ii/description/" xr:uid="{4806144A-562E-064F-AE97-03B015936AE9}"/>
-    <hyperlink ref="B303" r:id="rId121" display="https://leetcode.com/problems/graph-valid-tree/description/" xr:uid="{0C7AB482-8E3B-AE4E-95F7-71384A61046F}"/>
-    <hyperlink ref="C303" r:id="rId122" display="https://cspiration.com/login" xr:uid="{66A9F717-5A05-CB41-A5FE-7139AEE4B2DB}"/>
-    <hyperlink ref="B304" r:id="rId123" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/" xr:uid="{70C86389-E813-DE4D-8FA6-8789189E3004}"/>
-    <hyperlink ref="C304" r:id="rId124" display="https://cspiration.com/login" xr:uid="{1450EFE5-357E-6145-B5D0-87DF6219A644}"/>
-    <hyperlink ref="B305" r:id="rId125" display="https://leetcode.com/problems/number-of-islands-ii/description/" xr:uid="{E823C3A6-A86F-964C-8988-1E7E87DD764D}"/>
-    <hyperlink ref="B159" r:id="rId126" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/description/" xr:uid="{89D22C44-568D-2A43-84A7-D669E16D4993}"/>
-    <hyperlink ref="C159" r:id="rId127" display="https://cspiration.com/login" xr:uid="{CDC90D9B-21B1-9F4E-BBAE-19128D12CFDA}"/>
-    <hyperlink ref="B161" r:id="rId128" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/description/" xr:uid="{93D570CB-F2FC-D841-9EFB-185B9F3C2E70}"/>
-    <hyperlink ref="C161" r:id="rId129" display="https://cspiration.com/login" xr:uid="{40CC75B2-4CB2-C744-B0AE-9FEDE031B23D}"/>
-    <hyperlink ref="B162" r:id="rId130" display="https://leetcode.com/problems/balanced-binary-tree/description/" xr:uid="{DA885537-0496-2347-9C3A-48AD933AA1DE}"/>
-    <hyperlink ref="C162" r:id="rId131" display="https://cspiration.com/login" xr:uid="{17E3DADE-C823-FC42-9F48-F84028231EBE}"/>
-    <hyperlink ref="B163" r:id="rId132" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/description/" xr:uid="{8BC92E6F-DEA3-FB47-A38F-23C8FDFC5B9B}"/>
-    <hyperlink ref="C163" r:id="rId133" display="https://cspiration.com/login" xr:uid="{6FFCD3AF-DA56-A84E-AF93-5594097F3FEE}"/>
-    <hyperlink ref="B164" r:id="rId134" display="https://leetcode.com/problems/count-univalue-subtrees/description/" xr:uid="{7915D915-AC84-B74C-A95E-1CA75FCFB407}"/>
-    <hyperlink ref="C164" r:id="rId135" display="https://cspiration.com/login" xr:uid="{656A9719-5AD0-3749-93C1-0F5ACBEF26E2}"/>
-    <hyperlink ref="B165" r:id="rId136" display="https://leetcode.com/problems/find-leaves-of-binary-tree/description/" xr:uid="{446EA6A7-2687-A043-9406-E6A003880342}"/>
-    <hyperlink ref="C165" r:id="rId137" display="https://cspiration.com/login" xr:uid="{DC42296A-1623-084A-98D9-37DD3D08DE16}"/>
-    <hyperlink ref="B166" r:id="rId138" display="https://leetcode.com/problems/house-robber-iii/description/" xr:uid="{61F9F361-DD78-304C-9AB1-6411C5B3150C}"/>
-    <hyperlink ref="C166" r:id="rId139" display="https://cspiration.com/login" xr:uid="{C15396C0-3CF8-B449-9478-7F6E4B7DE5AA}"/>
-    <hyperlink ref="B168" r:id="rId140" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/" xr:uid="{FAD7BC39-56D1-E145-B355-ACE74D5ABF48}"/>
-    <hyperlink ref="C168" r:id="rId141" display="https://cspiration.com/login" xr:uid="{6AA67394-3032-BA40-8BB2-C902A4766EDE}"/>
-    <hyperlink ref="B169" r:id="rId142" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/" xr:uid="{9A5F3EA8-FFAA-1249-88B7-509DA7E9AB28}"/>
-    <hyperlink ref="C169" r:id="rId143" display="https://cspiration.com/login" xr:uid="{3301010A-1BC9-314D-861F-524993E68A8F}"/>
-    <hyperlink ref="B170" r:id="rId144" display="https://leetcode.com/problems/binary-tree-right-side-view/description/" xr:uid="{72ECE003-5A37-C745-9B98-3E4B4066B48F}"/>
-    <hyperlink ref="C170" r:id="rId145" display="https://cspiration.com/login" xr:uid="{32445D70-599E-8E4A-A3E7-FF67B4E89E55}"/>
-    <hyperlink ref="B172" r:id="rId146" display="https://leetcode.com/problems/validate-binary-search-tree/description/" xr:uid="{1DD88180-F100-FC4E-8D90-C54A03A5049C}"/>
-    <hyperlink ref="C172" r:id="rId147" display="https://cspiration.com/login" xr:uid="{822F7A5D-457A-5243-9783-E4ECA977568F}"/>
-    <hyperlink ref="B173" r:id="rId148" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/" xr:uid="{349BB347-ECC7-E24D-9C63-4709855A5662}"/>
-    <hyperlink ref="C173" r:id="rId149" display="https://cspiration.com/login" xr:uid="{A4675664-1B1E-E84D-B903-6790B8B6892F}"/>
-    <hyperlink ref="B174" r:id="rId150" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/description/" xr:uid="{8D3A1121-89E9-104E-B6A8-020D2318C607}"/>
-    <hyperlink ref="C174" r:id="rId151" display="https://cspiration.com/login" xr:uid="{88D8DCB8-50C4-084F-A9E8-9529F327ADDC}"/>
-    <hyperlink ref="B175" r:id="rId152" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/" xr:uid="{99845699-BCFD-C546-AE01-297C22C94B17}"/>
-    <hyperlink ref="C175" r:id="rId153" display="https://cspiration.com/login" xr:uid="{71A5102F-7FF6-A440-8C47-CEE2F2ACF59F}"/>
-    <hyperlink ref="B176" r:id="rId154" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/description/" xr:uid="{F7BA15A8-AF89-7F42-AC49-975602A44192}"/>
-    <hyperlink ref="C176" r:id="rId155" display="https://cspiration.com/login" xr:uid="{20098174-E704-BF42-AF68-51CF8141B8FD}"/>
-    <hyperlink ref="B177" r:id="rId156" display="https://leetcode.com/problems/binary-search-tree-iterator/description/" xr:uid="{AC6D9FE3-A817-4647-A5DB-1D58A1144022}"/>
-    <hyperlink ref="C177" r:id="rId157" display="https://cspiration.com/login" xr:uid="{B0FB49CE-3E0D-174E-BA62-E1C497FF1122}"/>
-    <hyperlink ref="B178" r:id="rId158" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/description/" xr:uid="{536BFBDF-4E8C-8349-8392-E1AFE806B202}"/>
-    <hyperlink ref="C178" r:id="rId159" display="https://cspiration.com/login" xr:uid="{855F12DF-677A-C84B-B44F-002E2B8DF19D}"/>
-    <hyperlink ref="B179" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/" xr:uid="{BB4ED558-184E-554E-B352-6672B4676F09}"/>
-    <hyperlink ref="C179" r:id="rId161" display="https://cspiration.com/login" xr:uid="{15C444B7-FBA2-7949-BAF0-44FE9FC5157C}"/>
-    <hyperlink ref="B180" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/description/" xr:uid="{AAB96B84-1A39-3F48-8022-2EE9505F17AA}"/>
-    <hyperlink ref="C180" r:id="rId163" display="https://cspiration.com/login" xr:uid="{E2591804-FB77-DB47-9891-05954144F416}"/>
-    <hyperlink ref="B181" r:id="rId164" display="https://leetcode.com/problems/closest-binary-search-tree-value/description/" xr:uid="{07987B15-4C85-B945-8678-B1D78BBF580B}"/>
-    <hyperlink ref="C181" r:id="rId165" display="https://cspiration.com/login" xr:uid="{E96021AB-225E-244F-8985-43EBAEC733A0}"/>
-    <hyperlink ref="B182" r:id="rId166" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/description/" xr:uid="{8F8932FA-3D4B-1245-B043-84A26047573A}"/>
-    <hyperlink ref="C182" r:id="rId167" display="https://cspiration.com/login" xr:uid="{28699AF4-8354-F549-81D4-199F239D6CFB}"/>
-    <hyperlink ref="B183" r:id="rId168" display="https://leetcode.com/problems/recover-binary-search-tree/" xr:uid="{12CEC5FE-332C-2044-B082-56D26C1A4639}"/>
-    <hyperlink ref="C183" r:id="rId169" display="https://cspiration.com/login" xr:uid="{20BF04BA-3511-954A-B49A-6A888F6CD726}"/>
-    <hyperlink ref="B185" r:id="rId170" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/" xr:uid="{587ACF6E-03BB-664C-94F8-4DA1820E5160}"/>
-    <hyperlink ref="C185" r:id="rId171" display="https://cspiration.com/login" xr:uid="{923587B3-6E64-AC46-80A0-6F8424BFB5F5}"/>
-    <hyperlink ref="B186" r:id="rId172" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/" xr:uid="{306D2C75-9648-7E46-9C22-E305A69F373F}"/>
-    <hyperlink ref="C186" r:id="rId173" display="https://cspiration.com/login" xr:uid="{F67B1F71-A676-0940-8A99-D4ADE19DE085}"/>
-    <hyperlink ref="B187" r:id="rId174" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/description/" xr:uid="{6068080C-6E1C-0544-85D5-2C0B5BA16796}"/>
-    <hyperlink ref="C187" r:id="rId175" display="https://cspiration.com/login" xr:uid="{D227C6FD-BFA9-DF4B-B9FC-50DB9FFF78B4}"/>
-    <hyperlink ref="B189" r:id="rId176" display="https://leetcode.com/problems/unique-binary-search-trees/description/" xr:uid="{7AE2B76D-8FCA-6A49-B7FD-6D33410A80D4}"/>
-    <hyperlink ref="C189" r:id="rId177" display="https://cspiration.com/login" xr:uid="{73E515BF-17AE-3549-830F-64A6CBC41554}"/>
-    <hyperlink ref="B195" r:id="rId178" display="https://leetcode.com/problems/subsets/description/" xr:uid="{1DA25818-61E4-2D4F-AF71-53F9447F2529}"/>
-    <hyperlink ref="C195" r:id="rId179" display="https://cspiration.com/login" xr:uid="{20D096CC-799D-7443-95CC-9B6242A23F7D}"/>
-    <hyperlink ref="B196" r:id="rId180" display="https://leetcode.com/problems/subsets-ii/description/" xr:uid="{F922E614-674E-3E4A-8433-32017FAB297D}"/>
-    <hyperlink ref="C196" r:id="rId181" display="https://cspiration.com/login" xr:uid="{1FA06AA0-7AD2-2245-A723-340D001B3DC1}"/>
-    <hyperlink ref="B197" r:id="rId182" display="https://leetcode.com/problems/combinations/description/" xr:uid="{B179447D-489C-3146-9318-87BD9793F96C}"/>
-    <hyperlink ref="C197" r:id="rId183" display="https://cspiration.com/login" xr:uid="{31A58618-50BA-BD4D-B5A8-E3E45F96D305}"/>
-    <hyperlink ref="B198" r:id="rId184" display="https://leetcode.com/problems/combination-sum/description/" xr:uid="{8E41FF89-6716-FB4B-8522-D53102562681}"/>
-    <hyperlink ref="C198" r:id="rId185" display="https://cspiration.com/login" xr:uid="{F9AB630F-3543-4049-B34E-6E94F5D23148}"/>
-    <hyperlink ref="B199" r:id="rId186" display="https://leetcode.com/problems/combination-sum-ii/description/" xr:uid="{6458883B-8B73-4644-A0AB-97BE84237079}"/>
-    <hyperlink ref="C199" r:id="rId187" display="https://cspiration.com/login" xr:uid="{459E19A9-E243-A945-9D89-83FA2C342750}"/>
-    <hyperlink ref="B200" r:id="rId188" display="https://leetcode.com/problems/combination-sum-iii/description/" xr:uid="{1FA19E74-31E9-7743-99B1-146093374A0B}"/>
-    <hyperlink ref="C200" r:id="rId189" display="https://cspiration.com/login" xr:uid="{977097D3-DCB1-3F47-9B88-FDA600D87A82}"/>
-    <hyperlink ref="B201" r:id="rId190" display="https://leetcode.com/problems/combination-sum-iv/description/" xr:uid="{7D194D84-1B5D-0B46-B3A5-9F9026DAD5EE}"/>
-    <hyperlink ref="C201" r:id="rId191" display="https://cspiration.com/login" xr:uid="{D2F58BEF-F029-0E4B-8036-6706D9A2D7F7}"/>
-    <hyperlink ref="B202" r:id="rId192" display="https://leetcode.com/problems/factor-combinations/description/" xr:uid="{00BB8E33-8591-BC49-8EC2-F4A48B886EE5}"/>
-    <hyperlink ref="C202" r:id="rId193" display="https://cspiration.com/login" xr:uid="{A15DCFED-6D15-924B-B7A7-E6E3768DD7C2}"/>
-    <hyperlink ref="B203" r:id="rId194" display="https://leetcode.com/problems/permutations/description/" xr:uid="{04BDF281-13FF-7B47-82CB-960C6FDF0DCE}"/>
-    <hyperlink ref="C203" r:id="rId195" display="https://cspiration.com/login" xr:uid="{3DA02DEE-84D4-384C-A63C-AC1CF6088B46}"/>
-    <hyperlink ref="B204" r:id="rId196" display="https://leetcode.com/problems/permutations-ii/description/" xr:uid="{68B59510-E01A-034B-B179-864857AC92B9}"/>
-    <hyperlink ref="C204" r:id="rId197" display="https://cspiration.com/login" xr:uid="{EAAEC63E-F6E0-AD4A-B56D-B14872C52C86}"/>
-    <hyperlink ref="B205" r:id="rId198" display="https://leetcode.com/problems/next-permutation/description/" xr:uid="{53E4F340-A509-1947-828B-36C97B989B39}"/>
-    <hyperlink ref="C205" r:id="rId199" display="https://cspiration.com/login" xr:uid="{DF5FBBD1-FA6E-2043-AE14-CF0FFADF26D6}"/>
-    <hyperlink ref="C158" r:id="rId200" display="https://cspiration.com/login" xr:uid="{2467C20C-2A72-D148-8549-CAFD66905EC9}"/>
-    <hyperlink ref="B158" r:id="rId201" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/description/" xr:uid="{CCA49DB4-F582-9846-8DEA-A65D2CE6BE7A}"/>
-    <hyperlink ref="C157" r:id="rId202" display="https://cspiration.com/login" xr:uid="{5275C51B-7065-3943-8711-D1D7F2AACC89}"/>
-    <hyperlink ref="B157" r:id="rId203" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/description/" xr:uid="{A58832A4-445C-584E-A0AC-7802AC3002A9}"/>
-    <hyperlink ref="C156" r:id="rId204" display="https://cspiration.com/login" xr:uid="{32924BC1-BF91-944E-975D-CC039A80315F}"/>
-    <hyperlink ref="B156" r:id="rId205" display="https://leetcode.com/problems/path-sum-ii/description/" xr:uid="{AB6ECEEA-3A1A-7D4A-B1AA-9914E8DD6930}"/>
-    <hyperlink ref="C155" r:id="rId206" display="https://cspiration.com/login" xr:uid="{6ED56531-DBE0-DD43-9E24-B3415DAB8540}"/>
-    <hyperlink ref="B155" r:id="rId207" display="https://leetcode.com/problems/path-sum/description/" xr:uid="{E2130671-D335-6B48-A867-6F908B043DE4}"/>
-    <hyperlink ref="C154" r:id="rId208" display="https://cspiration.com/login" xr:uid="{A1276ED4-CBEF-AB4A-82A5-4C76B4ED4E30}"/>
-    <hyperlink ref="B154" r:id="rId209" display="https://leetcode.com/problems/binary-tree-paths/description/" xr:uid="{41325E60-8ACF-0441-B075-8A6937F7AAF8}"/>
-    <hyperlink ref="C153" r:id="rId210" display="https://cspiration.com/login" xr:uid="{A95B6F07-DFF1-5E4D-816E-2D8E0B92131F}"/>
-    <hyperlink ref="B153" r:id="rId211" display="https://leetcode.com/problems/invert-binary-tree/description/" xr:uid="{2936ACD6-F71B-7048-8C78-538E5AED2044}"/>
-    <hyperlink ref="C152" r:id="rId212" display="https://cspiration.com/login" xr:uid="{B198E76C-7B8C-7244-BD9B-E54095A21821}"/>
-    <hyperlink ref="B152" r:id="rId213" display="https://leetcode.com/problems/symmetric-tree/description/" xr:uid="{4AB27591-9611-8B4C-9A66-772CDDAE7986}"/>
-    <hyperlink ref="C151" r:id="rId214" display="https://cspiration.com/login" xr:uid="{ABB5DC97-A2E6-6549-A8E1-87F9441081E0}"/>
-    <hyperlink ref="B151" r:id="rId215" display="https://leetcode.com/problems/same-tree/description/" xr:uid="{24031D42-85FC-5E4A-AB8B-19C30DC22E48}"/>
-    <hyperlink ref="C149" r:id="rId216" display="https://cspiration.com/login" xr:uid="{3BB7186F-9E3D-7A4A-95D7-5BEA220FF846}"/>
-    <hyperlink ref="B149" r:id="rId217" display="https://leetcode.com/problems/binary-tree-level-order-traversal/description/" xr:uid="{4218A9A6-65AF-1F4C-BD97-CA0A29E1D804}"/>
-    <hyperlink ref="C148" r:id="rId218" display="https://cspiration.com/login" xr:uid="{8AAB839D-5378-4344-853C-8592F28A3D96}"/>
-    <hyperlink ref="B148" r:id="rId219" display="https://leetcode.com/problems/binary-tree-postorder-traversal/description/" xr:uid="{99A47399-DBC9-5449-B7F1-2EB170601309}"/>
-    <hyperlink ref="C147" r:id="rId220" display="https://cspiration.com/login" xr:uid="{75554B4A-B814-E049-B6CB-234327C74D8F}"/>
-    <hyperlink ref="B147" r:id="rId221" display="https://leetcode.com/problems/binary-tree-inorder-traversal/description/" xr:uid="{D1A15736-4459-A94F-B422-F52FABC942B9}"/>
-    <hyperlink ref="C146" r:id="rId222" display="https://cspiration.com/login" xr:uid="{CE8E69FA-3FDC-824B-B9F1-BC85824A2E12}"/>
-    <hyperlink ref="B146" r:id="rId223" display="https://leetcode.com/problems/binary-tree-preorder-traversal/description/" xr:uid="{B173E148-ECD8-5C4B-AA0F-007DFD040BAC}"/>
-    <hyperlink ref="B116" r:id="rId224" display="https://leetcode.com/problems/minimum-window-substring/description/" xr:uid="{2801781A-2EF7-CC41-BED4-95BA5A3B0009}"/>
-    <hyperlink ref="C116" r:id="rId225" display="https://cspiration.com/login" xr:uid="{BD72AD16-6872-994A-9712-FA7F7F5107BD}"/>
-    <hyperlink ref="B117" r:id="rId226" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/description/" xr:uid="{8E421129-E354-774F-A198-165762157E8C}"/>
-    <hyperlink ref="C117" r:id="rId227" display="https://cspiration.com/login" xr:uid="{79A86683-3F9B-3944-A2B6-68266F77E1D3}"/>
-    <hyperlink ref="B118" r:id="rId228" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/description/" xr:uid="{C9653FD1-F013-9B4D-A192-6F66E81B0E33}"/>
-    <hyperlink ref="C118" r:id="rId229" display="https://cspiration.com/login" xr:uid="{6EAC54FA-AA62-E149-AAC3-D2FCD1416D19}"/>
-    <hyperlink ref="B119" r:id="rId230" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/" xr:uid="{6998526A-A4DE-5D43-B57A-E6CEF0415E66}"/>
-    <hyperlink ref="C119" r:id="rId231" display="https://cspiration.com/login" xr:uid="{E5AB0555-74A5-4842-9457-0183549CBD86}"/>
-    <hyperlink ref="B120" r:id="rId232" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/description/" xr:uid="{88D79BD3-D03F-0544-8447-111D13482D66}"/>
-    <hyperlink ref="C120" r:id="rId233" display="https://cspiration.com/login" xr:uid="{4A5D5D98-C3EF-8F45-82D5-A3E159779E3D}"/>
-    <hyperlink ref="B121" r:id="rId234" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/description/" xr:uid="{30179602-28A0-D142-BAA3-02226633B820}"/>
-    <hyperlink ref="C121" r:id="rId235" display="https://cspiration.com/login" xr:uid="{7F62B6B0-FCF7-0142-9C84-AF99BBB982B8}"/>
-    <hyperlink ref="B123" r:id="rId236" display="https://leetcode.com/problems/valid-palindrome/description/" xr:uid="{B0243FBB-3371-E348-8367-11DADB10F1CC}"/>
-    <hyperlink ref="C123" r:id="rId237" display="https://cspiration.com/login" xr:uid="{ADA39965-0A8C-124A-B704-148EABD20C4E}"/>
-    <hyperlink ref="B124" r:id="rId238" display="https://leetcode.com/problems/palindrome-permutation/description/" xr:uid="{14DCFD0E-61C4-BF49-9BB4-D974C5C95A24}"/>
-    <hyperlink ref="C124" r:id="rId239" display="https://cspiration.com/login" xr:uid="{0B8220D6-F687-704D-A8C6-A8CA49620AA4}"/>
-    <hyperlink ref="B125" r:id="rId240" display="https://leetcode.com/problems/longest-palindromic-substring/description/" xr:uid="{61743C02-D9DE-A244-9495-DCEEFE190C61}"/>
-    <hyperlink ref="C125" r:id="rId241" display="https://cspiration.com/login" xr:uid="{8326BA64-A642-7242-A71F-EFBB34801F09}"/>
-    <hyperlink ref="B126" r:id="rId242" display="https://leetcode.com/problems/palindrome-number/description/" xr:uid="{0961ED78-D812-F241-8BFA-2F83EE8B1645}"/>
-    <hyperlink ref="C126" r:id="rId243" display="https://cspiration.com/login" xr:uid="{02598905-F837-4447-BCF4-C24A509D6DB9}"/>
-    <hyperlink ref="B127" r:id="rId244" display="https://leetcode.com/problems/shortest-palindrome/description/" xr:uid="{368E8FD6-798D-814F-9C3D-5E85172BA543}"/>
-    <hyperlink ref="C127" r:id="rId245" display="https://cspiration.com/login" xr:uid="{3AA991AD-874B-7C4F-AEAB-5F9315540D05}"/>
-    <hyperlink ref="B128" r:id="rId246" display="https://leetcode.com/problems/palindrome-pairs/description/" xr:uid="{4192B016-9B87-6F4C-B8AC-26BD3403C3AF}"/>
-    <hyperlink ref="C128" r:id="rId247" display="https://cspiration.com/login" xr:uid="{D889AAC8-7019-564A-AD1C-CDC9EA8F729A}"/>
-    <hyperlink ref="B129" r:id="rId248" display="https://leetcode.com/problems/palindrome-partitioning/description/" xr:uid="{3D554DDD-69F2-514B-AB62-6681A4C8D9E9}"/>
-    <hyperlink ref="C129" r:id="rId249" display="https://cspiration.com/login" xr:uid="{77ADBB5B-C4B0-BA41-B523-6037501B47FC}"/>
-    <hyperlink ref="B130" r:id="rId250" display="https://leetcode.com/problems/palindrome-partitioning-ii/description/" xr:uid="{2EE3B62D-DE1A-9B43-B7B9-DD5BC7909956}"/>
-    <hyperlink ref="C130" r:id="rId251" display="https://cspiration.com/login" xr:uid="{DE3A12D0-7A10-8A48-AA6A-4EB20AF5ED74}"/>
-    <hyperlink ref="B131" r:id="rId252" display="https://leetcode.com/problems/palindrome-permutation-ii/description/" xr:uid="{DAE3AF07-37E2-D84F-9440-6F2B7C462154}"/>
-    <hyperlink ref="C131" r:id="rId253" display="https://cspiration.com/login" xr:uid="{D5417E51-50EA-0340-A816-EAF49B27832E}"/>
-    <hyperlink ref="B133" r:id="rId254" display="https://leetcode.com/problems/valid-parentheses/description/" xr:uid="{5162F8D6-D1AC-1B48-84D8-C718241E77C6}"/>
-    <hyperlink ref="C133" r:id="rId255" display="https://cspiration.com/login" xr:uid="{E33963BD-EDE8-B444-9FE4-A164DD276599}"/>
-    <hyperlink ref="B134" r:id="rId256" display="https://leetcode.com/problems/generate-parentheses/description/" xr:uid="{27E9DC54-902B-8140-B2AF-FF3C0B328902}"/>
-    <hyperlink ref="C134" r:id="rId257" display="https://cspiration.com/login" xr:uid="{76B05C58-2CE8-7446-B20E-DB6B792BD7CE}"/>
-    <hyperlink ref="B135" r:id="rId258" display="https://leetcode.com/problems/longest-valid-parentheses/description/" xr:uid="{93BFDA6E-C5E2-5446-B0E7-1F588CB0F9F9}"/>
-    <hyperlink ref="C135" r:id="rId259" display="https://cspiration.com/login" xr:uid="{08A98D6B-A5D2-0240-B020-73F00034DD01}"/>
-    <hyperlink ref="B136" r:id="rId260" display="https://leetcode.com/problems/different-ways-to-add-parentheses/description/" xr:uid="{C7A0183D-11F8-4F42-BAB2-DF292085D33E}"/>
-    <hyperlink ref="C136" r:id="rId261" display="https://cspiration.com/login" xr:uid="{5208BF98-2FB1-7848-A23A-9D06E732E930}"/>
-    <hyperlink ref="B137" r:id="rId262" display="https://leetcode.com/problems/remove-invalid-parentheses/description/" xr:uid="{6D634869-2B87-0645-8D82-B0AFAB91068B}"/>
-    <hyperlink ref="C137" r:id="rId263" display="https://cspiration.com/login" xr:uid="{603A68C6-1773-D74E-84CE-E5454ED2BAB7}"/>
-    <hyperlink ref="B139" r:id="rId264" display="https://leetcode.com/problems/is-subsequence/description/" xr:uid="{EABAB5EC-7114-AE49-9B48-C4F7A425EC97}"/>
-    <hyperlink ref="C139" r:id="rId265" display="https://cspiration.com/login" xr:uid="{761B04B1-AA42-DF4C-92F9-13AE07931DE6}"/>
-    <hyperlink ref="B140" r:id="rId266" display="https://leetcode.com/problems/distinct-subsequences/description/" xr:uid="{871FC9E6-3224-864B-9B23-71549E73A4FC}"/>
-    <hyperlink ref="C140" r:id="rId267" display="https://cspiration.com/login" xr:uid="{C5087984-A06B-4248-8E74-E2539F4CAF6A}"/>
-    <hyperlink ref="B141" r:id="rId268" display="https://leetcode.com/problems/repeated-dna-sequences/description/" xr:uid="{52566213-99F8-BA41-B322-FDF32A868B37}"/>
-    <hyperlink ref="C141" r:id="rId269" display="https://cspiration.com/login" xr:uid="{149752EA-7A00-384E-BE6B-4D94705BC736}"/>
-    <hyperlink ref="B311" r:id="rId270" display="https://leetcode.com/problems/clone-graph/description/" xr:uid="{17716DFB-246E-F541-ADE8-3C4BD1A5E4A4}"/>
-    <hyperlink ref="C311" r:id="rId271" display="https://cspiration.com/login" xr:uid="{C1525D83-A13A-C447-8396-6EBF12F9B87D}"/>
-    <hyperlink ref="B312" r:id="rId272" display="https://leetcode.com/problems/evaluate-division/description/" xr:uid="{EAD87AE8-0480-3C4B-807B-D62A0472E319}"/>
-    <hyperlink ref="C312" r:id="rId273" display="https://cspiration.com/login" xr:uid="{43BD2347-F360-C04E-8364-8BBF7050275F}"/>
-    <hyperlink ref="B313" r:id="rId274" display="https://leetcode.com/problems/minimum-height-trees/description/" xr:uid="{BFD584EF-C833-874F-869D-8CC1D25F985B}"/>
-    <hyperlink ref="C313" r:id="rId275" display="https://cspiration.com/login" xr:uid="{7F15D8C0-1B84-FC4E-8CD8-570269CEFD38}"/>
+    <hyperlink ref="B205" r:id="rId1" display="https://leetcode.com/problems/permutation-sequence/description/" xr:uid="{7470F00A-0C28-9542-8BB8-840C29E37DA8}"/>
+    <hyperlink ref="C205" r:id="rId2" display="https://cspiration.com/login" xr:uid="{E339835C-3FF5-154D-83A5-D922A203F2B3}"/>
+    <hyperlink ref="B206" r:id="rId3" display="https://leetcode.com/problems/word-pattern-ii/description/" xr:uid="{475D2E19-9E2A-5A40-9967-744727496941}"/>
+    <hyperlink ref="C206" r:id="rId4" display="https://cspiration.com/login" xr:uid="{EE42A40A-13BC-BE4B-A326-E559CD4D7078}"/>
+    <hyperlink ref="B207" r:id="rId5" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/" xr:uid="{8410A8D8-2A96-2545-A707-B152E3483747}"/>
+    <hyperlink ref="C207" r:id="rId6" display="https://cspiration.com/login" xr:uid="{36FD5254-8C9A-0E48-AFDE-6B5494DFC976}"/>
+    <hyperlink ref="B208" r:id="rId7" display="https://leetcode.com/problems/generalized-abbreviation/description/" xr:uid="{A694FCD3-9DE6-C040-AE34-B16162B92776}"/>
+    <hyperlink ref="C208" r:id="rId8" display="https://cspiration.com/login" xr:uid="{C42B1CFF-4402-C94B-A66E-E0E82DDAA67D}"/>
+    <hyperlink ref="B209" r:id="rId9" display="https://leetcode.com/problems/expression-add-operators/description/" xr:uid="{C3D6AF2C-B408-D844-B031-4DA29F73A880}"/>
+    <hyperlink ref="C209" r:id="rId10" display="https://cspiration.com/login" xr:uid="{5902E035-85D4-EF41-889F-43801918206D}"/>
+    <hyperlink ref="B210" r:id="rId11" display="https://leetcode.com/problems/word-break-ii/description/" xr:uid="{C875713A-B2BF-C74B-AF74-39845CD139B9}"/>
+    <hyperlink ref="C210" r:id="rId12" display="https://cspiration.com/login" xr:uid="{05136ABA-F832-6444-9448-22BAD9D990D5}"/>
+    <hyperlink ref="B211" r:id="rId13" display="https://leetcode.com/problems/android-unlock-patterns/description/" xr:uid="{D4D2A625-1C06-594E-9061-782BDAF31A24}"/>
+    <hyperlink ref="B217" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/description/" xr:uid="{EBAE420C-2F6E-2947-9A9A-EC2C6413488B}"/>
+    <hyperlink ref="C217" r:id="rId15" display="https://cspiration.com/login" xr:uid="{1553DB48-9774-2A44-8A95-6A09994C2802}"/>
+    <hyperlink ref="B218" r:id="rId16" display="https://leetcode.com/problems/unique-paths/description/" xr:uid="{95F59D7D-71AD-9C45-8332-BEEF446345DD}"/>
+    <hyperlink ref="C218" r:id="rId17" display="https://cspiration.com/login" xr:uid="{B50BC24B-E5ED-224E-BBD2-FEDB59A4B9C8}"/>
+    <hyperlink ref="B219" r:id="rId18" display="https://leetcode.com/problems/unique-paths-ii/description/" xr:uid="{3C785738-AF2C-7D49-A676-40642165F7E9}"/>
+    <hyperlink ref="C219" r:id="rId19" display="https://cspiration.com/login" xr:uid="{D139F891-E2F5-8A4E-845C-1152D649243B}"/>
+    <hyperlink ref="B220" r:i